--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1279.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1279.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8608268990399346</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04304134495199673</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04304134495199673</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06886615192319477</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06162116313703912</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01162116313703911</v>
+        <v>0.01383552884441011</v>
       </c>
       <c r="B65" t="n">
-        <v>0.007741631509790886</v>
+        <v>0.009216768131851202</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001191096586408584</v>
+        <v>0.002398801591650498</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007399579760010828</v>
+        <v>0.0007769960982954163</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002304198098262059</v>
+        <v>0.006812215094292084</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007685066571777388</v>
+        <v>0.0007692633107193213</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005544299042161388</v>
+        <v>0.01047693213799189</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007020969196632693</v>
+        <v>0.0007674724811551904</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.0110448244827076</v>
+        <v>0.002398801591650498</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007574884929040886</v>
+        <v>0.0007769960982954163</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.00319953219287536</v>
+        <v>0.004827855351925849</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001479915952002166</v>
+        <v>0.001553992196590833</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.004464244520660625</v>
+        <v>0.01340700474707429</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001537013314355478</v>
+        <v>0.001538526621438643</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.00899999999999998</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001211212121212118</v>
+        <v>0.001474621359223302</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01800000000000002</v>
+        <v>0.004827855351925849</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001332333333333334</v>
+        <v>0.001553992196590833</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.007095822434184496</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002580543836596962</v>
+        <v>0.002330988294886249</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.006345138419753135</v>
+        <v>0.01838278006200109</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002305519971533217</v>
+        <v>0.002307789932157964</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01359922645146611</v>
+        <v>0.0250422847317745</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002106290758989808</v>
+        <v>0.002302417443465571</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02559232276518314</v>
+        <v>0.007095822434184496</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002272465478712266</v>
+        <v>0.002330988294886249</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007004353734026761</v>
+        <v>0.00891136399178491</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002959831904004331</v>
+        <v>0.003107984393181665</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.008</v>
+        <v>0.02099999999999999</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.0031976</v>
+        <v>0.002770198019801978</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01647531613784034</v>
+        <v>0.03164466413596828</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002808387678653077</v>
+        <v>0.003069889924620762</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03125575977738293</v>
+        <v>0.00891136399178491</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003029953971616354</v>
+        <v>0.003107984393181665</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002580543836596962</v>
+        <v>0.004396699999999998</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.011</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007961444114020194</v>
+        <v>0.01018314117808552</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003699789880005414</v>
+        <v>0.003884980491477081</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008785323232295771</v>
+        <v>0.02428686126052401</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003842533285888695</v>
+        <v>0.003846316553596607</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.0195642475394821</v>
+        <v>0.03632071023000272</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003510484598316346</v>
+        <v>0.003837362405775952</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03606301902526765</v>
+        <v>0.01018314117808552</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003787442464520443</v>
+        <v>0.003884980491477081</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008791524409657921</v>
+        <v>0.011</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004439747856006497</v>
+        <v>0.004396699999999998</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.009604324952336457</v>
+        <v>0.02644794321762028</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004611039943066433</v>
+        <v>0.004615579864315928</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02226997202981454</v>
+        <v>0.04025708824346952</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004212581517979616</v>
+        <v>0.004604834886931143</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0410058280659153</v>
+        <v>0.011</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004544930957424531</v>
+        <v>0.004396699999999998</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007520249127049038</v>
+        <v>0.01176732411677318</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005179705832007579</v>
+        <v>0.005438972688067914</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01050353675907126</v>
+        <v>0.02784680072002521</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005379546600244172</v>
+        <v>0.005384843175035249</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02449644098226089</v>
+        <v>0.0441404634059604</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004914678437642884</v>
+        <v>0.005372307368086333</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04417591445640334</v>
+        <v>0.01176732411677318</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00530241945032862</v>
+        <v>0.005438972688067914</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009173272772302669</v>
+        <v>0.01237008040571762</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005919663808008662</v>
+        <v>0.00621596878636333</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01111259876682748</v>
+        <v>0.02895483656191888</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006148053257421911</v>
+        <v>0.006154106485754571</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02694760577024446</v>
+        <v>0.04617027607763036</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005616775357306154</v>
+        <v>0.005972252216255291</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04617027607763036</v>
+        <v>0.01237008040571762</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005695759058095324</v>
+        <v>0.00621596878636333</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008776249851527938</v>
+        <v>0.01258883812767168</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006659621784009744</v>
+        <v>0.006992964884658746</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01186115108993238</v>
+        <v>0.03000290246102022</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00691655991459965</v>
+        <v>0.006596347697288107</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02892741776718849</v>
+        <v>0.04795682814025082</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006318872276969424</v>
+        <v>0.006907252330396714</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04917562653911395</v>
+        <v>0.01258883812767168</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006817396436136797</v>
+        <v>0.006992964884658746</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01162116313703911</v>
+        <v>0.01295847703410809</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007741631509790886</v>
+        <v>0.007769960982954162</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01257883384271326</v>
+        <v>0.03121932831771865</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007685066571777389</v>
+        <v>0.007692633107193213</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03000290246102022</v>
+        <v>0.04948994576605825</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.006729607246728271</v>
+        <v>0.007674724811551905</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05264707384843448</v>
+        <v>0.01295847703410809</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007574884929040886</v>
+        <v>0.007769960982954162</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.009933934119643217</v>
+        <v>0.01331387687649954</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00813953773601191</v>
+        <v>0.008546957081249579</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01299528713949734</v>
+        <v>0.03226931075031597</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008453573228955128</v>
+        <v>0.008461896417912534</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03193783331540828</v>
+        <v>0.05148364588133031</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007723066116295962</v>
+        <v>0.008442197292707095</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05456051028418052</v>
+        <v>0.01331387687649954</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008332373421944974</v>
+        <v>0.008546957081249579</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01052402400765755</v>
+        <v>0.01383552884441011</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008879495712012993</v>
+        <v>0.009216768131851202</v>
       </c>
       <c r="J77" t="n">
+        <v>0.03330712699962529</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.009231159728631855</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.05313794892007612</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.009209669773862285</v>
+      </c>
+      <c r="N77" t="n">
         <v>0.01383552884441011</v>
       </c>
-      <c r="K77" t="n">
+      <c r="O77" t="n">
         <v>0.009216768131851202</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.03349651815818952</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.008425163035959232</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.05681179722329871</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.009089861914849062</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01312254461268061</v>
+        <v>0.01408465827115006</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009619453688014076</v>
+        <v>0.01010094927784041</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01452726396370964</v>
+        <v>0.03453230118207623</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009990586543310606</v>
+        <v>0.01000042303935118</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03513408865550469</v>
+        <v>0.05555287531630471</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009127259955622502</v>
+        <v>0.009977142255017475</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05989679604273568</v>
+        <v>0.01408465827115006</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009847350407753152</v>
+        <v>0.01010094927784041</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01172646740447308</v>
+        <v>0.01448633885758926</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01035941166401516</v>
+        <v>0.01087794537613583</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01524669924869367</v>
+        <v>0.03554435741409859</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01075909320048834</v>
+        <v>0.0107696863500705</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03684711765844839</v>
+        <v>0.0565284455040253</v>
       </c>
       <c r="M79" t="n">
-        <v>0.009829356875285768</v>
+        <v>0.01074461473617267</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06211136811943785</v>
+        <v>0.01448633885758926</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01060483890065724</v>
+        <v>0.01087794537613583</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01333276385279562</v>
+        <v>0.01489379364434526</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01109936964001624</v>
+        <v>0.01165494147443124</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01579204935780658</v>
+        <v>0.03634281981212198</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01152759985766608</v>
+        <v>0.01153894966078982</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03783217801811511</v>
+        <v>0.05856467991724723</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01053145379494904</v>
+        <v>0.01151208721732786</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06425137483035176</v>
+        <v>0.01489379364434526</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01136232739356133</v>
+        <v>0.01165494147443124</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01393840542740891</v>
+        <v>0.01550628523827195</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01183932761601732</v>
+        <v>0.01243193757272666</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01675690715684887</v>
+        <v>0.03702721249257621</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01229610651484382</v>
+        <v>0.01230821297150914</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03928584258559936</v>
+        <v>0.06036159898997961</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01123355071461231</v>
+        <v>0.01227955969848305</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06581267755242409</v>
+        <v>0.01550628523827195</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01211981588646542</v>
+        <v>0.01243193757272666</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0135403635980736</v>
+        <v>0.01582307624622313</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01257928559201841</v>
+        <v>0.01320893367102208</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01733486551162085</v>
+        <v>0.03809705957189088</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01306461317202156</v>
+        <v>0.01307747628222846</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04120468421199563</v>
+        <v>0.06181922315623156</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01193564763427558</v>
+        <v>0.01304703217963824</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06819113766260126</v>
+        <v>0.01582307624622313</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01287730437936951</v>
+        <v>0.01320893367102208</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01413560983455037</v>
+        <v>0.0163434292750527</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01331924356801949</v>
+        <v>0.01398592976931749</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01811951728792302</v>
+        <v>0.03895188516649581</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0138331198291993</v>
+        <v>0.01384673959294778</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04258527574839846</v>
+        <v>0.06273757285001214</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01263774455393885</v>
+        <v>0.01381450466079343</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07068261653782987</v>
+        <v>0.0163434292750527</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01363479287227359</v>
+        <v>0.01398592976931749</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01572111560659988</v>
+        <v>0.01656660693161449</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01405920154402057</v>
+        <v>0.01476292586761291</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01910445535155576</v>
+        <v>0.04039121339282059</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01460162648637704</v>
+        <v>0.01461600290366711</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04362419004590234</v>
+        <v>0.06451666850533078</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01333984147360212</v>
+        <v>0.01458197714194862</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07198297555505639</v>
+        <v>0.01656660693161449</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01439228136517768</v>
+        <v>0.01476292586761291</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01529385238398281</v>
+        <v>0.0171918718227624</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01479915952002166</v>
+        <v>0.01553992196590832</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0198832725683195</v>
+        <v>0.04091456836729507</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01537013314355478</v>
+        <v>0.01538526621438643</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04471799995560177</v>
+        <v>0.06605653055619654</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01404193839326538</v>
+        <v>0.01534944962310381</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07448807609122748</v>
+        <v>0.0171918718227624</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01514976985808177</v>
+        <v>0.01553992196590832</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01585079163645982</v>
+        <v>0.01751848655535021</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01553911749602274</v>
+        <v>0.01631691806420374</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02054956180401464</v>
+        <v>0.04232147420634885</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01613863980073252</v>
+        <v>0.01615452952510575</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04596327832859129</v>
+        <v>0.06765717943661859</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01474403531292865</v>
+        <v>0.016116922104259</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07539377952328963</v>
+        <v>0.01751848655535021</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01590725835098586</v>
+        <v>0.01631691806420374</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01638890483379157</v>
+        <v>0.01794571373623187</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01627907547202382</v>
+        <v>0.01709391416249916</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02129691592444161</v>
+        <v>0.04261145502641167</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01690714645791026</v>
+        <v>0.01692379283582507</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04725659801596541</v>
+        <v>0.06921863558060593</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01544613223259192</v>
+        <v>0.01688439458541419</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07759594722818941</v>
+        <v>0.01794571373623187</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01666474684388995</v>
+        <v>0.01709391416249916</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01690516344573875</v>
+        <v>0.01847281597226116</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0170190334480249</v>
+        <v>0.01787091026079457</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02211892779540084</v>
+        <v>0.04398403494391329</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01767565311508799</v>
+        <v>0.01769305614654439</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04839453186881862</v>
+        <v>0.07044091942216801</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01614822915225519</v>
+        <v>0.01765186706656938</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07839044058287337</v>
+        <v>0.01847281597226116</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01742223533679403</v>
+        <v>0.01787091026079457</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01939653894206201</v>
+        <v>0.01889905587029198</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01775899142402599</v>
+        <v>0.01864790635908999</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0226091902826927</v>
+        <v>0.04443873807528331</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01844415977226573</v>
+        <v>0.01846231945726371</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04937365273824548</v>
+        <v>0.07172405139531396</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01685032607191846</v>
+        <v>0.01841933954772457</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08017312096428802</v>
+        <v>0.01889905587029198</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01817972382969812</v>
+        <v>0.01864790635908999</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01886000279252203</v>
+        <v>0.01932369603717816</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01849894940002707</v>
+        <v>0.0194249024573854</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02326129625211766</v>
+        <v>0.04577508853695156</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01921266642944347</v>
+        <v>0.01923158276798303</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05059053347534043</v>
+        <v>0.07246805193405281</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01755242299158173</v>
+        <v>0.01918681202887976</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08163984974937982</v>
+        <v>0.01932369603717816</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01893721232260221</v>
+        <v>0.0194249024573854</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01829252646687946</v>
+        <v>0.01974599907977358</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01923890737602815</v>
+        <v>0.02020189855568082</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02406883856947611</v>
+        <v>0.04649261044534767</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01998117308662121</v>
+        <v>0.02000084607870235</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05124174693119804</v>
+        <v>0.07427294147239383</v>
       </c>
       <c r="M91" t="n">
-        <v>0.018254519911245</v>
+        <v>0.01995428451003495</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08248648831509553</v>
+        <v>0.01974599907977358</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0196947008155063</v>
+        <v>0.02020189855568082</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02069108143489497</v>
+        <v>0.01996522760493206</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01997886535202923</v>
+        <v>0.02097889465397624</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02452541010056845</v>
+        <v>0.04699082791690135</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02074967974379895</v>
+        <v>0.02077010938942167</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05222386595691272</v>
+        <v>0.07453874044434616</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01895661683090827</v>
+        <v>0.02072175699119014</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08360889803838151</v>
+        <v>0.01996522760493206</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02045218930841039</v>
+        <v>0.02097889465397624</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01905263916632927</v>
+        <v>0.0204806442195075</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02071882332803032</v>
+        <v>0.02175589075227165</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02492460371119512</v>
+        <v>0.04756926506804238</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02151818640097669</v>
+        <v>0.02153937270014099</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05333346340357917</v>
+        <v>0.07586546928391907</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01965871375057154</v>
+        <v>0.02148922947234533</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08450294029618444</v>
+        <v>0.0204806442195075</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02120967780131448</v>
+        <v>0.02175589075227165</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02137417113094297</v>
+        <v>0.02089151153035372</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0214587813040314</v>
+        <v>0.02253288685056707</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02546001226715655</v>
+        <v>0.0485274460152004</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02228669305815443</v>
+        <v>0.02230863601086032</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05426711212229171</v>
+        <v>0.07695314842512152</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02036081067023481</v>
+        <v>0.02225670195350052</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08496447646545074</v>
+        <v>0.02089151153035372</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02196716629421857</v>
+        <v>0.02253288685056707</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02065264879849677</v>
+        <v>0.02139709214432461</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02219873928003248</v>
+        <v>0.02330988294886249</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02572522863425313</v>
+        <v>0.04966489487480513</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02305519971533217</v>
+        <v>0.02307789932157964</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05482138496414493</v>
+        <v>0.07840179830196292</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02106290758989808</v>
+        <v>0.02302417443465571</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08558936792312699</v>
+        <v>0.02139709214432461</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02272465478712266</v>
+        <v>0.02330988294886249</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02188504363875133</v>
+        <v>0.02169664866827399</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02293869725603356</v>
+        <v>0.0240868790471579</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02601384567828528</v>
+        <v>0.0502811357632863</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0238237063725099</v>
+        <v>0.02384716263229896</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05499285478023336</v>
+        <v>0.07971143934845232</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02176500450956135</v>
+        <v>0.0237916469158109</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08687347604615991</v>
+        <v>0.02169664866827399</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02348214328002675</v>
+        <v>0.0240868790471579</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02006832712146734</v>
+        <v>0.02218944370905576</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02367865523203465</v>
+        <v>0.02486387514545332</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02621945626505341</v>
+        <v>0.05097569279707359</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02459221302968764</v>
+        <v>0.02461642594301828</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05557809442165149</v>
+        <v>0.07988209199859891</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02246710142922462</v>
+        <v>0.02455911939696609</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08661266221149577</v>
+        <v>0.02218944370905576</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02423963177293083</v>
+        <v>0.02486387514545332</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02219947071640543</v>
+        <v>0.02257473987352372</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02441861320803573</v>
+        <v>0.02564087124374874</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02643565326035796</v>
+        <v>0.05134809009259675</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02536071968686538</v>
+        <v>0.0253856892537376</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05607367673949382</v>
+        <v>0.08151377668641185</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02316919834888789</v>
+        <v>0.02532659187812128</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08740278779608129</v>
+        <v>0.02257473987352372</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02499712026583492</v>
+        <v>0.02564087124374874</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02227544589332629</v>
+        <v>0.02275179976853177</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02515857118403681</v>
+        <v>0.02641786734204415</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02645679846628961</v>
+        <v>0.05179785176628549</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02612922634404312</v>
+        <v>0.02615495256445692</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05637617458485486</v>
+        <v>0.08210651384590034</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02387129526855115</v>
+        <v>0.02609406435927647</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08683485757267861</v>
+        <v>0.02275179976853177</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02575460875873901</v>
+        <v>0.02641786734204415</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02229310178802937</v>
+        <v>0.02321988600093375</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0258985291600379</v>
+        <v>0.02719486344033957</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0263935936565471</v>
+        <v>0.05302450193456951</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02689773300122086</v>
+        <v>0.02692421587517625</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05668216080882918</v>
+        <v>0.08296032391107366</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02457339218821443</v>
+        <v>0.02686153684043166</v>
       </c>
       <c r="N100" t="n">
-        <v>0.08701575655304039</v>
+        <v>0.02321988600093375</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0265120972516431</v>
+        <v>0.02719486344033957</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0212479682863786</v>
+        <v>0.02347826117758352</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02663848713603898</v>
+        <v>0.02797185953863499</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02635870410701525</v>
+        <v>0.05362756471387847</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0276662396583986</v>
+        <v>0.02769347918589557</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05678820826251121</v>
+        <v>0.0835752273159408</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02527548910787769</v>
+        <v>0.02762900932158686</v>
       </c>
       <c r="N101" t="n">
-        <v>0.08633445144884744</v>
+        <v>0.02347826117758352</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02726958574454719</v>
+        <v>0.02797185953863499</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02114442544108224</v>
+        <v>0.02382618790533494</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02737844511204006</v>
+        <v>0.0287488556369304</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02606164102808495</v>
+        <v>0.0537065642206421</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02843474631557634</v>
+        <v>0.02846274249661489</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05668783655952478</v>
+        <v>0.08495124449451091</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02597758602754096</v>
+        <v>0.02839648180274204</v>
       </c>
       <c r="N102" t="n">
-        <v>0.08602168109481445</v>
+        <v>0.02382618790533494</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02802707423745128</v>
+        <v>0.0287488556369304</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02198985716904404</v>
+        <v>0.02436292879104185</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02811840308804114</v>
+        <v>0.02952585173522582</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02591191563014704</v>
+        <v>0.05466102457129018</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02920325297275408</v>
+        <v>0.02923200580733421</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05666267542962894</v>
+        <v>0.08568839588079341</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02667968294720423</v>
+        <v>0.02916395428389723</v>
       </c>
       <c r="N103" t="n">
-        <v>0.08470818432565619</v>
+        <v>0.02436292879104185</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02878456273035537</v>
+        <v>0.02952585173522582</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01979164738716769</v>
+        <v>0.02468774644155812</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02885836106404223</v>
+        <v>0.03030284783352123</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02541903912359239</v>
+        <v>0.05509046988225233</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02997175962993182</v>
+        <v>0.03000126911805353</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05662000450467053</v>
+        <v>0.08608670190879725</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0273817798668675</v>
+        <v>0.02993142676505242</v>
       </c>
       <c r="N104" t="n">
-        <v>0.08402469997608752</v>
+        <v>0.02468774644155812</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02954205122325946</v>
+        <v>0.03030284783352123</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01955718001235688</v>
+        <v>0.02499990346373762</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02959831904004331</v>
+        <v>0.03107984393181665</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02519252271881189</v>
+        <v>0.0553944242699583</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03074026628710956</v>
+        <v>0.03077053242877285</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05607159256455599</v>
+        <v>0.0870461830125317</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02808387678653077</v>
+        <v>0.03069889924620762</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08190196688082313</v>
+        <v>0.02499990346373762</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03029953971616355</v>
+        <v>0.03107984393181665</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01929383896151533</v>
+        <v>0.02509866246443417</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0303382770160444</v>
+        <v>0.03185684003011207</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02474187762619641</v>
+        <v>0.05597241185083782</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03150877294428729</v>
+        <v>0.03153979573949217</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05582920838919195</v>
+        <v>0.08706685962600591</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02878597370619404</v>
+        <v>0.0314663717273628</v>
       </c>
       <c r="N106" t="n">
-        <v>0.08107072387457775</v>
+        <v>0.02509866246443417</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03105702820906763</v>
+        <v>0.03185684003011207</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02100900815154672</v>
+        <v>0.02538328605050164</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03107823499204547</v>
+        <v>0.03263383612840748</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0245766150561368</v>
+        <v>0.05642395674132056</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03227727960146504</v>
+        <v>0.0323090590502115</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05520462075848495</v>
+        <v>0.08744875218322906</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02948807062585731</v>
+        <v>0.03223384420851799</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07996170979206629</v>
+        <v>0.02538328605050164</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03181451670197172</v>
+        <v>0.03263383612840748</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01971007149935477</v>
+        <v>0.0257530368287939</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03181819296804655</v>
+        <v>0.03341083222670289</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02400624621902393</v>
+        <v>0.05674858305783623</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03304578625864277</v>
+        <v>0.03307832236093081</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05460959845234151</v>
+        <v>0.08799188111821032</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03019016754552058</v>
+        <v>0.03300131668967319</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07820566346800328</v>
+        <v>0.0257530368287939</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03257200519487581</v>
+        <v>0.03341083222670289</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02040441292184319</v>
+        <v>0.02610717740616481</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03255815094404764</v>
+        <v>0.03418782832499832</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02384028232524867</v>
+        <v>0.0575458149168146</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03381429291582051</v>
+        <v>0.03384758567165014</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0534559102506682</v>
+        <v>0.08839626686495888</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03089226446518385</v>
+        <v>0.03376878917082838</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07633332373710366</v>
+        <v>0.02610717740616481</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0333294936877799</v>
+        <v>0.03418782832499832</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01909941633591566</v>
+        <v>0.02614497038946821</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03329810892004872</v>
+        <v>0.03496482442329373</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02328823458520186</v>
+        <v>0.05771517643468527</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03458279957299825</v>
+        <v>0.03461684898236946</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0532553249333716</v>
+        <v>0.08976192985748388</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03159436138484711</v>
+        <v>0.03453626165198356</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07487542943408221</v>
+        <v>0.02614497038946821</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03408698218068398</v>
+        <v>0.03496482442329373</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01980246565847591</v>
+        <v>0.02656567838555794</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0340380668960498</v>
+        <v>0.03574182052158915</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02305961420927444</v>
+        <v>0.05795619172787808</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03535130623017599</v>
+        <v>0.03538611229308878</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05251961128035823</v>
+        <v>0.08958889052979457</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03229645830451039</v>
+        <v>0.03530373413313875</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07416271939365365</v>
+        <v>0.02656567838555794</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03484447067358807</v>
+        <v>0.03574182052158915</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01752094480642762</v>
+        <v>0.0267685640012879</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03477802487205089</v>
+        <v>0.03651881661988456</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02286393240785721</v>
+        <v>0.05836838491282262</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03611981288735373</v>
+        <v>0.0361553756038081</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05156053807153463</v>
+        <v>0.08997716931590005</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03299855522417366</v>
+        <v>0.03607120661429395</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07272593245053266</v>
+        <v>0.0267685640012879</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03560195916649216</v>
+        <v>0.03651881661988456</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0182622376966745</v>
+        <v>0.0267528898435119</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03551798284805197</v>
+        <v>0.03729581271817998</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02251070039134107</v>
+        <v>0.05865128010594867</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03688831954453146</v>
+        <v>0.03692463891452742</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05078987408680738</v>
+        <v>0.09032678664980948</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03370065214383693</v>
+        <v>0.03683867909544914</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07089580743943408</v>
+        <v>0.0267528898435119</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03635944765939625</v>
+        <v>0.03729581271817998</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01803372824612026</v>
+        <v>0.02711791851908385</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03625794082405306</v>
+        <v>0.0380728088164754</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02230942937011687</v>
+        <v>0.05850440142368593</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0376568262017092</v>
+        <v>0.03769390222524674</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05021938810608301</v>
+        <v>0.09103776296553207</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03440274906350019</v>
+        <v>0.03760615157660433</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07020308319507274</v>
+        <v>0.02711791851908385</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03711693615230034</v>
+        <v>0.0380728088164754</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0178428003716686</v>
+        <v>0.02726291263485754</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03699789880005414</v>
+        <v>0.03884980491477081</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02226963055457548</v>
+        <v>0.0593272729824641</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03842533285888695</v>
+        <v>0.03846316553596606</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04936084890926812</v>
+        <v>0.09141011869707705</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03510484598316346</v>
+        <v>0.03837362405775951</v>
       </c>
       <c r="N115" t="n">
-        <v>0.06897849855216331</v>
+        <v>0.02726291263485754</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03787442464520443</v>
+        <v>0.03884980491477081</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01869683799022322</v>
+        <v>0.02738713479768688</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03773785677605521</v>
+        <v>0.03962680101306622</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02220081515510779</v>
+        <v>0.05941941889871291</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03919383951606468</v>
+        <v>0.03923242884668538</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04872602527626918</v>
+        <v>0.09174387427845349</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03580694290282673</v>
+        <v>0.03914109653891471</v>
       </c>
       <c r="N116" t="n">
-        <v>0.06845279234542057</v>
+        <v>0.02738713479768688</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03863191313810852</v>
+        <v>0.03962680101306622</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01860322501868782</v>
+        <v>0.0273898476144257</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03847781475205631</v>
+        <v>0.04040379711136164</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02200327414245296</v>
+        <v>0.059180363288862</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03996234617324242</v>
+        <v>0.04000169215740471</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04812668598699282</v>
+        <v>0.09173905014367056</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03650903982249001</v>
+        <v>0.0399085690200699</v>
       </c>
       <c r="N117" t="n">
-        <v>0.06765670340955932</v>
+        <v>0.0273898476144257</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03938940163101261</v>
+        <v>0.04040379711136164</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0165693453739661</v>
+        <v>0.02757031369192786</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03921777272805739</v>
+        <v>0.04118079320965706</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02224735783488897</v>
+        <v>0.05950963026934117</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04073085283042016</v>
+        <v>0.04077095546812402</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04697459982134558</v>
+        <v>0.09199566672673759</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03721113674215328</v>
+        <v>0.04067604150122509</v>
       </c>
       <c r="N118" t="n">
-        <v>0.06822097057929433</v>
+        <v>0.02757031369192786</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04014689012391669</v>
+        <v>0.04118079320965706</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01858224503601973</v>
+        <v>0.02742779563704723</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03995773070405847</v>
+        <v>0.04195778930795248</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02232739652599289</v>
+        <v>0.05980674395658009</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0414993594875979</v>
+        <v>0.04154021877884335</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04648153555923398</v>
+        <v>0.09171374446166364</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03791323366181654</v>
+        <v>0.04144351398238028</v>
       </c>
       <c r="N119" t="n">
-        <v>0.06774009469436448</v>
+        <v>0.02742779563704723</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04090437861682078</v>
+        <v>0.04195778930795248</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0176211039089932</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04069768868005955</v>
+        <v>0.04273478540624789</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02244053358748554</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04226786614477564</v>
+        <v>0.04230948208956267</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04585926198056459</v>
+        <v>0.09169330378245782</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03861533058147981</v>
+        <v>0.04221098646353547</v>
       </c>
       <c r="N120" t="n">
-        <v>0.06791260852000763</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04166186710972487</v>
+        <v>0.04273478540624789</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01668418838125905</v>
+        <v>0.02767103033286231</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04143764665606063</v>
+        <v>0.04351178150454331</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02258391239108769</v>
+        <v>0.05980260791705599</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04303637280195338</v>
+        <v>0.04307874540028199</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04541954786524394</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03931742750114307</v>
+        <v>0.04297845894469066</v>
       </c>
       <c r="N121" t="n">
-        <v>0.06862134702445954</v>
+        <v>0.02767103033286231</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04241935560262896</v>
+        <v>0.04351178150454331</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01776977539330739</v>
+        <v>0.02766888246284793</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04217760463206172</v>
+        <v>0.04428877760283872</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02265467630852011</v>
+        <v>0.05940167593883161</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04380487945913112</v>
+        <v>0.04384800871100131</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0452741619931786</v>
+        <v>0.09193792649121385</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04001952442080634</v>
+        <v>0.04374593142584585</v>
       </c>
       <c r="N122" t="n">
-        <v>0.06825661599317978</v>
+        <v>0.02766888246284793</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04317684409553305</v>
+        <v>0.04428877760283872</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01687614188562833</v>
+        <v>0.0276633168675757</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0429175626080628</v>
+        <v>0.04506577370113414</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02274996871150362</v>
+        <v>0.05947445323130798</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04457338611630885</v>
+        <v>0.04461727202172063</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0452348731442751</v>
+        <v>0.09221207658503083</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04072162134046962</v>
+        <v>0.04451340390700104</v>
       </c>
       <c r="N123" t="n">
-        <v>0.06910872121162842</v>
+        <v>0.0276633168675757</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04393433258843713</v>
+        <v>0.04506577370113414</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01800156479871197</v>
+        <v>0.02755435004020837</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04365752058406388</v>
+        <v>0.04584276979942956</v>
       </c>
       <c r="J124" t="n">
-        <v>0.023066932971759</v>
+        <v>0.05952253603769728</v>
       </c>
       <c r="K124" t="n">
-        <v>0.0453418927734866</v>
+        <v>0.04538653533243995</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04491345009844006</v>
+        <v>0.09175931323445957</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04142371826013289</v>
+        <v>0.04528087638815623</v>
       </c>
       <c r="N124" t="n">
-        <v>0.07026796846526506</v>
+        <v>0.02755435004020837</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04469182108134123</v>
+        <v>0.04584276979942956</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01714432107304843</v>
+        <v>0.02744199847390877</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04439747856006496</v>
+        <v>0.04661976589772497</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02330271246100703</v>
+        <v>0.05974680822799158</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04611039943066433</v>
+        <v>0.04615579864315927</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04461785502457455</v>
+        <v>0.0916805012660924</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04212581517979615</v>
+        <v>0.04604834886931142</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07042466353954946</v>
+        <v>0.02744199847390877</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04544930957424532</v>
+        <v>0.04661976589772497</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01830268764912781</v>
+        <v>0.02762627866183971</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04513743653606605</v>
+        <v>0.04739676199602039</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0235544505509685</v>
+        <v>0.05914815367218285</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04687890608784207</v>
+        <v>0.0469250619538786</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04493348283318818</v>
+        <v>0.09137650550652149</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04282791209945942</v>
+        <v>0.04681582135046661</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07186911221994158</v>
+        <v>0.02762627866183971</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0462067980671494</v>
+        <v>0.04739676199602039</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01947494146744021</v>
+        <v>0.02750720709716398</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04587739451206713</v>
+        <v>0.04817375809431581</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0237192906133642</v>
+        <v>0.05932745624026312</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04764741274501981</v>
+        <v>0.04769432526459792</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04555040977281191</v>
+        <v>0.09134819078233908</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04353000901912269</v>
+        <v>0.0475832938316218</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07279162029190106</v>
+        <v>0.02750720709716398</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04696428656005349</v>
+        <v>0.04817375809431581</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01865935946847577</v>
+        <v>0.02758480027304437</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04661735248806821</v>
+        <v>0.04895075419261122</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02419437601991493</v>
+        <v>0.05948559980222443</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04841591940219755</v>
+        <v>0.04846358857531724</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04576046588692553</v>
+        <v>0.09169642192013744</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04423210593878596</v>
+        <v>0.048350766312777</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07378249354088778</v>
+        <v>0.02758480027304437</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04772177505295758</v>
+        <v>0.04895075419261122</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01785421859272458</v>
+        <v>0.02745907468264371</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0473573104640693</v>
+        <v>0.04972775029090664</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02437685014234146</v>
+        <v>0.05902346822805882</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04918442605937529</v>
+        <v>0.04923285188603656</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04615548121900878</v>
+        <v>0.09112206374650889</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04493420285844923</v>
+        <v>0.04911823879393219</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07433203775236147</v>
+        <v>0.02745907468264371</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04847926354586167</v>
+        <v>0.04972775029090664</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01905779578067673</v>
+        <v>0.02733004681912475</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04809726844007038</v>
+        <v>0.05050474638920206</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0247638563523646</v>
+        <v>0.05904194538775828</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04995293271655303</v>
+        <v>0.05000211519675588</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04632728581254145</v>
+        <v>0.0910259810880456</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0456362997781125</v>
+        <v>0.04988571127508738</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07583055871178196</v>
+        <v>0.02733004681912475</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04923675203876576</v>
+        <v>0.05050474638920206</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01926836797282235</v>
+        <v>0.02739773317565036</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04883722641607146</v>
+        <v>0.05128174248749747</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02505253802170511</v>
+        <v>0.05864191515131489</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05072143937373077</v>
+        <v>0.05077137850747521</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04706770971100338</v>
+        <v>0.09080903877133983</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04633839669777577</v>
+        <v>0.05065318375624257</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07666836220460893</v>
+        <v>0.02739773317565036</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04999424053166984</v>
+        <v>0.05128174248749747</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01848421210965156</v>
+        <v>0.0274621502453833</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04957718439207254</v>
+        <v>0.05205873858579289</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02534003852208379</v>
+        <v>0.05812426138872059</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05148994603090851</v>
+        <v>0.05154064181819453</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04776858295787437</v>
+        <v>0.09027210162298394</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04704049361743904</v>
+        <v>0.05142065623739776</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07833575401630227</v>
+        <v>0.0274621502453833</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05075172902457394</v>
+        <v>0.05205873858579289</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02070360513165444</v>
+        <v>0.02722331452148637</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05031714236807363</v>
+        <v>0.0528357346840883</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02552350122522143</v>
+        <v>0.0584898679699675</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05225845268808624</v>
+        <v>0.05230990512891385</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04822173559663412</v>
+        <v>0.09001603446956996</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04774259053710231</v>
+        <v>0.05218812871855295</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07892303993232186</v>
+        <v>0.02722331452148637</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05150921751747802</v>
+        <v>0.0528357346840883</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01992482397932111</v>
+        <v>0.02718124249712239</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05105710034407471</v>
+        <v>0.05361273078238372</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02590006950283882</v>
+        <v>0.05783961876504756</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05302695934526398</v>
+        <v>0.05307916843963317</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04891899767076249</v>
+        <v>0.08964170213769029</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04844468745676558</v>
+        <v>0.05295560119970814</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0805205257381274</v>
+        <v>0.02718124249712239</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05226670601038211</v>
+        <v>0.05361273078238372</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0211461455931417</v>
+        <v>0.02713595066545416</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05179705832007579</v>
+        <v>0.05438972688067913</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02606688672665677</v>
+        <v>0.05737439764395288</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05379546600244173</v>
+        <v>0.05384843175035249</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04965219922373923</v>
+        <v>0.09004996945393712</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04914678437642885</v>
+        <v>0.05372307368086333</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08181851721917854</v>
+        <v>0.02713595066545416</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05302419450328619</v>
+        <v>0.05438972688067913</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02136584691360629</v>
+        <v>0.02728745551964448</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05253701629607687</v>
+        <v>0.05516672297897455</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02642109626839602</v>
+        <v>0.05749508847667539</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05456397265961947</v>
+        <v>0.05461769506107181</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05011317029904419</v>
+        <v>0.08914170124490284</v>
       </c>
       <c r="M136" t="n">
-        <v>0.04984888129609212</v>
+        <v>0.05449054616201852</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08240732016093527</v>
+        <v>0.02728745551964448</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05378168299619029</v>
+        <v>0.05516672297897455</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.021582204881205</v>
+        <v>0.02713577355285615</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05327697427207796</v>
+        <v>0.05594371907726997</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0264598414997774</v>
+        <v>0.05740257513320718</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0553324793167972</v>
+        <v>0.05538695837179114</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05139374094015708</v>
+        <v>0.08921776233717943</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05055097821575539</v>
+        <v>0.05525801864317371</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08337724034885724</v>
+        <v>0.02713577355285615</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05453917148909437</v>
+        <v>0.05594371907726997</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01979349643642794</v>
+        <v>0.02718092125825197</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05401693224807904</v>
+        <v>0.05672071517556539</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02668026579252168</v>
+        <v>0.05709774148354027</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05610098597397493</v>
+        <v>0.05615622168251046</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05178574119055776</v>
+        <v>0.08837901755735939</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05125307513541866</v>
+        <v>0.05602549112432889</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08461858356840435</v>
+        <v>0.02718092125825197</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05529665998199847</v>
+        <v>0.05672071517556539</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01999799851976521</v>
+        <v>0.02692291512899474</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05475689022408013</v>
+        <v>0.05749771127386081</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02687951251834965</v>
+        <v>0.05668147139766666</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05686949263115268</v>
+        <v>0.05692548499322977</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05268100109372595</v>
+        <v>0.08872633173203492</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05195517205508193</v>
+        <v>0.05679296360548408</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08572165560503631</v>
+        <v>0.02692291512899474</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05605414847490255</v>
+        <v>0.05749771127386081</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02019398807170692</v>
+        <v>0.02696177165824726</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0554968482000812</v>
+        <v>0.05827470737215621</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0270547250489821</v>
+        <v>0.0562546487455784</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05763799928833042</v>
+        <v>0.05769474830394909</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05327135069314151</v>
+        <v>0.08776056968779822</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05265726897474519</v>
+        <v>0.05756043608663928</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08667676224421295</v>
+        <v>0.02696177165824726</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05681163696780665</v>
+        <v>0.05827470737215621</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0213797420327432</v>
+        <v>0.02679750733917234</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05623680617608229</v>
+        <v>0.05905170347045163</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02720304675613981</v>
+        <v>0.05571815739726749</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05840650594550816</v>
+        <v>0.05846401161466842</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05434862003228419</v>
+        <v>0.08728259625124152</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05335936589440846</v>
+        <v>0.05832790856779447</v>
       </c>
       <c r="N141" t="n">
-        <v>0.08827420927139401</v>
+        <v>0.02679750733917234</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05756912546071074</v>
+        <v>0.05905170347045163</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02255353734336413</v>
+        <v>0.02693013866493281</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05697676415208337</v>
+        <v>0.05982869956874706</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02732162101154359</v>
+        <v>0.05537288122272596</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05917501260268589</v>
+        <v>0.05923327492538774</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05510463915463379</v>
+        <v>0.08739327624895704</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05406146281407173</v>
+        <v>0.05909538104894966</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08950430247203939</v>
+        <v>0.02693013866493281</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05832661395361482</v>
+        <v>0.05982869956874706</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02271365094405984</v>
+        <v>0.02665968212869141</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05771672212808445</v>
+        <v>0.06060569566704246</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02740759118691422</v>
+        <v>0.05491970409194585</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05994351925986363</v>
+        <v>0.06000253823610706</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05583123810367011</v>
+        <v>0.0863934745075372</v>
       </c>
       <c r="M143" t="n">
-        <v>0.054763559733735</v>
+        <v>0.05986285353010485</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08975734763160881</v>
+        <v>0.02665968212869141</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05908410244651891</v>
+        <v>0.06060569566704246</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02085835977532042</v>
+        <v>0.02668615422361098</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05845668010408554</v>
+        <v>0.06138269176533788</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02767105768882022</v>
+        <v>0.0545595098749192</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06071202591704137</v>
+        <v>0.06077180154682638</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05672024692287292</v>
+        <v>0.08668405585357414</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05546565665339827</v>
+        <v>0.06063032601126004</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09062365053556198</v>
+        <v>0.02668615422361098</v>
       </c>
       <c r="O144" t="n">
-        <v>0.059841590939423</v>
+        <v>0.06138269176533788</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02098594077763598</v>
+        <v>0.02670957144285432</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05919663808008662</v>
+        <v>0.0621596878636333</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02767075572368617</v>
+        <v>0.05449318244163795</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06148053257421911</v>
+        <v>0.06154106485754571</v>
       </c>
       <c r="L145" t="n">
-        <v>0.057263495655722</v>
+        <v>0.08616588511366002</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05616775357306154</v>
+        <v>0.06139779849241524</v>
       </c>
       <c r="N145" t="n">
-        <v>0.09179351696935878</v>
+        <v>0.02670957144285432</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06059907943232709</v>
+        <v>0.0621596878636333</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02109467089149666</v>
+        <v>0.02662995027958423</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05993659605608771</v>
+        <v>0.06293668396192871</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02765987338423795</v>
+        <v>0.05412160566209423</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06224903923139685</v>
+        <v>0.06231032816826503</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05775281434569715</v>
+        <v>0.08563982711438722</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0568698504927248</v>
+        <v>0.06216527097357043</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09234055215526071</v>
+        <v>0.02662995027958423</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06135656792523117</v>
+        <v>0.06293668396192871</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02118282705739254</v>
+        <v>0.02654730722696352</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06067655403208879</v>
+        <v>0.06371368006022414</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02743426668847677</v>
+        <v>0.05334566340628005</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06301754588857458</v>
+        <v>0.06307959147898434</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05798003303627822</v>
+        <v>0.08510674668234797</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05757194741238808</v>
+        <v>0.0629327434547256</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09287062584978323</v>
+        <v>0.02654730722696352</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06211405641813526</v>
+        <v>0.06371368006022414</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02324232627407822</v>
+        <v>0.02636165877815498</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06141651200808986</v>
+        <v>0.06449067615851954</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02739516187538543</v>
+        <v>0.05336623954418732</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06378605254575233</v>
+        <v>0.06384885478970366</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05903698177094491</v>
+        <v>0.08446750864413449</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05827404433205135</v>
+        <v>0.06370021593588079</v>
       </c>
       <c r="N148" t="n">
-        <v>0.09328669053275374</v>
+        <v>0.02636165877815498</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06287154491103934</v>
+        <v>0.06449067615851954</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02130530620477222</v>
+        <v>0.02637302142632142</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06215646998409095</v>
+        <v>0.06526767225681496</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0273437851839467</v>
+        <v>0.0525842179458082</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06455455920293007</v>
+        <v>0.06461811810042299</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05931549059317701</v>
+        <v>0.08402297782633911</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05897614125171462</v>
+        <v>0.06446768841703598</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09320385142168863</v>
+        <v>0.02637302142632142</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06362903340394344</v>
+        <v>0.06526767225681496</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02336104330585693</v>
+        <v>0.02608141166462562</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06289642796009204</v>
+        <v>0.06604466835511039</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02738136285314331</v>
+        <v>0.05280048248113464</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0653230658601078</v>
+        <v>0.06538738141114231</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05910738954645439</v>
+        <v>0.08427401905555387</v>
       </c>
       <c r="M150" t="n">
-        <v>0.05967823817137789</v>
+        <v>0.06523516089819119</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09402044862917835</v>
+        <v>0.02608141166462562</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06438652189684753</v>
+        <v>0.06604466835511039</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02341596415480771</v>
+        <v>0.0261868459862304</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06363638593609311</v>
+        <v>0.06682166445340579</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02730912112195809</v>
+        <v>0.0520159170201587</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06609157251728555</v>
+        <v>0.06615664472186163</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05960450867425679</v>
+        <v>0.08292149715837116</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06038033509104115</v>
+        <v>0.06600263337934638</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09423482226781327</v>
+        <v>0.0261868459862304</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06514401038975162</v>
+        <v>0.06682166445340579</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02246998277407953</v>
+        <v>0.02588934088429856</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06437634391209419</v>
+        <v>0.0675986605517012</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02712828622937374</v>
+        <v>0.05203140543287241</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06686007917446328</v>
+        <v>0.06692590803258094</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06000580492204047</v>
+        <v>0.08266627696138334</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06108243201070442</v>
+        <v>0.06677010586050157</v>
       </c>
       <c r="N152" t="n">
-        <v>0.09474531245018386</v>
+        <v>0.02588934088429856</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06590149888265572</v>
+        <v>0.0675986605517012</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02352301318612728</v>
+        <v>0.02598891285199292</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06511630188809528</v>
+        <v>0.06837565664999663</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02724008441437308</v>
+        <v>0.05104783158926779</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06762858583164102</v>
+        <v>0.06769517134330028</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05940161764854734</v>
+        <v>0.08260922329118248</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0617845289303677</v>
+        <v>0.06753757834165676</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0954502592888804</v>
+        <v>0.02598891285199292</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06665898737555979</v>
+        <v>0.06837565664999663</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02257496941340593</v>
+        <v>0.02578557838247626</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06585625986409636</v>
+        <v>0.06915265274829205</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02714574191593884</v>
+        <v>0.0507660793593368</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06839709248881876</v>
+        <v>0.06846443465401959</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05937908568750158</v>
+        <v>0.08205120097436092</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06248662585003097</v>
+        <v>0.06830505082281195</v>
       </c>
       <c r="N154" t="n">
-        <v>0.09564800289649333</v>
+        <v>0.02578557838247626</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06741647586846389</v>
+        <v>0.06915265274829205</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02262576547837038</v>
+        <v>0.02557935396891138</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06659621784009745</v>
+        <v>0.06992964884658746</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02694648497305381</v>
+        <v>0.05028703261307155</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0691655991459965</v>
+        <v>0.06923369796473891</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05983807025805526</v>
+        <v>0.08169307483751087</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06318872276969423</v>
+        <v>0.06907252330396713</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09683688338561319</v>
+        <v>0.02557935396891138</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06817396436136797</v>
+        <v>0.06992964884658746</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02267531540347557</v>
+        <v>0.02557025610446111</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06733617581609852</v>
+        <v>0.07070664494488288</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02694353982470075</v>
+        <v>0.05011157522046403</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06993410580317425</v>
+        <v>0.07000296127545823</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05987972613843953</v>
+        <v>0.08143570970722463</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0638908196893575</v>
+        <v>0.06983999578512232</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09711524086883017</v>
+        <v>0.02557025610446111</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06893145285427206</v>
+        <v>0.07070664494488288</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02272353321117642</v>
+        <v>0.02555830128228821</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06807613379209961</v>
+        <v>0.07148364104317829</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02673813270986244</v>
+        <v>0.04974059105150624</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07070261246035198</v>
+        <v>0.07077222458617756</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05920520810688565</v>
+        <v>0.08037997041009448</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06459291660902078</v>
+        <v>0.07060746826627751</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09758141545873478</v>
+        <v>0.02555830128228821</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06968894134717614</v>
+        <v>0.07148364104317829</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02377033292392785</v>
+        <v>0.02524350599555551</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0688160917681007</v>
+        <v>0.07226063714147371</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02653148986752166</v>
+        <v>0.04947496397619031</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07147111911752972</v>
+        <v>0.07154148789689688</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05951567094162472</v>
+        <v>0.08012672177271246</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06529501352868404</v>
+        <v>0.07137494074743271</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09773374726791745</v>
+        <v>0.02524350599555551</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07044642984008025</v>
+        <v>0.07226063714147371</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02281562856418481</v>
+        <v>0.02512588673742581</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06955604974410177</v>
+        <v>0.07303763323976913</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02642483753666115</v>
+        <v>0.04921557786450811</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07223962577470745</v>
+        <v>0.07231075120761619</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05901226942088802</v>
+        <v>0.07957682862167104</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06599711044834732</v>
+        <v>0.0721424132285879</v>
       </c>
       <c r="N159" t="n">
-        <v>0.09807057640896849</v>
+        <v>0.02512588673742581</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07120391833298433</v>
+        <v>0.07303763323976913</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02285933415440223</v>
+        <v>0.02500546000106191</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07029600772010286</v>
+        <v>0.07381462933806454</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02641940195626367</v>
+        <v>0.04895898159206469</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0730081324318852</v>
+        <v>0.07308001451833551</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05899615832290672</v>
+        <v>0.07893115578356236</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06669920736801058</v>
+        <v>0.07290988570974309</v>
       </c>
       <c r="N160" t="n">
-        <v>0.09829024299447825</v>
+        <v>0.02500546000106191</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07196140682588842</v>
+        <v>0.07381462933806454</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02390136371703502</v>
+        <v>0.02488224227962661</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07103596569610394</v>
+        <v>0.07459162543635996</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02631640936531203</v>
+        <v>0.04858418179862195</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07377663908906293</v>
+        <v>0.07384927782905484</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05906849242591197</v>
+        <v>0.07879056808497881</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06740130428767385</v>
+        <v>0.07367735819089828</v>
       </c>
       <c r="N161" t="n">
-        <v>0.09939108713703737</v>
+        <v>0.02488224227962661</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0727188953187925</v>
+        <v>0.07459162543635996</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02394163127453811</v>
+        <v>0.02485625006628273</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07177592367210503</v>
+        <v>0.07536862153465537</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02621708600278896</v>
+        <v>0.04788936451913903</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07454514574624067</v>
+        <v>0.07461854113977416</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05913042650813505</v>
+        <v>0.07825593035251238</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06810340120733711</v>
+        <v>0.07444483067205347</v>
       </c>
       <c r="N162" t="n">
-        <v>0.09947144894923599</v>
+        <v>0.02485625006628273</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07347638381169659</v>
+        <v>0.07536862153465537</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02398005084936643</v>
+        <v>0.02462749985419302</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07251588164810611</v>
+        <v>0.0761456176329508</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02622265810767725</v>
+        <v>0.04757581073031314</v>
       </c>
       <c r="K163" t="n">
-        <v>0.0753136524034184</v>
+        <v>0.07538780445049348</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05858311534780708</v>
+        <v>0.07832810741275559</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06880549812700039</v>
+        <v>0.07521230315320866</v>
       </c>
       <c r="N163" t="n">
-        <v>0.09942966854366464</v>
+        <v>0.02462749985419302</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07423387230460068</v>
+        <v>0.0761456176329508</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02201653646397495</v>
+        <v>0.02469600813652034</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07325583962410719</v>
+        <v>0.0769226137312462</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02613435191895966</v>
+        <v>0.04694480140884133</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07608215906059615</v>
+        <v>0.07615706776121281</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05852771372315929</v>
+        <v>0.0775079640923006</v>
       </c>
       <c r="M164" t="n">
-        <v>0.06950759504666366</v>
+        <v>0.07597977563436384</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1005640860329137</v>
+        <v>0.02469600813652034</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07499136079750476</v>
+        <v>0.0769226137312462</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02205100214081854</v>
+        <v>0.02436179140642745</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07399579760010827</v>
+        <v>0.07769960982954162</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02595339367561895</v>
+        <v>0.04649761753142084</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07685066571777389</v>
+        <v>0.07692633107193213</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05846537641242289</v>
+        <v>0.07699636521773956</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07020969196632693</v>
+        <v>0.07674724811551903</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1002730415295736</v>
+        <v>0.02436179140642745</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07574884929040886</v>
+        <v>0.07769960982954162</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02408336190235214</v>
+        <v>0.0242248661570772</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07473575557610936</v>
+        <v>0.07847660592783705</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02588100961663792</v>
+        <v>0.04613554007474877</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07761917237495163</v>
+        <v>0.07769559438265145</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05799725819382906</v>
+        <v>0.07629417561566476</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0709117888859902</v>
+        <v>0.07751472059667423</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1009548751462345</v>
+        <v>0.0242248661570772</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07650633778331295</v>
+        <v>0.07847660592783705</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0231135297710307</v>
+        <v>0.02418524888163234</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07547571355211043</v>
+        <v>0.07925360202613245</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0257184259809993</v>
+        <v>0.04605985001552229</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07838767903212936</v>
+        <v>0.07846485769337076</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05832451384560894</v>
+        <v>0.07670224061112152</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07161388580565346</v>
+        <v>0.07828219307782942</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1006079269954872</v>
+        <v>0.02418524888163234</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07726382627621704</v>
+        <v>0.07925360202613245</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02214141976930915</v>
+        <v>0.02404295607325571</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07621567152811153</v>
+        <v>0.08003059812442787</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02566520626310519</v>
+        <v>0.04547182833043859</v>
       </c>
       <c r="K168" t="n">
-        <v>0.0791561856893071</v>
+        <v>0.07923412100409009</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05794829814599381</v>
+        <v>0.07642041893177093</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07231598272531674</v>
+        <v>0.07904966555898461</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1017305371899218</v>
+        <v>0.02404295607325571</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07802131476912112</v>
+        <v>0.08003059812442787</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0221669459196424</v>
+        <v>0.02379800422511008</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07695562950411261</v>
+        <v>0.08080759422272328</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02571302765401168</v>
+        <v>0.04507275599619473</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07992469234648485</v>
+        <v>0.08000338431480941</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05776976587321481</v>
+        <v>0.07604746255661193</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07301807964498001</v>
+        <v>0.0798171380401398</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1010210458421288</v>
+        <v>0.02379800422511008</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07877880326202522</v>
+        <v>0.08080759422272328</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02219002224448537</v>
+        <v>0.02365040983035829</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0776955874801137</v>
+        <v>0.08158459032101871</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02566063376087679</v>
+        <v>0.04396391398948793</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08069319900366259</v>
+        <v>0.08077264762552873</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05749007180550314</v>
+        <v>0.07488207549775494</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07372017656464327</v>
+        <v>0.08058461052129499</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1014777930646986</v>
+        <v>0.02365040983035829</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07953629175492929</v>
+        <v>0.08158459032101871</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02421056276629303</v>
+        <v>0.02360018938216311</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07843554545611478</v>
+        <v>0.08236158641931413</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02570810624724823</v>
+        <v>0.04384658328701532</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08146170566084032</v>
+        <v>0.08154191093624805</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05741037072109006</v>
+        <v>0.07472296176731036</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07442227348430655</v>
+        <v>0.08135208300245018</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1019991189702216</v>
+        <v>0.02360018938216311</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08029378024783339</v>
+        <v>0.08236158641931413</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02322848150752026</v>
+        <v>0.02334735937368736</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07917550343211585</v>
+        <v>0.08313858251760953</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02565552677667364</v>
+        <v>0.04352204486547406</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08223021231801805</v>
+        <v>0.08231117424696738</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05743181739820671</v>
+        <v>0.07416882537738839</v>
       </c>
       <c r="M172" t="n">
-        <v>0.0751243704039698</v>
+        <v>0.08211955548360536</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1019833636712882</v>
+        <v>0.02334735937368736</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08105126874073748</v>
+        <v>0.08313858251760953</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02224369249062205</v>
+        <v>0.02329193629809384</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07991546140811694</v>
+        <v>0.08391557861590496</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02540297701270069</v>
+        <v>0.0425915797015613</v>
       </c>
       <c r="K173" t="n">
-        <v>0.0829987189751958</v>
+        <v>0.0830804375576867</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05715556661508425</v>
+        <v>0.07421837034009954</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07582646732363307</v>
+        <v>0.08288702796476055</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1016288672804888</v>
+        <v>0.02329193629809384</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08180875723364156</v>
+        <v>0.08391557861590496</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02225610973805325</v>
+        <v>0.02303248172113222</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08065541938411802</v>
+        <v>0.08469257471420037</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0255505386188771</v>
+        <v>0.0419564687719742</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08376722563237354</v>
+        <v>0.08384970086840601</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05708277314995397</v>
+        <v>0.07427030066755402</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07652856424329635</v>
+        <v>0.08365450044591576</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1023281064728425</v>
+        <v>0.02303248172113222</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08256624572654565</v>
+        <v>0.08469257471420037</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02426564727226884</v>
+        <v>0.02290070451966106</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08139537736011909</v>
+        <v>0.08546957081249577</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02549829325875048</v>
+        <v>0.04131799305340991</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08453573228955129</v>
+        <v>0.08461896417912533</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05641459178104696</v>
+        <v>0.07352332037186243</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07723066116295961</v>
+        <v>0.08442197292707095</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1017209997645465</v>
+        <v>0.02290070451966106</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08332373421944975</v>
+        <v>0.08546957081249577</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02327221911572375</v>
+        <v>0.02247227885594402</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08213533533612018</v>
+        <v>0.0862465669107912</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02534632259586853</v>
+        <v>0.04107743352256554</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08530423894672901</v>
+        <v>0.08538822748984466</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05675217728659449</v>
+        <v>0.073376133465135</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07793275808262289</v>
+        <v>0.08518944540822614</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1018980562271412</v>
+        <v>0.02247227885594402</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08408122271235384</v>
+        <v>0.0862465669107912</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02327573929087289</v>
+        <v>0.02216528487158301</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08287529331212126</v>
+        <v>0.08702356300908662</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02519470829377891</v>
+        <v>0.04043607115613826</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08607274560390675</v>
+        <v>0.08615749080056398</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05629668444482766</v>
+        <v>0.07312744395948206</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07863485500228615</v>
+        <v>0.08595691788938133</v>
       </c>
       <c r="N177" t="n">
-        <v>0.101366679178064</v>
+        <v>0.02216528487158301</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08483871120525792</v>
+        <v>0.08702356300908662</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02427511344014244</v>
+        <v>0.02179780270817994</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08361525128812235</v>
+        <v>0.08780055910738203</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02514353201602931</v>
+        <v>0.03969518693082527</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0868412522610845</v>
+        <v>0.0869267541112833</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05614926803397782</v>
+        <v>0.072475955867014</v>
       </c>
       <c r="M178" t="n">
-        <v>0.07933695192194942</v>
+        <v>0.08672439037053652</v>
       </c>
       <c r="N178" t="n">
-        <v>0.100634271934752</v>
+        <v>0.02179780270817994</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08559619969816201</v>
+        <v>0.08780055910738203</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02426025055911484</v>
+        <v>0.0211879125073367</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08435520926412343</v>
+        <v>0.08857755520567745</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02509287542616738</v>
+        <v>0.03965606182332368</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08760975891826224</v>
+        <v>0.08769601742200261</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05621108283227605</v>
+        <v>0.07192037319984124</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08003904884161268</v>
+        <v>0.08749186285169171</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1002082378146426</v>
+        <v>0.0211879125073367</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08635368819106609</v>
+        <v>0.08857755520567745</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02322932636200697</v>
+        <v>0.02075369441065519</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08509516724012452</v>
+        <v>0.08935455130397287</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02504282018774083</v>
+        <v>0.03861997681033064</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08837826557543997</v>
+        <v>0.08846528073272195</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05628101422100432</v>
+        <v>0.07145939997007411</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08074114576127596</v>
+        <v>0.0882593353328469</v>
       </c>
       <c r="N180" t="n">
-        <v>0.09929598013517288</v>
+        <v>0.02075369441065519</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08711117668397018</v>
+        <v>0.08935455130397287</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02418329524126111</v>
+        <v>0.02021322855973728</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0858351252161256</v>
+        <v>0.09013154740226828</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02499344796429728</v>
+        <v>0.03828821286854323</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0891467722326177</v>
+        <v>0.08923454404344126</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05585564602670801</v>
+        <v>0.07169174018982299</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08144324268093923</v>
+        <v>0.08902680781400207</v>
       </c>
       <c r="N181" t="n">
-        <v>0.09910490221378038</v>
+        <v>0.02021322855973728</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08786866517687426</v>
+        <v>0.09013154740226828</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02312311158931952</v>
+        <v>0.0195845950961849</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08657508319212669</v>
+        <v>0.0909085435005637</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02494484041938443</v>
+        <v>0.03796205097465877</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08991527888979545</v>
+        <v>0.09000380735416058</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05573457459581388</v>
+        <v>0.07051609787119817</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0821453396006025</v>
+        <v>0.08979428029515728</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09834240736790212</v>
+        <v>0.0195845950961849</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08862615366977837</v>
+        <v>0.0909085435005637</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02304972979862453</v>
+        <v>0.01908587416159993</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08731504116812776</v>
+        <v>0.09168553959885911</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02489707921654993</v>
+        <v>0.03754277210537432</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09068378554697319</v>
+        <v>0.0907730706648799</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05531744365312041</v>
+        <v>0.07053117702631012</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08284743652026577</v>
+        <v>0.09056175277631247</v>
       </c>
       <c r="N183" t="n">
-        <v>0.0973158989149755</v>
+        <v>0.01908587416159993</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08938364216268246</v>
+        <v>0.09168553959885911</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02196410426161841</v>
+        <v>0.01853514589758427</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08805499914412884</v>
+        <v>0.09246253569715453</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0250502460193415</v>
+        <v>0.03713165723738701</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09145229220415092</v>
+        <v>0.09154233397559923</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05570389692342609</v>
+        <v>0.07013568166726919</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08354953343992903</v>
+        <v>0.09132922525746766</v>
       </c>
       <c r="N184" t="n">
-        <v>0.09603278017243783</v>
+        <v>0.01853514589758427</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09014113065558654</v>
+        <v>0.09246253569715453</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02186718937074347</v>
+        <v>0.01825049044573983</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08879495712012993</v>
+        <v>0.09323953179544994</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02480442249130677</v>
+        <v>0.03602998734739402</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09222079886132867</v>
+        <v>0.09231159728631855</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05509357813152935</v>
+        <v>0.06952831580618568</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08425163035959231</v>
+        <v>0.09209669773862285</v>
       </c>
       <c r="N185" t="n">
-        <v>0.09520045445772624</v>
+        <v>0.01825049044573983</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09089861914849064</v>
+        <v>0.09323953179544994</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02275993951844196</v>
+        <v>0.01784998794766848</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08953491509613101</v>
+        <v>0.09401652789374537</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0248596902959934</v>
+        <v>0.03603904341209249</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0929893055185064</v>
+        <v>0.09308086059703786</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05528613100222876</v>
+        <v>0.06960778345517005</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08495372727925558</v>
+        <v>0.09286417021977804</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09502632508827802</v>
+        <v>0.01784998794766848</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09165610764139472</v>
+        <v>0.09401652789374537</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02164330909715619</v>
+        <v>0.01775171854497212</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0902748730721321</v>
+        <v>0.09479352399204079</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02471613109694908</v>
+        <v>0.03546010640817956</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09375781217568414</v>
+        <v>0.0938501239077572</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05508119926032273</v>
+        <v>0.0693727886263325</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08565582419891885</v>
+        <v>0.09363164270093323</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09371779538153047</v>
+        <v>0.01775171854497212</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09241359613429881</v>
+        <v>0.09479352399204079</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02351825249932846</v>
+        <v>0.01764403344370552</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09101483104813317</v>
+        <v>0.09557052009033619</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0246738265577215</v>
+        <v>0.03509445731235245</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09452631883286189</v>
+        <v>0.09461938721847651</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05527842663060986</v>
+        <v>0.06802203533178358</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08635792111858212</v>
+        <v>0.09439911518208842</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09238226865492094</v>
+        <v>0.01764403344370552</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09317108462720289</v>
+        <v>0.09557052009033619</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02338572411740105</v>
+        <v>0.01754919066103466</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09175478902413425</v>
+        <v>0.09634751618863162</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0247328583418583</v>
+        <v>0.03434337710130822</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09529482549003962</v>
+        <v>0.09538865052919583</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05527745683788848</v>
+        <v>0.06795422758363356</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08706001803824538</v>
+        <v>0.0951665876632436</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09172714822588657</v>
+        <v>0.01754919066103466</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09392857312010698</v>
+        <v>0.09634751618863162</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02124667834381625</v>
+        <v>0.01736145076355883</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09249474700013534</v>
+        <v>0.09712451228692703</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02479330811290718</v>
+        <v>0.03430814675174407</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09606333214721736</v>
+        <v>0.09615791383991516</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05477793360695712</v>
+        <v>0.06736806939399287</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08776211495790866</v>
+        <v>0.0959340601443988</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09065983741186467</v>
+        <v>0.01736145076355883</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09468606161301107</v>
+        <v>0.09712451228692703</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02310206957101634</v>
+        <v>0.01728039146060302</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09323470497613642</v>
+        <v>0.09790150838522244</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02475525753441578</v>
+        <v>0.03359004724035713</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0968318388043951</v>
+        <v>0.09692717715063448</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05497950066261437</v>
+        <v>0.06746226477497175</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08846421187757192</v>
+        <v>0.09670153262555399</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08918773953029252</v>
+        <v>0.01728039146060302</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09544355010591517</v>
+        <v>0.09790150838522244</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02095285219144361</v>
+        <v>0.0173055904614923</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09397466295213751</v>
+        <v>0.09867850448351785</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0245187882699318</v>
+        <v>0.0332903595438446</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09760034546157284</v>
+        <v>0.0976964404613538</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05468180172965859</v>
+        <v>0.06603551773868072</v>
       </c>
       <c r="M192" t="n">
-        <v>0.08916630879723519</v>
+        <v>0.09746900510670918</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08861825789860733</v>
+        <v>0.0173055904614923</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09620103859881925</v>
+        <v>0.09867850448351785</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02079998059754037</v>
+        <v>0.01713662547555166</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09471462092813859</v>
+        <v>0.09945550058181328</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02458398198300289</v>
+        <v>0.03311036463890354</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09836885211875057</v>
+        <v>0.09846570377207313</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05488448053288833</v>
+        <v>0.06618653229723004</v>
       </c>
       <c r="M193" t="n">
-        <v>0.08986840571689847</v>
+        <v>0.09823647758786437</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08735879583424638</v>
+        <v>0.01713662547555166</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09695852709172334</v>
+        <v>0.09945550058181328</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02264440918174889</v>
+        <v>0.0170730742121061</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09545457890413968</v>
+        <v>0.1002324966801087</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02465092033717672</v>
+        <v>0.0326513435022312</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09913735877592832</v>
+        <v>0.09923496708279245</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05458718079710204</v>
+        <v>0.0654140124627301</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09057050263656173</v>
+        <v>0.09900395006901956</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08661675665464708</v>
+        <v>0.0170730742121061</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09771601558462743</v>
+        <v>0.1002324966801087</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02048709233651145</v>
+        <v>0.01701451438048066</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09619453688014076</v>
+        <v>0.1010094927784041</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02451968499600099</v>
+        <v>0.0319145771105247</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09990586543310606</v>
+        <v>0.1000042303935118</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05448954624709818</v>
+        <v>0.0650166622472913</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09127259955622501</v>
+        <v>0.09977142255017475</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08559954367724659</v>
+        <v>0.01701451438048066</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09847350407753151</v>
+        <v>0.1010094927784041</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02032898445427036</v>
+        <v>0.01706052369000034</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09693449485614183</v>
+        <v>0.1017864888766995</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02459035762302336</v>
+        <v>0.03160134644048113</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1006743720902838</v>
+        <v>0.1007734937042311</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05419122060767534</v>
+        <v>0.06459318566302397</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09197469647588827</v>
+        <v>0.1005388950313299</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08381456021948208</v>
+        <v>0.01706052369000034</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09923099257043561</v>
+        <v>0.1017864888766995</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0211710399274679</v>
+        <v>0.01701067984999018</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09767445283214292</v>
+        <v>0.1025634849749949</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02436301988179146</v>
+        <v>0.03131108233596538</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1014428787474615</v>
+        <v>0.1015427570149504</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05409184760363189</v>
+        <v>0.06354228672203849</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09267679339555154</v>
+        <v>0.1013063675124851</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08326920959879097</v>
+        <v>0.01701067984999018</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09998848106333968</v>
+        <v>0.1025634849749949</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02201421314854637</v>
+        <v>0.01696456056977516</v>
       </c>
       <c r="G198" t="n">
-        <v>0.098414410808144</v>
+        <v>0.1033404810732904</v>
       </c>
       <c r="J198" t="n">
-        <v>0.024537753435853</v>
+        <v>0.03153252016750499</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1022113854046393</v>
+        <v>0.1023120203256697</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05439107095976642</v>
+        <v>0.06246266943644518</v>
       </c>
       <c r="M198" t="n">
-        <v>0.0933788903152148</v>
+        <v>0.1020738399936403</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08227089513261049</v>
+        <v>0.01696456056977516</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1007459695562438</v>
+        <v>0.1033404810732904</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02185945850994803</v>
+        <v>0.01692174355868034</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09915436878414507</v>
+        <v>0.1041174771715858</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02451463994875568</v>
+        <v>0.03116312620851994</v>
       </c>
       <c r="K199" t="n">
-        <v>0.102979892061817</v>
+        <v>0.1030812836363891</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05398853440087734</v>
+        <v>0.06205303781835447</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09408098723487808</v>
+        <v>0.1028413124747955</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08182702013837784</v>
+        <v>0.01692174355868034</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1015034580491479</v>
+        <v>0.1041174771715858</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0217077304041152</v>
+        <v>0.01678180652603069</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09989432676014616</v>
+        <v>0.1048944732698812</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02449376108404711</v>
+        <v>0.03040240915700967</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1037483987189948</v>
+        <v>0.1038505469471084</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05388388165176311</v>
+        <v>0.06151209587987666</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09478308415454136</v>
+        <v>0.1036087849559507</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08114498793353031</v>
+        <v>0.01678180652603069</v>
       </c>
       <c r="O200" t="n">
-        <v>0.102260946542052</v>
+        <v>0.1048944732698812</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02155998322349015</v>
+        <v>0.01684432718115128</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1006342847361473</v>
+        <v>0.1056714693681766</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02427519850527497</v>
+        <v>0.03024987771097368</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1045169053761725</v>
+        <v>0.1046198102578277</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0539767564372223</v>
+        <v>0.06037395197483658</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09548518107420462</v>
+        <v>0.1043762574371059</v>
       </c>
       <c r="N201" t="n">
-        <v>0.08023220183550528</v>
+        <v>0.01684432718115128</v>
       </c>
       <c r="O201" t="n">
-        <v>0.103018435034956</v>
+        <v>0.1056714693681766</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02041717136051519</v>
+        <v>0.01680888323336707</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1013742427121483</v>
+        <v>0.106448465466472</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02435903387598698</v>
+        <v>0.03030504056841155</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1052854120333502</v>
+        <v>0.105389073568547</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05386680248205331</v>
+        <v>0.05945224092882839</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09618727799386789</v>
+        <v>0.1051437299182611</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0793960651617398</v>
+        <v>0.01680888323336707</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1037759235278601</v>
+        <v>0.106448465466472</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02028024920763258</v>
+        <v>0.01667505239200312</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1021142006881494</v>
+        <v>0.1072254615647674</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02434534885973078</v>
+        <v>0.03006740642732278</v>
       </c>
       <c r="K203" t="n">
-        <v>0.106053918690528</v>
+        <v>0.1061583368792663</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05335366351105469</v>
+        <v>0.05837076834905169</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09688937491353115</v>
+        <v>0.1059112023994163</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07844398122967133</v>
+        <v>0.01667505239200312</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1045334120207642</v>
+        <v>0.1072254615647674</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02015017115728465</v>
+        <v>0.01674241236638443</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1028541586641505</v>
+        <v>0.1080024576630629</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02433422512005402</v>
+        <v>0.02983648398570685</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1068224253477057</v>
+        <v>0.1069276001899856</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05313698324902491</v>
+        <v>0.05606906941378725</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09759147183319443</v>
+        <v>0.1066786748805715</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07818335335673704</v>
+        <v>0.01674241236638443</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1052909005136683</v>
+        <v>0.1080024576630629</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01902789160191366</v>
+        <v>0.01681054086583603</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1035941166401516</v>
+        <v>0.1087794537613583</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02432574432050441</v>
+        <v>0.02981178194156328</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1075909320048835</v>
+        <v>0.107696863500705</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05301640542076241</v>
+        <v>0.05428667930131603</v>
       </c>
       <c r="M205" t="n">
-        <v>0.0982935687528577</v>
+        <v>0.1074461473617267</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07812158486037424</v>
+        <v>0.01681054086583603</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1060483890065724</v>
+        <v>0.1087794537613583</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02091436493396188</v>
+        <v>0.01667901559968289</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1043340746161527</v>
+        <v>0.1095564498596537</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02441998812462962</v>
+        <v>0.02939280899289162</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1083594386620612</v>
+        <v>0.1084661268114243</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05309157375106571</v>
+        <v>0.05266313318991916</v>
       </c>
       <c r="M206" t="n">
-        <v>0.09899566567252097</v>
+        <v>0.1082136198428818</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07756607905802027</v>
+        <v>0.01667901559968289</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1068058774994765</v>
+        <v>0.1095564498596537</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01981054554587163</v>
+        <v>0.01664741427725008</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1050740325921537</v>
+        <v>0.1103334459579491</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02421703819597727</v>
+        <v>0.02907907383769137</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1091279453192389</v>
+        <v>0.1092353901221436</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05306213196473333</v>
+        <v>0.05073796625787724</v>
       </c>
       <c r="M207" t="n">
-        <v>0.09969776259218424</v>
+        <v>0.108981092324037</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07792423926711217</v>
+        <v>0.01664741427725008</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1075633659923806</v>
+        <v>0.1103334459579491</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01871738783008519</v>
+        <v>0.0165153146078626</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1058139905681548</v>
+        <v>0.1111104420562445</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02431686531140376</v>
+        <v>0.02907008517396209</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1098964519764167</v>
+        <v>0.1100046534328629</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05312772378656369</v>
+        <v>0.04865071368347157</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1003998595118475</v>
+        <v>0.1097485648051922</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07739648597469423</v>
+        <v>0.0165153146078626</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1083208544852847</v>
+        <v>0.1111104420562445</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01863584617904485</v>
+        <v>0.01648229430084547</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1065539485441559</v>
+        <v>0.1118874381545399</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02421879219583459</v>
+        <v>0.02856535169970317</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1106649586335944</v>
+        <v>0.1107739167435823</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05298799294135531</v>
+        <v>0.04624091064498281</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1011019564315108</v>
+        <v>0.1105160372863474</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07799667397008175</v>
+        <v>0.01648229430084547</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1090783429781887</v>
+        <v>0.1118874381545399</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0195668749851929</v>
+        <v>0.0165479310655237</v>
       </c>
       <c r="G210" t="n">
-        <v>0.107293906520157</v>
+        <v>0.1126644342528354</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02422268802403671</v>
+        <v>0.02836438211291425</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1114334652907721</v>
+        <v>0.1115431800543016</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05254258315390664</v>
+        <v>0.04454809232069201</v>
       </c>
       <c r="M210" t="n">
-        <v>0.101804053351174</v>
+        <v>0.1112835097675026</v>
       </c>
       <c r="N210" t="n">
-        <v>0.0773975078125092</v>
+        <v>0.0165479310655237</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1098358314710928</v>
+        <v>0.1126644342528354</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01851142864097164</v>
+        <v>0.0165118026112223</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1080338644961581</v>
+        <v>0.1134414303511308</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02442855074828698</v>
+        <v>0.02836668511159482</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1122019719479499</v>
+        <v>0.1123124433650209</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05269113814901624</v>
+        <v>0.04281179388888012</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1025061502708373</v>
+        <v>0.1120509822486578</v>
       </c>
       <c r="N211" t="n">
-        <v>0.07749947240948613</v>
+        <v>0.0165118026112223</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1105933199639969</v>
+        <v>0.1134414303511308</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01947046153882333</v>
+        <v>0.0163734866472663</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1087738224721592</v>
+        <v>0.1142184264494262</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02423637832086226</v>
+        <v>0.02797176939374435</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1129704786051276</v>
+        <v>0.1130817066757402</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05223330165148249</v>
+        <v>0.04017155052782817</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1032082471905006</v>
+        <v>0.112818454729813</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07740305266852199</v>
+        <v>0.0163734866472663</v>
       </c>
       <c r="O212" t="n">
-        <v>0.111350808456901</v>
+        <v>0.1142184264494262</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01943959690910687</v>
+        <v>0.01653256088298072</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1095137804481603</v>
+        <v>0.1149954225477216</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02434616869403942</v>
+        <v>0.02817914365736243</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1137389852623054</v>
+        <v>0.1138509699864595</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05186871738610396</v>
+        <v>0.03856689741581681</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1039103441101639</v>
+        <v>0.1135859272109682</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07740873349712624</v>
+        <v>0.01653256088298072</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1121082969498051</v>
+        <v>0.1149954225477216</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01840937540116967</v>
+        <v>0.01628860302769054</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1102537384241613</v>
+        <v>0.115772418646017</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02425791982009531</v>
+        <v>0.02788831660044849</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1145074919194831</v>
+        <v>0.1146202332971789</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05189702907767907</v>
+        <v>0.03733736973112728</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1046124410298271</v>
+        <v>0.1143533996921234</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07771699980280844</v>
+        <v>0.01628860302769054</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1128657854427092</v>
+        <v>0.115772418646017</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01837958806491299</v>
+        <v>0.01644119079072082</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1109936964001624</v>
+        <v>0.1165494147443124</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02447162965130681</v>
+        <v>0.02769879692100211</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1152759985766608</v>
+        <v>0.1153894966078982</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05181788045100635</v>
+        <v>0.03512250265204026</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1053145379494904</v>
+        <v>0.1151208721732786</v>
       </c>
       <c r="N215" t="n">
-        <v>0.07782833649307808</v>
+        <v>0.01644119079072082</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1136232739356133</v>
+        <v>0.1165494147443124</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02035024153789231</v>
+        <v>0.01638990188139655</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1117336543761635</v>
+        <v>0.1173264108426079</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02428729613995073</v>
+        <v>0.02711009331702277</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1160445052338386</v>
+        <v>0.1161587599186175</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05163091523088431</v>
+        <v>0.03466183135683698</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1060166348691537</v>
+        <v>0.1158883446544338</v>
       </c>
       <c r="N216" t="n">
-        <v>0.07794322847544449</v>
+        <v>0.01638990188139655</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1143807624285174</v>
+        <v>0.1173264108426079</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0203213424576631</v>
+        <v>0.01633431400904278</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1124736123521646</v>
+        <v>0.1181034069409033</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02430491723830401</v>
+        <v>0.02712171448651002</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1168130118910163</v>
+        <v>0.1169280232293368</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05163577714211137</v>
+        <v>0.03397777335349517</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1067187317888169</v>
+        <v>0.1166558171355889</v>
       </c>
       <c r="N217" t="n">
-        <v>0.07756216065741733</v>
+        <v>0.01633431400904278</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1151382509214215</v>
+        <v>0.1181034069409033</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01929289746178082</v>
+        <v>0.01607400488298449</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1132135703281657</v>
+        <v>0.1188804030391987</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02452449089864346</v>
+        <v>0.02723316912746332</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1175815185481941</v>
+        <v>0.1176972865400562</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05153210990948603</v>
+        <v>0.03297051911637489</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1074208287084802</v>
+        <v>0.1174232896167441</v>
       </c>
       <c r="N218" t="n">
-        <v>0.07728561794650601</v>
+        <v>0.01607400488298449</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1158957394143255</v>
+        <v>0.1188804030391987</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02026491318780094</v>
+        <v>0.01610855221254673</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1139535283041667</v>
+        <v>0.1196573991374941</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02444601507324594</v>
+        <v>0.02654396593788225</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1183500252053718</v>
+        <v>0.1184665498507755</v>
       </c>
       <c r="L219" t="n">
-        <v>0.0510195572578068</v>
+        <v>0.03187224996430343</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1081229256281435</v>
+        <v>0.1181907620978993</v>
       </c>
       <c r="N219" t="n">
-        <v>0.07761408525022012</v>
+        <v>0.01610855221254673</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1166532279072296</v>
+        <v>0.1196573991374941</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0182373962732789</v>
+        <v>0.01593753370705446</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1146934862801678</v>
+        <v>0.1204343952357895</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02436948771438831</v>
+        <v>0.02685361361576627</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1191185318625495</v>
+        <v>0.1192358131614948</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05109391080945797</v>
+        <v>0.03068333405336965</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1088250225478067</v>
+        <v>0.1189582345790545</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07814804747606902</v>
+        <v>0.01593753370705446</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1174107164001337</v>
+        <v>0.1204343952357895</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01821035335577018</v>
+        <v>0.01596052707583276</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1154334442561689</v>
+        <v>0.1212113913340849</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02449490677434746</v>
+        <v>0.02616162085911497</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1198870385197273</v>
+        <v>0.1200050764722141</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05083071313586132</v>
+        <v>0.02990413953966187</v>
       </c>
       <c r="M221" t="n">
-        <v>0.10952711946747</v>
+        <v>0.1197257070602097</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07748798953156222</v>
+        <v>0.01596052707583276</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1181682048930378</v>
+        <v>0.1212113913340849</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02018379107283026</v>
+        <v>0.01597685568082687</v>
       </c>
       <c r="G222" t="n">
-        <v>0.11617340223217</v>
+        <v>0.1219883874323803</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02442227020540023</v>
+        <v>0.02616749636592777</v>
       </c>
       <c r="K222" t="n">
-        <v>0.120655545176905</v>
+        <v>0.1207743397829334</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05052639690099162</v>
+        <v>0.02953503457926876</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1102292163871333</v>
+        <v>0.1204931795413649</v>
       </c>
       <c r="N222" t="n">
-        <v>0.07753439632420922</v>
+        <v>0.01597685568082687</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1189256933859419</v>
+        <v>0.1219883874323803</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02015771606201459</v>
+        <v>0.01568603123529407</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1169133602081711</v>
+        <v>0.1227653835306758</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02455157595982348</v>
+        <v>0.02617074883420428</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1214240518340827</v>
+        <v>0.1215436030936528</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05018178197869352</v>
+        <v>0.0283763873282788</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1109313133067965</v>
+        <v>0.1212606520225201</v>
       </c>
       <c r="N223" t="n">
-        <v>0.07758775276151952</v>
+        <v>0.01568603123529407</v>
       </c>
       <c r="O223" t="n">
-        <v>0.119683181878846</v>
+        <v>0.1227653835306758</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01913213496087861</v>
+        <v>0.0155881676109671</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1176533181841722</v>
+        <v>0.1235423796289712</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02458282198989406</v>
+        <v>0.02587107295254196</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1221925584912605</v>
+        <v>0.1223128664043721</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04949768824281156</v>
+        <v>0.02802856594278064</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1116334102264598</v>
+        <v>0.1220281245036753</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07744854375100252</v>
+        <v>0.0155881676109671</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1204406703717501</v>
+        <v>0.1235423796289712</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01810705440697782</v>
+        <v>0.015583383912337</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1183932761601732</v>
+        <v>0.1243193757272666</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02451600624788887</v>
+        <v>0.02537099514611252</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1229610651484382</v>
+        <v>0.1230821297150914</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0492749355671904</v>
+        <v>0.02699193857886267</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1123355071461231</v>
+        <v>0.1227955969848305</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07841725420016787</v>
+        <v>0.015583383912337</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1211981588646542</v>
+        <v>0.1243193757272666</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01908248103786767</v>
+        <v>0.0153717992438948</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1191332341361743</v>
+        <v>0.125096371825562</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02465112668608474</v>
+        <v>0.02547146582877399</v>
       </c>
       <c r="K226" t="n">
-        <v>0.123729571805616</v>
+        <v>0.1238513930258107</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04861434382567453</v>
+        <v>0.02676687339261363</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1130376040657863</v>
+        <v>0.1235630694659857</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07779436901652498</v>
+        <v>0.0153717992438948</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1219556473575583</v>
+        <v>0.125096371825562</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02005842149110362</v>
+        <v>0.01545353271013158</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1198731921121754</v>
+        <v>0.1258733679238574</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02478818125675854</v>
+        <v>0.02527249480599242</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1244980784627937</v>
+        <v>0.1246206563365301</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04841673289210854</v>
+        <v>0.0256537385401221</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1137397009854496</v>
+        <v>0.1243305419471409</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07838037310758333</v>
+        <v>0.01545353271013158</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1227131358504623</v>
+        <v>0.1258733679238574</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01903488240424111</v>
+        <v>0.01512870341553839</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1206131500881765</v>
+        <v>0.1266503640221529</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02482716791218711</v>
+        <v>0.02497409188323396</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1252665851199714</v>
+        <v>0.1253899196472494</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04788292264033703</v>
+        <v>0.02495290217747642</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1144417979051129</v>
+        <v>0.125098014428296</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07817575138085231</v>
+        <v>0.01512870341553839</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1234706243433664</v>
+        <v>0.1266503640221529</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01801187041483564</v>
+        <v>0.01519743046460627</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1213531080641776</v>
+        <v>0.1274273601204483</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02466808460464735</v>
+        <v>0.02457626686596476</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1260350917771492</v>
+        <v>0.1261591829579687</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0468137329442046</v>
+        <v>0.02416473246076517</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1151438948247762</v>
+        <v>0.1258654869094512</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07808098874384162</v>
+        <v>0.01519743046460627</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1242281128362705</v>
+        <v>0.1274273601204483</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01798939216044266</v>
+        <v>0.01485983296182629</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1220930660401786</v>
+        <v>0.1282043562187437</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02471092928641609</v>
+        <v>0.02427902955965081</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1268035984343269</v>
+        <v>0.126928446268688</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04620998367755577</v>
+        <v>0.02378959754607718</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1158459917444394</v>
+        <v>0.1266329593906064</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07839657010406054</v>
+        <v>0.01485983296182629</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1249856013291746</v>
+        <v>0.1282043562187437</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01896745427861763</v>
+        <v>0.0147160300116895</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1228330240161797</v>
+        <v>0.1289813523170391</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02495569990977022</v>
+        <v>0.02408238976975835</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1275721050915047</v>
+        <v>0.1276977095794073</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04577249471423522</v>
+        <v>0.02332786558950067</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1165480886641027</v>
+        <v>0.1274004318717616</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07842298036901868</v>
+        <v>0.0147160300116895</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1257430898220787</v>
+        <v>0.1289813523170391</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01894606340691602</v>
+        <v>0.01476614071868697</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1235729819921808</v>
+        <v>0.1297583484153345</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02480239442698656</v>
+        <v>0.02388635730175337</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1283406117486824</v>
+        <v>0.1284669728901267</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04540208592808742</v>
+        <v>0.02267990474712445</v>
       </c>
       <c r="M232" t="n">
-        <v>0.117250185583766</v>
+        <v>0.1281679043529168</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07906070444622548</v>
+        <v>0.01476614071868697</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1265005783149828</v>
+        <v>0.1297583484153345</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01892522618289329</v>
+        <v>0.01451028418730971</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1243129399681819</v>
+        <v>0.1305353445136299</v>
       </c>
       <c r="J233" t="n">
-        <v>0.025051010790342</v>
+        <v>0.02379094196110207</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1291091184058601</v>
+        <v>0.129236236200846</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04429957719295696</v>
+        <v>0.021846083175037</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1179522825034292</v>
+        <v>0.128935376834072</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07861022724319044</v>
+        <v>0.01451028418730971</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1272580668078869</v>
+        <v>0.1305353445136299</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01790494924410491</v>
+        <v>0.01424857952204882</v>
       </c>
       <c r="G234" t="n">
-        <v>0.125052897944183</v>
+        <v>0.1313123406119253</v>
       </c>
       <c r="J234" t="n">
-        <v>0.0251015469521134</v>
+        <v>0.02349615355327056</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1298776250630379</v>
+        <v>0.1300054995115653</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04396578838268853</v>
+        <v>0.02112676902932675</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1186543794230925</v>
+        <v>0.1297028493152272</v>
       </c>
       <c r="N234" t="n">
-        <v>0.079472033667423</v>
+        <v>0.01424857952204882</v>
       </c>
       <c r="O234" t="n">
-        <v>0.128015555300791</v>
+        <v>0.1313123406119253</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01788523922810633</v>
+        <v>0.01418114582739534</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1257928559201841</v>
+        <v>0.1320893367102208</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02495400086457762</v>
+        <v>0.02360200188372483</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1306461317202156</v>
+        <v>0.1307747628222846</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04270153937112661</v>
+        <v>0.02082233046608234</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1193564763427558</v>
+        <v>0.1304703217963824</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07884660862643272</v>
+        <v>0.01418114582739534</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1287730437936951</v>
+        <v>0.1320893367102208</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01986610277245304</v>
+        <v>0.01390810220784032</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1265328138961851</v>
+        <v>0.1328663328085162</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0250083704800115</v>
+        <v>0.02330849675793112</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1314146383773933</v>
+        <v>0.1315440261330039</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04180765003211578</v>
+        <v>0.01983313564139244</v>
       </c>
       <c r="M236" t="n">
-        <v>0.120058573262419</v>
+        <v>0.1312377942775375</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07983443702772908</v>
+        <v>0.01390810220784032</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1295305322865991</v>
+        <v>0.1328663328085162</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01984754651470046</v>
+        <v>0.01392956776787482</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1272727718721862</v>
+        <v>0.1336433289068116</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02526465375069194</v>
+        <v>0.02291564798135556</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1321831450345711</v>
+        <v>0.1323132894437233</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04138494023950068</v>
+        <v>0.01975955271134544</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1207606701820823</v>
+        <v>0.1320052667586928</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07983600377882155</v>
+        <v>0.01392956776787482</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1302880207795032</v>
+        <v>0.1336433289068116</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01882957709240409</v>
+        <v>0.0137456616119899</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1280127298481873</v>
+        <v>0.134420325005107</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02522284862889576</v>
+        <v>0.0227234653594641</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1329516516917488</v>
+        <v>0.1330825527544426</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04053422986712582</v>
+        <v>0.01910194983202995</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1214627671017456</v>
+        <v>0.1327727392398479</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07975179378721953</v>
+        <v>0.0137456616119899</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1310455092724073</v>
+        <v>0.134420325005107</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01881220114311939</v>
+        <v>0.01355650284467659</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1287526878241884</v>
+        <v>0.1351973211034024</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02518295306689984</v>
+        <v>0.02293195869772299</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1337201583489266</v>
+        <v>0.1338518160651619</v>
       </c>
       <c r="L239" t="n">
-        <v>0.03965633878883582</v>
+        <v>0.01886069515953459</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1221648640214088</v>
+        <v>0.1335402117210031</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07988229196043267</v>
+        <v>0.01355650284467659</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1318029977653114</v>
+        <v>0.1351973211034024</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01879542530440179</v>
+        <v>0.01326221057042598</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1294926458001895</v>
+        <v>0.1359743172016978</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02534496501698105</v>
+        <v>0.0223411378015983</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1344886650061043</v>
+        <v>0.1346210793758812</v>
       </c>
       <c r="L240" t="n">
-        <v>0.03895208687847523</v>
+        <v>0.01783615684994772</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1228669609410721</v>
+        <v>0.1343076842021583</v>
       </c>
       <c r="N240" t="n">
-        <v>0.08032798320597029</v>
+        <v>0.01326221057042598</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1325604862582155</v>
+        <v>0.1359743172016978</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01977925621380678</v>
+        <v>0.01316290389372908</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1302326037761906</v>
+        <v>0.1367513132999933</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02550888243141625</v>
+        <v>0.0221510124765561</v>
       </c>
       <c r="K241" t="n">
-        <v>0.135257171663282</v>
+        <v>0.1353903426866006</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03782229400988868</v>
+        <v>0.01692870305935817</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1235690578607354</v>
+        <v>0.1350751566833135</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08058935243134197</v>
+        <v>0.01316290389372908</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1333179747511196</v>
+        <v>0.1367513132999933</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01976370050888982</v>
+        <v>0.01295870191907698</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1309725617521917</v>
+        <v>0.1375283093982887</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02547470326248226</v>
+        <v>0.02216159252806257</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1360256783204598</v>
+        <v>0.1361596059973199</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03686778005692071</v>
+        <v>0.01693870194385427</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1242711547803987</v>
+        <v>0.1358426291644687</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08086688454405722</v>
+        <v>0.01295870191907698</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1340754632440237</v>
+        <v>0.1375283093982887</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01874876482720638</v>
+        <v>0.01264972375096074</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1317125197281927</v>
+        <v>0.1383053054965841</v>
       </c>
       <c r="J243" t="n">
-        <v>0.025642425462456</v>
+        <v>0.02187288776158375</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1367941849776375</v>
+        <v>0.1369288693080392</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03578936489341591</v>
+        <v>0.01656652165952471</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1249732517000619</v>
+        <v>0.1366101016456239</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08096106445162554</v>
+        <v>0.01264972375096074</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1348329517369278</v>
+        <v>0.1383053054965841</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01873445580631192</v>
+        <v>0.01233608849387142</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1324524777041938</v>
+        <v>0.1390823015948795</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0257120469836143</v>
+        <v>0.02198490798258579</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1375626916348152</v>
+        <v>0.1376981326187585</v>
       </c>
       <c r="L244" t="n">
-        <v>0.03488786839321883</v>
+        <v>0.01611253036245802</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1256753486197252</v>
+        <v>0.1373775741267791</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08157237706155623</v>
+        <v>0.01233608849387142</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1355904402298319</v>
+        <v>0.1390823015948795</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0197207800837619</v>
+        <v>0.01211791525230002</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1331924356801949</v>
+        <v>0.1398592976931749</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02578356577823403</v>
+        <v>0.02139766299653481</v>
       </c>
       <c r="K245" t="n">
-        <v>0.138331198291993</v>
+        <v>0.1384673959294778</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03346411043017414</v>
+        <v>0.0155770962087427</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1263774455393885</v>
+        <v>0.1381450466079343</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08140130728135903</v>
+        <v>0.01211791525230002</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1363479287227359</v>
+        <v>0.1398592976931749</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01970774429711177</v>
+        <v>0.01209532313073765</v>
       </c>
       <c r="G246" t="n">
-        <v>0.133932393656196</v>
+        <v>0.1406362937914703</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02575697979859204</v>
+        <v>0.02141116260889686</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1390997049491707</v>
+        <v>0.1392366592401972</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03301891087812631</v>
+        <v>0.01546058735446731</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1270795424590517</v>
+        <v>0.1389125190890895</v>
       </c>
       <c r="N246" t="n">
-        <v>0.0823483400185433</v>
+        <v>0.01209532313073765</v>
       </c>
       <c r="O246" t="n">
-        <v>0.13710541721564</v>
+        <v>0.1406362937914703</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01869535508391703</v>
+        <v>0.01186843123367535</v>
       </c>
       <c r="G247" t="n">
-        <v>0.134672351632197</v>
+        <v>0.1414132898897658</v>
       </c>
       <c r="J247" t="n">
-        <v>0.0259322869969652</v>
+        <v>0.02102541662513815</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1398682116063485</v>
+        <v>0.1400059225509165</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03165308961091998</v>
+        <v>0.01496337195572056</v>
       </c>
       <c r="M247" t="n">
-        <v>0.127781639378715</v>
+        <v>0.1396799915702446</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08211396018061845</v>
+        <v>0.01186843123367535</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1378629057085441</v>
+        <v>0.1414132898897658</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01968361908173311</v>
+        <v>0.01153735866560415</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1354123096081981</v>
+        <v>0.1421902859880612</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02600948532563038</v>
+        <v>0.02144043485072469</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1406367182635262</v>
+        <v>0.1407751858616358</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0302674665023997</v>
+        <v>0.01478581816859076</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1284837362983783</v>
+        <v>0.1404474640513999</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08249865267509415</v>
+        <v>0.01153735866560415</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1386203942014482</v>
+        <v>0.1421902859880612</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01867254292811549</v>
+        <v>0.01140222453101514</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1361522675841992</v>
+        <v>0.1429672820863566</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02598857273686442</v>
+        <v>0.02065622709112264</v>
       </c>
       <c r="K249" t="n">
-        <v>0.141405224920704</v>
+        <v>0.1415444491723551</v>
       </c>
       <c r="L249" t="n">
-        <v>0.02916286142641011</v>
+        <v>0.01432829414916659</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1291858332180416</v>
+        <v>0.141214936532555</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08370290240947975</v>
+        <v>0.01140222453101514</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1393778826943523</v>
+        <v>0.1429672820863566</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01966213326061963</v>
+        <v>0.01106314793439935</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1368922255602003</v>
+        <v>0.143744278184652</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02606954718294419</v>
+        <v>0.02057280315179807</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1421737315778817</v>
+        <v>0.1423137124830744</v>
       </c>
       <c r="L250" t="n">
-        <v>0.02824009425679566</v>
+        <v>0.01339116805353663</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1298879301377048</v>
+        <v>0.1419824090137102</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08342719429128481</v>
+        <v>0.01106314793439935</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1401353711872564</v>
+        <v>0.143744278184652</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01765239671680097</v>
+        <v>0.01082024798024785</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1376321835362014</v>
+        <v>0.1445212742829474</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02605240661614652</v>
+        <v>0.02039017283821715</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1429422382350594</v>
+        <v>0.1430829757937938</v>
       </c>
       <c r="L251" t="n">
-        <v>0.02689998486740108</v>
+        <v>0.01367480803778942</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1305900270573681</v>
+        <v>0.1427498814948654</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08437201322801874</v>
+        <v>0.01082024798024785</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1408928596801605</v>
+        <v>0.1445212742829474</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01964333993421501</v>
+        <v>0.0106736437730517</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1383721415122025</v>
+        <v>0.1452982703812428</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02613714898874835</v>
+        <v>0.02030834595584594</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1437107448922372</v>
+        <v>0.1438522391045131</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02574335313207085</v>
+        <v>0.01277958225801346</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1312921239770314</v>
+        <v>0.1435173539760206</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08413784412719105</v>
+        <v>0.0106736437730517</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1416503481730646</v>
+        <v>0.1452982703812428</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01963496955041721</v>
+        <v>0.01042345441730193</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1391120994882035</v>
+        <v>0.1460752664795383</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02622377225302647</v>
+        <v>0.02012733231015057</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1444792515494149</v>
+        <v>0.1446215024152324</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02467101892464957</v>
+        <v>0.01250585887029737</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1319942208966946</v>
+        <v>0.1442848264571758</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08512517189631125</v>
+        <v>0.01042345441730193</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1424078366659687</v>
+        <v>0.1460752664795383</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01962729220296299</v>
+        <v>0.0100697990174896</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1398520574642046</v>
+        <v>0.1468522625778337</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02651227436125778</v>
+        <v>0.02024714170659719</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1452477582065926</v>
+        <v>0.1453907657259517</v>
       </c>
       <c r="L254" t="n">
-        <v>0.02338380211898186</v>
+        <v>0.01205400603072965</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1326963178163579</v>
+        <v>0.145052298938331</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08553448144288889</v>
+        <v>0.0100697990174896</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1431653251588727</v>
+        <v>0.1468522625778337</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01762031452940786</v>
+        <v>0.009912796678105788</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1405920154402057</v>
+        <v>0.1476292586761291</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02640265326571911</v>
+        <v>0.01996778395065182</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1460162648637704</v>
+        <v>0.146160029036671</v>
       </c>
       <c r="L255" t="n">
-        <v>0.02278252258891231</v>
+        <v>0.01182439189539891</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1333984147360212</v>
+        <v>0.1458197714194862</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08606625767443332</v>
+        <v>0.009912796678105788</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1439228136517768</v>
+        <v>0.1476292586761291</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01761404316730727</v>
+        <v>0.00955256650364153</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1413319734162068</v>
+        <v>0.1484062547744245</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02659490691868734</v>
+        <v>0.01968926884778063</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1467847715209481</v>
+        <v>0.1469292923473904</v>
       </c>
       <c r="L256" t="n">
-        <v>0.02126800020828537</v>
+        <v>0.01191738462039371</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1341005116556844</v>
+        <v>0.1465872439006413</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08692098549845417</v>
+        <v>0.00955256650364153</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1446803021446809</v>
+        <v>0.1484062547744245</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01760848475421668</v>
+        <v>0.009289227598587878</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1420719313922079</v>
+        <v>0.1491832508727199</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02658903327243933</v>
+        <v>0.01941160620344964</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1475532781781259</v>
+        <v>0.1476985556581097</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02014105485094575</v>
+        <v>0.01153335236180247</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1348026085753477</v>
+        <v>0.1473547163817966</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08729914982246073</v>
+        <v>0.009289227598587878</v>
       </c>
       <c r="O257" t="n">
-        <v>0.145437790637585</v>
+        <v>0.1491832508727199</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01960364592769156</v>
+        <v>0.009122899067435894</v>
       </c>
       <c r="G258" t="n">
-        <v>0.142811889368209</v>
+        <v>0.1499602469710153</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02678503027925196</v>
+        <v>0.01943480582312512</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1483217848353036</v>
+        <v>0.148467818968829</v>
       </c>
       <c r="L258" t="n">
-        <v>0.01860250639073802</v>
+        <v>0.01207266327571394</v>
       </c>
       <c r="M258" t="n">
-        <v>0.135504705495011</v>
+        <v>0.1481221888629517</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08800123555396266</v>
+        <v>0.009122899067435894</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1461952791304891</v>
+        <v>0.1499602469710153</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01859953332528735</v>
+        <v>0.008753700014676638</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1435518473442101</v>
+        <v>0.1507372430693107</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02698289589140204</v>
+        <v>0.0194588775122731</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1490902914924813</v>
+        <v>0.1492370822795483</v>
       </c>
       <c r="L259" t="n">
-        <v>0.01745317470150667</v>
+        <v>0.01183568551821662</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1362068024146742</v>
+        <v>0.1488896613441069</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08852772760046945</v>
+        <v>0.008753700014676638</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1469527676233932</v>
+        <v>0.1507372430693107</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01859615358455954</v>
+        <v>0.008381749544801143</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1442918053202111</v>
+        <v>0.1515142391676062</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02708262806116647</v>
+        <v>0.01928383107635961</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1498587981496591</v>
+        <v>0.1500063455902677</v>
       </c>
       <c r="L260" t="n">
-        <v>0.01649387965709637</v>
+        <v>0.01192278724539897</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1369088993343375</v>
+        <v>0.1496571338252621</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08897911086949051</v>
+        <v>0.008381749544801143</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1477102561162973</v>
+        <v>0.1515142391676062</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01959351334306359</v>
+        <v>0.008307166762300491</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1450317632962122</v>
+        <v>0.1522912352659016</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0269842247408221</v>
+        <v>0.01860967632085089</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1506273048068368</v>
+        <v>0.150775608900987</v>
       </c>
       <c r="L261" t="n">
-        <v>0.01472544113135169</v>
+        <v>0.0112343366133496</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1376109962540008</v>
+        <v>0.1504246063064173</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08975587026853532</v>
+        <v>0.008307166762300491</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1484677446092014</v>
+        <v>0.1522912352659016</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01959161923835496</v>
+        <v>0.007830070771665733</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1457717212722133</v>
+        <v>0.153068231364197</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0272876838826458</v>
+        <v>0.01843642305121299</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1513958114640145</v>
+        <v>0.1515448722117063</v>
       </c>
       <c r="L262" t="n">
-        <v>0.01344867899811716</v>
+        <v>0.01097070177815707</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1383130931736641</v>
+        <v>0.1511920787875725</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09025849070511338</v>
+        <v>0.007830070771665733</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1492252331021054</v>
+        <v>0.153068231364197</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0195904779079891</v>
+        <v>0.007550580677387911</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1465116792482144</v>
+        <v>0.1538452274624924</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02719300343891441</v>
+        <v>0.01856408107291199</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1521643181211923</v>
+        <v>0.1523141355224256</v>
       </c>
       <c r="L263" t="n">
-        <v>0.01276441313123736</v>
+        <v>0.01153225089590998</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1390151900933273</v>
+        <v>0.1519595512687277</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0916874570867342</v>
+        <v>0.007550580677387911</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1499827215950095</v>
+        <v>0.1538452274624924</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01959009598952149</v>
+        <v>0.007368815583958077</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1472516372242155</v>
+        <v>0.1546222235607878</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02740018136190482</v>
+        <v>0.01799266019141407</v>
       </c>
       <c r="K264" t="n">
-        <v>0.15293282477837</v>
+        <v>0.1530833988331449</v>
       </c>
       <c r="L264" t="n">
-        <v>0.01127346340455693</v>
+        <v>0.01121935212269687</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1397172870129906</v>
+        <v>0.1527270237498829</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09194325432090728</v>
+        <v>0.007368815583958077</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1507402100879136</v>
+        <v>0.1546222235607878</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1279.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1279.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8608268990399346</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04304134495199673</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04304134495199673</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06886615192319477</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08682480697119804</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01383552884441011</v>
+        <v>0.03682480697119803</v>
       </c>
       <c r="B65" t="n">
-        <v>0.009216768131851202</v>
+        <v>0.01592964612198987</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.002398801591650498</v>
+        <v>0.001598884073837771</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007769960982954163</v>
+        <v>0.0005646428901211099</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.006812215094292084</v>
+        <v>0.002598801591650497</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007692633107193213</v>
+        <v>0.0007769960982954163</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01047693213799189</v>
+        <v>0.007827715244827504</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007674724811551904</v>
+        <v>0.0007688684992351944</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.002398801591650498</v>
+        <v>0.01400000000000001</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007769960982954163</v>
+        <v>0.001055811320754718</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.004827855351925849</v>
+        <v>0.003175044183743092</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001553992196590833</v>
+        <v>0.00112928578024222</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01340700474707429</v>
+        <v>0.005027855351925847</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001538526621438643</v>
+        <v>0.001553992196590833</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01900000000000002</v>
+        <v>0.01512011521137852</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001474621359223302</v>
+        <v>0.001537736998470389</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.004827855351925849</v>
+        <v>0.01792761655445851</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001553992196590833</v>
+        <v>0.001533992814638917</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.007095822434184496</v>
+        <v>0.004728696314541245</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002330988294886249</v>
+        <v>0.00169392867036333</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01838278006200109</v>
+        <v>0.007095822434184496</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002307789932157964</v>
+        <v>0.002330988294886249</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.0250422847317745</v>
+        <v>0.02094858274474359</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002302417443465571</v>
+        <v>0.002306605497705583</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.007095822434184496</v>
+        <v>0.02479393939209806</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002330988294886249</v>
+        <v>0.002300989221958376</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.00891136399178491</v>
+        <v>0.006260056451057455</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003107984393181665</v>
+        <v>0.00225857156048444</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02099999999999999</v>
+        <v>0.009011363991784913</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002770198019801978</v>
+        <v>0.003107984393181665</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03164466413596828</v>
+        <v>0.02599999999999997</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003069889924620762</v>
+        <v>0.003363171521035594</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.00891136399178491</v>
+        <v>0.03152649588276385</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003107984393181665</v>
+        <v>0.003067985629277835</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004396699999999998</v>
+        <v>0.01032217534638786</v>
       </c>
       <c r="B70" t="n">
-        <v>0.011</v>
+        <v>0.02582480697119804</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01018314117808552</v>
+        <v>0.007769340578116998</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003884980491477081</v>
+        <v>0.00282321445060555</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02428686126052401</v>
+        <v>0.01028314117808551</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003846316553596607</v>
+        <v>0.003884980491477081</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03632071023000272</v>
+        <v>0.02684364047150717</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003837362405775952</v>
+        <v>0.003844342496175972</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.01018314117808552</v>
+        <v>0.03655830083065653</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003884980491477081</v>
+        <v>0.003834982036597293</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.011</v>
+        <v>0.009256764680545121</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004396699999999998</v>
+        <v>0.00338785734072666</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02644794321762028</v>
+        <v>0.011</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004615579864315928</v>
+        <v>0.004396699999999998</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04025708824346952</v>
+        <v>0.02768048381081095</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004604834886931143</v>
+        <v>0.004613210995411166</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.011</v>
+        <v>0.04102236903997658</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004396699999999998</v>
+        <v>0.004601978443916752</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01176732411677318</v>
+        <v>0.01072254474316708</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005438972688067914</v>
+        <v>0.00395250023084777</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02784680072002521</v>
+        <v>0.01186732411677319</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005384843175035249</v>
+        <v>0.005438972688067914</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.0441404634059604</v>
+        <v>0.02892810079059077</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005372307368086333</v>
+        <v>0.005382079494646361</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01176732411677318</v>
+        <v>0.04485171531492455</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005438972688067914</v>
+        <v>0.00536897485123621</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01237008040571762</v>
+        <v>0.01216689675080813</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00621596878636333</v>
+        <v>0.004517143120968879</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02895483656191888</v>
+        <v>0.01237008040571762</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006154106485754571</v>
+        <v>0.00621596878636333</v>
       </c>
       <c r="L73" s="172" t="n">
+        <v>0.03000290246102022</v>
+      </c>
+      <c r="M73" s="170" t="n">
+        <v>0.006468263275981542</v>
+      </c>
+      <c r="N73" s="171" t="n">
         <v>0.04617027607763036</v>
       </c>
-      <c r="M73" s="170" t="n">
-        <v>0.005972252216255291</v>
-      </c>
-      <c r="N73" s="171" t="n">
-        <v>0.01237008040571762</v>
-      </c>
       <c r="O73" s="172" t="n">
-        <v>0.00621596878636333</v>
+        <v>0.00580322621013486</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01258883812767168</v>
+        <v>0.01359003668829351</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006992964884658746</v>
+        <v>0.005081786011089989</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03000290246102022</v>
+        <v>0.01258883812767168</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006596347697288107</v>
+        <v>0.006992964884658746</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04795682814025082</v>
+        <v>0.03048525199192625</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006907252330396714</v>
+        <v>0.00691981649311675</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01258883812767168</v>
+        <v>0.04821120191942957</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006992964884658746</v>
+        <v>0.006902967665875128</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01295847703410809</v>
+        <v>0.01499218054044849</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007769960982954162</v>
+        <v>0.005646428901211099</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03121932831771865</v>
+        <v>0.01305847703410809</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007692633107193213</v>
+        <v>0.007769960982954162</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04948994576605825</v>
+        <v>0.03121371698877948</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007674724811551905</v>
+        <v>0.007688684992351945</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01295847703410809</v>
+        <v>0.0498704131015768</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007769960982954162</v>
+        <v>0.007669964073194586</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01331387687649954</v>
+        <v>0.01637354429209831</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008546957081249579</v>
+        <v>0.006211071791332209</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03226931075031597</v>
+        <v>0.01351387687649955</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008461896417912534</v>
+        <v>0.008546957081249579</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05148364588133031</v>
+        <v>0.03195023805421512</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008442197292707095</v>
+        <v>0.008457553491587139</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01331387687649954</v>
+        <v>0.05238673272105626</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008546957081249579</v>
+        <v>0.008436960480514044</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
+        <v>0.01773434392806825</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.00677571468145332</v>
+      </c>
+      <c r="J77" t="n">
         <v>0.01383552884441011</v>
       </c>
-      <c r="G77" t="n">
+      <c r="K77" t="n">
         <v>0.009216768131851202</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.03330712699962529</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009231159728631855</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.05313794892007612</v>
+        <v>0.03269369704898881</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009209669773862285</v>
+        <v>0.009226421990822332</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01383552884441011</v>
+        <v>0.05386030913887285</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009216768131851202</v>
+        <v>0.009203956887833504</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01408465827115006</v>
+        <v>0.01907479543318354</v>
       </c>
       <c r="G78" t="n">
+        <v>0.007340357571574429</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01418465827115006</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01010094927784041</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03453230118207623</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01000042303935118</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.05555287531630471</v>
+        <v>0.03334297583385623</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009977142255017475</v>
+        <v>0.009995290490057526</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01408465827115006</v>
+        <v>0.05569129071603168</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01010094927784041</v>
+        <v>0.009970953295152962</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01448633885758926</v>
+        <v>0.02039511479226946</v>
       </c>
       <c r="G79" t="n">
+        <v>0.00790500046169554</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01468633885758927</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01087794537613583</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03554435741409859</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.0107696863500705</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.0565284455040253</v>
+        <v>0.03409695626957307</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01074461473617267</v>
+        <v>0.01076415898929272</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01448633885758926</v>
+        <v>0.05767982581353792</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01087794537613583</v>
+        <v>0.01073794970247242</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01489379364434526</v>
+        <v>0.02169551799015122</v>
       </c>
       <c r="G80" t="n">
+        <v>0.008469643351816649</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01509379364434527</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01165494147443124</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03634281981212198</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01153894966078982</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.05856467991724723</v>
+        <v>0.03525452021689487</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01151208721732786</v>
+        <v>0.01153302748852792</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01489379364434526</v>
+        <v>0.05882606279239677</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01165494147443124</v>
+        <v>0.01150494610979188</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01550628523827195</v>
+        <v>0.02297622101165412</v>
       </c>
       <c r="G81" t="n">
+        <v>0.009034286241937759</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01530628523827195</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01243193757272666</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03702721249257621</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01230821297150914</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.06036159898997961</v>
+        <v>0.03581454953657742</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01227955969848305</v>
+        <v>0.01230189598776311</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01550628523827195</v>
+        <v>0.060530150013613</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01243193757272666</v>
+        <v>0.01227194251711134</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01582307624622313</v>
+        <v>0.02423743984160339</v>
       </c>
       <c r="G82" t="n">
+        <v>0.009598929132058868</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01592307624622313</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01320893367102208</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.03809705957189088</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01307747628222846</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.06181922315623156</v>
+        <v>0.03707592608937627</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01304703217963824</v>
+        <v>0.0130707644869983</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01582307624622313</v>
+        <v>0.06199223583819197</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01320893367102208</v>
+        <v>0.0130389389244308</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0163434292750527</v>
+        <v>0.02582480697119804</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01032217534638786</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01624342927505269</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01398592976931749</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.03895188516649581</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01384673959294778</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.06273757285001214</v>
+        <v>0.03803753173604713</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01381450466079343</v>
+        <v>0.0138396329862335</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0163434292750527</v>
+        <v>0.06391246862713867</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01398592976931749</v>
+        <v>0.01380593533175026</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
+        <v>0.02671129477044847</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.01072821491230109</v>
+      </c>
+      <c r="J84" t="n">
         <v>0.01656660693161449</v>
       </c>
-      <c r="G84" t="n">
+      <c r="K84" t="n">
         <v>0.01476292586761291</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.04039121339282059</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01461600290366711</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.06451666850533078</v>
+        <v>0.03869824833734561</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01458197714194862</v>
+        <v>0.01460850148546869</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01656660693161449</v>
+        <v>0.06509099674145807</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01476292586761291</v>
+        <v>0.01457293173906971</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
+        <v>0.02795130716624398</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0112928578024222</v>
+      </c>
+      <c r="J85" t="n">
         <v>0.0171918718227624</v>
       </c>
-      <c r="G85" t="n">
+      <c r="K85" t="n">
         <v>0.01553992196590832</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.04091456836729507</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01538526621438643</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.06605653055619654</v>
+        <v>0.03975695775402741</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01534944962310381</v>
+        <v>0.01537736998470389</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0171918718227624</v>
+        <v>0.06702796854215548</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01553992196590832</v>
+        <v>0.01533992814638917</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
+        <v>0.0291879691893206</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01185750069254331</v>
+      </c>
+      <c r="J86" t="n">
         <v>0.01751848655535021</v>
       </c>
-      <c r="G86" t="n">
+      <c r="K86" t="n">
         <v>0.01631691806420374</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.04232147420634885</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01615452952510575</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.06765717943661859</v>
+        <v>0.04071254184684808</v>
       </c>
       <c r="M86" t="n">
-        <v>0.016116922104259</v>
+        <v>0.01614623848393908</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01751848655535021</v>
+        <v>0.06792353239023591</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01631691806420374</v>
+        <v>0.01610692455370863</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01794571373623187</v>
+        <v>0.03040827441209584</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01242214358266442</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01784571373623187</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01709391416249916</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.04261145502641167</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01692379283582507</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.06921863558060593</v>
+        <v>0.04136388247656339</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01688439458541419</v>
+        <v>0.01691510698317428</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01794571373623187</v>
+        <v>0.06937783664670427</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01709391416249916</v>
+        <v>0.01687392096102809</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
+        <v>0.03159921640698721</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.01298678647278553</v>
+      </c>
+      <c r="J88" t="n">
         <v>0.01847281597226116</v>
       </c>
-      <c r="G88" t="n">
+      <c r="K88" t="n">
         <v>0.01787091026079457</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.04398403494391329</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01769305614654439</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.07044091942216801</v>
+        <v>0.04190986150392892</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01765186706656938</v>
+        <v>0.01768397548240947</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01847281597226116</v>
+        <v>0.07049102967256593</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01787091026079457</v>
+        <v>0.01764091736834755</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
+        <v>0.03274778874641226</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.01355142936290664</v>
+      </c>
+      <c r="J89" t="n">
         <v>0.01889905587029198</v>
       </c>
-      <c r="G89" t="n">
+      <c r="K89" t="n">
         <v>0.01864790635908999</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.04443873807528331</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01846231945726371</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.07172405139531396</v>
+        <v>0.04284936078970034</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01841933954772457</v>
+        <v>0.01845284398164466</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01889905587029198</v>
+        <v>0.07156325982882578</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01864790635908999</v>
+        <v>0.01840791377566701</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01932369603717816</v>
+        <v>0.03384098500278847</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01411607225302775</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01922369603717816</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.0194249024573854</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.04577508853695156</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01923158276798303</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.07246805193405281</v>
+        <v>0.04378126219463335</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01918681202887976</v>
+        <v>0.01922171248087986</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01932369603717816</v>
+        <v>0.07309467547648901</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0194249024573854</v>
+        <v>0.01917491018298647</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01974599907977358</v>
+        <v>0.0348657987485334</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01468071514314886</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.01954599907977357</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02020189855568082</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.04649261044534767</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02000084607870235</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.07427294147239383</v>
+        <v>0.04440444757948353</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01995428451003495</v>
+        <v>0.01999058098011505</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01974599907977358</v>
+        <v>0.07468542497656061</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02020189855568082</v>
+        <v>0.01994190659030592</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01996522760493206</v>
+        <v>0.03580922355606451</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01524535803326997</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02016522760493207</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02097889465397624</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.04699082791690135</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02077010938942167</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.07453874044434616</v>
+        <v>0.04521779880500656</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02072175699119014</v>
+        <v>0.02075944947935025</v>
       </c>
       <c r="N92" t="n">
-        <v>0.01996522760493206</v>
+        <v>0.07553565669004569</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02097889465397624</v>
+        <v>0.02070890299762538</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0204806442195075</v>
+        <v>0.03682480697119803</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01592964612198987</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.0203806442195075</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02175589075227165</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.04756926506804238</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02153937270014099</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.07586546928391907</v>
+        <v>0.04652019773195806</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02148922947234533</v>
+        <v>0.02152831797858544</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0204806442195075</v>
+        <v>0.07634551897794944</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02175589075227165</v>
+        <v>0.02147589940494484</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
+        <v>0.0374314996874436</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.01637464381351219</v>
+      </c>
+      <c r="J94" t="n">
         <v>0.02089151153035372</v>
       </c>
-      <c r="G94" t="n">
+      <c r="K94" t="n">
         <v>0.02253288685056707</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.0485274460152004</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02230863601086032</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.07695314842512152</v>
+        <v>0.04711052622109374</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02225670195350052</v>
+        <v>0.02229718647782064</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02089151153035372</v>
+        <v>0.07751516020127686</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02253288685056707</v>
+        <v>0.0222428958122643</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
+        <v>0.03818995501605268</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0169392867036333</v>
+      </c>
+      <c r="J95" t="n">
         <v>0.02139709214432461</v>
       </c>
-      <c r="G95" t="n">
+      <c r="K95" t="n">
         <v>0.02330988294886249</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.04966489487480513</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02307789932157964</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.07840179830196292</v>
+        <v>0.04768766613316919</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02302417443465571</v>
+        <v>0.02306605497705583</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02139709214432461</v>
+        <v>0.07884472872103304</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02330988294886249</v>
+        <v>0.02300989221958376</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02169664866827399</v>
+        <v>0.03893423696099869</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01750392959375441</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02159664866827399</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.0240868790471579</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.0502811357632863</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02384716263229896</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.07971143934845232</v>
+        <v>0.04835049932894009</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0237916469158109</v>
+        <v>0.02383492347629102</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02169664866827399</v>
+        <v>0.0797343728982231</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0240868790471579</v>
+        <v>0.02377688862690322</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02218944370905576</v>
+        <v>0.03966276326614376</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01806857248387552</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02198944370905576</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02486387514545332</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.05097569279707359</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02461642594301828</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.07988209199859891</v>
+        <v>0.04949790766916215</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02455911939696609</v>
+        <v>0.02460379197552622</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02218944370905576</v>
+        <v>0.08048424109385216</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02486387514545332</v>
+        <v>0.02454388503422268</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02257473987352372</v>
+        <v>0.0403739516753499</v>
       </c>
       <c r="G98" t="n">
+        <v>0.01863321537399663</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02247473987352372</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02564087124374874</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.05134809009259675</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.0253856892537376</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.08151377668641185</v>
+        <v>0.0498287730145909</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02532659187812128</v>
+        <v>0.02537266047476142</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02257473987352372</v>
+        <v>0.08149448166892515</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02564087124374874</v>
+        <v>0.02531088144154213</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02275179976853177</v>
+        <v>0.04106621993247917</v>
       </c>
       <c r="G99" t="n">
+        <v>0.01919785826411774</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02285179976853177</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02641786734204415</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.05179785176628549</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02615495256445692</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.08210651384590034</v>
+        <v>0.05074197722598212</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02609406435927647</v>
+        <v>0.02614152897399661</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02275179976853177</v>
+        <v>0.08216524298444733</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02641786734204415</v>
+        <v>0.02607787784886159</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02321988600093375</v>
+        <v>0.04173798578139364</v>
       </c>
       <c r="G100" t="n">
+        <v>0.01976250115423885</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02311988600093375</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02719486344033957</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.05302450193456951</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02692421587517625</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.08296032391107366</v>
+        <v>0.05163640216409132</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02686153684043166</v>
+        <v>0.0269103974732318</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02321988600093375</v>
+        <v>0.08299667340142369</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02719486344033957</v>
+        <v>0.02684487425618105</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
+        <v>0.04238766696595538</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.02032714404435996</v>
+      </c>
+      <c r="J101" t="n">
         <v>0.02347826117758352</v>
       </c>
-      <c r="G101" t="n">
+      <c r="K101" t="n">
         <v>0.02797185953863499</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.05362756471387847</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02769347918589557</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.0835752273159408</v>
+        <v>0.05201092968967425</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02762900932158686</v>
+        <v>0.027679265972467</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02347826117758352</v>
+        <v>0.08368892128085931</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02797185953863499</v>
+        <v>0.02761187066350051</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02382618790533494</v>
+        <v>0.04301368123002645</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02089178693448107</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02392618790533495</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.0287488556369304</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.0537065642206421</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02846274249661489</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.08495124449451091</v>
+        <v>0.05266444166348655</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02839648180274204</v>
+        <v>0.02844813447170219</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02382618790533494</v>
+        <v>0.08514213498375944</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0287488556369304</v>
+        <v>0.02837886707081997</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02436292879104185</v>
+        <v>0.04361444631746888</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02145642982460218</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02416292879104184</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02952585173522582</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.05466102457129018</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02923200580733421</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.08568839588079341</v>
+        <v>0.05309581994628387</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02916395428389723</v>
+        <v>0.02921700297093739</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02436292879104185</v>
+        <v>0.08535646287112897</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02952585173522582</v>
+        <v>0.02914586347813943</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02468774644155812</v>
+        <v>0.04418837997214475</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02202107271472329</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02458774644155812</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03030284783352123</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.05509046988225233</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03000126911805353</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.08608670190879725</v>
+        <v>0.05400394639882183</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02993142676505242</v>
+        <v>0.02998587147017259</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02468774644155812</v>
+        <v>0.08643205330397308</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03030284783352123</v>
+        <v>0.02991285988545889</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
+        <v>0.04473389993791612</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0225857156048444</v>
+      </c>
+      <c r="J105" t="n">
         <v>0.02499990346373762</v>
       </c>
-      <c r="G105" t="n">
+      <c r="K105" t="n">
         <v>0.03107984393181665</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.0553944242699583</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03077053242877285</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.0870461830125317</v>
+        <v>0.05428770288185614</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03069889924620762</v>
+        <v>0.03075473996940778</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02499990346373762</v>
+        <v>0.08696905464329668</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03107984393181665</v>
+        <v>0.03067985629277835</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02509866246443417</v>
+        <v>0.04524942395864501</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02315035849496551</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02529866246443417</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03185684003011207</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.05597241185083782</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03153979573949217</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.08706685962600591</v>
+        <v>0.05524597125614236</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0314663717273628</v>
+        <v>0.03152360846864297</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02509866246443417</v>
+        <v>0.08716761525010519</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03185684003011207</v>
+        <v>0.0314468527000978</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02538328605050164</v>
+        <v>0.04573336977819355</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02371500138508661</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02558328605050164</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03263383612840748</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.05642395674132056</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.0323090590502115</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.08744875218322906</v>
+        <v>0.05567763338243625</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03223384420851799</v>
+        <v>0.03229247696787816</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02538328605050164</v>
+        <v>0.08832788348540344</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03263383612840748</v>
+        <v>0.03221384910741726</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
+        <v>0.04618415514042375</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.02427964427520772</v>
+      </c>
+      <c r="J108" t="n">
         <v>0.0257530368287939</v>
       </c>
-      <c r="G108" t="n">
+      <c r="K108" t="n">
         <v>0.03341083222670289</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.05674858305783623</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03307832236093081</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.08799188111821032</v>
+        <v>0.05588157112149336</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03300131668967319</v>
+        <v>0.03306134546711336</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0257530368287939</v>
+        <v>0.0886500077101966</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03341083222670289</v>
+        <v>0.03298084551473672</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02610717740616481</v>
+        <v>0.04660019778919768</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02484428716532884</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.0260071774061648</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03418782832499832</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.0575458149168146</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03384758567165014</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.08839626686495888</v>
+        <v>0.05635666633406941</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03376878917082838</v>
+        <v>0.03383021396634855</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02610717740616481</v>
+        <v>0.08933413628548981</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03418782832499832</v>
+        <v>0.03374784192205618</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
+        <v>0.04697991546837741</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.02540893005544995</v>
+      </c>
+      <c r="J110" t="n">
         <v>0.02614497038946821</v>
       </c>
-      <c r="G110" t="n">
+      <c r="K110" t="n">
         <v>0.03496482442329373</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.05771517643468527</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03461684898236946</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.08976192985748388</v>
+        <v>0.05710180088092004</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03453626165198356</v>
+        <v>0.03459908246558375</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02614497038946821</v>
+        <v>0.08898041757228803</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03496482442329373</v>
+        <v>0.03451483832937564</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02656567838555794</v>
+        <v>0.04732172592182498</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02597357294557106</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02646567838555794</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03574182052158915</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.05795619172787808</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03538611229308878</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.08958889052979457</v>
+        <v>0.05781585662280087</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03530373413313875</v>
+        <v>0.03536795096481895</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02656567838555794</v>
+        <v>0.09018899993159646</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03574182052158915</v>
+        <v>0.0352818347366951</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
+        <v>0.04762404689340245</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.02653821583569217</v>
+      </c>
+      <c r="J112" t="n">
         <v>0.0267685640012879</v>
       </c>
-      <c r="G112" t="n">
+      <c r="K112" t="n">
         <v>0.03651881661988456</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.05836838491282262</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.0361553756038081</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.08997716931590005</v>
+        <v>0.05799771542046758</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03607120661429395</v>
+        <v>0.03613681946405414</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0267685640012879</v>
+        <v>0.0902600317244201</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03651881661988456</v>
+        <v>0.03604883114401456</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0267528898435119</v>
+        <v>0.04788702366969461</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02710285872581328</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.0268528898435119</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03729581271817998</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.05865128010594867</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03692463891452742</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.09032678664980948</v>
+        <v>0.0584462591346758</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03683867909544914</v>
+        <v>0.03690568796328933</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0267528898435119</v>
+        <v>0.09009366131176411</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03729581271817998</v>
+        <v>0.03681582755133402</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
+        <v>0.04813750758896187</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.02766750161593439</v>
+      </c>
+      <c r="J114" t="n">
         <v>0.02711791851908385</v>
       </c>
-      <c r="G114" t="n">
+      <c r="K114" t="n">
         <v>0.0380728088164754</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.05850440142368593</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03769390222524674</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.09103776296553207</v>
+        <v>0.05886036962618119</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03760615157660433</v>
+        <v>0.03767455646252453</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02711791851908385</v>
+        <v>0.09039003705463355</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0380728088164754</v>
+        <v>0.03758282395865348</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02726291263485754</v>
+        <v>0.04838510636927921</v>
       </c>
       <c r="G115" t="n">
+        <v>0.0282321445060555</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02716291263485754</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03884980491477081</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.0593272729824641</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03846316553596606</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.09141011869707705</v>
+        <v>0.05883892875573943</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03837362405775951</v>
+        <v>0.03844342496175972</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02726291263485754</v>
+        <v>0.09064930731403348</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03884980491477081</v>
+        <v>0.03834982036597293</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02738713479768688</v>
+        <v>0.0486297361719463</v>
       </c>
       <c r="G116" t="n">
+        <v>0.02879678739617661</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.02728713479768688</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03962680101306622</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.05941941889871291</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03923242884668538</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.09174387427845349</v>
+        <v>0.05938081838410611</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03914109653891471</v>
+        <v>0.03921229346099492</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02738713479768688</v>
+        <v>0.09147162045096902</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03962680101306622</v>
+        <v>0.03911681677329239</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
+        <v>0.0488713131582628</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.02936143028629772</v>
+      </c>
+      <c r="J117" t="n">
         <v>0.0273898476144257</v>
       </c>
-      <c r="G117" t="n">
+      <c r="K117" t="n">
         <v>0.04040379711136164</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.059180363288862</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04000169215740471</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.09173905014367056</v>
+        <v>0.05908492037203694</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0399085690200699</v>
+        <v>0.0399811619602301</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0273898476144257</v>
+        <v>0.09135712482644531</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04040379711136164</v>
+        <v>0.03988381318061185</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
+        <v>0.0491097534895284</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.02992607317641883</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.02757031369192786</v>
       </c>
-      <c r="G118" t="n">
+      <c r="K118" t="n">
         <v>0.04118079320965706</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.05950963026934117</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04077095546812402</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.09199566672673759</v>
+        <v>0.05975011658028756</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04067604150122509</v>
+        <v>0.04075003045946531</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02757031369192786</v>
+        <v>0.0914059688014674</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04118079320965706</v>
+        <v>0.0406508095879313</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02742779563704723</v>
+        <v>0.04934497332704278</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03049071606653993</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.02752779563704723</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04195778930795248</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.05980674395658009</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04154021877884335</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.09171374446166364</v>
+        <v>0.05977528886961361</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04144351398238028</v>
+        <v>0.0415188989587005</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02742779563704723</v>
+        <v>0.09131830073704023</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04195778930795248</v>
+        <v>0.04141780599525077</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
+        <v>0.04957688883210557</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.03105535895666105</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.02767105768882022</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.04273478540624789</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.06000580492204047</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04230948208956267</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.09169330378245782</v>
+        <v>0.05965931910077074</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04221098646353547</v>
+        <v>0.04228776745793569</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02767105768882022</v>
+        <v>0.09189426899416897</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04273478540624789</v>
+        <v>0.04218480240257022</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02767103033286231</v>
+        <v>0.04980541616601645</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03162000184678216</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.0274709495592185</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04351178150454331</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.05980260791705599</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04307874540028199</v>
-      </c>
       <c r="L121" t="n">
+        <v>0.06000580492204047</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.04305663595717089</v>
+      </c>
+      <c r="N121" t="n">
         <v>0.09234055215526071</v>
       </c>
-      <c r="M121" t="n">
-        <v>0.04297845894469066</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.02767103033286231</v>
-      </c>
       <c r="O121" t="n">
-        <v>0.04351178150454331</v>
+        <v>0.04295179880988968</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02766888246284793</v>
+        <v>0.05003047149007512</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03218464473690327</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.02756256315287771</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04428877760283872</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.05940167593883161</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04384800871100131</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.09193792649121385</v>
+        <v>0.05990194106821981</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04374593142584585</v>
+        <v>0.04382550445640608</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02766888246284793</v>
+        <v>0.09193653055247308</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04428877760283872</v>
+        <v>0.04371879521720914</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0276633168675757</v>
+        <v>0.05025197096558121</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03274928762702438</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.02754119813583839</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04506577370113414</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.05947445323130798</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04461727202172063</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.09221207658503083</v>
+        <v>0.05967443654411861</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04451340390700104</v>
+        <v>0.04459437295564127</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0276633168675757</v>
+        <v>0.09139162672248513</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04506577370113414</v>
+        <v>0.04448579162452861</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02755435004020837</v>
+        <v>0.05046983075383444</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03331393051714548</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.02760740912106424</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04584276979942956</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.05952253603769728</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04538653533243995</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.09175931323445957</v>
+        <v>0.05932135654791393</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04528087638815623</v>
+        <v>0.04536324145487648</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02755435004020837</v>
+        <v>0.09179875430964279</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04584276979942956</v>
+        <v>0.04525278803184806</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02744199847390877</v>
+        <v>0.05068396701613442</v>
       </c>
       <c r="G125" t="n">
+        <v>0.0338785734072666</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02736175072151889</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04661976589772497</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.05974680822799158</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04615579864315927</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.0916805012660924</v>
+        <v>0.05964370826969254</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04604834886931142</v>
+        <v>0.04613210995411167</v>
       </c>
       <c r="N125" t="n">
-        <v>0.02744199847390877</v>
+        <v>0.09206018499467117</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04661976589772497</v>
+        <v>0.04601978443916752</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02762627866183971</v>
+        <v>0.05089429591378086</v>
       </c>
       <c r="G126" t="n">
+        <v>0.0344432162973877</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.02750477755016605</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04739676199602039</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.05914815367218285</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.0469250619538786</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.09137650550652149</v>
+        <v>0.05924249889954128</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04681582135046661</v>
+        <v>0.04690097845334686</v>
       </c>
       <c r="N126" t="n">
-        <v>0.02762627866183971</v>
+        <v>0.09147819045829547</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04739676199602039</v>
+        <v>0.04678678084648698</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02750720709716398</v>
+        <v>0.0511007336080734</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03500785918750882</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02733704421996935</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04817375809431581</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.05932745624026312</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04769432526459792</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.09134819078233908</v>
+        <v>0.05911873562754685</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0475832938316218</v>
+        <v>0.04766984695258205</v>
       </c>
       <c r="N127" t="n">
-        <v>0.02750720709716398</v>
+        <v>0.09165504238124078</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04817375809431581</v>
+        <v>0.04755377725380644</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02758480027304437</v>
+        <v>0.05130319626031173</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03557250207762992</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02735910534389246</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04895075419261122</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.05948559980222443</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04846358857531724</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.09169642192013744</v>
+        <v>0.0589734256437961</v>
       </c>
       <c r="M128" t="n">
-        <v>0.048350766312777</v>
+        <v>0.04843871545181725</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02758480027304437</v>
+        <v>0.09059301244423223</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04895075419261122</v>
+        <v>0.04832077366112589</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02745907468264371</v>
+        <v>0.05150160003179553</v>
       </c>
       <c r="G129" t="n">
+        <v>0.03613714496775104</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02717151553489905</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04972775029090664</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.05902346822805882</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04923285188603656</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.09112206374650889</v>
+        <v>0.05910757613837575</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04911823879393219</v>
+        <v>0.04920758395105244</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02745907468264371</v>
+        <v>0.09069437232799504</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04972775029090664</v>
+        <v>0.04908777006844536</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02733004681912475</v>
+        <v>0.05169586108382446</v>
       </c>
       <c r="G130" t="n">
+        <v>0.03670178785787215</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02707482940595279</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05050474638920206</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.05904194538775828</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05000211519675588</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.0910259810880456</v>
+        <v>0.05912219430137258</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04988571127508738</v>
+        <v>0.04997645245028764</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02733004681912475</v>
+        <v>0.09066139371325416</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05050474638920206</v>
+        <v>0.04985476647576481</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02739773317565036</v>
+        <v>0.05188589557769818</v>
       </c>
       <c r="G131" t="n">
+        <v>0.03726643074799325</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02706960157001734</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05128174248749747</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.05864191515131489</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05077137850747521</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.09080903877133983</v>
+        <v>0.05861828732287341</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05065318375624257</v>
+        <v>0.05074532094952283</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02739773317565036</v>
+        <v>0.0903963482807349</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05128174248749747</v>
+        <v>0.05062176288308427</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0274621502453833</v>
+        <v>0.05207161967471634</v>
       </c>
       <c r="G132" t="n">
+        <v>0.03783107363811437</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02685638664005637</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05205873858579289</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.05812426138872059</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05154064181819453</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.09027210162298394</v>
+        <v>0.05859686239296497</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05142065623739776</v>
+        <v>0.05151418944875803</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0274621502453833</v>
+        <v>0.09000150771116228</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05205873858579289</v>
+        <v>0.05138875929040373</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02722331452148637</v>
+        <v>0.05225294953617866</v>
       </c>
       <c r="G133" t="n">
+        <v>0.03839571652823547</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.02683573922903354</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.0528357346840883</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.0584898679699675</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05230990512891385</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.09001603446956996</v>
+        <v>0.05805892670173404</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05218812871855295</v>
+        <v>0.05228305794799322</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02722331452148637</v>
+        <v>0.08867914368526153</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0528357346840883</v>
+        <v>0.05215575569772318</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02718124249712239</v>
+        <v>0.05242980132338477</v>
       </c>
       <c r="G134" t="n">
+        <v>0.03896035941835659</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.0266082139499125</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05361273078238372</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.05783961876504756</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05307916843963317</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.08964170213769029</v>
+        <v>0.05780548743926742</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05295560119970814</v>
+        <v>0.05305192644722841</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02718124249712239</v>
+        <v>0.08913152788375767</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05361273078238372</v>
+        <v>0.05292275210504265</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02713595066545416</v>
+        <v>0.05260209119763435</v>
       </c>
       <c r="G135" t="n">
+        <v>0.03952500230847769</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02647436541565697</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05438972688067913</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.05737439764395288</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05384843175035249</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.09004996945393712</v>
+        <v>0.05733755179565192</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05372307368086333</v>
+        <v>0.05382079494646361</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02713595066545416</v>
+        <v>0.08796093198737592</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05438972688067913</v>
+        <v>0.05368974851236211</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02728745551964448</v>
+        <v>0.05276973532022709</v>
       </c>
       <c r="G136" t="n">
+        <v>0.0400896451985988</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02643474823923056</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05516672297897455</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.05749508847667539</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05461769506107181</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.08914170124490284</v>
+        <v>0.05745612696097421</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05449054616201852</v>
+        <v>0.05458966344569881</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02728745551964448</v>
+        <v>0.08766962767684139</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05516672297897455</v>
+        <v>0.05445674491968157</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02713577355285615</v>
+        <v>0.05293264985246262</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04065428808871991</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02608991703359695</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05594371907726997</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.05740257513320718</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05538695837179114</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.08921776233717943</v>
+        <v>0.05686222012532119</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05525801864317371</v>
+        <v>0.055358531944934</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02713577355285615</v>
+        <v>0.08755988663287922</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05594371907726997</v>
+        <v>0.05522374132700102</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02718092125825197</v>
+        <v>0.05309075095564064</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04121893097884102</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02594042641171981</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05672071517556539</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.05709774148354027</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05615622168251046</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.08837901755735939</v>
+        <v>0.05655683847877951</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05602549112432889</v>
+        <v>0.0561274004441692</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02718092125825197</v>
+        <v>0.08673398053621451</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05672071517556539</v>
+        <v>0.05599073773432049</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02692291512899474</v>
+        <v>0.05324395479106082</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04178357386896214</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.0257868309865628</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05749771127386081</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.05668147139766666</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05692548499322977</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.08872633173203492</v>
+        <v>0.05624098921143605</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05679296360548408</v>
+        <v>0.05689626894340439</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02692291512899474</v>
+        <v>0.08589418106757246</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05749771127386081</v>
+        <v>0.05675773414163994</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02696177165824726</v>
+        <v>0.05339217752002279</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04234821675908324</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02562968537108962</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05827470737215621</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.0562546487455784</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05769474830394909</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.08776056968779822</v>
+        <v>0.05611567951337756</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05756043608663928</v>
+        <v>0.05766513744263958</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02696177165824726</v>
+        <v>0.08534275990767803</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05827470737215621</v>
+        <v>0.0575247305489594</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02679750733917234</v>
+        <v>0.05353533530382628</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04291285964920435</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02566954417826388</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05905170347045163</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.05571815739726749</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05846401161466842</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.08728259625124152</v>
+        <v>0.0560819165746908</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05832790856779447</v>
+        <v>0.05843400594187478</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02679750733917234</v>
+        <v>0.0849819887372566</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05905170347045163</v>
+        <v>0.05829172695627886</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02693013866493281</v>
+        <v>0.05367334430377092</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04347750253932546</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.02530696202104928</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.05982869956874706</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.05537288122272596</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05923327492538774</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.08739327624895704</v>
+        <v>0.05544070758546257</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05909538104894966</v>
+        <v>0.05920287444110996</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02693013866493281</v>
+        <v>0.08411413923703315</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05982869956874706</v>
+        <v>0.05905872336359832</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02665968212869141</v>
+        <v>0.05380612068115639</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04404214542944657</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02514249351240948</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06060569566704246</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.05491970409194585</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06000253823610706</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.0863934745075372</v>
+        <v>0.05509305973577963</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05986285353010485</v>
+        <v>0.05997174294034517</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02665968212869141</v>
+        <v>0.08374148308773283</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06060569566704246</v>
+        <v>0.05982571977091777</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02668615422361098</v>
+        <v>0.05393358059728235</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04460678831956768</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02507669326530813</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06138269176533788</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.0545595098749192</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06077180154682638</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.08668405585357414</v>
+        <v>0.05503998021572876</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06063032601126004</v>
+        <v>0.06074061143958037</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02668615422361098</v>
+        <v>0.08356629197008081</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06138269176533788</v>
+        <v>0.06059271617823723</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02670957144285432</v>
+        <v>0.05405564021344848</v>
       </c>
       <c r="G145" t="n">
+        <v>0.04517143120968879</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.02481011589270891</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.0621596878636333</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.05449318244163795</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06154106485754571</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.08616588511366002</v>
+        <v>0.05408247621539672</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06139779849241524</v>
+        <v>0.06150947993881556</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02670957144285432</v>
+        <v>0.08289083756480214</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0621596878636333</v>
+        <v>0.06135971258555669</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02662995027958423</v>
+        <v>0.05417221569095444</v>
       </c>
       <c r="G146" t="n">
+        <v>0.0457360740998099</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02464331600757549</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06293668396192871</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.05412160566209423</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06231032816826503</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.08563982711438722</v>
+        <v>0.05382155492487029</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06216527097357043</v>
+        <v>0.06227834843805075</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02662995027958423</v>
+        <v>0.08171739155262203</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06293668396192871</v>
+        <v>0.06212670899287615</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02654730722696352</v>
+        <v>0.0542832231910999</v>
       </c>
       <c r="G147" t="n">
+        <v>0.04630071698993101</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02467684822287154</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06371368006022414</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.05334566340628005</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06307959147898434</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.08510674668234797</v>
+        <v>0.05335822353423628</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0629327434547256</v>
+        <v>0.06304721693728595</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02654730722696352</v>
+        <v>0.08194822561426568</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06371368006022414</v>
+        <v>0.06289370540019561</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02636165877815498</v>
+        <v>0.05438857887518456</v>
       </c>
       <c r="G148" t="n">
+        <v>0.04686535988005212</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02441126715156071</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06449067615851954</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.05336623954418732</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06384885478970366</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.08446750864413449</v>
+        <v>0.05359348923358143</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06370021593588079</v>
+        <v>0.06381608543652113</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02636165877815498</v>
+        <v>0.08128561143045809</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06449067615851954</v>
+        <v>0.06366070180751507</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02637302142632142</v>
+        <v>0.05448819890450806</v>
       </c>
       <c r="G149" t="n">
+        <v>0.04743000277017323</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02414712740660664</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06526767225681496</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.0525842179458082</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06461811810042299</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.08402297782633911</v>
+        <v>0.05292835921299255</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06446768841703598</v>
+        <v>0.06458495393575632</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02637302142632142</v>
+        <v>0.08053182068192444</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06526767225681496</v>
+        <v>0.06442769821483452</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02608141166462562</v>
+        <v>0.05458199944037006</v>
       </c>
       <c r="G150" t="n">
+        <v>0.04799464566029434</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02418498360097307</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06604466835511039</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.05280048248113464</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06538738141114231</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.08427401905555387</v>
+        <v>0.05256384066255634</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06523516089819119</v>
+        <v>0.06535382243499153</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02608141166462562</v>
+        <v>0.07968912504938985</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06604466835511039</v>
+        <v>0.06519469462215398</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0261868459862304</v>
+        <v>0.05466989664407024</v>
       </c>
       <c r="G151" t="n">
+        <v>0.04855928855041545</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.02402539034762359</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06682166445340579</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.0520159170201587</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06615664472186163</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.08292149715837116</v>
+        <v>0.0525009407723597</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06600263337934638</v>
+        <v>0.06612269093422672</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0261868459862304</v>
+        <v>0.07935979621357947</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06682166445340579</v>
+        <v>0.06596169102947344</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02588934088429856</v>
+        <v>0.05475180667690829</v>
       </c>
       <c r="G152" t="n">
+        <v>0.04912393144053656</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.02366890225952191</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.0675986605517012</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.05203140543287241</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06692590803258094</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.08266627696138334</v>
+        <v>0.05194066673248932</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06677010586050157</v>
+        <v>0.06689155943346192</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02588934088429856</v>
+        <v>0.07874610585521846</v>
       </c>
       <c r="O152" t="n">
-        <v>0.0675986605517012</v>
+        <v>0.0667286874367929</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02598891285199292</v>
+        <v>0.05482764570018387</v>
       </c>
       <c r="G153" t="n">
+        <v>0.04968857433065767</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02371607394963167</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06837565664999663</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.05104783158926779</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06769517134330028</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.08260922329118248</v>
+        <v>0.051584025733032</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06753757834165676</v>
+        <v>0.06766042793269711</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02598891285199292</v>
+        <v>0.07815032565503188</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06837565664999663</v>
+        <v>0.06749568384411235</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02578557838247626</v>
+        <v>0.05489732987519661</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05025321722077878</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.02356746003091655</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06915265274829205</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.0507660793593368</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06846443465401959</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.08205120097436092</v>
+        <v>0.05083202496407455</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06830505082281195</v>
+        <v>0.0684292964319323</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02578557838247626</v>
+        <v>0.07747472729374488</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06915265274829205</v>
+        <v>0.06826268025143181</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02557935396891138</v>
+        <v>0.05496077536324624</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05081786011089989</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02332361511634022</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.06992964884658746</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.05028703261307155</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06923369796473891</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.08169307483751087</v>
+        <v>0.05048567161570366</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06907252330396713</v>
+        <v>0.0691981649311675</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02557935396891138</v>
+        <v>0.07712158245208267</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06992964884658746</v>
+        <v>0.06902967665875129</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02557025610446111</v>
+        <v>0.05501789832563238</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05138250300102101</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02328509381886633</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07070664494488288</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.05011157522046403</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07000296127545823</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.08143570970722463</v>
+        <v>0.05044597287800617</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06983999578512232</v>
+        <v>0.0699670334304027</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02557025610446111</v>
+        <v>0.07709316281077033</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07070664494488288</v>
+        <v>0.06979667306607074</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02555830128228821</v>
+        <v>0.05506861492365474</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05194714589114211</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02315245075145855</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07148364104317829</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.04974059105150624</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07077222458617756</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.08037997041009448</v>
+        <v>0.05011393594106886</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07060746826627751</v>
+        <v>0.0707359019296379</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02555830128228821</v>
+        <v>0.076491740050533</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07148364104317829</v>
+        <v>0.0705636694733902</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02524350599555551</v>
+        <v>0.05511284131861296</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05251178878126322</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.02292404895378611</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07226063714147371</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.04947496397619031</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07154148789689688</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.08012672177271246</v>
+        <v>0.04948385336408664</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07137494074743271</v>
+        <v>0.07150477042887309</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02524350599555551</v>
+        <v>0.07621412363341262</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07226063714147371</v>
+        <v>0.07133066588070966</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02512588673742581</v>
+        <v>0.05515049367180671</v>
       </c>
       <c r="G159" t="n">
+        <v>0.05307643167138433</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.02279646010413763</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07303763323976913</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.04921557786450811</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07231075120761619</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.07957682862167104</v>
+        <v>0.04954491880216488</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0721424132285879</v>
+        <v>0.07227363892810827</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02512588673742581</v>
+        <v>0.07555144388028801</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07303763323976913</v>
+        <v>0.07209766228802912</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02500546000106191</v>
+        <v>0.05518148814453568</v>
       </c>
       <c r="G160" t="n">
+        <v>0.05364107456150544</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.02266954261523775</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07381462933806454</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.04895898159206469</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07308001451833551</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.07893115578356236</v>
+        <v>0.04909732629527941</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07290988570974309</v>
+        <v>0.07304250742734347</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02500546000106191</v>
+        <v>0.0754023956732337</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07381462933806454</v>
+        <v>0.07286465869534857</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02488224227962661</v>
+        <v>0.05520574089809954</v>
       </c>
       <c r="G161" t="n">
+        <v>0.05420571745162656</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02264320602388788</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07459162543635996</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.04858418179862195</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07384927782905484</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.07879056808497881</v>
+        <v>0.04884146032912554</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07367735819089828</v>
+        <v>0.07381137592657866</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02488224227962661</v>
+        <v>0.07476580678361655</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07459162543635996</v>
+        <v>0.07363165510266803</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02485625006628273</v>
+        <v>0.05522316809379795</v>
       </c>
       <c r="G162" t="n">
+        <v>0.05477036034174767</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02231735986688953</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07536862153465537</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.04788936451913903</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07461854113977416</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.07825593035251238</v>
+        <v>0.04827770538939877</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07444483067205347</v>
+        <v>0.07458024442581386</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02485625006628273</v>
+        <v>0.0746405049828035</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07536862153465537</v>
+        <v>0.07439865150998749</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02462749985419302</v>
+        <v>0.05523368589293053</v>
       </c>
       <c r="G163" t="n">
+        <v>0.05533500323186877</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02219191368104416</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.0761456176329508</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.04757581073031314</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07538780445049348</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.07832810741275559</v>
+        <v>0.04800644596179449</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07521230315320866</v>
+        <v>0.07534911292504906</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02462749985419302</v>
+        <v>0.0742253180421612</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0761456176329508</v>
+        <v>0.07516564791730695</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02469600813652034</v>
+        <v>0.05523721045679705</v>
       </c>
       <c r="G164" t="n">
+        <v>0.05589964612198988</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02206677700315325</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.0769226137312462</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.04694480140884133</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07615706776121281</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.0775079640923006</v>
+        <v>0.04762806653200813</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07597977563436384</v>
+        <v>0.07611798142428425</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02469600813652034</v>
+        <v>0.0743190737330568</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0769226137312462</v>
+        <v>0.0759326443246264</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02436179140642745</v>
+        <v>0.05523721045679705</v>
       </c>
       <c r="G165" t="n">
+        <v>0.05589964612198988</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02204185937001828</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07769960982954162</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.04649761753142084</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07692633107193213</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.07699636521773956</v>
+        <v>0.04744295158573508</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07674724811551903</v>
+        <v>0.07688684992351945</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02436179140642745</v>
+        <v>0.07442059982685689</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07769960982954162</v>
+        <v>0.07669964073194586</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0242248661570772</v>
+        <v>0.0543062924909383</v>
       </c>
       <c r="G166" t="n">
+        <v>0.05589937759352587</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.02191707031844069</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07847660592783705</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.04613554007474877</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07769559438265145</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.07629417561566476</v>
+        <v>0.04675148560867079</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07751472059667423</v>
+        <v>0.07765571842275464</v>
       </c>
       <c r="N166" t="n">
-        <v>0.0242248661570772</v>
+        <v>0.07412872409492843</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07847660592783705</v>
+        <v>0.07746663713926533</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02418524888163234</v>
+        <v>0.05338580291388597</v>
       </c>
       <c r="G167" t="n">
+        <v>0.05589910906506185</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02189231938522199</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07925360202613245</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.04605985001552229</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07846485769337076</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.07670224061112152</v>
+        <v>0.04615405308651077</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07828219307782942</v>
+        <v>0.07842458692198984</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02418524888163234</v>
+        <v>0.07354227430863819</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07925360202613245</v>
+        <v>0.07823363354658479</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02404295607325571</v>
+        <v>0.05247623275005326</v>
       </c>
       <c r="G168" t="n">
+        <v>0.05589884053659783</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02176751610716364</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08003059812442787</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.04547182833043859</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07923412100409009</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.07642041893177093</v>
+        <v>0.04605103850495032</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07904966555898461</v>
+        <v>0.07919345542122502</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02404295607325571</v>
+        <v>0.07276007823935315</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08003059812442787</v>
+        <v>0.07900062995390424</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02379800422511008</v>
+        <v>0.05157807302397194</v>
       </c>
       <c r="G169" t="n">
+        <v>0.05589857200813381</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02164257002106708</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08080759422272328</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.04507275599619473</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08000338431480941</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.07604746255661193</v>
+        <v>0.04574282634968493</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0798171380401398</v>
+        <v>0.07996232392046021</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02379800422511008</v>
+        <v>0.07238096365844016</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08080759422272328</v>
+        <v>0.0797676263612237</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02365040983035829</v>
+        <v>0.05069181476005475</v>
       </c>
       <c r="G170" t="n">
+        <v>0.05589830347966979</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02131739066373385</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08158459032101871</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.04396391398948793</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08077264762552873</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.07488207549775494</v>
+        <v>0.04542980110641004</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08058461052129499</v>
+        <v>0.08073119241969542</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02365040983035829</v>
+        <v>0.07220375833726589</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08158459032101871</v>
+        <v>0.08053462276854316</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02360018938216311</v>
+        <v>0.04981794898275426</v>
       </c>
       <c r="G171" t="n">
+        <v>0.05589803495120578</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.02129188757196536</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08236158641931413</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.04384658328701532</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08154191093624805</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.07472296176731036</v>
+        <v>0.04491234726082102</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08135208300245018</v>
+        <v>0.08150006091893061</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02360018938216311</v>
+        <v>0.07182729004719729</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08236158641931413</v>
+        <v>0.08130161917586261</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02334735937368736</v>
+        <v>0.04895696671648585</v>
       </c>
       <c r="G172" t="n">
+        <v>0.05589776642274175</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02126597028256311</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08313858251760953</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.04352204486547406</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08231117424696738</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.07416882537738839</v>
+        <v>0.04469084929861336</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08211955548360536</v>
+        <v>0.08226892941816581</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02334735937368736</v>
+        <v>0.07215038655960127</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08313858251760953</v>
+        <v>0.08206861558318207</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02329193629809384</v>
+        <v>0.04810935898577706</v>
       </c>
       <c r="G173" t="n">
+        <v>0.05589749789427774</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02113954833232858</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08391557861590496</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.0425915797015613</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.0830804375576867</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.07421837034009954</v>
+        <v>0.04396569170548245</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08288702796476055</v>
+        <v>0.083037797917401</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02329193629809384</v>
+        <v>0.07197187564584462</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08391557861590496</v>
+        <v>0.08283561199050153</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02303248172113222</v>
+        <v>0.04727561681504267</v>
       </c>
       <c r="G174" t="n">
+        <v>0.05589722936581373</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02101253125806321</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08469257471420037</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.0419564687719742</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08384970086840601</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.07427030066755402</v>
+        <v>0.0433372589671237</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08365450044591576</v>
+        <v>0.08380666641663619</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02303248172113222</v>
+        <v>0.07119058507729414</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08469257471420037</v>
+        <v>0.08360260839782099</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02290070451966106</v>
+        <v>0.04645623122873525</v>
       </c>
       <c r="G175" t="n">
+        <v>0.05589696083734971</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.02078482859656851</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08546957081249577</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.04131799305340991</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08461896417912533</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.07352332037186243</v>
+        <v>0.04310593556923259</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08442197292707095</v>
+        <v>0.08457553491587139</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02290070451966106</v>
+        <v>0.07130534262531674</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08546957081249577</v>
+        <v>0.08436960480514044</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02247227885594402</v>
+        <v>0.04565169325127272</v>
       </c>
       <c r="G176" t="n">
+        <v>0.05589669230888569</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02075634988464595</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.0862465669107912</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.04107743352256554</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08538822748984466</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.073376133465135</v>
+        <v>0.04267210599750451</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08518944540822614</v>
+        <v>0.08534440341510657</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02247227885594402</v>
+        <v>0.07051497606127927</v>
       </c>
       <c r="O176" t="n">
-        <v>0.0862465669107912</v>
+        <v>0.0851366012124599</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02216528487158301</v>
+        <v>0.04486249390717766</v>
       </c>
       <c r="G177" t="n">
+        <v>0.05589642378042167</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.02062700465909698</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08702356300908662</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.04043607115613826</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08615749080056398</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.07312744395948206</v>
+        <v>0.04203615473763486</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08595691788938133</v>
+        <v>0.08611327191434177</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02216528487158301</v>
+        <v>0.07031831315654863</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08702356300908662</v>
+        <v>0.08590359761977936</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02179780270817994</v>
+        <v>0.04408912422086731</v>
       </c>
       <c r="G178" t="n">
+        <v>0.05589615525195766</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02039670245672308</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08780055910738203</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.03969518693082527</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.0869267541112833</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.072475955867014</v>
+        <v>0.04179846627531916</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08672439037053652</v>
+        <v>0.08688214041357697</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02179780270817994</v>
+        <v>0.07001418168249157</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08780055910738203</v>
+        <v>0.08667059402709883</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0211879125073367</v>
+        <v>0.04333207521679424</v>
       </c>
       <c r="G179" t="n">
+        <v>0.05589588672349364</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.0202653528143257</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08857755520567745</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.03965606182332368</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08769601742200261</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.07192037319984124</v>
+        <v>0.04145942509625272</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08749186285169171</v>
+        <v>0.08765100891281216</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0211879125073367</v>
+        <v>0.07020140941047492</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08857755520567745</v>
+        <v>0.08743759043441827</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02075369441065519</v>
+        <v>0.04259183791937914</v>
       </c>
       <c r="G180" t="n">
+        <v>0.05589561819502962</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02003286526870636</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.08935455130397287</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.03861997681033064</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08846528073272195</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.07145939997007411</v>
+        <v>0.04071941568613105</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0882593353328469</v>
+        <v>0.08841987741204736</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02075369441065519</v>
+        <v>0.06957882411186561</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08935455130397287</v>
+        <v>0.08820458684173774</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02021322855973728</v>
+        <v>0.04186890335313909</v>
       </c>
       <c r="G181" t="n">
+        <v>0.0558953496665656</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.01999914935666651</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09013154740226828</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.03828821286854323</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08923454404344126</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.07169174018982299</v>
+        <v>0.04017882253064953</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08902680781400207</v>
+        <v>0.08918874591128255</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02021322855973728</v>
+        <v>0.06894525355803044</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09013154740226828</v>
+        <v>0.08897158324905721</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0195845950961849</v>
+        <v>0.04116376254249401</v>
       </c>
       <c r="G182" t="n">
+        <v>0.05589508113810158</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.01996411461500763</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.0909085435005637</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.03796205097465877</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09000380735416058</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.07051609787119817</v>
+        <v>0.03973803011550361</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08979428029515728</v>
+        <v>0.08995761441051775</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0195845950961849</v>
+        <v>0.06899952552033634</v>
       </c>
       <c r="O182" t="n">
-        <v>0.0909085435005637</v>
+        <v>0.08973857965637666</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01908587416159993</v>
+        <v>0.0404769065118965</v>
       </c>
       <c r="G183" t="n">
+        <v>0.05589481260963757</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.01982767058053118</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09168553959885911</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.03754277210537432</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.0907730706648799</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.07053117702631012</v>
+        <v>0.03949742292638866</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09056175277631247</v>
+        <v>0.09072648290975295</v>
       </c>
       <c r="N183" t="n">
-        <v>0.01908587416159993</v>
+        <v>0.06864046777014998</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09168553959885911</v>
+        <v>0.09050557606369612</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01853514589758427</v>
+        <v>0.03980882628577045</v>
       </c>
       <c r="G184" t="n">
+        <v>0.05589454408117354</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.01968972679003865</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09246253569715453</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.03713165723738701</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09154233397559923</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.07013568166726919</v>
+        <v>0.03895738544900018</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09132922525746766</v>
+        <v>0.09149535140898814</v>
       </c>
       <c r="N184" t="n">
-        <v>0.01853514589758427</v>
+        <v>0.06866690807883846</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09246253569715453</v>
+        <v>0.09127257247101558</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01825049044573983</v>
+        <v>0.0391600128886266</v>
       </c>
       <c r="G185" t="n">
+        <v>0.05589427555270953</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.01955019278033149</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09323953179544994</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.03602998734739402</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09231159728631855</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.06952831580618568</v>
+        <v>0.03851830216903365</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09209669773862285</v>
+        <v>0.09226421990822334</v>
       </c>
       <c r="N185" t="n">
-        <v>0.01825049044573983</v>
+        <v>0.06777767421776848</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09323953179544994</v>
+        <v>0.09203956887833505</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01784998794766848</v>
+        <v>0.03853095734488806</v>
       </c>
       <c r="G186" t="n">
+        <v>0.05589400702424552</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.01930897808821118</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09401652789374537</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.03603904341209249</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09308086059703786</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.06960778345517005</v>
+        <v>0.03798055757218435</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09286417021977804</v>
+        <v>0.09303308840745853</v>
       </c>
       <c r="N186" t="n">
-        <v>0.01784998794766848</v>
+        <v>0.06727159395830695</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09401652789374537</v>
+        <v>0.09280656528565449</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01775171854497212</v>
+        <v>0.03792215067900733</v>
       </c>
       <c r="G187" t="n">
+        <v>0.0558937384957815</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.0192659922504792</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09479352399204079</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.03546010640817956</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.0938501239077572</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.0693727886263325</v>
+        <v>0.03764453614414778</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09363164270093323</v>
+        <v>0.09380195690669373</v>
       </c>
       <c r="N187" t="n">
-        <v>0.01775171854497212</v>
+        <v>0.0671474950718205</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09479352399204079</v>
+        <v>0.09357356169297396</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01764403344370552</v>
+        <v>0.03733408391541194</v>
       </c>
       <c r="G188" t="n">
+        <v>0.05589346996731748</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.01912114480393701</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09557052009033619</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.03509445731235245</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09461938721847651</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.06802203533178358</v>
+        <v>0.03751062237061936</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09439911518208842</v>
+        <v>0.09457082540592891</v>
       </c>
       <c r="N188" t="n">
-        <v>0.01764403344370552</v>
+        <v>0.06610420532967631</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09557052009033619</v>
+        <v>0.09434055810029342</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01754919066103466</v>
+        <v>0.03676724807860555</v>
       </c>
       <c r="G189" t="n">
+        <v>0.05589320143885346</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.01887434528538609</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09634751618863162</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.03434337710130822</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09538865052919583</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.06795422758363356</v>
+        <v>0.03677920073729454</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0951665876632436</v>
+        <v>0.0953396939051641</v>
       </c>
       <c r="N189" t="n">
-        <v>0.01754919066103466</v>
+        <v>0.06654055250324098</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09634751618863162</v>
+        <v>0.09510755450761288</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01736145076355883</v>
+        <v>0.03622012917650026</v>
       </c>
       <c r="G190" t="n">
+        <v>0.05589293291038945</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.01882550323162793</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09712451228692703</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.03430814675174407</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09615791383991516</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.06736806939399287</v>
+        <v>0.03625065572986869</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0959340601443988</v>
+        <v>0.09610856240439931</v>
       </c>
       <c r="N190" t="n">
-        <v>0.01736145076355883</v>
+        <v>0.06525536436388146</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09712451228692703</v>
+        <v>0.09587455091493233</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01728039146060302</v>
+        <v>0.03568118813446056</v>
       </c>
       <c r="G191" t="n">
+        <v>0.05589266438192544</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.01857452817946396</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09790150838522244</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.03359004724035713</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09692717715063448</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.06746226477497175</v>
+        <v>0.03622537183403726</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09670153262555399</v>
+        <v>0.0968774309036345</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01728039146060302</v>
+        <v>0.06554746868296463</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09790150838522244</v>
+        <v>0.09664154732225179</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0173055904614923</v>
+        <v>0.03514891096040119</v>
       </c>
       <c r="G192" t="n">
+        <v>0.05589239585346141</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.01842132966569569</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09867850448351785</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.0332903595438446</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.0976964404613538</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.06603551773868072</v>
+        <v>0.03540373353549572</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09746900510670918</v>
+        <v>0.09764629940286969</v>
       </c>
       <c r="N192" t="n">
-        <v>0.0173055904614923</v>
+        <v>0.06431569323185732</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09867850448351785</v>
+        <v>0.09740854372957125</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01713662547555166</v>
+        <v>0.03462378867882104</v>
       </c>
       <c r="G193" t="n">
+        <v>0.0558921273249974</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.01826103339008238</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09945550058181328</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.03311036463890354</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09846570377207313</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.06618653229723004</v>
+        <v>0.03498086468982872</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09823647758786437</v>
+        <v>0.09841516790210489</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01713662547555166</v>
+        <v>0.06400692169536965</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09945550058181328</v>
+        <v>0.09817554013689071</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0170730742121061</v>
+        <v>0.03410631231414938</v>
       </c>
       <c r="G194" t="n">
+        <v>0.05589185879653338</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.01798838655551586</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1002324966801087</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.0326513435022312</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09923496708279245</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.0654140124627301</v>
+        <v>0.0348507996407722</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09900395006901956</v>
+        <v>0.09918403640134008</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0170730742121061</v>
+        <v>0.06366237182427581</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1002324966801087</v>
+        <v>0.09894253654421016</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01701451438048066</v>
+        <v>0.03359697289083877</v>
       </c>
       <c r="G195" t="n">
+        <v>0.05589159026806936</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.0179042910443056</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1010094927784041</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.0319145771105247</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1000042303935118</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.0650166622472913</v>
+        <v>0.03441410386709051</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09977142255017475</v>
+        <v>0.09995290490057528</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01701451438048066</v>
+        <v>0.06228989752972419</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1010094927784041</v>
+        <v>0.09970953295152962</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01706052369000034</v>
+        <v>0.03309626143332018</v>
       </c>
       <c r="G196" t="n">
+        <v>0.05589132173960534</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.01760966229726059</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1017864888766995</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.03160134644048113</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1007734937042311</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.06459318566302397</v>
+        <v>0.03377135998148609</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1005388950313299</v>
+        <v>0.1007217733998105</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01706052369000034</v>
+        <v>0.06139751105760166</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1017864888766995</v>
+        <v>0.1004765293588491</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01701067984999018</v>
+        <v>0.0326046689660898</v>
       </c>
       <c r="G197" t="n">
+        <v>0.05589105321114132</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01750541575518985</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1025634849749949</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.03131108233596538</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1015427570149504</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.06354228672203849</v>
+        <v>0.03332315059666158</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1013063675124851</v>
+        <v>0.1014906418990457</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01701067984999018</v>
+        <v>0.06009322465379452</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1025634849749949</v>
+        <v>0.1012435257661685</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01696456056977516</v>
+        <v>0.03212268651357818</v>
       </c>
       <c r="G198" t="n">
+        <v>0.05589078468267731</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.0172924668589024</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1033404810732904</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.03153252016750499</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1023120203256697</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.06246266943644518</v>
+        <v>0.03317005832531958</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1020738399936403</v>
+        <v>0.1022595103982809</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01696456056977516</v>
+        <v>0.05878505056418959</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1033404810732904</v>
+        <v>0.102010522173488</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01692174355868034</v>
+        <v>0.03165080510023791</v>
       </c>
       <c r="G199" t="n">
+        <v>0.0558905161542133</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01707173104920724</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1041174771715858</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.03116312620851994</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1030812836363891</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.06205303781835447</v>
+        <v>0.03231266578016259</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1028413124747955</v>
+        <v>0.1030283788975161</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01692174355868034</v>
+        <v>0.05728100103467332</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1041174771715858</v>
+        <v>0.1027775185808075</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01678180652603069</v>
+        <v>0.03118951575050174</v>
       </c>
       <c r="G200" t="n">
+        <v>0.05589024762574927</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01674412376691342</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1048944732698812</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.03040240915700967</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1038505469471084</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.06151209587987666</v>
+        <v>0.0322515555738932</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1036087849559507</v>
+        <v>0.1037972473967513</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01678180652603069</v>
+        <v>0.05668908831113245</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1048944732698812</v>
+        <v>0.1035445149881269</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01684432718115128</v>
+        <v>0.03073930948886238</v>
       </c>
       <c r="G201" t="n">
+        <v>0.05588997909728526</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01661056045282992</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1056714693681766</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.03024987771097368</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1046198102578277</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.06037395197483658</v>
+        <v>0.03198731031921406</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1043762574371059</v>
+        <v>0.1045661158959864</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01684432718115128</v>
+        <v>0.05471732463945345</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1056714693681766</v>
+        <v>0.1043115113954464</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01680888323336707</v>
+        <v>0.03030067733975208</v>
       </c>
       <c r="G202" t="n">
+        <v>0.05588971056882124</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01647195654776577</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.106448465466472</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.03030504056841155</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.105389073568547</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.05945224092882839</v>
+        <v>0.03142051262882767</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1051437299182611</v>
+        <v>0.1053349843952216</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01680888323336707</v>
+        <v>0.05287372226552295</v>
       </c>
       <c r="O202" t="n">
-        <v>0.106448465466472</v>
+        <v>0.1050785078027658</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01667505239200312</v>
+        <v>0.02987411032762343</v>
       </c>
       <c r="G203" t="n">
+        <v>0.05588944204035723</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01612922749252997</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1072254615647674</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.03006740642732278</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1061583368792663</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.05837076834905169</v>
+        <v>0.0305517451154366</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1059112023994163</v>
+        <v>0.1061038528944568</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01667505239200312</v>
+        <v>0.05146629343522763</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1072254615647674</v>
+        <v>0.1058455042100853</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01674241236638443</v>
+        <v>0.02946009947691126</v>
       </c>
       <c r="G204" t="n">
+        <v>0.0558891735118932</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01578328872793157</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1080024576630629</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.02983648398570685</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1069276001899856</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.05606906941378725</v>
+        <v>0.03028159039174347</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1066786748805715</v>
+        <v>0.106872721393692</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01674241236638443</v>
+        <v>0.05010305039445401</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1080024576630629</v>
+        <v>0.1066125006174048</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01681054086583603</v>
+        <v>0.0290591358121042</v>
       </c>
       <c r="G205" t="n">
+        <v>0.05588890498342919</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01573505569477955</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1087794537613583</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.02981178194156328</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.107696863500705</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.05428667930131603</v>
+        <v>0.02991063107045078</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1074461473617267</v>
+        <v>0.1076415898929272</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01681054086583603</v>
+        <v>0.04829200538908873</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1087794537613583</v>
+        <v>0.1073794970247242</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01667901559968289</v>
+        <v>0.02867171035763649</v>
       </c>
       <c r="G206" t="n">
+        <v>0.05588863645496517</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01548544383388295</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1095564498596537</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.02939280899289162</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1084661268114243</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.05266313318991916</v>
+        <v>0.02933944976426126</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1082136198428818</v>
+        <v>0.1084104583921624</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01667901559968289</v>
+        <v>0.04684117066501847</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1095564498596537</v>
+        <v>0.1081464934320437</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01664741427725008</v>
+        <v>0.02829831413796074</v>
       </c>
       <c r="G207" t="n">
+        <v>0.05588836792650115</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01513536858605076</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1103334459579491</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.02907907383769137</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1092353901221436</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.05073796625787724</v>
+        <v>0.02906862908587726</v>
       </c>
       <c r="M207" t="n">
-        <v>0.108981092324037</v>
+        <v>0.1091793268913976</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01664741427725008</v>
+        <v>0.04455855846812967</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1103334459579491</v>
+        <v>0.1089134898393631</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0165153146078626</v>
+        <v>0.02793943817751419</v>
       </c>
       <c r="G208" t="n">
+        <v>0.05588809939803713</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01498574539209203</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1111104420562445</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.02907008517396209</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1100046534328629</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.04865071368347157</v>
+        <v>0.02839875164800154</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1097485648051922</v>
+        <v>0.1099481953906328</v>
       </c>
       <c r="N208" t="n">
-        <v>0.0165153146078626</v>
+        <v>0.04255218104430897</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1111104420562445</v>
+        <v>0.1096804862466826</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01648229430084547</v>
+        <v>0.02759557350078069</v>
       </c>
       <c r="G209" t="n">
+        <v>0.05588783086957311</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01463748969281575</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1118874381545399</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.02856535169970317</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1107739167435823</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.04624091064498281</v>
+        <v>0.0280304000633366</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1105160372863474</v>
+        <v>0.110717063889868</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01648229430084547</v>
+        <v>0.04083005063944312</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1118874381545399</v>
+        <v>0.110447482654002</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0165479310655237</v>
+        <v>0.02726721113219683</v>
       </c>
       <c r="G210" t="n">
+        <v>0.0558875623411091</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01449151692903093</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1126644342528354</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.02836438211291425</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1115431800543016</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.04454809232069201</v>
+        <v>0.02746415694458504</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1112835097675026</v>
+        <v>0.1114859323891032</v>
       </c>
       <c r="N210" t="n">
-        <v>0.0165479310655237</v>
+        <v>0.03980017949941861</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1126644342528354</v>
+        <v>0.1112144790613215</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0165118026112223</v>
+        <v>0.02695484209621523</v>
       </c>
       <c r="G211" t="n">
+        <v>0.05588729381264509</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.0140487425415466</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1134414303511308</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.02836668511159482</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1123124433650209</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.04281179388888012</v>
+        <v>0.02710060490444938</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1120509822486578</v>
+        <v>0.1122548008883384</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0165118026112223</v>
+        <v>0.0376705798701219</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1134414303511308</v>
+        <v>0.111981475468641</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.0163734866472663</v>
+        <v>0.02665895741727591</v>
       </c>
       <c r="G212" t="n">
+        <v>0.05588702528418106</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.0138100819711718</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1142184264494262</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.02797176939374435</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1130817066757402</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.04017155052782817</v>
+        <v>0.02624032655563227</v>
       </c>
       <c r="M212" t="n">
-        <v>0.112818454729813</v>
+        <v>0.1130236693875736</v>
       </c>
       <c r="N212" t="n">
-        <v>0.0163734866472663</v>
+        <v>0.03544926399743992</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1142184264494262</v>
+        <v>0.1127484718759604</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01653256088298072</v>
+        <v>0.02638004811985723</v>
       </c>
       <c r="G213" t="n">
+        <v>0.05588675675571705</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.0135764506587155</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1149954225477216</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.02817914365736243</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1138509699864595</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.03856689741581681</v>
+        <v>0.02608390451083623</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1135859272109682</v>
+        <v>0.1137925378868088</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01653256088298072</v>
+        <v>0.03364424412725903</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1149954225477216</v>
+        <v>0.1135154682832799</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01628860302769054</v>
+        <v>0.02611860522839852</v>
       </c>
       <c r="G214" t="n">
+        <v>0.05588648822725303</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01354876404498674</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.115772418646017</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.02788831660044849</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1146202332971789</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.03733736973112728</v>
+        <v>0.02583192138276386</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1143533996921234</v>
+        <v>0.114561406386044</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01628860302769054</v>
+        <v>0.03246353250546585</v>
       </c>
       <c r="O214" t="n">
-        <v>0.115772418646017</v>
+        <v>0.1142824646905993</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01644119079072082</v>
+        <v>0.02611860522839852</v>
       </c>
       <c r="G215" t="n">
+        <v>0.05588648822725303</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01322793757079453</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1165494147443124</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.02769879692100211</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1153894966078982</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.03512250265204026</v>
+        <v>0.02518495978411769</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1151208721732786</v>
+        <v>0.1153302748852792</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01644119079072082</v>
+        <v>0.03011514137794702</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1165494147443124</v>
+        <v>0.1150494610979188</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01638990188139655</v>
+        <v>0.0254520091121919</v>
       </c>
       <c r="G216" t="n">
+        <v>0.0558013025089972</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01291488667694787</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1173264108426079</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.02711009331702277</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1161587599186175</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.03466183135683698</v>
+        <v>0.02494360232760037</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1158883446544338</v>
+        <v>0.1160991433845144</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01638990188139655</v>
+        <v>0.02820708299058922</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1173264108426079</v>
+        <v>0.1158164575052383</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01633431400904278</v>
+        <v>0.02479279842569389</v>
       </c>
       <c r="G217" t="n">
+        <v>0.05571611679074136</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01281052680425582</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1181034069409033</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.02712171448651002</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1169280232293368</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.03397777335349517</v>
+        <v>0.0240084316259144</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1166558171355889</v>
+        <v>0.1168680118837496</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01633431400904278</v>
+        <v>0.02684736958927891</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1181034069409033</v>
+        <v>0.1165834539125577</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01607400488298449</v>
+        <v>0.02414130488198701</v>
       </c>
       <c r="G218" t="n">
+        <v>0.05563093107248553</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01271577339352735</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1188804030391987</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.02723316912746332</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1176972865400562</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.03297051911637489</v>
+        <v>0.02398003029176241</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1174232896167441</v>
+        <v>0.1176368803829847</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01607400488298449</v>
+        <v>0.02544401341990277</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1188804030391987</v>
+        <v>0.1173504503198772</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01610855221254673</v>
+        <v>0.02349786019415372</v>
       </c>
       <c r="G219" t="n">
+        <v>0.05554574535422969</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01233154188557149</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1196573991374941</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.02654396593788225</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1184665498507755</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.03187224996430343</v>
+        <v>0.02345898093784693</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1181907620978993</v>
+        <v>0.1184057488822199</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01610855221254673</v>
+        <v>0.02370502672834746</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1196573991374941</v>
+        <v>0.1181174467271966</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01593753370705446</v>
+        <v>0.02286279607527656</v>
       </c>
       <c r="G220" t="n">
+        <v>0.05546055963597386</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01215874772119726</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1204343952357895</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.02685361361576627</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1192358131614948</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.03068333405336965</v>
+        <v>0.02284586617687057</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1189582345790545</v>
+        <v>0.1191746173814551</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01593753370705446</v>
+        <v>0.02223842176049945</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1204343952357895</v>
+        <v>0.1188844431345161</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01596052707583276</v>
+        <v>0.02223644423843801</v>
       </c>
       <c r="G221" t="n">
+        <v>0.05537537391771803</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01219830634121368</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1212113913340849</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.02616162085911497</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1200050764722141</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.02990413953966187</v>
+        <v>0.02284126862153588</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1197257070602097</v>
+        <v>0.1199434858806903</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01596052707583276</v>
+        <v>0.02055221076224539</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1212113913340849</v>
+        <v>0.1196514395418355</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01597685568082687</v>
+        <v>0.02161913639672059</v>
       </c>
       <c r="G222" t="n">
+        <v>0.05529018819946219</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01195113318642975</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1219883874323803</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.02616749636592777</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1207743397829334</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.02953503457926876</v>
+        <v>0.02204577088454546</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1204931795413649</v>
+        <v>0.1207123543799255</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01597685568082687</v>
+        <v>0.01985440597947197</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1219883874323803</v>
+        <v>0.120418435949155</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01568603123529407</v>
+        <v>0.02101120426320677</v>
       </c>
       <c r="G223" t="n">
+        <v>0.05520500248120636</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.0119181436976545</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1227653835306758</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.02617074883420428</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1215436030936528</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.0283763873282788</v>
+        <v>0.02165995557860187</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1212606520225201</v>
+        <v>0.1214812228791607</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01568603123529407</v>
+        <v>0.01815301965806571</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1227653835306758</v>
+        <v>0.1211854323564745</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0155881676109671</v>
+        <v>0.02041297955097906</v>
       </c>
       <c r="G224" t="n">
+        <v>0.05511981676295052</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01160025331569694</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1235423796289712</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.02587107295254196</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1223128664043721</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.02802856594278064</v>
+        <v>0.02138440531640765</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1220281245036753</v>
+        <v>0.1222500913783959</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0155881676109671</v>
+        <v>0.01725606404391317</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1235423796289712</v>
+        <v>0.1219524287637939</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.015583383912337</v>
+        <v>0.01982479397311999</v>
       </c>
       <c r="G225" t="n">
+        <v>0.05503463104469469</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01169837748136607</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1243193757272666</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.02537099514611252</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1230821297150914</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.02699193857886267</v>
+        <v>0.02131970271066547</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1227955969848305</v>
+        <v>0.1230189598776311</v>
       </c>
       <c r="N225" t="n">
-        <v>0.015583383912337</v>
+        <v>0.01637155138290103</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1243193757272666</v>
+        <v>0.1227194251711134</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0153717992438948</v>
+        <v>0.01924697924271201</v>
       </c>
       <c r="G226" t="n">
+        <v>0.05494944532643885</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01141343163547094</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.125096371825562</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.02547146582877399</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1238513930258107</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.02676687339261363</v>
+        <v>0.02086643037407779</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1235630694659857</v>
+        <v>0.1237878283768663</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0153717992438948</v>
+        <v>0.0158074939209159</v>
       </c>
       <c r="O226" t="n">
-        <v>0.125096371825562</v>
+        <v>0.1234864215784328</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01545353271013158</v>
+        <v>0.01867986707283766</v>
       </c>
       <c r="G227" t="n">
+        <v>0.05486425960818302</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01134633121882054</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1258733679238574</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.02527249480599242</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1246206563365301</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.0256537385401221</v>
+        <v>0.02012517091934729</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1243305419471409</v>
+        <v>0.1245566968761015</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01545353271013158</v>
+        <v>0.01497190390384429</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1258733679238574</v>
+        <v>0.1242534179857523</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01512870341553839</v>
+        <v>0.01812378917657943</v>
       </c>
       <c r="G228" t="n">
+        <v>0.05477907388992719</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.01149799167222389</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1266503640221529</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.02497409188323396</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1253899196472494</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.02495290217747642</v>
+        <v>0.02009650695917645</v>
       </c>
       <c r="M228" t="n">
-        <v>0.125098014428296</v>
+        <v>0.1253255653753367</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01512870341553839</v>
+        <v>0.01457279357757291</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1266503640221529</v>
+        <v>0.1250204143930718</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01519743046460627</v>
+        <v>0.01757907726701981</v>
       </c>
       <c r="G229" t="n">
+        <v>0.05469388817167135</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01146932843649</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1274273601204483</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.02457626686596476</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1261591829579687</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.02416473246076517</v>
+        <v>0.0199810211062679</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1258654869094512</v>
+        <v>0.1260944338745719</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01519743046460627</v>
+        <v>0.01371817518798829</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1274273601204483</v>
+        <v>0.1257874108003912</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01485983296182629</v>
+        <v>0.01704606305724131</v>
       </c>
       <c r="G230" t="n">
+        <v>0.05460870245341552</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01146110798763498</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1282043562187437</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.02427902955965081</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.126928446268688</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.02378959754607718</v>
+        <v>0.01977922885704458</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1266329593906064</v>
+        <v>0.1268633023738071</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01485983296182629</v>
+        <v>0.0135148993742672</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1282043562187437</v>
+        <v>0.1265544072077107</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0147160300116895</v>
+        <v>0.01652507826032643</v>
       </c>
       <c r="G231" t="n">
+        <v>0.05452351673515968</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01126114073703032</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1289813523170391</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.02408238976975835</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1276977095794073</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.02332786558950067</v>
+        <v>0.01918455189673746</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1274004318717616</v>
+        <v>0.1276321708730423</v>
       </c>
       <c r="N231" t="n">
-        <v>0.0147160300116895</v>
+        <v>0.01317505347593817</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1289813523170391</v>
+        <v>0.1273214036150301</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01476614071868697</v>
+        <v>0.01601645458935768</v>
       </c>
       <c r="G232" t="n">
+        <v>0.05443833101690385</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.0112613309032412</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1297583484153345</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.02388635730175337</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1284669728901267</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.02267990474712445</v>
+        <v>0.01899244104457196</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1281679043529168</v>
+        <v>0.1284010393722775</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01476614071868697</v>
+        <v>0.01264001306210716</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1297583484153345</v>
+        <v>0.1280884000223496</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01451028418730971</v>
+        <v>0.01552052375741754</v>
       </c>
       <c r="G233" t="n">
+        <v>0.05435314529864801</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01146181929982726</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1305353445136299</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.02379094196110207</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.129236236200846</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.021846083175037</v>
+        <v>0.01860303327909479</v>
       </c>
       <c r="M233" t="n">
-        <v>0.128935376834072</v>
+        <v>0.1291699078715126</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01451028418730971</v>
+        <v>0.01300992301122073</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1305353445136299</v>
+        <v>0.128855396429669</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01424857952204882</v>
+        <v>0.01503761747758852</v>
       </c>
       <c r="G234" t="n">
+        <v>0.05426795958039218</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01126274674034813</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1313123406119253</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.02349615355327056</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1300054995115653</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.02112676902932675</v>
+        <v>0.0183164655788525</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1297028493152272</v>
+        <v>0.1299387763707479</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01424857952204882</v>
+        <v>0.01208492820172502</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1313123406119253</v>
+        <v>0.1296223928369885</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01418114582739534</v>
+        <v>0.01456806746295312</v>
       </c>
       <c r="G235" t="n">
+        <v>0.05418277386213635</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01136425403836343</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1320893367102208</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.02360200188372483</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1307747628222846</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.02082233046608234</v>
+        <v>0.0179328749223919</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1304703217963824</v>
+        <v>0.1307076448699831</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01418114582739534</v>
+        <v>0.01226517351206652</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1320893367102208</v>
+        <v>0.130389389244308</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01390810220784032</v>
+        <v>0.01411220542659385</v>
       </c>
       <c r="G236" t="n">
+        <v>0.05409758814388051</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01146648200743281</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1328663328085162</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.02330849675793112</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1315440261330039</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.01983313564139244</v>
+        <v>0.01785239828825963</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1312377942775375</v>
+        <v>0.1314765133692183</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01390810220784032</v>
+        <v>0.0118508038206917</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1328663328085162</v>
+        <v>0.1311563856516274</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01392956776787482</v>
+        <v>0.01367036308159319</v>
       </c>
       <c r="G237" t="n">
+        <v>0.05401240242562468</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01146957146111589</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1336433289068116</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.02291564798135556</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1323132894437233</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.01975955271134544</v>
+        <v>0.01747517265500234</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1320052667586928</v>
+        <v>0.1322453818684534</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01392956776787482</v>
+        <v>0.01174196400604677</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1336433289068116</v>
+        <v>0.1319233820589469</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0137456616119899</v>
+        <v>0.01324287214103367</v>
       </c>
       <c r="G238" t="n">
+        <v>0.05392721670736884</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.0114736632129723</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.134420325005107</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.0227234653594641</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1330825527544426</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.01910194983202995</v>
+        <v>0.01720133500116672</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1327727392398479</v>
+        <v>0.1330142503676886</v>
       </c>
       <c r="N238" t="n">
-        <v>0.0137456616119899</v>
+        <v>0.01163879894657815</v>
       </c>
       <c r="O238" t="n">
-        <v>0.134420325005107</v>
+        <v>0.1326903784662663</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01355650284467659</v>
+        <v>0.01283006431799775</v>
       </c>
       <c r="G239" t="n">
+        <v>0.05384203098911301</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01137889807656167</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1351973211034024</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.02293195869772299</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1338518160651619</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.01886069515953459</v>
+        <v>0.01693102230529944</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1335402117210031</v>
+        <v>0.1337831188669238</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01355650284467659</v>
+        <v>0.01144145352073223</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1351973211034024</v>
+        <v>0.1334573748735858</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01326221057042598</v>
+        <v>0.01243091683048108</v>
       </c>
       <c r="G240" t="n">
+        <v>0.05375684527085717</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01138541686544364</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1359743172016978</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.0223411378015983</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1346210793758812</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.01783615684994772</v>
+        <v>0.01676437154594715</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1343076842021583</v>
+        <v>0.134551987366159</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01326221057042598</v>
+        <v>0.01095007260695541</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1359743172016978</v>
+        <v>0.1342243712809053</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01316290389372908</v>
+        <v>0.0120376344210449</v>
       </c>
       <c r="G241" t="n">
+        <v>0.05367165955260134</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01149336039317783</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1367513132999933</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.0221510124765561</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1353903426866006</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.01692870305935817</v>
+        <v>0.01630151970165658</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1350751566833135</v>
+        <v>0.1353208558653942</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01316290389372908</v>
+        <v>0.01106480108369406</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1367513132999933</v>
+        <v>0.1349913676882247</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01295870191907698</v>
+        <v>0.01164919430768483</v>
       </c>
       <c r="G242" t="n">
+        <v>0.0535864738343455</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01140286947332388</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1375283093982887</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.02216159252806257</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1361596059973199</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.01693870194385427</v>
+        <v>0.0163426037509744</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1358426291644687</v>
+        <v>0.1360897243646294</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01295870191907698</v>
+        <v>0.01068578382939456</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1375283093982887</v>
+        <v>0.1357583640955442</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01264972375096074</v>
+        <v>0.01126592820348338</v>
       </c>
       <c r="G243" t="n">
+        <v>0.05350128811608967</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01131408491944141</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1383053054965841</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.02187288776158375</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1369288693080392</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.01656652165952471</v>
+        <v>0.01608776067244722</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1366101016456239</v>
+        <v>0.1368585928638646</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01264972375096074</v>
+        <v>0.01071316572250319</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1383053054965841</v>
+        <v>0.1365253605028636</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01233608849387142</v>
+        <v>0.01088816782152303</v>
       </c>
       <c r="G244" t="n">
+        <v>0.05341610239783384</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01132714754509007</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1390823015948795</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.02198490798258579</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1376981326187585</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.01611253036245802</v>
+        <v>0.01563712744462181</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1373775741267791</v>
+        <v>0.1376274613630998</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01233608849387142</v>
+        <v>0.01024709164146642</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1390823015948795</v>
+        <v>0.1372923569101831</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01211791525230002</v>
+        <v>0.01051624487488629</v>
       </c>
       <c r="G245" t="n">
+        <v>0.053330916679578</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01154219816382946</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1398592976931749</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.02139766299653481</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1384673959294778</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.0155770962087427</v>
+        <v>0.01509084104604475</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1381450466079343</v>
+        <v>0.138396329862335</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01211791525230002</v>
+        <v>0.01028770646473065</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1398592976931749</v>
+        <v>0.1380593533175026</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01209532313073765</v>
+        <v>0.01015049107665567</v>
       </c>
       <c r="G246" t="n">
+        <v>0.05324573096132217</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01135937758921924</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1406362937914703</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.02141116260889686</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1392366592401972</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.01546058735446731</v>
+        <v>0.01494903845526277</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1389125190890895</v>
+        <v>0.1391651983615702</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01209532313073765</v>
+        <v>0.01003515507074221</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1406362937914703</v>
+        <v>0.138826349724822</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01186843123367535</v>
+        <v>0.009791238139913651</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05316054524306633</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01137882663481903</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1414132898897658</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.02102541662513815</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1400059225509165</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.01496337195572056</v>
+        <v>0.01491185665082256</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1396799915702446</v>
+        <v>0.1399340668608054</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01186843123367535</v>
+        <v>0.0103895823379474</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1414132898897658</v>
+        <v>0.1395933461321415</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01153735866560415</v>
+        <v>0.009438817777742754</v>
       </c>
       <c r="G248" t="n">
+        <v>0.0530753595248105</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01150068611418845</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1421902859880612</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.02144043485072469</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1407751858616358</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.01478581816859076</v>
+        <v>0.01497943261127072</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1404474640513999</v>
+        <v>0.1407029353600406</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01153735866560415</v>
+        <v>0.01005113314479272</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1421902859880612</v>
+        <v>0.1403603425394609</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01140222453101514</v>
+        <v>0.009093561703225464</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05299017380655466</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01152509684088716</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1429672820863566</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.02065622709112264</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1415444491723551</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.01432829414916659</v>
+        <v>0.01455190331515399</v>
       </c>
       <c r="M249" t="n">
-        <v>0.141214936532555</v>
+        <v>0.1414718038592758</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01140222453101514</v>
+        <v>0.009919952369724483</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1429672820863566</v>
+        <v>0.1411273389467804</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01106314793439935</v>
+        <v>0.008755801629444296</v>
       </c>
       <c r="G250" t="n">
+        <v>0.05290498808829883</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01145219962847476</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.143744278184652</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.02057280315179807</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1423137124830744</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.01339116805353663</v>
+        <v>0.01442940574101909</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1419824090137102</v>
+        <v>0.142240672358511</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01106314793439935</v>
+        <v>0.00959618489118913</v>
       </c>
       <c r="O250" t="n">
-        <v>0.143744278184652</v>
+        <v>0.1418943353540999</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01082024798024785</v>
+        <v>0.008425869269481731</v>
       </c>
       <c r="G251" t="n">
+        <v>0.052819802370043</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01158213529051089</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1445212742829474</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.02039017283821715</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1430829757937938</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.01367480803778942</v>
+        <v>0.01401207686741257</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1427498814948654</v>
+        <v>0.1430095408577462</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01082024798024785</v>
+        <v>0.009479975587632861</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1445212742829474</v>
+        <v>0.1426613317614193</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.0106736437730517</v>
+        <v>0.008104096336420286</v>
       </c>
       <c r="G252" t="n">
+        <v>0.05273461665178716</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.0116150446405552</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1452982703812428</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.02030834595584594</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1438522391045131</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.01277958225801346</v>
+        <v>0.01400005367288121</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1435173539760206</v>
+        <v>0.1437784093569814</v>
       </c>
       <c r="N252" t="n">
-        <v>0.0106736437730517</v>
+        <v>0.009671469337502236</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1452982703812428</v>
+        <v>0.1434283281687388</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01042345441730193</v>
+        <v>0.007790814543342461</v>
       </c>
       <c r="G253" t="n">
+        <v>0.05264943093353133</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.0117510684921673</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1460752664795383</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.02012733231015057</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1446215024152324</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.01250585887029737</v>
+        <v>0.01339347313597161</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1442848264571758</v>
+        <v>0.1445472778562165</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01042345441730193</v>
+        <v>0.009070811019243508</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1460752664795383</v>
+        <v>0.1441953245760582</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0100697990174896</v>
+        <v>0.007486355603330747</v>
       </c>
       <c r="G254" t="n">
+        <v>0.05256424521527549</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01159034765890682</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1468522625778337</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.02024714170659719</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1453907657259517</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.01205400603072965</v>
+        <v>0.01349247223523056</v>
       </c>
       <c r="M254" t="n">
-        <v>0.145052298938331</v>
+        <v>0.1453161463554518</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0100697990174896</v>
+        <v>0.009278145511303182</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1468522625778337</v>
+        <v>0.1449623209833777</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.009912796678105788</v>
+        <v>0.007191051229467636</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05247905949701966</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.0118330229543334</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1476292586761291</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.01996778395065182</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.146160029036671</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.01182439189539891</v>
+        <v>0.0134971879492046</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1458197714194862</v>
+        <v>0.1460850148546869</v>
       </c>
       <c r="N255" t="n">
-        <v>0.009912796678105788</v>
+        <v>0.009493617692127587</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1476292586761291</v>
+        <v>0.1457293173906971</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.00955256650364153</v>
+        <v>0.00690523313483566</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05239387377876383</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01187923519200667</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1484062547744245</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.01968926884778063</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1469292923473904</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.01191738462039371</v>
+        <v>0.01290775725644047</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1465872439006413</v>
+        <v>0.1468538833539221</v>
       </c>
       <c r="N256" t="n">
-        <v>0.00955256650364153</v>
+        <v>0.008717372440162963</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1484062547744245</v>
+        <v>0.1464963137980166</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.009289227598587878</v>
+        <v>0.006629233032517286</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05230868806050799</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01192912518548625</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1491832508727199</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.01941160620344964</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1476985556581097</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.01153335236180247</v>
+        <v>0.01282431713548485</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1473547163817966</v>
+        <v>0.1476227518531573</v>
       </c>
       <c r="N257" t="n">
-        <v>0.009289227598587878</v>
+        <v>0.008649554633855805</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1491832508727199</v>
+        <v>0.1472633102053361</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.009122899067435894</v>
+        <v>0.006363382635595036</v>
       </c>
       <c r="G258" t="n">
+        <v>0.05222350234225216</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.01198283374833179</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1499602469710153</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.01943480582312512</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.148467818968829</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.01207266327571394</v>
+        <v>0.0124470045648844</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1481221888629517</v>
+        <v>0.1483916203523925</v>
       </c>
       <c r="N258" t="n">
-        <v>0.009122899067435894</v>
+        <v>0.008890309151652565</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1499602469710153</v>
+        <v>0.1480303066126555</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.008753700014676638</v>
+        <v>0.006108013657151398</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05213831662399632</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01184050169410291</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1507372430693107</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.0194588775122731</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1492370822795483</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.01183568551821662</v>
+        <v>0.01227595652318578</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1488896613441069</v>
+        <v>0.1491604888516277</v>
       </c>
       <c r="N259" t="n">
-        <v>0.008753700014676638</v>
+        <v>0.009139780871999459</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1507372430693107</v>
+        <v>0.148797303019975</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.008381749544801143</v>
+        <v>0.005863457810268882</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05205313090574049</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01190226983635924</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1515142391676062</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.01928383107635961</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1500063455902677</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.01192278724539897</v>
+        <v>0.01261130998893573</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1496571338252621</v>
+        <v>0.1499293573508629</v>
       </c>
       <c r="N260" t="n">
-        <v>0.008381749544801143</v>
+        <v>0.008498114673342883</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1515142391676062</v>
+        <v>0.1495642994272944</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.008307166762300491</v>
+        <v>0.005630046808029983</v>
       </c>
       <c r="G261" t="n">
+        <v>0.05196794518748465</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01196827898866041</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1522912352659016</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.01860967632085089</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.150775608900987</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.0112343366133496</v>
+        <v>0.01245320194068086</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1504246063064173</v>
+        <v>0.1506982258500981</v>
       </c>
       <c r="N261" t="n">
-        <v>0.008307166762300491</v>
+        <v>0.009365455434129255</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1522912352659016</v>
+        <v>0.1503312958346139</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.007830070771665733</v>
+        <v>0.005408112363517202</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05188275946922882</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01203866996456605</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.153068231364197</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.01843642305121299</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1515448722117063</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.01097070177815707</v>
+        <v>0.01180176935696786</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1511920787875725</v>
+        <v>0.1514670943493333</v>
       </c>
       <c r="N262" t="n">
-        <v>0.007830070771665733</v>
+        <v>0.009141948032805047</v>
       </c>
       <c r="O262" t="n">
-        <v>0.153068231364197</v>
+        <v>0.1510982922419334</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.007550580677387911</v>
+        <v>0.005197986189813042</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05179757375097299</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.0121135835776358</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1538452274624924</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.01856408107291199</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1523141355224256</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.01153225089590998</v>
+        <v>0.0118571492163434</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1519595512687277</v>
+        <v>0.1522359628485685</v>
       </c>
       <c r="N263" t="n">
-        <v>0.007550580677387911</v>
+        <v>0.008927737347816433</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1538452274624924</v>
+        <v>0.1518652886492528</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.007368815583958077</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05171238803271715</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01229316064142928</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1546222235607878</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.01799266019141407</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1530833988331449</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.01121935212269687</v>
+        <v>0.0116194784973542</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1527270237498829</v>
+        <v>0.1530048313478037</v>
       </c>
       <c r="N264" t="n">
-        <v>0.007368815583958077</v>
+        <v>0.008722968257609987</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1546222235607878</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1526322850565723</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05169923013798031</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005694548616105854</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05169949866644433</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006385240403001126</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05169976719490835</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.00707203143380513</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05170003572337236</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007754877781697152</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05170030425183638</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008433735519796842</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.0517005727803004</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009108560721283139</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05170084130876442</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009779309459276027</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05170110983722843</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.0104459378069541</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05170137836569245</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01110840183743773</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05170164689415647</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.0117666576239051</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05170191542262049</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01242066123947697</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.0517021839510845</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01307036875733117</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05170245247954852</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.0137157362505888</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05170272100801254</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01435671979242734</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05170298953647656</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01499327545596827</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05170325806494057</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01562535931438866</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05170352659340459</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01625292744081039</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.0517037951218686</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01687593590839665</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05170406365033262</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01749434079031022</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05170433217879664</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01810809815967358</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05170460070726066</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01871716408966282</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05170486923572468</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01932149465340079</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05170513776418869</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01992104592406319</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05170540629265271</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.0205157739747733</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05170567482111672</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02110581424667974</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05170594334958074</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02169219902074639</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05170621187804476</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02227506373812155</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05170648040650878</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02285436447192923</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05170674893497279</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02343005729534397</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05170701746343681</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02400209828149014</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05170728599190083</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.024570443503542</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05170755452036485</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02513504903462421</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05170782304882886</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02569587094789855</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05170809157729288</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02625286531652648</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.0517083601057569</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02680598821363313</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05170862863422091</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.027355195712392</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05170889716268493</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02790044388592849</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05170916569114895</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02844168880741576</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05170943421961297</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02897888654997962</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05170970274807698</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02951199318679282</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.051709971276541</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03004096479098157</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05171023980500502</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03056575743571826</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05171050833346904</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03108632719412942</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05171077686193305</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03160263013938707</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05171104539039707</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03211462234461816</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05171131391886109</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03262225988299432</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05171158244732511</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03312549882764285</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05171185097578912</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03362429525173503</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05171211950425314</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03411860522839853</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05171238803271715</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03411860522839853</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05169923013798031</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.034669165068612</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05178495291316419</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03521479719173903</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05187067568834805</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03575537818224214</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05195639846353192</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03629078462458384</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05204212123871579</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03682089310322669</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05212784401389966</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03734558020263318</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05221356678908353</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03786472250726586</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.0522992895642674</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03837819660158726</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05238501233945127</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03888587907005988</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05247073511463513</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03938764649714627</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.052556457889819</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03988337546730893</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05264218066500287</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04037294256501036</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05272790344018673</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04085622437471322</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05281362621537061</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04133309748087984</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05289934899055447</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04180343846797294</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05298507176573835</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04226712392045489</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05307079454092221</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04272403042278832</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05315651731610609</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04317403455943566</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05324224009128995</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04361701291485957</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05332796286647382</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04405284207352243</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05341368564165769</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04448139861988686</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05349940841684156</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04490255913841534</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05358513119202542</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04531620021357043</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.0536708539672093</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04572219842981461</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05375657674239316</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04612093431838844</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05384229951757703</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04651530814442265</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0539280222927609</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04690570043915764</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05401374506794476</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04729198778705609</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05409946784312863</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04767404677258039</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.0541851906183125</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04805175398019317</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05427091339349638</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04842498599435686</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05435663616868024</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04879361939953408</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05444235894386412</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04915753078018727</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05452808171904797</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04951659672077905</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05461380449423185</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04987069380577184</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05469952726941572</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05021969861962824</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05478525004459959</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.05056348774681074</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05487097281978345</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.0509019377717819</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05495669559496733</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.0512349252790042</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05504241837015119</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05156232685294023</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05512814114533506</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05188401907805242</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05521386392051893</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0521998785388034</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05529958669570281</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05250978181965562</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05538530947088666</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.05281360550507166</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05547103224607054</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05311122617951398</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.0555567550212544</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05340252042744519</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05564247779643828</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05368736483332772</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05572820057162214</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05396563598162416</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.055813923346806</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05423721045679706</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05589964612198988</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04782480697119803</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05589964612198988</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05434465303381839</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05748400818220002</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05444411013846519</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05906837024241015</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05453589013014965</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06065273230262028</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05462030136828395</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.0622370943628304</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05469765221228026</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06382145642304055</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05476825102155074</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06540581848325068</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05483240615550763</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06699018054346081</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05489042597356309</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06857454260367095</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05494261883512928</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07015890466388107</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05498929309961843</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.0717432667240912</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05503075712644268</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07332762878430134</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05506731927501423</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07491199084451147</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05509928790474527</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07649635290472161</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05512697137504797</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07808071496493174</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05515067804533453</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07966507702514188</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05517071627501712</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08124943908535202</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05518739442350792</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08283380114556216</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05520102085021913</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08441816320577228</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05521190391456294</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08600252526598241</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05522035197595149</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08758688732619255</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05522667339379701</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08917124938640267</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05523117652751167</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.0907556114466128</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05523416973650765</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09233997350682294</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05523596138019712</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09392433556703307</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05523685981799228</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09550869762724321</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05523717340930532</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09709305968745334</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05523670362021341</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09867742174766347</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05518077615985133</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1002617838078736</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.0550369242685378</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1018461458680838</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.054811657112258</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1034305079282939</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05451148385699715</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.105014869988504</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.0541429136687404</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1065992320487142</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05371245571347299</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1081835941089243</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.0532266191571801</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1097679561691344</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05269191316584689</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1113523182293446</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05211484690545861</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1129366802895547</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05150192954200043</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1145210423497648</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.05085967024145751</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1161054044099749</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05019457816981509</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1176897664701851</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04951316249305836</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1192741285303952</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04882193237717249</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1208584905906053</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.0481273969881427</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1224428526508155</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04743606549195416</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1240272147110256</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04675444705459208</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1256115767712357</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04608905084204166</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1271959388314459</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04544638602028806</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.128780300891656</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04483296175531652</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1303646629518661</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04425528721311218</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1319490250120763</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04371987155966029</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1335333870722864</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04323322396094603</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1351177491324966</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04279169204442065</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1367021111927067</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04234921598170015</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1382864732529168</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04190062535523741</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1398708353131269</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04144749414518494</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1414551973733371</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.04099139633169529</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1430395594335472</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.040533905894921</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1446239214937574</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04007659681501461</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1462082835539675</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03962104307212867</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1477926456141776</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.0391688186464157</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03872149751802826</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1509613697345979</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03828065366711888</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.152545731794808</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.0378478610738401</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1541300938550181</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03742469371834448</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1557144559152283</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03701272558078453</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1572988179754384</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03661353064131283</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1588831800356486</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.0362286828800819</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1604675420958587</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03585975627724427</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1620519041560688</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.0355083248129525</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1636362662162789</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03517596246735914</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1652206282764891</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.0348642432206167</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1668049903366992</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03457474105287774</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1683893523969093</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03430902994429479</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1699737144571195</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03406868387502043</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1715580765173296</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03385527682520712</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1731424385775397</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03367038277500749</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1747268006377499</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03351557237976861</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.17631116269796</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03337673995776031</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1778955247581701</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03323987562430344</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1794798868183803</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03310537035291803</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1810642488785904</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03297361511712419</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1826486109388006</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03284500089044192</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1842329729990107</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03271991864639131</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1858173350592208</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03259875935849243</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1874016971194309</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03248191400026534</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1889860591796411</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03236977354523008</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1905704212398512</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03226272896690673</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1921547833000613</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03216117123881534</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1937391453602715</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03206549133447598</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1953235074204816</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03197608022740871</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1969078694806917</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03189332889113358</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1984922315409019</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03181762829917068</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.200076593601112</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03174936942504002</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2016609556613221</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03168894324226171</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2032453177215323</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.0316367407243558</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2048296797817424</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03159315284484233</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2064140418419526</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03155857057724139</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2079984039021626</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03153338489507302</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2095827659623728</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03151798677185726</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2111671280225829</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03151276718111425</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2127514900827931</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1279.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1279.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08682480697119804</v>
+        <v>0.06162116313703912</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03682480697119803</v>
+        <v>0.01162116313703911</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01592964612198987</v>
+        <v>0.007741631509790886</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001598884073837771</v>
+        <v>0.003546897424927496</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005646428901211099</v>
+        <v>0.001621124824256489</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002598801591650497</v>
+        <v>0.004417382422452279</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007769960982954163</v>
+        <v>0.001627414364408294</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007827715244827504</v>
+        <v>0.01530148025512032</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007688684992351944</v>
+        <v>0.002215942629699852</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01400000000000001</v>
+        <v>0.02770216564657824</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001055811320754718</v>
+        <v>0.002069636562418191</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003175044183743092</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00112928578024222</v>
+        <v>0.002580543836596962</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.005027855351925847</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001553992196590833</v>
+        <v>0.002997749999999997</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01512011521137852</v>
+        <v>0.01840986986191448</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001537736998470389</v>
+        <v>0.003262688243782722</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01792761655445851</v>
+        <v>0.03267365637729314</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001533992814638917</v>
+        <v>0.003248915729239262</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004728696314541245</v>
+        <v>0.008289290460042495</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00169392867036333</v>
+        <v>0.004863374472769468</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007095822434184496</v>
+        <v>0.009962129976697175</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002330988294886249</v>
+        <v>0.004882243093224881</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02094858274474359</v>
+        <v>0.02229505902442064</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002306605497705583</v>
+        <v>0.004894032365674083</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02479393939209806</v>
+        <v>0.03786152414785271</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002300989221958376</v>
+        <v>0.004873373593858893</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006260056451057455</v>
+        <v>0.008725880918905263</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00225857156048444</v>
+        <v>0.006484499297025957</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.009011363991784913</v>
+        <v>0.01158125422033705</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003107984393181665</v>
+        <v>0.006509657457633176</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02599999999999997</v>
+        <v>0.02521277329296351</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003363171521035594</v>
+        <v>0.006525376487565445</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03152649588276385</v>
+        <v>0.04219762701832952</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003067985629277835</v>
+        <v>0.006497831458478523</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01032217534638786</v>
+        <v>0.002580543836596962</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02582480697119804</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007769340578116998</v>
+        <v>0.01162116313703911</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00282321445060555</v>
+        <v>0.007741631509790886</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01028314117808551</v>
+        <v>0.01318190221829577</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003884980491477081</v>
+        <v>0.008137071822041469</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02684364047150717</v>
+        <v>0.02710704179066512</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003844342496175972</v>
+        <v>0.008156720609456807</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03655830083065653</v>
+        <v>0.04617027607763036</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003834982036597293</v>
+        <v>0.00840490654205607</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009256764680545121</v>
+        <v>0.01089087246445687</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00338785734072666</v>
+        <v>0.009726748945538936</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.011</v>
+        <v>0.01383552884441011</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004396699999999998</v>
+        <v>0.008993249999999991</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02768048381081095</v>
+        <v>0.03000290246102022</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004613210995411166</v>
+        <v>0.009775271739130427</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04102236903997658</v>
+        <v>0.04900879757827925</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004601978443916752</v>
+        <v>0.009746747187717786</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01072254474316708</v>
+        <v>0.01387326349691734</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00395250023084777</v>
+        <v>0.01134787376979542</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01186732411677319</v>
+        <v>0.01557204144917974</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005438972688067914</v>
+        <v>0.01139190055085806</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02892810079059077</v>
+        <v>0.03193232517887937</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005382079494646361</v>
+        <v>0.01141940885323953</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04485171531492455</v>
+        <v>0.05195171982213004</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00536897485123621</v>
+        <v>0.01137120505233742</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01216689675080813</v>
+        <v>0.01280429239397278</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.004517143120968879</v>
+        <v>0.01296899859405191</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01237008040571762</v>
+        <v>0.01649912526404131</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00621596878636333</v>
+        <v>0.01301931491526635</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03000290246102022</v>
+        <v>0.03451099986663259</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006468263275981542</v>
+        <v>0.01305075297513089</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04617027607763036</v>
+        <v>0.05592866367859395</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00580322621013486</v>
+        <v>0.01299566291695705</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01359003668829351</v>
+        <v>0.01368176354170089</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005081786011089989</v>
+        <v>0.0145901234183084</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01258883812767168</v>
+        <v>0.0175789980216193</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006992964884658746</v>
+        <v>0.01464672927967465</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03048525199192625</v>
+        <v>0.03663953363212419</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00691981649311675</v>
+        <v>0.01468209709702225</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04821120191942957</v>
+        <v>0.05921094612937405</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006902967665875128</v>
+        <v>0.01462012078157668</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01499218054044849</v>
+        <v>0.01650348132617936</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.005646428901211099</v>
+        <v>0.01621124824256489</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01305847703410809</v>
+        <v>0.01860655726862984</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007769960982954162</v>
+        <v>0.01627414364408294</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03121371698877948</v>
+        <v>0.03909955395240672</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007688684992351945</v>
+        <v>0.01631344121891361</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.0498704131015768</v>
+        <v>0.06326988415617357</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007669964073194586</v>
+        <v>0.01624457864619631</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01637354429209831</v>
+        <v>0.01526725013348589</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.006211071791332209</v>
+        <v>0.01783237306682138</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01351387687649955</v>
+        <v>0.01967670055178899</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008546957081249579</v>
+        <v>0.01790155800849123</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03195023805421512</v>
+        <v>0.04137268830453278</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008457553491587139</v>
+        <v>0.01794478534080497</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05238673272105626</v>
+        <v>0.06637679474069552</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008436960480514044</v>
+        <v>0.01786903651081594</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01773434392806825</v>
+        <v>0.01797087434969817</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00677571468145332</v>
+        <v>0.01945349789107787</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01383552884441011</v>
+        <v>0.02058432541781291</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009216768131851202</v>
+        <v>0.01952897237289953</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03269369704898881</v>
+        <v>0.04344056416555492</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009226421990822332</v>
+        <v>0.01957612946269633</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05386030913887285</v>
+        <v>0.06890299486464307</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009203956887833504</v>
+        <v>0.01949349437543557</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01907479543318354</v>
+        <v>0.01861215836089389</v>
       </c>
       <c r="G78" t="n">
-        <v>0.007340357571574429</v>
+        <v>0.02107462271533436</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01418465827115006</v>
+        <v>0.02132432941341764</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01010094927784041</v>
+        <v>0.02115638673730782</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03334297583385623</v>
+        <v>0.04538480901252567</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009995290490057526</v>
+        <v>0.0212074735845877</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05569129071603168</v>
+        <v>0.07161980150971958</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009970953295152962</v>
+        <v>0.0211179522400552</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02039511479226946</v>
+        <v>0.01818890655315074</v>
       </c>
       <c r="G79" t="n">
-        <v>0.00790500046169554</v>
+        <v>0.02269574753959085</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01468633885758927</v>
+        <v>0.02229161008531931</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01087794537613583</v>
+        <v>0.02278380110171611</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03409695626957307</v>
+        <v>0.04728705032249764</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01076415898929272</v>
+        <v>0.02283881770647906</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05767982581353792</v>
+        <v>0.07409853165762798</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01073794970247242</v>
+        <v>0.02274241010467483</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02169551799015122</v>
+        <v>0.01969892331254641</v>
       </c>
       <c r="G80" t="n">
-        <v>0.008469643351816649</v>
+        <v>0.02431687236384734</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01509379364434527</v>
+        <v>0.02298106498023403</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01165494147443124</v>
+        <v>0.02441121546612441</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03525452021689487</v>
+        <v>0.04852891557252334</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01153302748852792</v>
+        <v>0.02447016182837042</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05882606279239677</v>
+        <v>0.07711050229007155</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01150494610979188</v>
+        <v>0.02436686796929446</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02297622101165412</v>
+        <v>0.0201400130251586</v>
       </c>
       <c r="G81" t="n">
-        <v>0.009034286241937759</v>
+        <v>0.02593799718810383</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01530628523827195</v>
+        <v>0.02348759164487788</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01243193757272666</v>
+        <v>0.0260386298305327</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03581454953657742</v>
+        <v>0.05049203223965534</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01230189598776311</v>
+        <v>0.02610150595026178</v>
       </c>
       <c r="N81" t="n">
-        <v>0.060530150013613</v>
+        <v>0.07882703038875333</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01227194251711134</v>
+        <v>0.02599132583391409</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02423743984160339</v>
+        <v>0.02050998007706501</v>
       </c>
       <c r="G82" t="n">
-        <v>0.009598929132058868</v>
+        <v>0.02755912201236032</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01592307624622313</v>
+        <v>0.02390608762596695</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01320893367102208</v>
+        <v>0.027666044194941</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03707592608937627</v>
+        <v>0.05125802780094624</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0130707644869983</v>
+        <v>0.02773285007215314</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06199223583819197</v>
+        <v>0.08001943293537667</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0130389389244308</v>
+        <v>0.02761578369853373</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02582480697119804</v>
+        <v>0.01880880494937356</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01032217534638786</v>
+        <v>0.0291802468366168</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01624342927505269</v>
+        <v>0.02443145047021739</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01398592976931749</v>
+        <v>0.02929345855934929</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03803753173604713</v>
+        <v>0.05240852973344853</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0138396329862335</v>
+        <v>0.0293641941940445</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06391246862713867</v>
+        <v>0.08225902691164449</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01380593533175026</v>
+        <v>0.02924024156315335</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02671129477044847</v>
+        <v>0.02108186469272299</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01072821491230109</v>
+        <v>0.03080137166087329</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01656660693161449</v>
+        <v>0.02467280838816496</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01476292586761291</v>
+        <v>0.03092087292375758</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03869824833734561</v>
+        <v>0.05362673976820301</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01460850148546869</v>
+        <v>0.03099553831593586</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06509099674145807</v>
+        <v>0.08315910740760041</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01457293173906971</v>
+        <v>0.03086469942777299</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02795130716624398</v>
+        <v>0.02034669045529035</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0112928578024222</v>
+        <v>0.03242249648512979</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0171918718227624</v>
+        <v>0.02509639463552127</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01553992196590832</v>
+        <v>0.03254828728816588</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03975695775402741</v>
+        <v>0.05403862500701134</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01537736998470389</v>
+        <v>0.03262688243782723</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06702796854215548</v>
+        <v>0.08442632449169146</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01533992814638917</v>
+        <v>0.03248915729239261</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0291879691893206</v>
+        <v>0.02060151655249593</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01185750069254331</v>
+        <v>0.03404362130938627</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01751848655535021</v>
+        <v>0.02540945448716755</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01631691806420374</v>
+        <v>0.03417570165257417</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04071254184684808</v>
+        <v>0.05442957598716711</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01614623848393908</v>
+        <v>0.03425822655971859</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06792353239023591</v>
+        <v>0.08525624220666839</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01610692455370863</v>
+        <v>0.03411361515701225</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03040827441209584</v>
+        <v>0.01984457729976002</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01242214358266442</v>
+        <v>0.03566474613364277</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01784571373623187</v>
+        <v>0.02580986125228138</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01709391416249916</v>
+        <v>0.03580311601698247</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04136388247656339</v>
+        <v>0.05549494740429947</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01691510698317428</v>
+        <v>0.03588957068160994</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06937783664670427</v>
+        <v>0.08594180222215347</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01687392096102809</v>
+        <v>0.03573807302163188</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03159921640698721</v>
+        <v>0.0200741070125029</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01298678647278553</v>
+        <v>0.03728587095789925</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01847281597226116</v>
+        <v>0.02609548824004033</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01787091026079457</v>
+        <v>0.03743053038139076</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04190986150392892</v>
+        <v>0.05613009395403759</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01768397548240947</v>
+        <v>0.03752091480350131</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07049102967256593</v>
+        <v>0.08667594620776942</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01764091736834755</v>
+        <v>0.03736253088625151</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03274778874641226</v>
+        <v>0.02128834000614489</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01355142936290664</v>
+        <v>0.03890699578215574</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01889905587029198</v>
+        <v>0.02636420875962203</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01864790635908999</v>
+        <v>0.03905794474579905</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04284936078970034</v>
+        <v>0.05673037033201073</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01845284398164466</v>
+        <v>0.03915225892539267</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07156325982882578</v>
+        <v>0.08815161583313846</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01840791377566701</v>
+        <v>0.03898698875087114</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03384098500278847</v>
+        <v>0.02248551059610624</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01411607225302775</v>
+        <v>0.04052812060641223</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01922369603717816</v>
+        <v>0.02651389612020404</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0194249024573854</v>
+        <v>0.04068535911020734</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04378126219463335</v>
+        <v>0.057491131233848</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01922171248087986</v>
+        <v>0.04078360304728403</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07309467547648901</v>
+        <v>0.08846175276788304</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01917491018298647</v>
+        <v>0.04061144661549077</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0348657987485334</v>
+        <v>0.02166385309780728</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01468071514314886</v>
+        <v>0.04214924543066872</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01954599907977357</v>
+        <v>0.02664242363096399</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02020189855568082</v>
+        <v>0.04231277347461564</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04440444757948353</v>
+        <v>0.05770773135517859</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01999058098011505</v>
+        <v>0.0424149471691754</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07468542497656061</v>
+        <v>0.08959929868162569</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01994190659030592</v>
+        <v>0.04223590448011041</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03580922355606451</v>
+        <v>0.02082160182666828</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01524535803326997</v>
+        <v>0.04377037025492521</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02016522760493207</v>
+        <v>0.02704766460107942</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02097889465397624</v>
+        <v>0.04394018783902393</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04521779880500656</v>
+        <v>0.05817552539163168</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02075944947935025</v>
+        <v>0.04404629129106676</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07553565669004569</v>
+        <v>0.08955719524398881</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02070890299762538</v>
+        <v>0.04386036234473003</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03682480697119803</v>
+        <v>0.02095699109810954</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01592964612198987</v>
+        <v>0.0453914950791817</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0203806442195075</v>
+        <v>0.02702749233972797</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02175589075227165</v>
+        <v>0.04556760220343223</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04652019773195806</v>
+        <v>0.05888986803883647</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02152831797858544</v>
+        <v>0.04567763541295811</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07634551897794944</v>
+        <v>0.0906283841245949</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02147589940494484</v>
+        <v>0.04548482020934966</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0374314996874436</v>
+        <v>0.02206825522755134</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01637464381351219</v>
+        <v>0.04701261990343818</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02089151153035372</v>
+        <v>0.02727978015608719</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02253288685056707</v>
+        <v>0.04719501656784052</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04711052622109374</v>
+        <v>0.0590461139924221</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02229718647782064</v>
+        <v>0.04730897953484948</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07751516020127686</v>
+        <v>0.09080580699306634</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0222428958122643</v>
+        <v>0.04710927807396929</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03818995501605268</v>
+        <v>0.02215362853041398</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0169392867036333</v>
+        <v>0.04863374472769468</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02139709214432461</v>
+        <v>0.0275024013593347</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02330988294886249</v>
+        <v>0.04882243093224882</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04768766613316919</v>
+        <v>0.05953961794801782</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02306605497705583</v>
+        <v>0.04894032365674084</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07884472872103304</v>
+        <v>0.09158240551902547</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02300989221958376</v>
+        <v>0.04873373593858893</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03893423696099869</v>
+        <v>0.02121134532211775</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01750392959375441</v>
+        <v>0.05025486955195117</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02159664866827399</v>
+        <v>0.02739322925864809</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0240868790471579</v>
+        <v>0.05044984529665711</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04835049932894009</v>
+        <v>0.05946573460125273</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02383492347629102</v>
+        <v>0.0505716677786322</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0797343728982231</v>
+        <v>0.09195112137209493</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02377688862690322</v>
+        <v>0.05035819380320855</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03966276326614376</v>
+        <v>0.02324232627407822</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01806857248387552</v>
+        <v>0.05187599437620766</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02198944370905576</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02486387514545332</v>
+        <v>0.0520772596610654</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04949790766916215</v>
+        <v>0.05931981864775604</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02460379197552622</v>
+        <v>0.05220301190052356</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08048424109385216</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02454388503422268</v>
+        <v>0.05198265166782819</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0403739516753499</v>
+        <v>0.02323965240745644</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01863321537399663</v>
+        <v>0.05349711920046414</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02247473987352372</v>
+        <v>0.02767099838218284</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02564087124374874</v>
+        <v>0.0537046740254737</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0498287730145909</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02537266047476142</v>
+        <v>0.05383435602241492</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08149448166892515</v>
+        <v>0.09203866812310357</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02531088144154213</v>
+        <v>0.05360710953244782</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04106621993247917</v>
+        <v>0.02122322080016805</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01919785826411774</v>
+        <v>0.05511824402472063</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02285179976853177</v>
+        <v>0.02766284696749706</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02641786734204415</v>
+        <v>0.055332088389882</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05074197722598212</v>
+        <v>0.05939980681027521</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02614152897399661</v>
+        <v>0.05546570014430627</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08216524298444733</v>
+        <v>0.0920932856667524</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02607787784886159</v>
+        <v>0.05523156739706745</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04173798578139364</v>
+        <v>0.0221926244361562</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01976250115423885</v>
+        <v>0.05673936884897712</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02311988600093375</v>
+        <v>0.02743695574221701</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02719486344033957</v>
+        <v>0.05695950275429029</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05163640216409132</v>
+        <v>0.05975852565192566</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0269103974732318</v>
+        <v>0.05709704426619764</v>
       </c>
       <c r="N100" t="n">
-        <v>0.08299667340142369</v>
+        <v>0.09179013635741129</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02684487425618105</v>
+        <v>0.05685602526168707</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04238766696595538</v>
+        <v>0.02214879388211387</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02032714404435996</v>
+        <v>0.05836049367323361</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02347826117758352</v>
+        <v>0.02759447571002291</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02797185953863499</v>
+        <v>0.05858691711869858</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05201092968967425</v>
+        <v>0.05978012986289211</v>
       </c>
       <c r="M101" t="n">
-        <v>0.027679265972467</v>
+        <v>0.058728388388089</v>
       </c>
       <c r="N101" t="n">
-        <v>0.08368892128085931</v>
+        <v>0.09163294013874024</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02761187066350051</v>
+        <v>0.05848048312630671</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04301368123002645</v>
+        <v>0.02109265970473411</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02089178693448107</v>
+        <v>0.05998161849749011</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02392618790533495</v>
+        <v>0.02743652769830851</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0287488556369304</v>
+        <v>0.06021433148310687</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05266444166348655</v>
+        <v>0.05936706765254107</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02844813447170219</v>
+        <v>0.06035973250998036</v>
       </c>
       <c r="N102" t="n">
-        <v>0.08514213498375944</v>
+        <v>0.09102541695439925</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02837886707081997</v>
+        <v>0.06010494099092634</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04361444631746888</v>
+        <v>0.02302515247070993</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02145642982460218</v>
+        <v>0.06160274332174659</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02416292879104184</v>
+        <v>0.02746423253446759</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02952585173522582</v>
+        <v>0.06184174584751517</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05309581994628387</v>
+        <v>0.05942178723023919</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02921700297093739</v>
+        <v>0.06199107663187173</v>
       </c>
       <c r="N103" t="n">
-        <v>0.08535646287112897</v>
+        <v>0.09157128674804821</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02914586347813943</v>
+        <v>0.06172939885554598</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04418837997214475</v>
+        <v>0.02194720274673437</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02202107271472329</v>
+        <v>0.06322386814600307</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02458774644155812</v>
+        <v>0.02737871104589393</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03030284783352123</v>
+        <v>0.06346916021192346</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05400394639882183</v>
+        <v>0.05904673680535302</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02998587147017259</v>
+        <v>0.06362242075376309</v>
       </c>
       <c r="N104" t="n">
-        <v>0.08643205330397308</v>
+        <v>0.09107426946334701</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02991285988545889</v>
+        <v>0.06335385672016559</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04473389993791612</v>
+        <v>0.02285974109950046</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0225857156048444</v>
+        <v>0.06484499297025957</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02499990346373762</v>
+        <v>0.02728108405998129</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03107984393181665</v>
+        <v>0.06509657457633175</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05428770288185614</v>
+        <v>0.05914436458724914</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03075473996940778</v>
+        <v>0.06525376487565446</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08696905464329668</v>
+        <v>0.0902380850439557</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03067985629277835</v>
+        <v>0.06497831458478523</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04524942395864501</v>
+        <v>0.02276369809570122</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02315035849496551</v>
+        <v>0.06646611779451606</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02529866246443417</v>
+        <v>0.02697247240412345</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03185684003011207</v>
+        <v>0.06672398894074004</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05524597125614236</v>
+        <v>0.0584171187852941</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03152360846864297</v>
+        <v>0.06688510899754581</v>
       </c>
       <c r="N106" t="n">
-        <v>0.08716761525010519</v>
+        <v>0.09056645343353403</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0314468527000978</v>
+        <v>0.06660277244940487</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04573336977819355</v>
+        <v>0.02266000430202967</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02371500138508661</v>
+        <v>0.06808724261877254</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02558328605050164</v>
+        <v>0.02695399690571419</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03263383612840748</v>
+        <v>0.06835140330514834</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05567763338243625</v>
+        <v>0.05816744760885448</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03229247696787816</v>
+        <v>0.06851645311943717</v>
       </c>
       <c r="N107" t="n">
-        <v>0.08832788348540344</v>
+        <v>0.08926309457574211</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03221384910741726</v>
+        <v>0.0682272303140245</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04618415514042375</v>
+        <v>0.02054959028517884</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02427964427520772</v>
+        <v>0.06970836744302904</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0257530368287939</v>
+        <v>0.02692677839214727</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03341083222670289</v>
+        <v>0.06997881766955664</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05588157112149336</v>
+        <v>0.05829779926729683</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03306134546711336</v>
+        <v>0.07014779724132854</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0886500077101966</v>
+        <v>0.08883172841423981</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03298084551473672</v>
+        <v>0.06985168817864414</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04660019778919768</v>
+        <v>0.02143338661184176</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02484428716532884</v>
+        <v>0.07132949226728554</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0260071774061648</v>
+        <v>0.02659193769081647</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03418782832499832</v>
+        <v>0.07160623203396493</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05635666633406941</v>
+        <v>0.05801062196998777</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03383021396634855</v>
+        <v>0.07177914136321989</v>
       </c>
       <c r="N109" t="n">
-        <v>0.08933413628548981</v>
+        <v>0.08897607489268705</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03374784192205618</v>
+        <v>0.07147614604326376</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04697991546837741</v>
+        <v>0.02231232384871146</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02540893005544995</v>
+        <v>0.07295061709154202</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02614497038946821</v>
+        <v>0.02655059562911556</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03496482442329373</v>
+        <v>0.07323364639837322</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05710180088092004</v>
+        <v>0.0576083639262939</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03459908246558375</v>
+        <v>0.07341048548511125</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08898041757228803</v>
+        <v>0.08829985395474388</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03451483832937564</v>
+        <v>0.07310060390788338</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04732172592182498</v>
+        <v>0.02218733256248096</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02597357294557106</v>
+        <v>0.0745717419157985</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02646567838555794</v>
+        <v>0.02640387303443831</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03574182052158915</v>
+        <v>0.07486106076278151</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05781585662280087</v>
+        <v>0.05709347334558168</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03536795096481895</v>
+        <v>0.07504182960700262</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09018899993159646</v>
+        <v>0.08780678554407012</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0352818347366951</v>
+        <v>0.07472506177250302</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04762404689340245</v>
+        <v>0.02005934331984329</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02653821583569217</v>
+        <v>0.07619286674005499</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0267685640012879</v>
+        <v>0.02625289073417848</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03651881661988456</v>
+        <v>0.07648847512718981</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05799771542046758</v>
+        <v>0.05726839843721779</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03613681946405414</v>
+        <v>0.07667317372889397</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0902600317244201</v>
+        <v>0.0872005896043257</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03604883114401456</v>
+        <v>0.07634951963712265</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04788702366969461</v>
+        <v>0.02092928668749149</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02710285872581328</v>
+        <v>0.07781399156431149</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0268528898435119</v>
+        <v>0.02609876955572986</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03729581271817998</v>
+        <v>0.0781158894915981</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0584462591346758</v>
+        <v>0.05673558741056875</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03690568796328933</v>
+        <v>0.07830451785078534</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09009366131176411</v>
+        <v>0.08728498607917057</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03681582755133402</v>
+        <v>0.07797397750174229</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04813750758896187</v>
+        <v>0.02179809323211856</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02766750161593439</v>
+        <v>0.07943511638856797</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02711791851908385</v>
+        <v>0.02604263032648624</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0380728088164754</v>
+        <v>0.07974330385600639</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05886036962618119</v>
+        <v>0.05619748847500111</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03767455646252453</v>
+        <v>0.0799358619726767</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09039003705463355</v>
+        <v>0.08616369491226467</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03758282395865348</v>
+        <v>0.07959843536636191</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04838510636927921</v>
+        <v>0.02066669352041754</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0282321445060555</v>
+        <v>0.08105624121282445</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02716291263485754</v>
+        <v>0.02578559387384134</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03884980491477081</v>
+        <v>0.08137071822041468</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05883892875573943</v>
+        <v>0.05615654983988155</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03844342496175972</v>
+        <v>0.08156720609456806</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09064930731403348</v>
+        <v>0.08554043604726802</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03834982036597293</v>
+        <v>0.08122289323098154</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0486297361719463</v>
+        <v>0.01953601811908146</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02879678739617661</v>
+        <v>0.08267736603708094</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02728713479768688</v>
+        <v>0.02562878102518898</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03962680101306622</v>
+        <v>0.08299813258482298</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05938081838410611</v>
+        <v>0.05571521971457652</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03921229346099492</v>
+        <v>0.08319855021645943</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09147162045096902</v>
+        <v>0.08491892942784041</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03911681677329239</v>
+        <v>0.08284735109560118</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0488713131582628</v>
+        <v>0.02040662935719576</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02936143028629772</v>
+        <v>0.08429849086133744</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0273898476144257</v>
+        <v>0.02547331260792292</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04040379711136164</v>
+        <v>0.08462554694923129</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05908492037203694</v>
+        <v>0.05507594630845267</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0399811619602301</v>
+        <v>0.08482989433835079</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09135712482644531</v>
+        <v>0.0851028949976419</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03988381318061185</v>
+        <v>0.08447180896022081</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0491097534895284</v>
+        <v>0.01926445661785809</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02992607317641883</v>
+        <v>0.08591961568559393</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02757031369192786</v>
+        <v>0.02521507788232405</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04118079320965706</v>
+        <v>0.08625296131363958</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05975011658028756</v>
+        <v>0.0550391701104305</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04075003045946531</v>
+        <v>0.08646123846024215</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0914059688014674</v>
+        <v>0.0839602614269867</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0406508095879313</v>
+        <v>0.08609626682484044</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04934497332704278</v>
+        <v>0.02110411749126723</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03049071606653993</v>
+        <v>0.08754074050985042</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02752779563704723</v>
+        <v>0.02503525830450817</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04195778930795248</v>
+        <v>0.08788037567804786</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05977528886961361</v>
+        <v>0.05436559976807342</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0415188989587005</v>
+        <v>0.08809258258213351</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09131830073704023</v>
+        <v>0.08344230463711821</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04141780599525077</v>
+        <v>0.08772072468946006</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04957688883210557</v>
+        <v>0.01992864387494449</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03105535895666105</v>
+        <v>0.0891618653341069</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02767105768882022</v>
+        <v>0.02493523391848772</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04273478540624789</v>
+        <v>0.08950779004245617</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05965931910077074</v>
+        <v>0.05414521648134277</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04228776745793569</v>
+        <v>0.08972392670402488</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09189426899416897</v>
+        <v>0.08256036598874156</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04218480240257022</v>
+        <v>0.08934518255407969</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04980541616601645</v>
+        <v>0.01874106766641134</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03162000184678216</v>
+        <v>0.0907829901583634</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0274709495592185</v>
+        <v>0.02461865651388993</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04351178150454331</v>
+        <v>0.09113520440686446</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06000580492204047</v>
+        <v>0.05388599680900216</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04305663595717089</v>
+        <v>0.09135527082591623</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09234055215526071</v>
+        <v>0.08242656550296512</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04295179880988968</v>
+        <v>0.09096964041869933</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05003047149007512</v>
+        <v>0.02054442076318908</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03218464473690327</v>
+        <v>0.09240411498261988</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02756256315287771</v>
+        <v>0.02458917788034209</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04428877760283872</v>
+        <v>0.09276261877127275</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05990194106821981</v>
+        <v>0.05349591730981507</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04382550445640608</v>
+        <v>0.09298661494780759</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09193653055247308</v>
+        <v>0.0813530232008971</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04371879521720914</v>
+        <v>0.09259409828331897</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05025197096558121</v>
+        <v>0.01834173506279915</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03274928762702438</v>
+        <v>0.09402523980687637</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02754119813583839</v>
+        <v>0.02415044980747143</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04506577370113414</v>
+        <v>0.09439003313568103</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05967443654411861</v>
+        <v>0.05248295454254515</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04459437295564127</v>
+        <v>0.09461795906969896</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09139162672248513</v>
+        <v>0.08095185910364611</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04448579162452861</v>
+        <v>0.09421855614793859</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05046983075383444</v>
+        <v>0.02013604246276288</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03331393051714548</v>
+        <v>0.09564636463113285</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02760740912106424</v>
+        <v>0.02400612408490524</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04584276979942956</v>
+        <v>0.09601744750008934</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05932135654791393</v>
+        <v>0.05245508506595589</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04536324145487648</v>
+        <v>0.09624930319159032</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09179875430964279</v>
+        <v>0.08023519323232026</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04525278803184806</v>
+        <v>0.09584301401255822</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05068396701613442</v>
+        <v>0.01893037486060168</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0338785734072666</v>
+        <v>0.09726748945538936</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02736175072151889</v>
+        <v>0.02365985250227079</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04661976589772497</v>
+        <v>0.09764486186449764</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05964370826969254</v>
+        <v>0.05172028543881083</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04613210995411167</v>
+        <v>0.09788064731348167</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09206018499467117</v>
+        <v>0.07861514560802807</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04601978443916752</v>
+        <v>0.09746747187717786</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05089429591378086</v>
+        <v>0.01972776415383692</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0344432162973877</v>
+        <v>0.09888861427964585</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02750477755016605</v>
+        <v>0.02341528684919533</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04739676199602039</v>
+        <v>0.09927227622890593</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05924249889954128</v>
+        <v>0.05108653221987355</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04690097845334686</v>
+        <v>0.09951199143537304</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09147819045829547</v>
+        <v>0.07840383625187802</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04678678084648698</v>
+        <v>0.09909192974179748</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0511007336080734</v>
+        <v>0.01953124223998998</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03500785918750882</v>
+        <v>0.1005097391039023</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02733704421996935</v>
+        <v>0.02337607891530616</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04817375809431581</v>
+        <v>0.1008996905933142</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05911873562754685</v>
+        <v>0.05026180196790761</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04766984695258205</v>
+        <v>0.1011433355572644</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09165504238124078</v>
+        <v>0.07761338518497823</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04755377725380644</v>
+        <v>0.1007163876064171</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05130319626031173</v>
+        <v>0.01834384073141985</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03557250207762992</v>
+        <v>0.1021308639281588</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02735910534389246</v>
+        <v>0.0231458804902305</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04895075419261122</v>
+        <v>0.1025271049577225</v>
       </c>
       <c r="L128" t="n">
-        <v>0.0589734256437961</v>
+        <v>0.05025407124167652</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04843871545181725</v>
+        <v>0.1027746796791558</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09059301244423223</v>
+        <v>0.07645591242843724</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04832077366112589</v>
+        <v>0.1023408454710367</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05150160003179553</v>
+        <v>0.01915177889640847</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03613714496775104</v>
+        <v>0.1037519887524153</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02717151553489905</v>
+        <v>0.0229237311328447</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04972775029090664</v>
+        <v>0.1041545193221308</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05910757613837575</v>
+        <v>0.04967029632692552</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04920758395105244</v>
+        <v>0.1044060238010471</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09069437232799504</v>
+        <v>0.076108437687675</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04908777006844536</v>
+        <v>0.1039653033356564</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05169586108382446</v>
+        <v>0.01794242495246759</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03670178785787215</v>
+        <v>0.1053731135766718</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02707482940595279</v>
+        <v>0.02248365766054237</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05050474638920206</v>
+        <v>0.1057819336865391</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05912219430137258</v>
+        <v>0.04886375950030009</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04997645245028764</v>
+        <v>0.1060373679229385</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09066139371325416</v>
+        <v>0.07549228686936055</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04985476647576481</v>
+        <v>0.105589761200276</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05188589557769818</v>
+        <v>0.01772011906178726</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03726643074799325</v>
+        <v>0.1069942384009283</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02706960157001734</v>
+        <v>0.02232533720303753</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05128174248749747</v>
+        <v>0.1074093480509474</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05861828732287341</v>
+        <v>0.04821377621958667</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05074532094952283</v>
+        <v>0.1076687120448298</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0903963482807349</v>
+        <v>0.07401969668340008</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05062176288308427</v>
+        <v>0.1072142190648956</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05207161967471634</v>
+        <v>0.01848920138655754</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03783107363811437</v>
+        <v>0.1086153632251848</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02685638664005637</v>
+        <v>0.02195399729825138</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05205873858579289</v>
+        <v>0.1090367624153557</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05859686239296497</v>
+        <v>0.04813176493099194</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05151418944875803</v>
+        <v>0.1093000561667212</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09000150771116228</v>
+        <v>0.07370801694356083</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05138875929040373</v>
+        <v>0.1088386769295153</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05225294953617866</v>
+        <v>0.01725401208896848</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03839571652823547</v>
+        <v>0.1102364880494413</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02683573922903354</v>
+        <v>0.0217748654841052</v>
       </c>
       <c r="K133" t="n">
-        <v>0.0528357346840883</v>
+        <v>0.110664176779764</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05805892670173404</v>
+        <v>0.04702914408072273</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05228305794799322</v>
+        <v>0.1109314002886125</v>
       </c>
       <c r="N133" t="n">
-        <v>0.08867914368526153</v>
+        <v>0.0719745974636099</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05215575569772318</v>
+        <v>0.1104631347941349</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05242980132338477</v>
+        <v>0.01601889133121014</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03896035941835659</v>
+        <v>0.1118576128736978</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0266082139499125</v>
+        <v>0.02149316929852017</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05361273078238372</v>
+        <v>0.1122915911441723</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05780548743926742</v>
+        <v>0.04641733211498572</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05305192644722841</v>
+        <v>0.1125627444105039</v>
       </c>
       <c r="N134" t="n">
-        <v>0.08913152788375767</v>
+        <v>0.07143678805731463</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05292275210504265</v>
+        <v>0.1120875926587545</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05260209119763435</v>
+        <v>0.01778817927547256</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03952500230847769</v>
+        <v>0.1134787376979542</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02647436541565697</v>
+        <v>0.02111413627941751</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05438972688067913</v>
+        <v>0.1139190055085806</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05733755179565192</v>
+        <v>0.04640774747998774</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05382079494646361</v>
+        <v>0.1141940885323953</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08796093198737592</v>
+        <v>0.07041193853844213</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05368974851236211</v>
+        <v>0.1137120505233741</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05276973532022709</v>
+        <v>0.01656621608394579</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0400896451985988</v>
+        <v>0.1150998625222107</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02643474823923056</v>
+        <v>0.02094299396471849</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05516672297897455</v>
+        <v>0.1155464198729889</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05745612696097421</v>
+        <v>0.04551180862193557</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05458966344569881</v>
+        <v>0.1158254326542866</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08766962767684139</v>
+        <v>0.0692173987207596</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05445674491968157</v>
+        <v>0.1153365083879938</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05293264985246262</v>
+        <v>0.01735734191881989</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04065428808871991</v>
+        <v>0.1167209873464672</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02608991703359695</v>
+        <v>0.02058496989234428</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05594371907726997</v>
+        <v>0.1171738342373972</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05686222012532119</v>
+        <v>0.04524093398703594</v>
       </c>
       <c r="M137" t="n">
-        <v>0.055358531944934</v>
+        <v>0.117456776776178</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08755988663287922</v>
+        <v>0.06847051841803437</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05522374132700102</v>
+        <v>0.1169609662526134</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05309075095564064</v>
+        <v>0.01616589694228492</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04121893097884102</v>
+        <v>0.1183421121707237</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02594042641171981</v>
+        <v>0.02044529160021615</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05672071517556539</v>
+        <v>0.1188012486018054</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05655683847877951</v>
+        <v>0.0444065420214956</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0561274004441692</v>
+        <v>0.1190881208980694</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08673398053621451</v>
+        <v>0.06748864744403354</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05599073773432049</v>
+        <v>0.1185854241172331</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05324395479106082</v>
+        <v>0.01599622131653092</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04178357386896214</v>
+        <v>0.1199632369949802</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0257868309865628</v>
+        <v>0.02012918662625529</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05749771127386081</v>
+        <v>0.1204286629662137</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05624098921143605</v>
+        <v>0.04372005117152136</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05689626894340439</v>
+        <v>0.1207194650199607</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08589418106757246</v>
+        <v>0.06708913561252433</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05675773414163994</v>
+        <v>0.1202098819818527</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05339217752002279</v>
+        <v>0.01685265520374795</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04234821675908324</v>
+        <v>0.1215843618192367</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02562968537108962</v>
+        <v>0.01994188250838294</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05827470737215621</v>
+        <v>0.122056077330622</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05611567951337756</v>
+        <v>0.04329287988331995</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05766513744263958</v>
+        <v>0.1223508091418521</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08534275990767803</v>
+        <v>0.06618933273727395</v>
       </c>
       <c r="O140" t="n">
-        <v>0.0575247305489594</v>
+        <v>0.1218343398464723</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05353533530382628</v>
+        <v>0.01473953876612606</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04291285964920435</v>
+        <v>0.1232054866434932</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02566954417826388</v>
+        <v>0.01998860678452033</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05905170347045163</v>
+        <v>0.1236834916950303</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0560819165746908</v>
+        <v>0.04293644660309814</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05843400594187478</v>
+        <v>0.1239821532637435</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0849819887372566</v>
+        <v>0.06610658863204966</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05829172695627886</v>
+        <v>0.123458797711092</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05367334430377092</v>
+        <v>0.01666121216585531</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04347750253932546</v>
+        <v>0.1248266114677497</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02530696202104928</v>
+        <v>0.01977458699258869</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05982869956874706</v>
+        <v>0.1253109060594386</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05544070758546257</v>
+        <v>0.0430621697770627</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05920287444110996</v>
+        <v>0.1256134973856348</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08411413923703315</v>
+        <v>0.06565825311061863</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05905872336359832</v>
+        <v>0.1250832555757116</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05380612068115639</v>
+        <v>0.01562201556512574</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04404214542944657</v>
+        <v>0.1264477362920061</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02514249351240948</v>
+        <v>0.01970505067050925</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06060569566704246</v>
+        <v>0.1269383204238469</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05509305973577963</v>
+        <v>0.04298146785142043</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05997174294034517</v>
+        <v>0.1272448415075262</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08374148308773283</v>
+        <v>0.06576167598674804</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05982571977091777</v>
+        <v>0.1267077134403312</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05393358059728235</v>
+        <v>0.0166194010198123</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04460678831956768</v>
+        <v>0.1280688611162626</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02507669326530813</v>
+        <v>0.01958486699732113</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06138269176533788</v>
+        <v>0.1285657347882552</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05503998021572876</v>
+        <v>0.04260575927237803</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06074061143958037</v>
+        <v>0.1288761856294175</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08356629197008081</v>
+        <v>0.06602503134221105</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06059271617823723</v>
+        <v>0.1283321713049508</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05405564021344848</v>
+        <v>0.01562639072949293</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04517143120968879</v>
+        <v>0.1296899859405191</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02481011589270891</v>
+        <v>0.01978971622610136</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0621596878636333</v>
+        <v>0.1301931491526635</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05408247621539672</v>
+        <v>0.04281007776881443</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06150947993881556</v>
+        <v>0.1305075297513089</v>
       </c>
       <c r="N145" t="n">
-        <v>0.08289083756480214</v>
+        <v>0.06564670574496195</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06135971258555669</v>
+        <v>0.1299566291695705</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05417221569095444</v>
+        <v>0.01663947158501351</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0457360740998099</v>
+        <v>0.1313111107647756</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02464331600757549</v>
+        <v>0.01960205028063469</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06293668396192871</v>
+        <v>0.1318205635170718</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05382155492487029</v>
+        <v>0.04283231868709811</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06227834843805075</v>
+        <v>0.1321388738732003</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08171739155262203</v>
+        <v>0.06539299083772221</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06212670899287615</v>
+        <v>0.1315810870341901</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0542832231910999</v>
+        <v>0.01665832467283733</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04630071698993101</v>
+        <v>0.1329322355890321</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02467684822287154</v>
+        <v>0.01972148504333895</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06371368006022414</v>
+        <v>0.1334479778814801</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05335822353423628</v>
+        <v>0.04287027072528471</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06304721693728595</v>
+        <v>0.1337702179950916</v>
       </c>
       <c r="N147" t="n">
-        <v>0.08194822561426568</v>
+        <v>0.06566261176249599</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06289370540019561</v>
+        <v>0.1332055448988097</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05438857887518456</v>
+        <v>0.01568263107942762</v>
       </c>
       <c r="G148" t="n">
-        <v>0.04686535988005212</v>
+        <v>0.1345533604132886</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02441126715156071</v>
+        <v>0.01974763639663188</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06449067615851954</v>
+        <v>0.1350753922458884</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05359348923358143</v>
+        <v>0.04282309486010635</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06381608543652113</v>
+        <v>0.135401562116983</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08128561143045809</v>
+        <v>0.06575429366128793</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06366070180751507</v>
+        <v>0.1348300027634294</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05448819890450806</v>
+        <v>0.01471207189124765</v>
       </c>
       <c r="G149" t="n">
-        <v>0.04743000277017323</v>
+        <v>0.1361744852375451</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02414712740660664</v>
+        <v>0.01988012022293126</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06526767225681496</v>
+        <v>0.1367028066102967</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05292835921299255</v>
+        <v>0.04288995206829516</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06458495393575632</v>
+        <v>0.1370329062388743</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08053182068192444</v>
+        <v>0.06616676167610219</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06442769821483452</v>
+        <v>0.136454460628049</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05458199944037006</v>
+        <v>0.01474632819476068</v>
       </c>
       <c r="G150" t="n">
-        <v>0.04799464566029434</v>
+        <v>0.1377956100618016</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02418498360097307</v>
+        <v>0.01991855240465486</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06604466835511039</v>
+        <v>0.138330220974705</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05256384066255634</v>
+        <v>0.04297000332658324</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06535382243499153</v>
+        <v>0.1386642503607657</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07968912504938985</v>
+        <v>0.06629874094894328</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06519469462215398</v>
+        <v>0.1380789184926686</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05466989664407024</v>
+        <v>0.01678508107642996</v>
       </c>
       <c r="G151" t="n">
-        <v>0.04855928855041545</v>
+        <v>0.1394167348860581</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02402539034762359</v>
+        <v>0.01976254882422046</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06682166445340579</v>
+        <v>0.1399576353391133</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0525009407723597</v>
+        <v>0.04326240961170269</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06612269093422672</v>
+        <v>0.1402955944826571</v>
       </c>
       <c r="N151" t="n">
-        <v>0.07935979621357947</v>
+        <v>0.06594895662181549</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06596169102947344</v>
+        <v>0.1397033763572883</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05475180667690829</v>
+        <v>0.01682801162271876</v>
       </c>
       <c r="G152" t="n">
-        <v>0.04912393144053656</v>
+        <v>0.1410378597103146</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02366890225952191</v>
+        <v>0.01981172536404582</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0675986605517012</v>
+        <v>0.1415850497035216</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05194066673248932</v>
+        <v>0.04306633190038556</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06689155943346192</v>
+        <v>0.1419269386045484</v>
       </c>
       <c r="N152" t="n">
-        <v>0.07874610585521846</v>
+        <v>0.06661613383672316</v>
       </c>
       <c r="O152" t="n">
-        <v>0.0667286874367929</v>
+        <v>0.1413278342219079</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05482764570018387</v>
+        <v>0.01587480092009031</v>
       </c>
       <c r="G153" t="n">
-        <v>0.04968857433065767</v>
+        <v>0.1426589845345711</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02371607394963167</v>
+        <v>0.01986569790654873</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06837565664999663</v>
+        <v>0.1432124640679299</v>
       </c>
       <c r="L153" t="n">
-        <v>0.051584025733032</v>
+        <v>0.04348093116936402</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06766042793269711</v>
+        <v>0.1435582827264398</v>
       </c>
       <c r="N153" t="n">
-        <v>0.07815032565503188</v>
+        <v>0.06679899773567072</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06749568384411235</v>
+        <v>0.1429522920865275</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05489732987519661</v>
+        <v>0.01692513005500789</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05025321722077878</v>
+        <v>0.1442801093588275</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02356746003091655</v>
+        <v>0.02012408233414698</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06915265274829205</v>
+        <v>0.1448398784323381</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05083202496407455</v>
+        <v>0.04340536839537015</v>
       </c>
       <c r="M154" t="n">
-        <v>0.0684292964319323</v>
+        <v>0.1451896268483312</v>
       </c>
       <c r="N154" t="n">
-        <v>0.07747472729374488</v>
+        <v>0.06669627346066254</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06826268025143181</v>
+        <v>0.1445767499511471</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05496077536324624</v>
+        <v>0.01497868011393477</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05081786011089989</v>
+        <v>0.145901234183084</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02332361511634022</v>
+        <v>0.02018649452925829</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06992964884658746</v>
+        <v>0.1464672927967464</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05048567161570366</v>
+        <v>0.04323880455513604</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0691981649311675</v>
+        <v>0.1468209709702225</v>
       </c>
       <c r="N155" t="n">
-        <v>0.07712158245208267</v>
+        <v>0.06660668615370291</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06902967665875129</v>
+        <v>0.1462012078157668</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05501789832563238</v>
+        <v>0.01704109852859127</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05138250300102101</v>
+        <v>0.1475223590073405</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02328509381886633</v>
+        <v>0.02005261220779943</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07070664494488288</v>
+        <v>0.1480947071611547</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05044597287800617</v>
+        <v>0.04378040062539379</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0699670334304027</v>
+        <v>0.1484523150921139</v>
       </c>
       <c r="N156" t="n">
-        <v>0.07709316281077033</v>
+        <v>0.06713542306562342</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06979667306607074</v>
+        <v>0.1478256656803864</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05506861492365474</v>
+        <v>0.01515067384179968</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05194714589114211</v>
+        <v>0.149143483831597</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02315245075145855</v>
+        <v>0.02035719086782564</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07148364104317829</v>
+        <v>0.149722121525563</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05011393594106886</v>
+        <v>0.04407329671992244</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0707359019296379</v>
+        <v>0.1500836592140052</v>
       </c>
       <c r="N157" t="n">
-        <v>0.076491740050533</v>
+        <v>0.06802591565467198</v>
       </c>
       <c r="O157" t="n">
-        <v>0.0705636694733902</v>
+        <v>0.149450123545006</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05511284131861296</v>
+        <v>0.0173063462563128</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05251178878126322</v>
+        <v>0.1507646086558535</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02292404895378611</v>
+        <v>0.02052187201116937</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07226063714147371</v>
+        <v>0.1513495358899713</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04948385336408664</v>
+        <v>0.04380008042823888</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07150477042887309</v>
+        <v>0.1517150033358966</v>
       </c>
       <c r="N158" t="n">
-        <v>0.07621412363341262</v>
+        <v>0.06820875249582603</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07133066588070966</v>
+        <v>0.1510745814096257</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05515049367180671</v>
+        <v>0.01749848854218165</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05307643167138433</v>
+        <v>0.15238573348011</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02279646010413763</v>
+        <v>0.02063506005512403</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07303763323976913</v>
+        <v>0.1529769502543796</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04954491880216488</v>
+        <v>0.04443902930726421</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07227363892810827</v>
+        <v>0.1533463474577879</v>
       </c>
       <c r="N159" t="n">
-        <v>0.07555144388028801</v>
+        <v>0.06914544870317707</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07209766228802912</v>
+        <v>0.1526990392742453</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05518148814453568</v>
+        <v>0.01671747346945721</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05364107456150544</v>
+        <v>0.1540068583043665</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02266954261523775</v>
+        <v>0.02078515941698307</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07381462933806454</v>
+        <v>0.1546043646187879</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04909732629527941</v>
+        <v>0.04526481526959553</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07304250742734347</v>
+        <v>0.1549776915796793</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0754023956732337</v>
+        <v>0.06949751939081628</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07286465869534857</v>
+        <v>0.1543234971388649</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05520574089809954</v>
+        <v>0.01695367380819051</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05420571745162656</v>
+        <v>0.155627983128623</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02264320602388788</v>
+        <v>0.02106057451403989</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07459162543635996</v>
+        <v>0.1562317789831962</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04884146032912554</v>
+        <v>0.04585211022782976</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07381137592657866</v>
+        <v>0.1566090357015707</v>
       </c>
       <c r="N161" t="n">
-        <v>0.07476580678361655</v>
+        <v>0.0706264796728352</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07363165510266803</v>
+        <v>0.1559479550034846</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05522316809379795</v>
+        <v>0.01719746232843256</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05477036034174767</v>
+        <v>0.1572491079528795</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02231735986688953</v>
+        <v>0.02134970976358792</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07536862153465537</v>
+        <v>0.1578591933476045</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04827770538939877</v>
+        <v>0.046575586094564</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07458024442581386</v>
+        <v>0.158240379823462</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0746405049828035</v>
+        <v>0.07199384466332509</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07439865150998749</v>
+        <v>0.1575724128681042</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05523368589293053</v>
+        <v>0.01843921180023435</v>
       </c>
       <c r="G163" t="n">
-        <v>0.05533500323186877</v>
+        <v>0.1588702327771359</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02219191368104416</v>
+        <v>0.0218409695829206</v>
       </c>
       <c r="K163" t="n">
-        <v>0.0761456176329508</v>
+        <v>0.1594866077120128</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04800644596179449</v>
+        <v>0.04670991478239525</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07534911292504906</v>
+        <v>0.1598717239453534</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0742253180421612</v>
+        <v>0.07286112947637741</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07516564791730695</v>
+        <v>0.1591968707327238</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05523721045679705</v>
+        <v>0.01766929499364692</v>
       </c>
       <c r="G164" t="n">
-        <v>0.05589964612198988</v>
+        <v>0.1604913576013924</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02206677700315325</v>
+        <v>0.02212275838933135</v>
       </c>
       <c r="K164" t="n">
-        <v>0.0769226137312462</v>
+        <v>0.1611140220764211</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04762806653200813</v>
+        <v>0.04782976820392054</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07611798142428425</v>
+        <v>0.1615030680672448</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0743190737330568</v>
+        <v>0.07348984922608354</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0759326443246264</v>
+        <v>0.1608213285973435</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05523721045679705</v>
+        <v>0.01687808467872123</v>
       </c>
       <c r="G165" t="n">
-        <v>0.05589964612198988</v>
+        <v>0.1621124824256489</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02204185937001828</v>
+        <v>0.02238348060011358</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07769960982954162</v>
+        <v>0.1627414364408294</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04744295158573508</v>
+        <v>0.04810981827173691</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07688684992351945</v>
+        <v>0.1631344121891361</v>
       </c>
       <c r="N165" t="n">
-        <v>0.07442059982685689</v>
+        <v>0.07434151902653469</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07669964073194586</v>
+        <v>0.1624457864619631</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0543062924909383</v>
+        <v>0.0170581495626593</v>
       </c>
       <c r="G166" t="n">
-        <v>0.05589937759352587</v>
+        <v>0.1637336072499054</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02191707031844069</v>
+        <v>0.02251154063256071</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07847660592783705</v>
+        <v>0.1643688508052377</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04675148560867079</v>
+        <v>0.04872473689844142</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07765571842275464</v>
+        <v>0.1647657563110275</v>
       </c>
       <c r="N166" t="n">
-        <v>0.07412872409492843</v>
+        <v>0.07467932114225628</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07746663713926533</v>
+        <v>0.1640702443265827</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05338580291388597</v>
+        <v>0.01722757943079229</v>
       </c>
       <c r="G167" t="n">
-        <v>0.05589910906506185</v>
+        <v>0.1653547320741619</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02189231938522199</v>
+        <v>0.02271599927104229</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07925360202613245</v>
+        <v>0.165996265169646</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04615405308651077</v>
+        <v>0.0490745831335106</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07842458692198984</v>
+        <v>0.1663971004329189</v>
       </c>
       <c r="N167" t="n">
-        <v>0.07354227430863819</v>
+        <v>0.07585726995558822</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07823363354658479</v>
+        <v>0.1656947021912024</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05247623275005326</v>
+        <v>0.01939289643803914</v>
       </c>
       <c r="G168" t="n">
-        <v>0.05589884053659783</v>
+        <v>0.1669758568984184</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02176751610716364</v>
+        <v>0.02281537809334232</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08003059812442787</v>
+        <v>0.1676236795340543</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04605103850495032</v>
+        <v>0.04961048630205411</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07919345542122502</v>
+        <v>0.1680284445548102</v>
       </c>
       <c r="N168" t="n">
-        <v>0.07276007823935315</v>
+        <v>0.07661856834786712</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07900062995390424</v>
+        <v>0.167319160055822</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05157807302397194</v>
+        <v>0.0185544059891097</v>
       </c>
       <c r="G169" t="n">
-        <v>0.05589857200813381</v>
+        <v>0.1685969817226749</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02164257002106708</v>
+        <v>0.02311005224566726</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08080759422272328</v>
+        <v>0.1692510938984626</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04574282634968493</v>
+        <v>0.050135952063527</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07996232392046021</v>
+        <v>0.1696597886767016</v>
       </c>
       <c r="N169" t="n">
-        <v>0.07238096365844016</v>
+        <v>0.07726443717550535</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0797676263612237</v>
+        <v>0.1689436179204416</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05069181476005475</v>
+        <v>0.01771241348871382</v>
       </c>
       <c r="G170" t="n">
-        <v>0.05589830347966979</v>
+        <v>0.1702181065469314</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02131739066373385</v>
+        <v>0.02320038957480067</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08158459032101871</v>
+        <v>0.1708785082628708</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04542980110641004</v>
+        <v>0.05025178390109356</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08073119241969542</v>
+        <v>0.1712911327985929</v>
       </c>
       <c r="N170" t="n">
-        <v>0.07220375833726589</v>
+        <v>0.07799609729491513</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08053462276854316</v>
+        <v>0.1705680757850613</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04981794898275426</v>
+        <v>0.01786722434156137</v>
       </c>
       <c r="G171" t="n">
-        <v>0.05589803495120578</v>
+        <v>0.1718392313711879</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02129188757196536</v>
+        <v>0.02338675792752627</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08236158641931413</v>
+        <v>0.1725059226272792</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04491234726082102</v>
+        <v>0.0506587852979184</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08150006091893061</v>
+        <v>0.1729224769204843</v>
       </c>
       <c r="N171" t="n">
-        <v>0.07182729004719729</v>
+        <v>0.07881476956250849</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08130161917586261</v>
+        <v>0.1721925336496809</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04895696671648585</v>
+        <v>0.01901914395236224</v>
       </c>
       <c r="G172" t="n">
-        <v>0.05589776642274175</v>
+        <v>0.1734603561954443</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02126597028256311</v>
+        <v>0.02356952515062767</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08313858251760953</v>
+        <v>0.1741333369916874</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04469084929861336</v>
+        <v>0.05145775973716601</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08226892941816581</v>
+        <v>0.1745538210423757</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07215038655960127</v>
+        <v>0.0794216748346977</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08206861558318207</v>
+        <v>0.1738169915143005</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04810935898577706</v>
+        <v>0.01916847772582624</v>
       </c>
       <c r="G173" t="n">
-        <v>0.05589749789427774</v>
+        <v>0.1750814810197008</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02113954833232858</v>
+        <v>0.02374905909088854</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08391557861590496</v>
+        <v>0.1757607513560957</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04396569170548245</v>
+        <v>0.0516495107020008</v>
       </c>
       <c r="M173" t="n">
-        <v>0.083037797917401</v>
+        <v>0.176185165164267</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07197187564584462</v>
+        <v>0.07981803396789505</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08283561199050153</v>
+        <v>0.1754414493789201</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04727561681504267</v>
+        <v>0.02031553106666326</v>
       </c>
       <c r="G174" t="n">
-        <v>0.05589722936581373</v>
+        <v>0.1767026058439573</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02101253125806321</v>
+        <v>0.0239257275950925</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08469257471420037</v>
+        <v>0.177388165720504</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0433372589671237</v>
+        <v>0.05213484167558735</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08380666641663619</v>
+        <v>0.1778165092861584</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07119058507729414</v>
+        <v>0.08020506781851261</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08360260839782099</v>
+        <v>0.1770659072435398</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04645623122873525</v>
+        <v>0.01946060937958318</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05589696083734971</v>
+        <v>0.1783237306682138</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02078482859656851</v>
+        <v>0.02419989851002324</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08546957081249577</v>
+        <v>0.1790155800849123</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04310593556923259</v>
+        <v>0.05221455614109002</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08457553491587139</v>
+        <v>0.1794478534080498</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07130534262531674</v>
+        <v>0.08058399724296272</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08436960480514044</v>
+        <v>0.1786903651081594</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04565169325127272</v>
+        <v>0.01860401806929581</v>
       </c>
       <c r="G176" t="n">
-        <v>0.05589669230888569</v>
+        <v>0.1799448554924703</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02075634988464595</v>
+        <v>0.02437193968246437</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0862465669107912</v>
+        <v>0.1806429944493206</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04267210599750451</v>
+        <v>0.05258945758167338</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08534440341510657</v>
+        <v>0.1810791975299411</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07051497606127927</v>
+        <v>0.08115604309765745</v>
       </c>
       <c r="O176" t="n">
-        <v>0.0851366012124599</v>
+        <v>0.180314822972779</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04486249390717766</v>
+        <v>0.01974606254051107</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05589642378042167</v>
+        <v>0.1815659803167268</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02062700465909698</v>
+        <v>0.02444221895919953</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08702356300908662</v>
+        <v>0.1822704088137289</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04203615473763486</v>
+        <v>0.05296034948050196</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08611327191434177</v>
+        <v>0.1827105416518325</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07031831315654863</v>
+        <v>0.08202242623900907</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08590359761977936</v>
+        <v>0.1819392808373987</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04408912422086731</v>
+        <v>0.01989282792357656</v>
       </c>
       <c r="G178" t="n">
-        <v>0.05589615525195766</v>
+        <v>0.1831871051409833</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02039670245672308</v>
+        <v>0.02471426283069092</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08780055910738203</v>
+        <v>0.1838978231781372</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04179846627531916</v>
+        <v>0.05343129112870748</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08688214041357697</v>
+        <v>0.1843418857737238</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07001418168249157</v>
+        <v>0.08250023712222521</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08667059402709883</v>
+        <v>0.1835637387020183</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04333207521679424</v>
+        <v>0.01904715402856338</v>
       </c>
       <c r="G179" t="n">
-        <v>0.05589588672349364</v>
+        <v>0.1848082299652398</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0202653528143257</v>
+        <v>0.02489640268096223</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08857755520567745</v>
+        <v>0.1855252375425455</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04145942509625272</v>
+        <v>0.0537233301498658</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08765100891281216</v>
+        <v>0.1859732298956152</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07020140941047492</v>
+        <v>0.08331084418612988</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08743759043441827</v>
+        <v>0.1851881965666379</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04259183791937914</v>
+        <v>0.0212037964660876</v>
       </c>
       <c r="G180" t="n">
-        <v>0.05589561819502962</v>
+        <v>0.1864293547894963</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02003286526870636</v>
+        <v>0.02498339746997891</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08935455130397287</v>
+        <v>0.1871526519069538</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04071941568613105</v>
+        <v>0.05452877435305181</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08841987741204736</v>
+        <v>0.1876045740175065</v>
       </c>
       <c r="N180" t="n">
-        <v>0.06957882411186561</v>
+        <v>0.08363434938211595</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08820458684173774</v>
+        <v>0.1868126544312576</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04186890335313909</v>
+        <v>0.01935750892188474</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0558953496665656</v>
+        <v>0.1880504796137527</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01999914935666651</v>
+        <v>0.02526892823877963</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09013154740226828</v>
+        <v>0.1887800662713621</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04017882253064953</v>
+        <v>0.0549338213146256</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08918874591128255</v>
+        <v>0.1892359181393979</v>
       </c>
       <c r="N181" t="n">
-        <v>0.06894525355803044</v>
+        <v>0.08394978055028074</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08897158324905721</v>
+        <v>0.1884371122958772</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04116376254249401</v>
+        <v>0.02050304508169028</v>
       </c>
       <c r="G182" t="n">
-        <v>0.05589508113810158</v>
+        <v>0.1896716044380092</v>
       </c>
       <c r="J182" t="n">
-        <v>0.01996411461500763</v>
+        <v>0.02544667602840311</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0909085435005637</v>
+        <v>0.1904074806357704</v>
       </c>
       <c r="L182" t="n">
-        <v>0.03973803011550361</v>
+        <v>0.05482466861094734</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08995761441051775</v>
+        <v>0.1908672622612892</v>
       </c>
       <c r="N182" t="n">
-        <v>0.06899952552033634</v>
+        <v>0.08483616553072182</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08973857965637666</v>
+        <v>0.1900615701604968</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0404769065118965</v>
+        <v>0.02063515863123975</v>
       </c>
       <c r="G183" t="n">
-        <v>0.05589481260963757</v>
+        <v>0.1912927292622657</v>
       </c>
       <c r="J183" t="n">
-        <v>0.01982767058053118</v>
+        <v>0.0257103218798881</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09168553959885911</v>
+        <v>0.1920348950001787</v>
       </c>
       <c r="L183" t="n">
-        <v>0.03949742292638866</v>
+        <v>0.05558751381837718</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09072648290975295</v>
+        <v>0.1924986063831806</v>
       </c>
       <c r="N183" t="n">
-        <v>0.06864046777014998</v>
+        <v>0.08517253216353637</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09050557606369612</v>
+        <v>0.1916860280251164</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03980882628577045</v>
+        <v>0.02174860325626866</v>
       </c>
       <c r="G184" t="n">
-        <v>0.05589454408117354</v>
+        <v>0.1929138540865222</v>
       </c>
       <c r="J184" t="n">
-        <v>0.01968972679003865</v>
+        <v>0.02565354683427323</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09246253569715453</v>
+        <v>0.193662309364587</v>
       </c>
       <c r="L184" t="n">
-        <v>0.03895738544900018</v>
+        <v>0.05580855451327515</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09149535140898814</v>
+        <v>0.194129950505072</v>
       </c>
       <c r="N184" t="n">
-        <v>0.06866690807883846</v>
+        <v>0.08583790828882187</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09127257247101558</v>
+        <v>0.1933104858897361</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0391600128886266</v>
+        <v>0.01983813264251252</v>
       </c>
       <c r="G185" t="n">
-        <v>0.05589427555270953</v>
+        <v>0.1945349789107787</v>
       </c>
       <c r="J185" t="n">
-        <v>0.01955019278033149</v>
+        <v>0.0259700319325973</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09323953179544994</v>
+        <v>0.1952897237289953</v>
       </c>
       <c r="L185" t="n">
-        <v>0.03851830216903365</v>
+        <v>0.05577398827200145</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09226421990822334</v>
+        <v>0.1957612946269633</v>
       </c>
       <c r="N185" t="n">
-        <v>0.06777767421776848</v>
+        <v>0.08631132174667566</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09203956887833505</v>
+        <v>0.1949349437543557</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03853095734488806</v>
+        <v>0.02090108542223195</v>
       </c>
       <c r="G186" t="n">
-        <v>0.05589400702424552</v>
+        <v>0.1961561037350352</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01930897808821118</v>
+        <v>0.02585364669227361</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09401652789374537</v>
+        <v>0.1969171380934036</v>
       </c>
       <c r="L186" t="n">
-        <v>0.03798055757218435</v>
+        <v>0.05647001267091625</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09303308840745853</v>
+        <v>0.1973926387488547</v>
       </c>
       <c r="N186" t="n">
-        <v>0.06727159395830695</v>
+        <v>0.08637549333209943</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09280656528565449</v>
+        <v>0.1965594016189753</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03792215067900733</v>
+        <v>0.01995747772009526</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0558937384957815</v>
+        <v>0.1977772285592917</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0192659922504792</v>
+        <v>0.02592148199211523</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09479352399204079</v>
+        <v>0.1985445524578119</v>
       </c>
       <c r="L187" t="n">
-        <v>0.03764453614414778</v>
+        <v>0.05611837537430792</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09380195690669373</v>
+        <v>0.1990239828707461</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0671474950718205</v>
+        <v>0.08700077025134961</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09357356169297396</v>
+        <v>0.198183859483595</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03733408391541194</v>
+        <v>0.02201264083738288</v>
       </c>
       <c r="G188" t="n">
-        <v>0.05589346996731748</v>
+        <v>0.1993983533835482</v>
       </c>
       <c r="J188" t="n">
-        <v>0.01912114480393701</v>
+        <v>0.02608784943900591</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09557052009033619</v>
+        <v>0.2001719668222201</v>
       </c>
       <c r="L188" t="n">
-        <v>0.03751062237061936</v>
+        <v>0.05616323660724887</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09457082540592891</v>
+        <v>0.2006553269926374</v>
       </c>
       <c r="N188" t="n">
-        <v>0.06610420532967631</v>
+        <v>0.08692115579219051</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09434055810029342</v>
+        <v>0.1998083173482146</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03676724807860555</v>
+        <v>0.0210665554669484</v>
       </c>
       <c r="G189" t="n">
-        <v>0.05589320143885346</v>
+        <v>0.2010194782078047</v>
       </c>
       <c r="J189" t="n">
-        <v>0.01887434528538609</v>
+        <v>0.02625272577832159</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09634751618863162</v>
+        <v>0.2017993811866284</v>
       </c>
       <c r="L189" t="n">
-        <v>0.03677920073729454</v>
+        <v>0.05680485797760643</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0953396939051641</v>
+        <v>0.2022866711145288</v>
       </c>
       <c r="N189" t="n">
-        <v>0.06654055250324098</v>
+        <v>0.08763657277423581</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09510755450761288</v>
+        <v>0.2014327752128342</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03622012917650026</v>
+        <v>0.02211920230164546</v>
       </c>
       <c r="G190" t="n">
-        <v>0.05589293291038945</v>
+        <v>0.2026406030320611</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01882550323162793</v>
+        <v>0.02631608775543821</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09712451228692703</v>
+        <v>0.2034267955510367</v>
       </c>
       <c r="L190" t="n">
-        <v>0.03625065572986869</v>
+        <v>0.0566431886905939</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09610856240439931</v>
+        <v>0.2039180152364202</v>
       </c>
       <c r="N190" t="n">
-        <v>0.06525536436388146</v>
+        <v>0.08764694401709922</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09587455091493233</v>
+        <v>0.2030572330774539</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03568118813446056</v>
+        <v>0.02217056203432761</v>
       </c>
       <c r="G191" t="n">
-        <v>0.05589266438192544</v>
+        <v>0.2042617278563176</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01857452817946396</v>
+        <v>0.02617791211573177</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09790150838522244</v>
+        <v>0.205054209915445</v>
       </c>
       <c r="L191" t="n">
-        <v>0.03622537183403726</v>
+        <v>0.05707817795142459</v>
       </c>
       <c r="M191" t="n">
-        <v>0.0968774309036345</v>
+        <v>0.2055493593583115</v>
       </c>
       <c r="N191" t="n">
-        <v>0.06554746868296463</v>
+        <v>0.08765219234039429</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09664154732225179</v>
+        <v>0.2046816909420735</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03514891096040119</v>
+        <v>0.02222061535784844</v>
       </c>
       <c r="G192" t="n">
-        <v>0.05589239585346141</v>
+        <v>0.2058828526805741</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01842132966569569</v>
+        <v>0.0262381756045782</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09867850448351785</v>
+        <v>0.2066816242798533</v>
       </c>
       <c r="L192" t="n">
-        <v>0.03540373353549572</v>
+        <v>0.05730977496531178</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09764629940286969</v>
+        <v>0.2071807034802029</v>
       </c>
       <c r="N192" t="n">
-        <v>0.06431569323185732</v>
+        <v>0.08815224056373483</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09740854372957125</v>
+        <v>0.2063061488066931</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03462378867882104</v>
+        <v>0.02226934296506156</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0558921273249974</v>
+        <v>0.2075039775048306</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01826103339008238</v>
+        <v>0.02629685496735348</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09945550058181328</v>
+        <v>0.2083090386442616</v>
       </c>
       <c r="L193" t="n">
-        <v>0.03498086468982872</v>
+        <v>0.05723792893746882</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09841516790210489</v>
+        <v>0.2088120476020942</v>
       </c>
       <c r="N193" t="n">
-        <v>0.06400692169536965</v>
+        <v>0.08774701150673442</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09817554013689071</v>
+        <v>0.2079306066713127</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03410631231414938</v>
+        <v>0.02031672554882056</v>
       </c>
       <c r="G194" t="n">
-        <v>0.05589185879653338</v>
+        <v>0.2091251023290871</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01798838655551586</v>
+        <v>0.02655392694943355</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1002324966801087</v>
+        <v>0.2099364530086699</v>
       </c>
       <c r="L194" t="n">
-        <v>0.0348507996407722</v>
+        <v>0.05736258907310898</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09918403640134008</v>
+        <v>0.2104433917239856</v>
       </c>
       <c r="N194" t="n">
-        <v>0.06366237182427581</v>
+        <v>0.08773642798900666</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09894253654421016</v>
+        <v>0.2095550645359324</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03359697289083877</v>
+        <v>0.02036274380197902</v>
       </c>
       <c r="G195" t="n">
-        <v>0.05589159026806936</v>
+        <v>0.2107462271533436</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0179042910443056</v>
+        <v>0.02640936829619438</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1010094927784041</v>
+        <v>0.2115638673730782</v>
       </c>
       <c r="L195" t="n">
-        <v>0.03441410386709051</v>
+        <v>0.05718370457744557</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09995290490057528</v>
+        <v>0.2120747358458769</v>
       </c>
       <c r="N195" t="n">
-        <v>0.06228989752972419</v>
+        <v>0.08792041283016533</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09970953295152962</v>
+        <v>0.211179522400552</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03309626143332018</v>
+        <v>0.02040737841739054</v>
       </c>
       <c r="G196" t="n">
-        <v>0.05589132173960534</v>
+        <v>0.2123673519776001</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01760966229726059</v>
+        <v>0.02656315575301195</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1017864888766995</v>
+        <v>0.2131912817374865</v>
       </c>
       <c r="L196" t="n">
-        <v>0.03377135998148609</v>
+        <v>0.05720122465569186</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1007217733998105</v>
+        <v>0.2137060799677684</v>
       </c>
       <c r="N196" t="n">
-        <v>0.06139751105760166</v>
+        <v>0.08819888884982413</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1004765293588491</v>
+        <v>0.2128039802651717</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0326046689660898</v>
+        <v>0.0224506100879087</v>
       </c>
       <c r="G197" t="n">
-        <v>0.05589105321114132</v>
+        <v>0.2139884768018566</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01750541575518985</v>
+        <v>0.02661526606526218</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1025634849749949</v>
+        <v>0.2148186961018948</v>
       </c>
       <c r="L197" t="n">
-        <v>0.03332315059666158</v>
+        <v>0.05781509851306124</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1014906418990457</v>
+        <v>0.2153374240896597</v>
       </c>
       <c r="N197" t="n">
-        <v>0.06009322465379452</v>
+        <v>0.08897177886759666</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1012435257661685</v>
+        <v>0.2144284381297913</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03212268651357818</v>
+        <v>0.0204924195063871</v>
       </c>
       <c r="G198" t="n">
-        <v>0.05589078468267731</v>
+        <v>0.215609601626113</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0172924668589024</v>
+        <v>0.02676567597832107</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1033404810732904</v>
+        <v>0.2164461104663031</v>
       </c>
       <c r="L198" t="n">
-        <v>0.03317005832531958</v>
+        <v>0.05792527535476691</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1022595103982809</v>
+        <v>0.2169687682115511</v>
       </c>
       <c r="N198" t="n">
-        <v>0.05878505056418959</v>
+        <v>0.08883900570309655</v>
       </c>
       <c r="O198" t="n">
-        <v>0.102010522173488</v>
+        <v>0.2160528959944109</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03165080510023791</v>
+        <v>0.02053278736567934</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0558905161542133</v>
+        <v>0.2172307264503696</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01707173104920724</v>
+        <v>0.02681436223756453</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1041174771715858</v>
+        <v>0.2180735248307114</v>
       </c>
       <c r="L199" t="n">
-        <v>0.03231266578016259</v>
+        <v>0.0578317043860222</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1030283788975161</v>
+        <v>0.2186001123334424</v>
       </c>
       <c r="N199" t="n">
-        <v>0.05728100103467332</v>
+        <v>0.08950049217593747</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1027775185808075</v>
+        <v>0.2176773538590305</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03118951575050174</v>
+        <v>0.02157169435863898</v>
       </c>
       <c r="G200" t="n">
-        <v>0.05589024762574927</v>
+        <v>0.218851851274626</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01674412376691342</v>
+        <v>0.02666130158836856</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1048944732698812</v>
+        <v>0.2197009391951197</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0322515555738932</v>
+        <v>0.05823433481204046</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1037972473967513</v>
+        <v>0.2202314564553338</v>
       </c>
       <c r="N200" t="n">
-        <v>0.05668908831113245</v>
+        <v>0.08935616110573324</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1035445149881269</v>
+        <v>0.2193018117236502</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03073930948886238</v>
+        <v>0.02060912117811963</v>
       </c>
       <c r="G201" t="n">
-        <v>0.05588997909728526</v>
+        <v>0.2204729760988825</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01661056045282992</v>
+        <v>0.02690647077610911</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1056714693681766</v>
+        <v>0.221328353559528</v>
       </c>
       <c r="L201" t="n">
-        <v>0.03198731031921406</v>
+        <v>0.05793311583803495</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1045661158959864</v>
+        <v>0.2218628005772251</v>
       </c>
       <c r="N201" t="n">
-        <v>0.05471732463945345</v>
+        <v>0.08930593531209741</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1043115113954464</v>
+        <v>0.2209262695882698</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03030067733975208</v>
+        <v>0.02064504851697489</v>
       </c>
       <c r="G202" t="n">
-        <v>0.05588971056882124</v>
+        <v>0.2220941009231391</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01647195654776577</v>
+        <v>0.02694984654616216</v>
       </c>
       <c r="K202" t="n">
-        <v>0.106448465466472</v>
+        <v>0.2229557679239363</v>
       </c>
       <c r="L202" t="n">
-        <v>0.03142051262882767</v>
+        <v>0.05832799666921901</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1053349843952216</v>
+        <v>0.2234941446991165</v>
       </c>
       <c r="N202" t="n">
-        <v>0.05287372226552295</v>
+        <v>0.08914973761464356</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1050785078027658</v>
+        <v>0.2225507274528894</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02987411032762343</v>
+        <v>0.02167945706805834</v>
       </c>
       <c r="G203" t="n">
-        <v>0.05588944204035723</v>
+        <v>0.2237152257473955</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01612922749252997</v>
+        <v>0.02689140564390362</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1072254615647674</v>
+        <v>0.2245831822883445</v>
       </c>
       <c r="L203" t="n">
-        <v>0.0305517451154366</v>
+        <v>0.05791892651080591</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1061038528944568</v>
+        <v>0.2251254888210079</v>
       </c>
       <c r="N203" t="n">
-        <v>0.05146629343522763</v>
+        <v>0.08968749083298555</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1058455042100853</v>
+        <v>0.224175185317509</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02946009947691126</v>
+        <v>0.02271232752422359</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0558891735118932</v>
+        <v>0.225336350571652</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01578328872793157</v>
+        <v>0.0269311248147095</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1080024576630629</v>
+        <v>0.2262105966527529</v>
       </c>
       <c r="L204" t="n">
-        <v>0.03028159039174347</v>
+        <v>0.05810585456800893</v>
       </c>
       <c r="M204" t="n">
-        <v>0.106872721393692</v>
+        <v>0.2267568329428992</v>
       </c>
       <c r="N204" t="n">
-        <v>0.05010305039445401</v>
+        <v>0.08941911778673695</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1066125006174048</v>
+        <v>0.2257996431821287</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0290591358121042</v>
+        <v>0.02174364057832421</v>
       </c>
       <c r="G205" t="n">
-        <v>0.05588890498342919</v>
+        <v>0.2269574753959085</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01573505569477955</v>
+        <v>0.02696898080395572</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1087794537613583</v>
+        <v>0.2278380110171611</v>
       </c>
       <c r="L205" t="n">
-        <v>0.02991063107045078</v>
+        <v>0.05848873004604141</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1076415898929272</v>
+        <v>0.2283881770647906</v>
       </c>
       <c r="N205" t="n">
-        <v>0.04829200538908873</v>
+        <v>0.08974454129551135</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1073794970247242</v>
+        <v>0.2274241010467483</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02867171035763649</v>
+        <v>0.02177337692321377</v>
       </c>
       <c r="G206" t="n">
-        <v>0.05588863645496517</v>
+        <v>0.228578600220165</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01548544383388295</v>
+        <v>0.02690495035701826</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1095564498596537</v>
+        <v>0.2294654253815694</v>
       </c>
       <c r="L206" t="n">
-        <v>0.02933944976426126</v>
+        <v>0.05826750215011664</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1084104583921624</v>
+        <v>0.2300195211866819</v>
       </c>
       <c r="N206" t="n">
-        <v>0.04684117066501847</v>
+        <v>0.09026368417892261</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1081464934320437</v>
+        <v>0.229048558911368</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02829831413796074</v>
+        <v>0.02080151725174591</v>
       </c>
       <c r="G207" t="n">
-        <v>0.05588836792650115</v>
+        <v>0.2301997250444215</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01513536858605076</v>
+        <v>0.02703901021927307</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1103334459579491</v>
+        <v>0.2310928397459777</v>
       </c>
       <c r="L207" t="n">
-        <v>0.02906862908587726</v>
+        <v>0.05844212008544791</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1091793268913976</v>
+        <v>0.2316508653085733</v>
       </c>
       <c r="N207" t="n">
-        <v>0.04455855846812967</v>
+        <v>0.09037646925658416</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1089134898393631</v>
+        <v>0.2306730167759876</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02793943817751419</v>
+        <v>0.0228280422567742</v>
       </c>
       <c r="G208" t="n">
-        <v>0.05588809939803713</v>
+        <v>0.2318208498686779</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01498574539209203</v>
+        <v>0.02697113713609613</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1111104420562445</v>
+        <v>0.232720254110386</v>
       </c>
       <c r="L208" t="n">
-        <v>0.02839875164800154</v>
+        <v>0.05881253305724859</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1099481953906328</v>
+        <v>0.2332822094304647</v>
       </c>
       <c r="N208" t="n">
-        <v>0.04255218104430897</v>
+        <v>0.09048281934810992</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1096804862466826</v>
+        <v>0.2322974746406072</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02759557350078069</v>
+        <v>0.02185293263115223</v>
       </c>
       <c r="G209" t="n">
-        <v>0.05588783086957311</v>
+        <v>0.2334419746929344</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01463748969281575</v>
+        <v>0.02710130785286338</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1118874381545399</v>
+        <v>0.2343476684747943</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0280304000633366</v>
+        <v>0.0587786902707319</v>
       </c>
       <c r="M209" t="n">
-        <v>0.110717063889868</v>
+        <v>0.234913553552356</v>
       </c>
       <c r="N209" t="n">
-        <v>0.04083005063944312</v>
+        <v>0.09068265727311337</v>
       </c>
       <c r="O209" t="n">
-        <v>0.110447482654002</v>
+        <v>0.2339219325052268</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02726721113219683</v>
+        <v>0.02087616906773358</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0558875623411091</v>
+        <v>0.235063099517191</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01449151692903093</v>
+        <v>0.0271294991149508</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1126644342528354</v>
+        <v>0.2359750828392026</v>
       </c>
       <c r="L210" t="n">
-        <v>0.02746415694458504</v>
+        <v>0.05904054093111119</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1114859323891032</v>
+        <v>0.2365448976742474</v>
       </c>
       <c r="N210" t="n">
-        <v>0.03980017949941861</v>
+        <v>0.09007590585120812</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1112144790613215</v>
+        <v>0.2355463903698465</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02695484209621523</v>
+        <v>0.02289773225937185</v>
       </c>
       <c r="G211" t="n">
-        <v>0.05588729381264509</v>
+        <v>0.2366842243414474</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0140487425415466</v>
+        <v>0.02715568766773431</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1134414303511308</v>
+        <v>0.2376024972036109</v>
       </c>
       <c r="L211" t="n">
-        <v>0.02710060490444938</v>
+        <v>0.05899803424359973</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1122548008883384</v>
+        <v>0.2381762417961387</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0376705798701219</v>
+        <v>0.09036248790200818</v>
       </c>
       <c r="O211" t="n">
-        <v>0.111981475468641</v>
+        <v>0.2371708482344661</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02665895741727591</v>
+        <v>0.02191760289892065</v>
       </c>
       <c r="G212" t="n">
-        <v>0.05588702528418106</v>
+        <v>0.2383053491657039</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0138100819711718</v>
+        <v>0.02707985025658993</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1142184264494262</v>
+        <v>0.2392299115680192</v>
       </c>
       <c r="L212" t="n">
-        <v>0.02624032655563227</v>
+        <v>0.05855111941341085</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1130236693875736</v>
+        <v>0.2398075859180301</v>
       </c>
       <c r="N212" t="n">
-        <v>0.03544926399743992</v>
+        <v>0.09044232624512694</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1127484718759604</v>
+        <v>0.2387953060990858</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02638004811985723</v>
+        <v>0.02093576167923353</v>
       </c>
       <c r="G213" t="n">
-        <v>0.05588675675571705</v>
+        <v>0.2399264739899604</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0135764506587155</v>
+        <v>0.02730196362689356</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1149954225477216</v>
+        <v>0.2408573259324275</v>
       </c>
       <c r="L213" t="n">
-        <v>0.02608390451083623</v>
+        <v>0.05889974564575778</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1137925378868088</v>
+        <v>0.2414389300399215</v>
       </c>
       <c r="N213" t="n">
-        <v>0.03364424412725903</v>
+        <v>0.09061534370017804</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1135154682832799</v>
+        <v>0.2404197639637054</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02611860522839852</v>
+        <v>0.02095218929316411</v>
       </c>
       <c r="G214" t="n">
-        <v>0.05588648822725303</v>
+        <v>0.2415475988142169</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01354876404498674</v>
+        <v>0.0273220045240212</v>
       </c>
       <c r="K214" t="n">
-        <v>0.115772418646017</v>
+        <v>0.2424847402968358</v>
       </c>
       <c r="L214" t="n">
-        <v>0.02583192138276386</v>
+        <v>0.05914386214585396</v>
       </c>
       <c r="M214" t="n">
-        <v>0.114561406386044</v>
+        <v>0.2430702741618128</v>
       </c>
       <c r="N214" t="n">
-        <v>0.03246353250546585</v>
+        <v>0.09068146308677527</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1142824646905993</v>
+        <v>0.242044221828325</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02611860522839852</v>
+        <v>0.02096686643356598</v>
       </c>
       <c r="G215" t="n">
-        <v>0.05588648822725303</v>
+        <v>0.2431687236384734</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01322793757079453</v>
+        <v>0.02723994969334879</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1165494147443124</v>
+        <v>0.2441121546612441</v>
       </c>
       <c r="L215" t="n">
-        <v>0.02518495978411769</v>
+        <v>0.05888341811891259</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1153302748852792</v>
+        <v>0.2447016182837042</v>
       </c>
       <c r="N215" t="n">
-        <v>0.03011514137794702</v>
+        <v>0.0903406072245323</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1150494610979188</v>
+        <v>0.2436686796929446</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0254520091121919</v>
+        <v>0.02197977379329275</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0558013025089972</v>
+        <v>0.2447898484627299</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01291488667694787</v>
+        <v>0.0272557758802523</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1173264108426079</v>
+        <v>0.2457395690256524</v>
       </c>
       <c r="L216" t="n">
-        <v>0.02494360232760037</v>
+        <v>0.05931836277014699</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1160991433845144</v>
+        <v>0.2463329624055955</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02820708299058922</v>
+        <v>0.09089269893306273</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1158164575052383</v>
+        <v>0.2452931375575642</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02479279842569389</v>
+        <v>0.02299089206519795</v>
       </c>
       <c r="G217" t="n">
-        <v>0.05571611679074136</v>
+        <v>0.2464109732869864</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01281052680425582</v>
+        <v>0.02716945983010767</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1181034069409033</v>
+        <v>0.2473669833900607</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0240084316259144</v>
+        <v>0.05924864530477048</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1168680118837496</v>
+        <v>0.2479643065274869</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02684736958927891</v>
+        <v>0.09093766103198025</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1165834539125577</v>
+        <v>0.2469175954221839</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02414130488198701</v>
+        <v>0.02300020194213522</v>
       </c>
       <c r="G218" t="n">
-        <v>0.05563093107248553</v>
+        <v>0.2480320981112429</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01271577339352735</v>
+        <v>0.02718097828829087</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1188804030391987</v>
+        <v>0.2489943977544689</v>
       </c>
       <c r="L218" t="n">
-        <v>0.02398003029176241</v>
+        <v>0.05897421492799632</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1176368803829847</v>
+        <v>0.2495956506493782</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02544401341990277</v>
+        <v>0.09087541634089857</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1173504503198772</v>
+        <v>0.2485420532868035</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02349786019415372</v>
+        <v>0.02300768411695815</v>
       </c>
       <c r="G219" t="n">
-        <v>0.05554574535422969</v>
+        <v>0.2496532229354993</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01233154188557149</v>
+        <v>0.02729030800017788</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1196573991374941</v>
+        <v>0.2506218121188772</v>
       </c>
       <c r="L219" t="n">
-        <v>0.02345898093784693</v>
+        <v>0.0592950208450379</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1184057488822199</v>
+        <v>0.2512269947712696</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02370502672834746</v>
+        <v>0.0910058876794313</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1181174467271966</v>
+        <v>0.2501665111514231</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02286279607527656</v>
+        <v>0.02301331928252031</v>
       </c>
       <c r="G220" t="n">
-        <v>0.05546055963597386</v>
+        <v>0.2512743477597558</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01215874772119726</v>
+        <v>0.02739742571114465</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1204343952357895</v>
+        <v>0.2522492264832856</v>
       </c>
       <c r="L220" t="n">
-        <v>0.02284586617687057</v>
+        <v>0.05911101226110843</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1191746173814551</v>
+        <v>0.252858338893161</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02223842176049945</v>
+        <v>0.09062899786719214</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1188844431345161</v>
+        <v>0.2517909690160428</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02223644423843801</v>
+        <v>0.02301708813167531</v>
       </c>
       <c r="G221" t="n">
-        <v>0.05537537391771803</v>
+        <v>0.2528954725840123</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01219830634121368</v>
+        <v>0.02730230816656712</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1212113913340849</v>
+        <v>0.2538766408476938</v>
       </c>
       <c r="L221" t="n">
-        <v>0.02284126862153588</v>
+        <v>0.05912213838142125</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1199434858806903</v>
+        <v>0.2544896830150524</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02055221076224539</v>
+        <v>0.0907446697237948</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1196514395418355</v>
+        <v>0.2534154268806624</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02161913639672059</v>
+        <v>0.02101897135727671</v>
       </c>
       <c r="G222" t="n">
-        <v>0.05529018819946219</v>
+        <v>0.2545165974082688</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01195113318642975</v>
+        <v>0.02720493211182126</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1219883874323803</v>
+        <v>0.2555040552121022</v>
       </c>
       <c r="L222" t="n">
-        <v>0.02204577088454546</v>
+        <v>0.05902834841118965</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1207123543799255</v>
+        <v>0.2561210271369437</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01985440597947197</v>
+        <v>0.0909528260688528</v>
       </c>
       <c r="O222" t="n">
-        <v>0.120418435949155</v>
+        <v>0.2550398847452821</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02101120426320677</v>
+        <v>0.02301142696275558</v>
       </c>
       <c r="G223" t="n">
-        <v>0.05520500248120636</v>
+        <v>0.2561377222325253</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0119181436976545</v>
+        <v>0.02740100324924866</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1227653835306758</v>
+        <v>0.2571314695765105</v>
       </c>
       <c r="L223" t="n">
-        <v>0.02165995557860187</v>
+        <v>0.05942480665048777</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1214812228791607</v>
+        <v>0.257752371258835</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01815301965806571</v>
+        <v>0.090532489737989</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1211854323564745</v>
+        <v>0.2566643426099017</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02041297955097906</v>
+        <v>0.02195351207738789</v>
       </c>
       <c r="G224" t="n">
-        <v>0.05511981676295052</v>
+        <v>0.2577588470567818</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01160025331569694</v>
+        <v>0.02714211050346028</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1235423796289712</v>
+        <v>0.2587588839409187</v>
       </c>
       <c r="L224" t="n">
-        <v>0.02138440531640765</v>
+        <v>0.0591110064324841</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1222500913783959</v>
+        <v>0.2593837153807264</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01725606404391317</v>
+        <v>0.09062007621243245</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1219524287637939</v>
+        <v>0.2582888004745213</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01982479397311999</v>
+        <v>0.02184411139500545</v>
       </c>
       <c r="G225" t="n">
-        <v>0.05503463104469469</v>
+        <v>0.2593799718810383</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01169837748136607</v>
+        <v>0.02702032430612672</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1243193757272666</v>
+        <v>0.260386298305327</v>
       </c>
       <c r="L225" t="n">
-        <v>0.02131970271066547</v>
+        <v>0.05845863396198708</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1230189598776311</v>
+        <v>0.2610150595026178</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01637155138290103</v>
+        <v>0.0908002956400879</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1227194251711134</v>
+        <v>0.2599132583391409</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01924697924271201</v>
+        <v>0.02268924379073634</v>
       </c>
       <c r="G226" t="n">
-        <v>0.05494944532643885</v>
+        <v>0.2610010967052948</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01141343163547094</v>
+        <v>0.02704289413240518</v>
       </c>
       <c r="K226" t="n">
-        <v>0.125096371825562</v>
+        <v>0.2620137126697353</v>
       </c>
       <c r="L226" t="n">
-        <v>0.02086643037407779</v>
+        <v>0.05838352417761561</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1237878283768663</v>
+        <v>0.2626464036245092</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0158074939209159</v>
+        <v>0.09019720849565382</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1234864215784328</v>
+        <v>0.2615377162037605</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01867986707283766</v>
+        <v>0.02149492813970865</v>
       </c>
       <c r="G227" t="n">
-        <v>0.05486425960818302</v>
+        <v>0.2626222215295513</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01134633121882054</v>
+        <v>0.02661706945745292</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1258733679238574</v>
+        <v>0.2636411270341436</v>
       </c>
       <c r="L227" t="n">
-        <v>0.02012517091934729</v>
+        <v>0.05800151201798848</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1245566968761015</v>
+        <v>0.2642777477464005</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01497190390384429</v>
+        <v>0.0887348752538285</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1242534179857523</v>
+        <v>0.2631621740683802</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01812378917657943</v>
+        <v>0.02126718331705047</v>
       </c>
       <c r="G228" t="n">
-        <v>0.05477907388992719</v>
+        <v>0.2642433463538078</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01149799167222389</v>
+        <v>0.02655009975642718</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1266503640221529</v>
+        <v>0.2652685413985519</v>
       </c>
       <c r="L228" t="n">
-        <v>0.02009650695917645</v>
+        <v>0.05752843242172462</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1253255653753367</v>
+        <v>0.2659090918682919</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01457279357757291</v>
+        <v>0.08793735638931027</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1250204143930718</v>
+        <v>0.2647866319329998</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01757907726701981</v>
+        <v>0.02001202819788988</v>
       </c>
       <c r="G229" t="n">
-        <v>0.05469388817167135</v>
+        <v>0.2658644711780642</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01146932843649</v>
+        <v>0.02614923450448524</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1274273601204483</v>
+        <v>0.2668959557629602</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0199810211062679</v>
+        <v>0.05688012032744283</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1260944338745719</v>
+        <v>0.2675404359901832</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01371817518798829</v>
+        <v>0.08732871237679757</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1257874108003912</v>
+        <v>0.2664110897976195</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01704606305724131</v>
+        <v>0.02073548165735498</v>
       </c>
       <c r="G230" t="n">
-        <v>0.05460870245341552</v>
+        <v>0.2674855960023207</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01146110798763498</v>
+        <v>0.0257217231767843</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1282043562187437</v>
+        <v>0.2685233701273685</v>
       </c>
       <c r="L230" t="n">
-        <v>0.01977922885704458</v>
+        <v>0.05567241067376191</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1268633023738071</v>
+        <v>0.2691717801120746</v>
       </c>
       <c r="N230" t="n">
-        <v>0.0135148993742672</v>
+        <v>0.08603300369098854</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1265544072077107</v>
+        <v>0.2680355476622391</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01652507826032643</v>
+        <v>0.01944356257057386</v>
       </c>
       <c r="G231" t="n">
-        <v>0.05452351673515968</v>
+        <v>0.2691067208265772</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01126114073703032</v>
+        <v>0.02557481524848165</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1289813523170391</v>
+        <v>0.2701507844917768</v>
       </c>
       <c r="L231" t="n">
-        <v>0.01918455189673746</v>
+        <v>0.05492113839930077</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1276321708730423</v>
+        <v>0.270803124233966</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01317505347593817</v>
+        <v>0.08507429080658174</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1273214036150301</v>
+        <v>0.2696600055268587</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01601645458935768</v>
+        <v>0.02014228981267462</v>
       </c>
       <c r="G232" t="n">
-        <v>0.05443833101690385</v>
+        <v>0.2707278456508337</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0112613309032412</v>
+        <v>0.02501576019473449</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1297583484153345</v>
+        <v>0.271778198856185</v>
       </c>
       <c r="L232" t="n">
-        <v>0.01899244104457196</v>
+        <v>0.05454213844267822</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1284010393722775</v>
+        <v>0.2724344683558573</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01264001306210716</v>
+        <v>0.08367663419827526</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1280884000223496</v>
+        <v>0.2712844633914784</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01552052375741754</v>
+        <v>0.01883768225878533</v>
       </c>
       <c r="G233" t="n">
-        <v>0.05435314529864801</v>
+        <v>0.2723489704750902</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01146181929982726</v>
+        <v>0.02475180749070009</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1305353445136299</v>
+        <v>0.2734056132205934</v>
       </c>
       <c r="L233" t="n">
-        <v>0.01860303327909479</v>
+        <v>0.05345124574251314</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1291699078715126</v>
+        <v>0.2740658124777487</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01300992301122073</v>
+        <v>0.08216409434076766</v>
       </c>
       <c r="O233" t="n">
-        <v>0.128855396429669</v>
+        <v>0.272908921256098</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01503761747758852</v>
+        <v>0.01853575878403408</v>
       </c>
       <c r="G234" t="n">
-        <v>0.05426795958039218</v>
+        <v>0.2739700952993467</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01126274674034813</v>
+        <v>0.02429020661153571</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1313123406119253</v>
+        <v>0.2750330275850016</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0183164655788525</v>
+        <v>0.05316429523742441</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1299387763707479</v>
+        <v>0.2756971565996401</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01208492820172502</v>
+        <v>0.08076073170875708</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1296223928369885</v>
+        <v>0.2745333791207176</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01456806746295312</v>
+        <v>0.02024253826354897</v>
       </c>
       <c r="G235" t="n">
-        <v>0.05418277386213635</v>
+        <v>0.2755912201236032</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01136425403836343</v>
+        <v>0.02403820703239859</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1320893367102208</v>
+        <v>0.2766604419494099</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0179328749223919</v>
+        <v>0.05199712186603078</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1307076448699831</v>
+        <v>0.2773285007215314</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01226517351206652</v>
+        <v>0.08049060677694209</v>
       </c>
       <c r="O235" t="n">
-        <v>0.130389389244308</v>
+        <v>0.2761578369853372</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01411220542659385</v>
+        <v>0.01896403957245808</v>
       </c>
       <c r="G236" t="n">
-        <v>0.05409758814388051</v>
+        <v>0.2772123449478596</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01146648200743281</v>
+        <v>0.02380305822844596</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1328663328085162</v>
+        <v>0.2782878563138182</v>
       </c>
       <c r="L236" t="n">
-        <v>0.01785239828825963</v>
+        <v>0.05116556056695118</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1314765133692183</v>
+        <v>0.2789598448434227</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0118508038206917</v>
+        <v>0.07907778002002075</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1311563856516274</v>
+        <v>0.2777822948499569</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01367036308159319</v>
+        <v>0.01770628158588951</v>
       </c>
       <c r="G237" t="n">
-        <v>0.05401240242562468</v>
+        <v>0.2788334697721161</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01146957146111589</v>
+        <v>0.02339200967483507</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1336433289068116</v>
+        <v>0.2799152706782266</v>
       </c>
       <c r="L237" t="n">
-        <v>0.01747517265500234</v>
+        <v>0.05058544627880435</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1322453818684534</v>
+        <v>0.2805911889653142</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01174196400604677</v>
+        <v>0.07744631191269158</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1319233820589469</v>
+        <v>0.2794067527145765</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01324287214103367</v>
+        <v>0.01946657442833743</v>
       </c>
       <c r="G238" t="n">
-        <v>0.05392721670736884</v>
+        <v>0.2804545945963726</v>
       </c>
       <c r="J238" t="n">
-        <v>0.0114736632129723</v>
+        <v>0.02300458286194583</v>
       </c>
       <c r="K238" t="n">
-        <v>0.134420325005107</v>
+        <v>0.2815426850426349</v>
       </c>
       <c r="L238" t="n">
-        <v>0.01720133500116672</v>
+        <v>0.05005899084637164</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1330142503676886</v>
+        <v>0.2822225330872055</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01163879894657815</v>
+        <v>0.07699050047686629</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1326903784662663</v>
+        <v>0.2810312105791962</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01283006431799775</v>
+        <v>0.01822684130888926</v>
       </c>
       <c r="G239" t="n">
-        <v>0.05384203098911301</v>
+        <v>0.2820757194206291</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01137889807656167</v>
+        <v>0.02291816849435363</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1351973211034024</v>
+        <v>0.2831700994070431</v>
       </c>
       <c r="L239" t="n">
-        <v>0.01693102230529944</v>
+        <v>0.04973653408311937</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1337831188669238</v>
+        <v>0.2838538772090969</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01144145352073223</v>
+        <v>0.07573628267817145</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1334573748735858</v>
+        <v>0.2826556684438158</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01243091683048108</v>
+        <v>0.01798620165169292</v>
       </c>
       <c r="G240" t="n">
-        <v>0.05375684527085717</v>
+        <v>0.2836968442448856</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01138541686544364</v>
+        <v>0.02243066812040685</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1359743172016978</v>
+        <v>0.2847975137714515</v>
       </c>
       <c r="L240" t="n">
-        <v>0.01676437154594715</v>
+        <v>0.04861171314312274</v>
       </c>
       <c r="M240" t="n">
-        <v>0.134551987366159</v>
+        <v>0.2854852213309882</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01095007260695541</v>
+        <v>0.07527845135085592</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1342243712809053</v>
+        <v>0.2842801263084354</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0120376344210449</v>
+        <v>0.01874464119781002</v>
       </c>
       <c r="G241" t="n">
-        <v>0.05367165955260134</v>
+        <v>0.2853179690691421</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01149336039317783</v>
+        <v>0.02214206456583008</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1367513132999933</v>
+        <v>0.2864249281358597</v>
       </c>
       <c r="L241" t="n">
-        <v>0.01630151970165658</v>
+        <v>0.04848449051282505</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1353208558653942</v>
+        <v>0.2871165654528796</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01106480108369406</v>
+        <v>0.0744169494947628</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1349913676882247</v>
+        <v>0.285904584173055</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01164919430768483</v>
+        <v>0.01750214568830218</v>
       </c>
       <c r="G242" t="n">
-        <v>0.0535864738343455</v>
+        <v>0.2869390938933986</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01140286947332388</v>
+        <v>0.02185234065634779</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1375283093982887</v>
+        <v>0.288052342500268</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0163426037509744</v>
+        <v>0.04775482867866943</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1360897243646294</v>
+        <v>0.2887479095747709</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01068578382939456</v>
+        <v>0.07295172010973544</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1357583640955442</v>
+        <v>0.2875290420376747</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01126592820348338</v>
+        <v>0.01825870086423103</v>
       </c>
       <c r="G243" t="n">
-        <v>0.05350128811608967</v>
+        <v>0.2885602187176551</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01131408491944141</v>
+        <v>0.02166147921768452</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1383053054965841</v>
+        <v>0.2896797568646763</v>
       </c>
       <c r="L243" t="n">
-        <v>0.01608776067244722</v>
+        <v>0.04722269012709907</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1368585928638646</v>
+        <v>0.2903792536966623</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01071316572250319</v>
+        <v>0.07168270619561706</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1365253605028636</v>
+        <v>0.2891534999022943</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01088816782152303</v>
+        <v>0.01801429246665819</v>
       </c>
       <c r="G244" t="n">
-        <v>0.05341610239783384</v>
+        <v>0.2901813435419116</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01132714754509007</v>
+        <v>0.02146946307556474</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1390823015948795</v>
+        <v>0.2913071712290846</v>
       </c>
       <c r="L244" t="n">
-        <v>0.01563712744462181</v>
+        <v>0.04618803734455718</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1376274613630998</v>
+        <v>0.2920105978185537</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01024709164146642</v>
+        <v>0.07110985075225074</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1372923569101831</v>
+        <v>0.2907779577669139</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01051624487488629</v>
+        <v>0.01576890623664525</v>
       </c>
       <c r="G245" t="n">
-        <v>0.053330916679578</v>
+        <v>0.2918024683661681</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01154219816382946</v>
+        <v>0.02097627505571299</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1398592976931749</v>
+        <v>0.2929345855934929</v>
       </c>
       <c r="L245" t="n">
-        <v>0.01509084104604475</v>
+        <v>0.04595083281748702</v>
       </c>
       <c r="M245" t="n">
-        <v>0.138396329862335</v>
+        <v>0.293641941940445</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01028770646473065</v>
+        <v>0.07043309677947979</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1380593533175026</v>
+        <v>0.2924024156315335</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01015049107665567</v>
+        <v>0.01552252791525387</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05324573096132217</v>
+        <v>0.2934235931904245</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01135937758921924</v>
+        <v>0.02068189798385381</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1406362937914703</v>
+        <v>0.2945619999579012</v>
       </c>
       <c r="L246" t="n">
-        <v>0.01494903845526277</v>
+        <v>0.04491103903233171</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1391651983615702</v>
+        <v>0.2952732860623364</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01003515507074221</v>
+        <v>0.06955238727714724</v>
       </c>
       <c r="O246" t="n">
-        <v>0.138826349724822</v>
+        <v>0.2940268734961531</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009791238139913651</v>
+        <v>0.01727514324354566</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05316054524306633</v>
+        <v>0.295044718014681</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01137882663481903</v>
+        <v>0.0204863146857117</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1414132898897658</v>
+        <v>0.2961894143223094</v>
       </c>
       <c r="L247" t="n">
-        <v>0.01491185665082256</v>
+        <v>0.04466861847553447</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1399340668608054</v>
+        <v>0.2969046301842277</v>
       </c>
       <c r="N247" t="n">
-        <v>0.0103895823379474</v>
+        <v>0.06806766524509639</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1395933461321415</v>
+        <v>0.2956513313607728</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009438817777742754</v>
+        <v>0.01702673796258223</v>
       </c>
       <c r="G248" t="n">
-        <v>0.0530753595248105</v>
+        <v>0.2966658428389375</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01150068611418845</v>
+        <v>0.02018950798701118</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1421902859880612</v>
+        <v>0.2978168286867178</v>
       </c>
       <c r="L248" t="n">
-        <v>0.01497943261127072</v>
+        <v>0.04372353363353851</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1407029353600406</v>
+        <v>0.2985359743061191</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01005113314479272</v>
+        <v>0.06767887368317049</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1403603425394609</v>
+        <v>0.2972757892253924</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.009093561703225464</v>
+        <v>0.0147772978134252</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05299017380655466</v>
+        <v>0.298286967663194</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01152509684088716</v>
+        <v>0.01989146071347676</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1429672820863566</v>
+        <v>0.299444243051126</v>
       </c>
       <c r="L249" t="n">
-        <v>0.01455190331515399</v>
+        <v>0.04287574699278698</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1414718038592758</v>
+        <v>0.3001673184280105</v>
       </c>
       <c r="N249" t="n">
-        <v>0.009919952369724483</v>
+        <v>0.06578595559121259</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1411273389467804</v>
+        <v>0.2989002470900121</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008755801629444296</v>
+        <v>0.01552680853713621</v>
       </c>
       <c r="G250" t="n">
-        <v>0.05290498808829883</v>
+        <v>0.2999080924874505</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01145219962847476</v>
+        <v>0.01959215569083295</v>
       </c>
       <c r="K250" t="n">
-        <v>0.143744278184652</v>
+        <v>0.3010716574155343</v>
       </c>
       <c r="L250" t="n">
-        <v>0.01442940574101909</v>
+        <v>0.04272522103972315</v>
       </c>
       <c r="M250" t="n">
-        <v>0.142240672358511</v>
+        <v>0.3017986625499018</v>
       </c>
       <c r="N250" t="n">
-        <v>0.00959618489118913</v>
+        <v>0.06518885396906604</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1418943353540999</v>
+        <v>0.3005247049546317</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008425869269481731</v>
+        <v>0.01527525587477686</v>
       </c>
       <c r="G251" t="n">
-        <v>0.052819802370043</v>
+        <v>0.301529217311707</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01158213529051089</v>
+        <v>0.01939157574480428</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1445212742829474</v>
+        <v>0.3026990717799427</v>
       </c>
       <c r="L251" t="n">
-        <v>0.01401207686741257</v>
+        <v>0.04197191826079019</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1430095408577462</v>
+        <v>0.3034300066717932</v>
       </c>
       <c r="N251" t="n">
-        <v>0.009479975587632861</v>
+        <v>0.06428751181657383</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1426613317614193</v>
+        <v>0.3021491628192513</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008104096336420286</v>
+        <v>0.01502262556740879</v>
       </c>
       <c r="G252" t="n">
-        <v>0.05273461665178716</v>
+        <v>0.3031503421359635</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0116150446405552</v>
+        <v>0.01888970370111527</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1452982703812428</v>
+        <v>0.3043264861443509</v>
       </c>
       <c r="L252" t="n">
-        <v>0.01400005367288121</v>
+        <v>0.0408158011424313</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1437784093569814</v>
+        <v>0.3050613507936846</v>
       </c>
       <c r="N252" t="n">
-        <v>0.009671469337502236</v>
+        <v>0.06318187213357934</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1434283281687388</v>
+        <v>0.303773620683871</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007790814543342461</v>
+        <v>0.01576890335609361</v>
       </c>
       <c r="G253" t="n">
-        <v>0.05264943093353133</v>
+        <v>0.3047714669602199</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0117510684921673</v>
+        <v>0.01858652238549043</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1460752664795383</v>
+        <v>0.3059539005087593</v>
       </c>
       <c r="L253" t="n">
-        <v>0.01339347313597161</v>
+        <v>0.04045683217108961</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1445472778562165</v>
+        <v>0.3066926949155759</v>
       </c>
       <c r="N253" t="n">
-        <v>0.009070811019243508</v>
+        <v>0.06237187791992577</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1441953245760582</v>
+        <v>0.3053980785484906</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007486355603330747</v>
+        <v>0.01351407498189292</v>
       </c>
       <c r="G254" t="n">
-        <v>0.05256424521527549</v>
+        <v>0.3063925917844765</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01159034765890682</v>
+        <v>0.01848201462365427</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1468522625778337</v>
+        <v>0.3075813148731675</v>
       </c>
       <c r="L254" t="n">
-        <v>0.01349247223523056</v>
+        <v>0.03999497383320841</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1453161463554518</v>
+        <v>0.3083240390374672</v>
       </c>
       <c r="N254" t="n">
-        <v>0.009278145511303182</v>
+        <v>0.06075747217545613</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1449623209833777</v>
+        <v>0.3070225364131102</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007191051229467636</v>
+        <v>0.01425812618586839</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05247905949701966</v>
+        <v>0.3080137166087329</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0118330229543334</v>
+        <v>0.01807616324133131</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1476292586761291</v>
+        <v>0.3092087292375759</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0134971879492046</v>
+        <v>0.03943018861523084</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1460850148546869</v>
+        <v>0.3099553831593587</v>
       </c>
       <c r="N255" t="n">
-        <v>0.009493617692127587</v>
+        <v>0.06013859790001391</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1457293173906971</v>
+        <v>0.3086469942777298</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.00690523313483566</v>
+        <v>0.01400104270908159</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05239387377876383</v>
+        <v>0.3096348414329895</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01187923519200667</v>
+        <v>0.01786895106424607</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1484062547744245</v>
+        <v>0.3108361436019841</v>
       </c>
       <c r="L256" t="n">
-        <v>0.01290775725644047</v>
+        <v>0.03866243900360014</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1468538833539221</v>
+        <v>0.31158672728125</v>
       </c>
       <c r="N256" t="n">
-        <v>0.008717372440162963</v>
+        <v>0.05941519809344192</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1464963137980166</v>
+        <v>0.3102714521423495</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006629233032517286</v>
+        <v>0.01474281029259417</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05230868806050799</v>
+        <v>0.3112559662572459</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01192912518548625</v>
+        <v>0.01736036091812308</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1491832508727199</v>
+        <v>0.3124635579663924</v>
       </c>
       <c r="L257" t="n">
-        <v>0.01282431713548485</v>
+        <v>0.03799168748475945</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1476227518531573</v>
+        <v>0.3132180714031413</v>
       </c>
       <c r="N257" t="n">
-        <v>0.008649554633855805</v>
+        <v>0.05848721575558363</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1472633102053361</v>
+        <v>0.3118959100069691</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006363382635595036</v>
+        <v>0.01248341467746775</v>
       </c>
       <c r="G258" t="n">
-        <v>0.05222350234225216</v>
+        <v>0.3128770910815024</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01198283374833179</v>
+        <v>0.01725037562868682</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1499602469710153</v>
+        <v>0.3140909723308007</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0124470045648844</v>
+        <v>0.03741789654515204</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1483916203523925</v>
+        <v>0.3148494155250327</v>
       </c>
       <c r="N258" t="n">
-        <v>0.008890309151652565</v>
+        <v>0.05725459388628212</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1480303066126555</v>
+        <v>0.3135203678715888</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006108013657151398</v>
+        <v>0.01222284160476393</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05213831662399632</v>
+        <v>0.3144982159057589</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01184050169410291</v>
+        <v>0.01693897802166185</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1507372430693107</v>
+        <v>0.315718386695209</v>
       </c>
       <c r="L259" t="n">
-        <v>0.01227595652318578</v>
+        <v>0.03624102867122106</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1491604888516277</v>
+        <v>0.3164807596469241</v>
       </c>
       <c r="N259" t="n">
-        <v>0.009139780871999459</v>
+        <v>0.05651727548538066</v>
       </c>
       <c r="O259" t="n">
-        <v>0.148797303019975</v>
+        <v>0.3151448257362084</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005863457810268882</v>
+        <v>0.01196107681554436</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05205313090574049</v>
+        <v>0.3161193407300154</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01190226983635924</v>
+        <v>0.01662615092277267</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1515142391676062</v>
+        <v>0.3173458010596173</v>
       </c>
       <c r="L260" t="n">
-        <v>0.01261130998893573</v>
+        <v>0.0356610463494097</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1499293573508629</v>
+        <v>0.3181121037688155</v>
       </c>
       <c r="N260" t="n">
-        <v>0.008498114673342883</v>
+        <v>0.05467520355272237</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1495642994272944</v>
+        <v>0.316769283600828</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005630046808029983</v>
+        <v>0.01269810605087064</v>
       </c>
       <c r="G261" t="n">
-        <v>0.05196794518748465</v>
+        <v>0.3177404655542719</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01196827898866041</v>
+        <v>0.01621187715774378</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1522912352659016</v>
+        <v>0.3189732154240256</v>
       </c>
       <c r="L261" t="n">
-        <v>0.01245320194068086</v>
+        <v>0.03497791206616119</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1506982258500981</v>
+        <v>0.3197434478907068</v>
       </c>
       <c r="N261" t="n">
-        <v>0.009365455434129255</v>
+        <v>0.05362832108815052</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1503312958346139</v>
+        <v>0.3183937414654476</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005408112363517202</v>
+        <v>0.0114339150518044</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05188275946922882</v>
+        <v>0.3193615903785283</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01203866996456605</v>
+        <v>0.01579613955229971</v>
       </c>
       <c r="K262" t="n">
-        <v>0.153068231364197</v>
+        <v>0.3206006297884339</v>
       </c>
       <c r="L262" t="n">
-        <v>0.01180176935696786</v>
+        <v>0.03459158830791872</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1514670943493333</v>
+        <v>0.3213747920125982</v>
       </c>
       <c r="N262" t="n">
-        <v>0.009141948032805047</v>
+        <v>0.0527765710915083</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1510982922419334</v>
+        <v>0.3200181993300673</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005197986189813042</v>
+        <v>0.01216848955940725</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05179757375097299</v>
+        <v>0.3209827152027849</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0121135835776358</v>
+        <v>0.01547892093216498</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1538452274624924</v>
+        <v>0.3222280441528422</v>
       </c>
       <c r="L263" t="n">
-        <v>0.0118571492163434</v>
+        <v>0.03380203756112549</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1522359628485685</v>
+        <v>0.3230061361344895</v>
       </c>
       <c r="N263" t="n">
-        <v>0.008927737347816433</v>
+        <v>0.05211989656263877</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1518652886492528</v>
+        <v>0.3216426571946869</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01090181531474082</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05171238803271715</v>
+        <v>0.3226038400270413</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01229316064142928</v>
+        <v>0.0153602041230641</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1546222235607878</v>
+        <v>0.3238554585172504</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0116194784973542</v>
+        <v>0.03280922231222466</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1530048313478037</v>
+        <v>0.3246374802563809</v>
       </c>
       <c r="N264" t="n">
-        <v>0.008722968257609987</v>
+        <v>0.05115824050138523</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1526322850565723</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05169923013798031</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005694548616105854</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.05169949866644433</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006385240403001126</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05169976719490835</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.00707203143380513</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05170003572337236</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007754877781697152</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05170030425183638</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008433735519796842</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.0517005727803004</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009108560721283139</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05170084130876442</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009779309459276027</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05170110983722843</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.0104459378069541</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05170137836569245</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01110840183743773</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05170164689415647</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.0117666576239051</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05170191542262049</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01242066123947697</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.0517021839510845</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01307036875733117</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05170245247954852</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.0137157362505888</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05170272100801254</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01435671979242734</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05170298953647656</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01499327545596827</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05170325806494057</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01562535931438866</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05170352659340459</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01625292744081039</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.0517037951218686</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01687593590839665</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05170406365033262</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01749434079031022</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05170433217879664</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01810809815967358</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05170460070726066</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01871716408966282</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05170486923572468</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01932149465340079</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05170513776418869</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01992104592406319</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05170540629265271</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.0205157739747733</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05170567482111672</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02110581424667974</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05170594334958074</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02169219902074639</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05170621187804476</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02227506373812155</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05170648040650878</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02285436447192923</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05170674893497279</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02343005729534397</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05170701746343681</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02400209828149014</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05170728599190083</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.024570443503542</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05170755452036485</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02513504903462421</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05170782304882886</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02569587094789855</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.05170809157729288</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02625286531652648</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.0517083601057569</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02680598821363313</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05170862863422091</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.027355195712392</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05170889716268493</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02790044388592849</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05170916569114895</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02844168880741576</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05170943421961297</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02897888654997962</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05170970274807698</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02951199318679282</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.051709971276541</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03004096479098157</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05171023980500502</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03056575743571826</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05171050833346904</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03108632719412942</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05171077686193305</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03160263013938707</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05171104539039707</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03211462234461816</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05171131391886109</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03262225988299432</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05171158244732511</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03312549882764285</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.05171185097578912</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03362429525173503</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05171211950425314</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03411860522839853</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05171238803271715</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03411860522839853</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05169923013798031</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.034669165068612</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05178495291316419</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03521479719173903</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05187067568834805</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03575537818224214</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05195639846353192</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03629078462458384</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05204212123871579</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03682089310322669</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05212784401389966</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03734558020263318</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05221356678908353</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03786472250726586</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.0522992895642674</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03837819660158726</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05238501233945127</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03888587907005988</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05247073511463513</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03938764649714627</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.052556457889819</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03988337546730893</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.05264218066500287</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04037294256501036</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05272790344018673</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04085622437471322</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05281362621537061</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04133309748087984</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.05289934899055447</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04180343846797294</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.05298507176573835</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04226712392045489</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05307079454092221</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04272403042278832</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05315651731610609</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04317403455943566</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05324224009128995</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04361701291485957</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.05332796286647382</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04405284207352243</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.05341368564165769</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04448139861988686</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.05349940841684156</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04490255913841534</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.05358513119202542</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04531620021357043</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.0536708539672093</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04572219842981461</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.05375657674239316</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04612093431838844</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.05384229951757703</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04651530814442265</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.0539280222927609</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04690570043915764</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.05401374506794476</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04729198778705609</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.05409946784312863</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04767404677258039</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.0541851906183125</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04805175398019317</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.05427091339349638</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04842498599435686</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.05435663616868024</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04879361939953408</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.05444235894386412</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04915753078018727</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.05452808171904797</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04951659672077905</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.05461380449423185</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04987069380577184</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.05469952726941572</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05021969861962824</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.05478525004459959</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.05056348774681074</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.05487097281978345</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.0509019377717819</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.05495669559496733</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.0512349252790042</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.05504241837015119</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05156232685294023</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.05512814114533506</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.05188401907805242</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.05521386392051893</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.0521998785388034</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.05529958669570281</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05250978181965562</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.05538530947088666</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.05281360550507166</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.05547103224607054</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05311122617951398</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.0555567550212544</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05340252042744519</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.05564247779643828</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05368736483332772</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.05572820057162214</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05396563598162416</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.055813923346806</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05423721045679706</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.05589964612198988</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04782480697119803</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.05589964612198988</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05434465303381839</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.05748400818220002</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05444411013846519</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.05906837024241015</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05453589013014965</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06065273230262028</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05462030136828395</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.0622370943628304</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05469765221228026</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.06382145642304055</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05476825102155074</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.06540581848325068</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05483240615550763</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.06699018054346081</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05489042597356309</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.06857454260367095</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05494261883512928</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07015890466388107</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05498929309961843</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.0717432667240912</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05503075712644268</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.07332762878430134</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05506731927501423</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.07491199084451147</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05509928790474527</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.07649635290472161</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05512697137504797</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.07808071496493174</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05515067804533453</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.07966507702514188</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05517071627501712</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.08124943908535202</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05518739442350792</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.08283380114556216</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05520102085021913</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.08441816320577228</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05521190391456294</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.08600252526598241</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05522035197595149</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.08758688732619255</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05522667339379701</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.08917124938640267</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05523117652751167</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.0907556114466128</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05523416973650765</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.09233997350682294</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05523596138019712</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.09392433556703307</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05523685981799228</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.09550869762724321</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05523717340930532</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.09709305968745334</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05523670362021341</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.09867742174766347</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05518077615985133</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1002617838078736</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.0550369242685378</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1018461458680838</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.054811657112258</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1034305079282939</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05451148385699715</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.105014869988504</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.0541429136687404</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1065992320487142</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05371245571347299</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1081835941089243</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.0532266191571801</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1097679561691344</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05269191316584689</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1113523182293446</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.05211484690545861</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1129366802895547</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.05150192954200043</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1145210423497648</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.05085967024145751</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1161054044099749</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.05019457816981509</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1176897664701851</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04951316249305836</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1192741285303952</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04882193237717249</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1208584905906053</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.0481273969881427</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1224428526508155</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04743606549195416</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1240272147110256</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04675444705459208</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1256115767712357</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04608905084204166</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1271959388314459</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04544638602028806</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.128780300891656</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04483296175531652</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1303646629518661</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04425528721311218</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1319490250120763</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04371987155966029</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1335333870722864</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04323322396094603</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1351177491324966</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04279169204442065</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1367021111927067</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04234921598170015</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1382864732529168</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04190062535523741</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1398708353131269</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04144749414518494</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1414551973733371</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.04099139633169529</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1430395594335472</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.040533905894921</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1446239214937574</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04007659681501461</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1462082835539675</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03962104307212867</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1477926456141776</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.0391688186464157</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03872149751802826</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1509613697345979</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03828065366711888</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.152545731794808</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.0378478610738401</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1541300938550181</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03742469371834448</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1557144559152283</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03701272558078453</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1572988179754384</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03661353064131283</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1588831800356486</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.0362286828800819</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1604675420958587</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03585975627724427</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1620519041560688</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.0355083248129525</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1636362662162789</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03517596246735914</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1652206282764891</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.0348642432206167</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1668049903366992</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03457474105287774</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1683893523969093</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03430902994429479</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1699737144571195</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03406868387502043</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1715580765173296</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03385527682520712</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1731424385775397</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03367038277500749</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1747268006377499</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03351557237976861</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.17631116269796</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03337673995776031</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1778955247581701</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03323987562430344</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1794798868183803</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03310537035291803</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1810642488785904</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03297361511712419</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1826486109388006</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03284500089044192</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1842329729990107</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03271991864639131</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.1858173350592208</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03259875935849243</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.1874016971194309</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03248191400026534</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.1889860591796411</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03236977354523008</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.1905704212398512</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03226272896690673</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.1921547833000613</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03216117123881534</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.1937391453602715</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03206549133447598</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.1953235074204816</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03197608022740871</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.1969078694806917</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03189332889113358</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.1984922315409019</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03181762829917068</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.200076593601112</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03174936942504002</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2016609556613221</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03168894324226171</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2032453177215323</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.0316367407243558</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2048296797817424</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03159315284484233</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2064140418419526</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03155857057724139</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2079984039021626</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03153338489507302</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2095827659623728</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03151798677185726</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2111671280225829</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03151276718111425</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2127514900827931</v>
-      </c>
-    </row>
+        <v>0.3232671150593066</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1279.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1279.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003546897424927496</v>
+        <v>0.001438481321094122</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001621124824256489</v>
+        <v>0.0004819356718160695</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004417382422452279</v>
+        <v>0.002358758331089769</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001627414364408294</v>
+        <v>0.0008335119284139378</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01530148025512032</v>
+        <v>0.0075725202474273</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.002215942629699852</v>
+        <v>0.0008176319203245119</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02770216564657824</v>
+        <v>0.01150304469665159</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.002069636562418191</v>
+        <v>0.0008172078283355665</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.002826497461233077</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002580543836596962</v>
+        <v>0.0009638713436321391</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004732121597570728</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.002997749999999997</v>
+        <v>0.001667023856827876</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01840986986191448</v>
+        <v>0.01350130610745909</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003262688243782722</v>
+        <v>0.001635294560954968</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03267365637729314</v>
+        <v>0.02223663474492504</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003248915729239262</v>
+        <v>0.001634415656671133</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.008289290460042495</v>
+        <v>0.004113583239461698</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004863374472769468</v>
+        <v>0.001445807015448209</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.009962129976697175</v>
+        <v>0.006427990307078621</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004882243093224881</v>
+        <v>0.002500535785241813</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02229505902442064</v>
+        <v>0.01736755339772156</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004894032365674083</v>
+        <v>0.002452895760973536</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03786152414785271</v>
+        <v>0.02677876012502561</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004873373593858893</v>
+        <v>0.002078343771256843</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.008725880918905263</v>
+        <v>0.005249273474824803</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006484499297025957</v>
+        <v>0.001927742687264278</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01158125422033705</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006509657457633176</v>
+        <v>0.002997749999999997</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02521277329296351</v>
+        <v>0.02097520991534707</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006525376487565445</v>
+        <v>0.003270527681298048</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04219762701832952</v>
+        <v>0.03407873363077002</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006497831458478523</v>
+        <v>0.003268831313342266</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006456201742799504</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01162116313703911</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007741631509790886</v>
+        <v>0.002580543836596962</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01318190221829577</v>
+        <v>0.009013704130298769</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008137071822041469</v>
+        <v>0.004167559642069689</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02710704179066512</v>
+        <v>0.02387068107592205</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008156720609456807</v>
+        <v>0.004088159601622559</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04617027607763036</v>
+        <v>0.03869437022547451</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00840490654205607</v>
+        <v>0.004086039141677833</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01089087246445687</v>
+        <v>0.006917056918881753</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009726748945538936</v>
+        <v>0.002891614030896417</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01383552884441011</v>
+        <v>0.00998654025963399</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.008993249999999991</v>
+        <v>0.005001071570483627</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03000290246102022</v>
+        <v>0.02690053991656899</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009775271739130427</v>
+        <v>0.004905791521947072</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04900879757827925</v>
+        <v>0.04200816097398974</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009746747187717786</v>
+        <v>0.004903246970013399</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01387326349691734</v>
+        <v>0.007604839360756288</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01134787376979542</v>
+        <v>0.003373549702712487</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01557204144917974</v>
+        <v>0.01084441409563312</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01139190055085806</v>
+        <v>0.005834583498897565</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03193232517887937</v>
+        <v>0.03000290246102022</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01141940885323953</v>
+        <v>0.006056646522055444</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05195171982213004</v>
+        <v>0.04617027607763036</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01137120505233742</v>
+        <v>0.005972252216255291</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01280429239397278</v>
+        <v>0.008256620787175775</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01296899859405191</v>
+        <v>0.003855485374528556</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01649912526404131</v>
+        <v>0.01171578841233714</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01301931491526635</v>
+        <v>0.006668095427311503</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03451099986663259</v>
+        <v>0.03070671100271302</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01305075297513089</v>
+        <v>0.006541055362596095</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05592866367859395</v>
+        <v>0.04735886044193582</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01299566291695705</v>
+        <v>0.006537662626684532</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01368176354170089</v>
+        <v>0.008867705671148217</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.0145901234183084</v>
+        <v>0.004337421046344626</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.0175789980216193</v>
+        <v>0.01242912598378715</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01464672927967465</v>
+        <v>0.007501607355725441</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03663953363212419</v>
+        <v>0.03245251732014257</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01468209709702225</v>
+        <v>0.007358687282920608</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05921094612937405</v>
+        <v>0.05077765667124989</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01462012078157668</v>
+        <v>0.007354870455020099</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01650348132617936</v>
+        <v>0.00943339848568156</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01621124824256489</v>
+        <v>0.004819356718160696</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01860655726862984</v>
+        <v>0.01301288958402415</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01627414364408294</v>
+        <v>0.008335119284139379</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03909955395240672</v>
+        <v>0.03417296422665564</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01631344121891361</v>
+        <v>0.008176319203245118</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06326988415617357</v>
+        <v>0.05327670587600131</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01624457864619631</v>
+        <v>0.008172078283355666</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01526725013348589</v>
+        <v>0.009949003703783786</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01783237306682138</v>
+        <v>0.005301292389976765</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01967670055178899</v>
+        <v>0.01383552884441011</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01790155800849123</v>
+        <v>0.009216768131851202</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04137268830453278</v>
+        <v>0.03626386061446038</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01794478534080497</v>
+        <v>0.008993951123569632</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06637679474069552</v>
+        <v>0.05554828438250431</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01786903651081594</v>
+        <v>0.008989286111691232</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01797087434969817</v>
+        <v>0.01040982579846287</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01945349789107787</v>
+        <v>0.005783228061792834</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02058432541781291</v>
+        <v>0.01439723861293847</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01952897237289953</v>
+        <v>0.01000214314096725</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04344056416555492</v>
+        <v>0.03772101537576492</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01957612946269633</v>
+        <v>0.009811583043894144</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06890299486464307</v>
+        <v>0.05878466851707298</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01949349437543557</v>
+        <v>0.009806493940026799</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01861215836089389</v>
+        <v>0.01081116924272678</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02107462271533436</v>
+        <v>0.006265163733608904</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02132432941341764</v>
+        <v>0.01501578751423981</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02115638673730782</v>
+        <v>0.01083565506938119</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04538480901252567</v>
+        <v>0.0399402374027773</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0212074735845877</v>
+        <v>0.01062921496421865</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07161980150971958</v>
+        <v>0.06127813460602166</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0211179522400552</v>
+        <v>0.01062370176836236</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01818890655315074</v>
+        <v>0.01114833850958348</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02269574753959085</v>
+        <v>0.006747099405424973</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02229161008531931</v>
+        <v>0.01594738307623253</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02278380110171611</v>
+        <v>0.01166916699779513</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04728705032249764</v>
+        <v>0.04121733558770568</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02283881770647906</v>
+        <v>0.01144684688454317</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07409853165762798</v>
+        <v>0.06382095897566448</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02274241010467483</v>
+        <v>0.01144090959669793</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01969892331254641</v>
+        <v>0.01141663807204094</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02431687236384734</v>
+        <v>0.007229035077241043</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02298106498023403</v>
+        <v>0.01668823296210172</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02441121546612441</v>
+        <v>0.01250267892620907</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04852891557252334</v>
+        <v>0.0427481188227582</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02447016182837042</v>
+        <v>0.01226447880486768</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07711050229007155</v>
+        <v>0.0662054179523156</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02436686796929446</v>
+        <v>0.0122581174250335</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0201400130251586</v>
+        <v>0.01162116313703911</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02593799718810383</v>
+        <v>0.007741631509790886</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02348759164487788</v>
+        <v>0.01743454483503246</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0260386298305327</v>
+        <v>0.01333619085462301</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05049203223965534</v>
+        <v>0.04482839600014288</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02610150595026178</v>
+        <v>0.01308211072519219</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07882703038875333</v>
+        <v>0.06822378786228922</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02599132583391409</v>
+        <v>0.01307532525336906</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02050998007706501</v>
+        <v>0.01176195149798315</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02755912201236032</v>
+        <v>0.008192906420873183</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02390608762596695</v>
+        <v>0.01818252635820987</v>
       </c>
       <c r="K82" t="n">
-        <v>0.027666044194941</v>
+        <v>0.01416970278303694</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05125802780094624</v>
+        <v>0.04605397601206793</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02773285007215314</v>
+        <v>0.0138997426455167</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08001943293537667</v>
+        <v>0.07046834503189964</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02761578369853373</v>
+        <v>0.01389253308170463</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01880880494937356</v>
+        <v>0.01191015216463674</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0291802468366168</v>
+        <v>0.008674842092689252</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02443145047021739</v>
+        <v>0.01892838519481904</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02929345855934929</v>
+        <v>0.01500321471145088</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05240852973344853</v>
+        <v>0.04762066775074145</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0293641941940445</v>
+        <v>0.01471737456584122</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08225902691164449</v>
+        <v>0.07313136578746088</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02924024156315335</v>
+        <v>0.0147097409100402</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02108186469272299</v>
+        <v>0.01205613850292835</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03080137166087329</v>
+        <v>0.009156777764505322</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02467280838816496</v>
+        <v>0.01956832900804507</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03092087292375758</v>
+        <v>0.01583672663986482</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05362673976820301</v>
+        <v>0.04892428010837152</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03099553831593586</v>
+        <v>0.01553500648616572</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08315910740760041</v>
+        <v>0.07520512645528726</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03086469942777299</v>
+        <v>0.01552694873837576</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02034669045529035</v>
+        <v>0.01219992034938724</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03242249648512979</v>
+        <v>0.009638713436321392</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02509639463552127</v>
+        <v>0.02019856546107306</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03254828728816588</v>
+        <v>0.01667023856827876</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05403862500701134</v>
+        <v>0.05016062197716631</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03262688243782723</v>
+        <v>0.01635263840649024</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08442632449169146</v>
+        <v>0.07688190336169293</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03248915729239261</v>
+        <v>0.01634415656671133</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02060151655249593</v>
+        <v>0.01234150754054268</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03404362130938627</v>
+        <v>0.01012064910813746</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02540945448716755</v>
+        <v>0.0211153022170881</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03417570165257417</v>
+        <v>0.0175037504966927</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05442957598716711</v>
+        <v>0.05152550224933386</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03425822655971859</v>
+        <v>0.01717027032681475</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08525624220666839</v>
+        <v>0.07915397283299208</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03411361515701225</v>
+        <v>0.0171613643950469</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01984457729976002</v>
+        <v>0.01248090991292394</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03566474613364277</v>
+        <v>0.01060258477995353</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02580986125228138</v>
+        <v>0.02181474693927528</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03580311601698247</v>
+        <v>0.01833726242510663</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05549494740429947</v>
+        <v>0.05311472981708235</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03588957068160994</v>
+        <v>0.01798790224713926</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08594180222215347</v>
+        <v>0.08121361119549886</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03573807302163188</v>
+        <v>0.01797857222338246</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0200741070125029</v>
+        <v>0.01261813730306029</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03728587095789925</v>
+        <v>0.0110845204517696</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02609548824004033</v>
+        <v>0.02239310729081971</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03743053038139076</v>
+        <v>0.01917077435352057</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05613009395403759</v>
+        <v>0.05412411357261984</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03752091480350131</v>
+        <v>0.01880553416746377</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08667594620776942</v>
+        <v>0.08245309477552754</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03736253088625151</v>
+        <v>0.01879578005171803</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02128834000614489</v>
+        <v>0.012753199547481</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03890699578215574</v>
+        <v>0.01156645612358567</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02636420875962203</v>
+        <v>0.02314659093490649</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03905794474579905</v>
+        <v>0.02000428628193451</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05673037033201073</v>
+        <v>0.05514946240815449</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03915225892539267</v>
+        <v>0.01962316608778829</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08815161583313846</v>
+        <v>0.08486469989939233</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03898698875087114</v>
+        <v>0.0196129878800536</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02248551059610624</v>
+        <v>0.01288610648271535</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04052812060641223</v>
+        <v>0.01204839179540174</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02651389612020404</v>
+        <v>0.02357140553472072</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04068535911020734</v>
+        <v>0.02083779821034845</v>
       </c>
       <c r="L90" t="n">
-        <v>0.057491131233848</v>
+        <v>0.05558658521589441</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04078360304728403</v>
+        <v>0.0204407980081128</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08846175276788304</v>
+        <v>0.08614070289340736</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04061144661549077</v>
+        <v>0.02043019570838916</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02166385309780728</v>
+        <v>0.01301686794529258</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04214924543066872</v>
+        <v>0.01253032746721781</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02664242363096399</v>
+        <v>0.02436375875344748</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04231277347461564</v>
+        <v>0.02167131013876238</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05770773135517859</v>
+        <v>0.05673129088804768</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0424149471691754</v>
+        <v>0.02125842992843731</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08959929868162569</v>
+        <v>0.08747338008388678</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04223590448011041</v>
+        <v>0.02124740353672473</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02082160182666828</v>
+        <v>0.013145493771742</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04377037025492521</v>
+        <v>0.01301226313903388</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02704766460107942</v>
+        <v>0.02481985825427188</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04394018783902393</v>
+        <v>0.02250482206717632</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05817552539163168</v>
+        <v>0.05737938831682246</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04404629129106676</v>
+        <v>0.02207606184876182</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08955719524398881</v>
+        <v>0.08795500779714488</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04386036234473003</v>
+        <v>0.0220646113650603</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02095699109810954</v>
+        <v>0.01327199379859285</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0453914950791817</v>
+        <v>0.01349419881084995</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02702749233972797</v>
+        <v>0.02523591170037903</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04556760220343223</v>
+        <v>0.02333833399559026</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05888986803883647</v>
+        <v>0.05782668639442684</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04567763541295811</v>
+        <v>0.02289369376908633</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0906283841245949</v>
+        <v>0.08987786235949585</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04548482020934966</v>
+        <v>0.02288181919339586</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02206825522755134</v>
+        <v>0.01339637786237442</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04701261990343818</v>
+        <v>0.01397613448266602</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02727978015608719</v>
+        <v>0.02590812675495402</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04719501656784052</v>
+        <v>0.0241718459240042</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0590461139924221</v>
+        <v>0.05896899401306893</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04730897953484948</v>
+        <v>0.02371132568941085</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09080580699306634</v>
+        <v>0.09013422009725375</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04710927807396929</v>
+        <v>0.02369902702173143</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02215362853041398</v>
+        <v>0.01351865579961597</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04863374472769468</v>
+        <v>0.01445807015448209</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0275024013593347</v>
+        <v>0.02613271108118194</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04882243093224882</v>
+        <v>0.02500535785241813</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05953961794801782</v>
+        <v>0.05900212006495678</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04894032365674084</v>
+        <v>0.02452895760973536</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09158240551902547</v>
+        <v>0.0911163573367329</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04873373593858893</v>
+        <v>0.024516234850067</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02121134532211775</v>
+        <v>0.01363883744684676</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05025486955195117</v>
+        <v>0.01494000582629816</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02739322925864809</v>
+        <v>0.02660587234224786</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05044984529665711</v>
+        <v>0.02583886978083208</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05946573460125273</v>
+        <v>0.05972187344229868</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0505716677786322</v>
+        <v>0.02534658953005987</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09195112137209493</v>
+        <v>0.09131655040424752</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05035819380320855</v>
+        <v>0.02533344267840256</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02324232627407822</v>
+        <v>0.01375693264059608</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05187599437620766</v>
+        <v>0.01542194149811422</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02767105768882022</v>
+        <v>0.02692381820133694</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0520772596610654</v>
+        <v>0.02667238170924601</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05931981864775604</v>
+        <v>0.05952406303730257</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05220301190052356</v>
+        <v>0.02616422145038438</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09234055215526071</v>
+        <v>0.09182707562611164</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05198265166782819</v>
+        <v>0.02615065050673813</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02323965240745644</v>
+        <v>0.01387295121739318</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05349711920046414</v>
+        <v>0.01590387716993029</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02767099838218284</v>
+        <v>0.02718275632163422</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0537046740254737</v>
+        <v>0.02750589363765995</v>
       </c>
       <c r="L98" t="n">
         <v>0.06000580492204047</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05383435602241492</v>
+        <v>0.02698185337070889</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09203866812310357</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05360710953244782</v>
+        <v>0.02696785833507369</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02122322080016805</v>
+        <v>0.01398690301376734</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05511824402472063</v>
+        <v>0.01638581284174637</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02766284696749706</v>
+        <v>0.02727889436632483</v>
       </c>
       <c r="K99" t="n">
-        <v>0.055332088389882</v>
+        <v>0.02833940556607388</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05939980681027521</v>
+        <v>0.05970580492204047</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05546570014430627</v>
+        <v>0.0277994852910334</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0920932856667524</v>
+        <v>0.09164055215526073</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05523156739706745</v>
+        <v>0.02778506616340926</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0221926244361562</v>
+        <v>0.01409879786624783</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05673936884897712</v>
+        <v>0.01686774851356243</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02743695574221701</v>
+        <v>0.02750843999859387</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05695950275429029</v>
+        <v>0.02917291749448783</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05975852565192566</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05709704426619764</v>
+        <v>0.02861711721135791</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09179013635741129</v>
+        <v>0.0919405521552607</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05685602526168707</v>
+        <v>0.02860227399174483</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02214879388211387</v>
+        <v>0.01420864561136393</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05836049367323361</v>
+        <v>0.0173496841853785</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02759447571002291</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05858691711869858</v>
+        <v>0.03000642942290176</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05978012986289211</v>
+        <v>0.05940580492204048</v>
       </c>
       <c r="M101" t="n">
-        <v>0.058728388388089</v>
+        <v>0.02943474913168243</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09163294013874024</v>
+        <v>0.09184055215526071</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05848048312630671</v>
+        <v>0.0294194818200804</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02109265970473411</v>
+        <v>0.01431645608564489</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05998161849749011</v>
+        <v>0.01783161985719457</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02743652769830851</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06021433148310687</v>
+        <v>0.0308399413513157</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05936706765254107</v>
+        <v>0.05960580492204046</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06035973250998036</v>
+        <v>0.03025238105200694</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09102541695439925</v>
+        <v>0.09164055215526073</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06010494099092634</v>
+        <v>0.03023668964841596</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02302515247070993</v>
+        <v>0.01442223912562</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06160274332174659</v>
+        <v>0.01831355552901064</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02746423253446759</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06184174584751517</v>
+        <v>0.03167345327972964</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05942178723023919</v>
+        <v>0.05970580492204047</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06199107663187173</v>
+        <v>0.03107001297233145</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09157128674804821</v>
+        <v>0.09224055215526072</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06172939885554598</v>
+        <v>0.03105389747675153</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02194720274673437</v>
+        <v>0.01452600456781852</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06322386814600307</v>
+        <v>0.01879549120082671</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02737871104589393</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06346916021192346</v>
+        <v>0.03250696520814358</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05904673680535302</v>
+        <v>0.05970580492204047</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06362242075376309</v>
+        <v>0.03188764489265596</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09107426946334701</v>
+        <v>0.09184055215526071</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06335385672016559</v>
+        <v>0.0318711053050871</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02285974109950046</v>
+        <v>0.0146277622487697</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06484499297025957</v>
+        <v>0.01927742687264278</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02728108405998129</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06509657457633175</v>
+        <v>0.03334047713655752</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05914436458724914</v>
+        <v>0.05970580492204047</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06525376487565446</v>
+        <v>0.03270527681298047</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0902380850439557</v>
+        <v>0.09214055215526074</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06497831458478523</v>
+        <v>0.03268831313342267</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02276369809570122</v>
+        <v>0.01472752200500285</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06646611779451606</v>
+        <v>0.01975936254445885</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02697247240412345</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06672398894074004</v>
+        <v>0.03417398906497145</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0584171187852941</v>
+        <v>0.05970580492204047</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06688510899754581</v>
+        <v>0.03352290873330499</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09056645343353403</v>
+        <v>0.09214055215526074</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06660277244940487</v>
+        <v>0.03350552096175823</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02266000430202967</v>
+        <v>0.0148252936730472</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06808724261877254</v>
+        <v>0.02024129821627492</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02695399690571419</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06835140330514834</v>
+        <v>0.03500750099338539</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05816744760885448</v>
+        <v>0.05970580492204047</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06851645311943717</v>
+        <v>0.0343405406536295</v>
       </c>
       <c r="N107" t="n">
-        <v>0.08926309457574211</v>
+        <v>0.0914405521552607</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0682272303140245</v>
+        <v>0.03432272879009379</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02054959028517884</v>
+        <v>0.01492108708943206</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06970836744302904</v>
+        <v>0.02072323388809099</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02692677839214727</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06997881766955664</v>
+        <v>0.03584101292179933</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05829779926729683</v>
+        <v>0.05950580492204047</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07014779724132854</v>
+        <v>0.03515817257395401</v>
       </c>
       <c r="N108" t="n">
-        <v>0.08883172841423981</v>
+        <v>0.09174055215526072</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06985168817864414</v>
+        <v>0.03513993661842936</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02143338661184176</v>
+        <v>0.01501491209068667</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07132949226728554</v>
+        <v>0.02120516955990706</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02659193769081647</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07160623203396493</v>
+        <v>0.03667452485021327</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05801062196998777</v>
+        <v>0.05960580492204046</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07177914136321989</v>
+        <v>0.03597580449427853</v>
       </c>
       <c r="N109" t="n">
-        <v>0.08897607489268705</v>
+        <v>0.09164055215526073</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07147614604326376</v>
+        <v>0.03595714444676493</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02231232384871146</v>
+        <v>0.01510677851334031</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07295061709154202</v>
+        <v>0.02168710523172313</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02655059562911556</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07323364639837322</v>
+        <v>0.03750803677862721</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0576083639262939</v>
+        <v>0.05940580492204048</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07341048548511125</v>
+        <v>0.03679343641460303</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08829985395474388</v>
+        <v>0.09214055215526074</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07310060390788338</v>
+        <v>0.03677435227510049</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02218733256248096</v>
+        <v>0.01519669619392226</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0745717419157985</v>
+        <v>0.0221690409035392</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02640387303443831</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07486106076278151</v>
+        <v>0.03834154870704114</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05709347334558168</v>
+        <v>0.05960580492204046</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07504182960700262</v>
+        <v>0.03761106833492755</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08780678554407012</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07472506177250302</v>
+        <v>0.03759156010343606</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02005934331984329</v>
+        <v>0.01528467496896176</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07619286674005499</v>
+        <v>0.02265097657535527</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02625289073417848</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07648847512718981</v>
+        <v>0.03917506063545508</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05726839843721779</v>
+        <v>0.05980580492204046</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07667317372889397</v>
+        <v>0.03842870025525206</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0872005896043257</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07634951963712265</v>
+        <v>0.03840876793177163</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02092928668749149</v>
+        <v>0.01537072467498811</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07781399156431149</v>
+        <v>0.02313291224717134</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02609876955572986</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0781158894915981</v>
+        <v>0.04000857256386901</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05673558741056875</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07830451785078534</v>
+        <v>0.03924633217557658</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08728498607917057</v>
+        <v>0.09224055215526072</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07797397750174229</v>
+        <v>0.0392259757601072</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02179809323211856</v>
+        <v>0.01545485514853057</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07943511638856797</v>
+        <v>0.02361484791898741</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02604263032648624</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07974330385600639</v>
+        <v>0.04084208449228296</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05619748847500111</v>
+        <v>0.05970580492204047</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0799358619726767</v>
+        <v>0.04006396409590109</v>
       </c>
       <c r="N114" t="n">
-        <v>0.08616369491226467</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07959843536636191</v>
+        <v>0.04004318358844276</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02066669352041754</v>
+        <v>0.01553707622611841</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08105624121282445</v>
+        <v>0.02409678359080348</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02578559387384134</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08137071822041468</v>
+        <v>0.0416755964206969</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05615654983988155</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08156720609456806</v>
+        <v>0.0408815960162256</v>
       </c>
       <c r="N115" t="n">
-        <v>0.08554043604726802</v>
+        <v>0.09174055215526072</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08122289323098154</v>
+        <v>0.04086039141677832</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01953601811908146</v>
+        <v>0.0156173977442809</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08267736603708094</v>
+        <v>0.02457871926261955</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02562878102518898</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08299813258482298</v>
+        <v>0.04250910834911083</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05571521971457652</v>
+        <v>0.05960580492204046</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08319855021645943</v>
+        <v>0.04169922793655011</v>
       </c>
       <c r="N116" t="n">
-        <v>0.08491892942784041</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08284735109560118</v>
+        <v>0.04167759924511389</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02040662935719576</v>
+        <v>0.01569582953954731</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08429849086133744</v>
+        <v>0.02506065493443562</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02547331260792292</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08462554694923129</v>
+        <v>0.04334262027752477</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05507594630845267</v>
+        <v>0.05990580492204048</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08482989433835079</v>
+        <v>0.04251685985687462</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0851028949976419</v>
+        <v>0.09214055215526074</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08447180896022081</v>
+        <v>0.04249480707344946</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01926445661785809</v>
+        <v>0.0157723814484469</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08591961568559393</v>
+        <v>0.02554259060625168</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02521507788232405</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08625296131363958</v>
+        <v>0.04417613220593871</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0550391701104305</v>
+        <v>0.05940580492204048</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08646123846024215</v>
+        <v>0.04333449177719913</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0839602614269867</v>
+        <v>0.09174055215526072</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08609626682484044</v>
+        <v>0.04331201490178502</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02110411749126723</v>
+        <v>0.01584706330750895</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08754074050985042</v>
+        <v>0.02602452627806776</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02503525830450817</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08788037567804786</v>
+        <v>0.04500964413435265</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05436559976807342</v>
+        <v>0.05960580492204046</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08809258258213351</v>
+        <v>0.04415212369752364</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08344230463711821</v>
+        <v>0.09164055215526073</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08772072468946006</v>
+        <v>0.04412922273012059</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01992864387494449</v>
+        <v>0.01591988495326273</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0891618653341069</v>
+        <v>0.02650646194988383</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02493523391848772</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08950779004245617</v>
+        <v>0.04584315606276659</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05414521648134277</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08972392670402488</v>
+        <v>0.04496975561784815</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08256036598874156</v>
+        <v>0.09204055215526069</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08934518255407969</v>
+        <v>0.04494643055845616</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01874106766641134</v>
+        <v>0.01599085622223752</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0907829901583634</v>
+        <v>0.02698839762169989</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02461865651388993</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09113520440686446</v>
+        <v>0.04667666799118052</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05388599680900216</v>
+        <v>0.05990580492204048</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09135527082591623</v>
+        <v>0.04578738753817266</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08242656550296512</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09096964041869933</v>
+        <v>0.04576363838679173</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02054442076318908</v>
+        <v>0.01605998695096256</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09240411498261988</v>
+        <v>0.02747033329351596</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02458917788034209</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09276261877127275</v>
+        <v>0.04751017991959446</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05349591730981507</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09298661494780759</v>
+        <v>0.04660501945849718</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0813530232008971</v>
+        <v>0.09174055215526072</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09259409828331897</v>
+        <v>0.04658084621512729</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01834173506279915</v>
+        <v>0.01612728697596716</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09402523980687637</v>
+        <v>0.02795226896533204</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02415044980747143</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09439003313568103</v>
+        <v>0.0483436918480084</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05248295454254515</v>
+        <v>0.05990580492204048</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09461795906969896</v>
+        <v>0.04742265137882169</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08095185910364611</v>
+        <v>0.0919405521552607</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09421855614793859</v>
+        <v>0.04739805404346285</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02013604246276288</v>
+        <v>0.01619276613378055</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09564636463113285</v>
+        <v>0.0284342046371481</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02400612408490524</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09601744750008934</v>
+        <v>0.04917720377642234</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05245508506595589</v>
+        <v>0.05990580492204048</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09624930319159032</v>
+        <v>0.0482402832991462</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08023519323232026</v>
+        <v>0.0919405521552607</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09584301401255822</v>
+        <v>0.04821526187179842</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01893037486060168</v>
+        <v>0.01625643426093203</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09726748945538936</v>
+        <v>0.02891614030896417</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02365985250227079</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09764486186449764</v>
+        <v>0.05001071570483627</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05172028543881083</v>
+        <v>0.05990580492204048</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09788064731348167</v>
+        <v>0.04905791521947071</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07861514560802807</v>
+        <v>0.09184055215526071</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09746747187717786</v>
+        <v>0.04903246970013399</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01972776415383692</v>
+        <v>0.01631830119395086</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09888861427964585</v>
+        <v>0.02939807598078024</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02341528684919533</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09927227622890593</v>
+        <v>0.05084422763325021</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05108653221987355</v>
+        <v>0.05970580492204047</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09951199143537304</v>
+        <v>0.04987554713979523</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07840383625187802</v>
+        <v>0.09164055215526073</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09909192974179748</v>
+        <v>0.04984967752846956</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01953124223998998</v>
+        <v>0.0163783767693663</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1005097391039023</v>
+        <v>0.02988001165259632</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02337607891530616</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1008996905933142</v>
+        <v>0.05167773956166415</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05026180196790761</v>
+        <v>0.05940580492204048</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1011433355572644</v>
+        <v>0.05069317906011974</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07761338518497823</v>
+        <v>0.09204055215526069</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1007163876064171</v>
+        <v>0.05066688535680512</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01834384073141985</v>
+        <v>0.01643667082370764</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1021308639281588</v>
+        <v>0.03036194732441238</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0231458804902305</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1025271049577225</v>
+        <v>0.05251125149007809</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05025407124167652</v>
+        <v>0.05960580492204046</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1027746796791558</v>
+        <v>0.05151081098044425</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07645591242843724</v>
+        <v>0.09164055215526073</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1023408454710367</v>
+        <v>0.05148409318514069</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01915177889640847</v>
+        <v>0.01649319319350413</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1037519887524153</v>
+        <v>0.03084388299622845</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0229237311328447</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1041545193221308</v>
+        <v>0.05334476341849202</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04967029632692552</v>
+        <v>0.05950580492204047</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1044060238010471</v>
+        <v>0.05232844290076876</v>
       </c>
       <c r="N129" t="n">
-        <v>0.076108437687675</v>
+        <v>0.0919405521552607</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1039653033356564</v>
+        <v>0.05230130101347626</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01794242495246759</v>
+        <v>0.01654795371528504</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1053731135766718</v>
+        <v>0.03132581866804452</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02248365766054237</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1057819336865391</v>
+        <v>0.05417827534690597</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04886375950030009</v>
+        <v>0.05960580492204046</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1060373679229385</v>
+        <v>0.05314607482109327</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07549228686936055</v>
+        <v>0.09224055215526072</v>
       </c>
       <c r="O130" t="n">
-        <v>0.105589761200276</v>
+        <v>0.05311850884181182</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01772011906178726</v>
+        <v>0.01660096222557966</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1069942384009283</v>
+        <v>0.03180775433986058</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02232533720303753</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1074093480509474</v>
+        <v>0.0550117872753199</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04821377621958667</v>
+        <v>0.05980580492204046</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1076687120448298</v>
+        <v>0.05396370674141778</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07401969668340008</v>
+        <v>0.09224055215526072</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1072142190648956</v>
+        <v>0.05393571667014738</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01848920138655754</v>
+        <v>0.01665222856091726</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1086153632251848</v>
+        <v>0.03228969001167666</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02195399729825138</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1090367624153557</v>
+        <v>0.05584529920373384</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04813176493099194</v>
+        <v>0.05940580492204048</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1093000561667212</v>
+        <v>0.05478133866174231</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07370801694356083</v>
+        <v>0.09154055215526069</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1088386769295153</v>
+        <v>0.05475292449848296</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01725401208896848</v>
+        <v>0.01670176255782706</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1102364880494413</v>
+        <v>0.03277162568349273</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0217748654841052</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K133" t="n">
-        <v>0.110664176779764</v>
+        <v>0.05667881113214777</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04702914408072273</v>
+        <v>0.05990580492204048</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1109314002886125</v>
+        <v>0.05559897058206681</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0719745974636099</v>
+        <v>0.09204055215526069</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1104631347941349</v>
+        <v>0.05557013232681852</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01601889133121014</v>
+        <v>0.0167495740528384</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1118576128736978</v>
+        <v>0.0332535613553088</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02149316929852017</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1122915911441723</v>
+        <v>0.05751232306056171</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04641733211498572</v>
+        <v>0.05970580492204047</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1125627444105039</v>
+        <v>0.05641660250239132</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07143678805731463</v>
+        <v>0.09174055215526072</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1120875926587545</v>
+        <v>0.05638734015515409</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01778817927547256</v>
+        <v>0.01679567288248052</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1134787376979542</v>
+        <v>0.03373549702712487</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02111413627941751</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1139190055085806</v>
+        <v>0.05834583498897566</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04640774747998774</v>
+        <v>0.05950580492204047</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1141940885323953</v>
+        <v>0.05723423442271583</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07041193853844213</v>
+        <v>0.09154055215526069</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1137120505233741</v>
+        <v>0.05720454798348966</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01656621608394579</v>
+        <v>0.01684006888328268</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1150998625222107</v>
+        <v>0.03421743269894094</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02094299396471849</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1155464198729889</v>
+        <v>0.05917934691738959</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04551180862193557</v>
+        <v>0.05960580492204046</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1158254326542866</v>
+        <v>0.05805186634304034</v>
       </c>
       <c r="N136" t="n">
-        <v>0.0692173987207596</v>
+        <v>0.09214055215526074</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1153365083879938</v>
+        <v>0.05802175581182523</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01735734191881989</v>
+        <v>0.01688277189177415</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1167209873464672</v>
+        <v>0.03469936837075701</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02058496989234428</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1171738342373972</v>
+        <v>0.06001285884580353</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04524093398703594</v>
+        <v>0.05990580492204048</v>
       </c>
       <c r="M137" t="n">
-        <v>0.117456776776178</v>
+        <v>0.05886949826336486</v>
       </c>
       <c r="N137" t="n">
-        <v>0.06847051841803437</v>
+        <v>0.09174055215526072</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1169609662526134</v>
+        <v>0.05883896364016079</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01616589694228492</v>
+        <v>0.01692379174448422</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1183421121707237</v>
+        <v>0.03518130404257308</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02044529160021615</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1188012486018054</v>
+        <v>0.06084637077421746</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0444065420214956</v>
+        <v>0.05950580492204047</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1190881208980694</v>
+        <v>0.05968713018368937</v>
       </c>
       <c r="N138" t="n">
-        <v>0.06748864744403354</v>
+        <v>0.09184055215526071</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1185854241172331</v>
+        <v>0.05965617146849635</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01599622131653092</v>
+        <v>0.01696313827794214</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1199632369949802</v>
+        <v>0.03566323971438914</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02012918662625529</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1204286629662137</v>
+        <v>0.0616798827026314</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04372005117152136</v>
+        <v>0.05980580492204046</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1207194650199607</v>
+        <v>0.06050476210401388</v>
       </c>
       <c r="N139" t="n">
-        <v>0.06708913561252433</v>
+        <v>0.0919405521552607</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1202098819818527</v>
+        <v>0.06047337929683192</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01685265520374795</v>
+        <v>0.0170008213286772</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1215843618192367</v>
+        <v>0.03614517538620522</v>
       </c>
       <c r="J140" t="n">
-        <v>0.01994188250838294</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K140" t="n">
-        <v>0.122056077330622</v>
+        <v>0.06251339463104534</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04329287988331995</v>
+        <v>0.05960580492204046</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1223508091418521</v>
+        <v>0.06132239402433839</v>
       </c>
       <c r="N140" t="n">
-        <v>0.06618933273727395</v>
+        <v>0.09174055215526072</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1218343398464723</v>
+        <v>0.06129058712516749</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01473953876612606</v>
+        <v>0.01703685073321864</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1232054866434932</v>
+        <v>0.03662711105802129</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01998860678452033</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1236834916950303</v>
+        <v>0.06334690655945928</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04293644660309814</v>
+        <v>0.05980580492204046</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1239821532637435</v>
+        <v>0.0621400259446629</v>
       </c>
       <c r="N141" t="n">
-        <v>0.06610658863204966</v>
+        <v>0.09204055215526069</v>
       </c>
       <c r="O141" t="n">
-        <v>0.123458797711092</v>
+        <v>0.06210779495350306</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01666121216585531</v>
+        <v>0.01707123632809576</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1248266114677497</v>
+        <v>0.03710904672983736</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01977458699258869</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1253109060594386</v>
+        <v>0.06418041848787322</v>
       </c>
       <c r="L142" t="n">
-        <v>0.0430621697770627</v>
+        <v>0.05990580492204048</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1256134973856348</v>
+        <v>0.06295765786498742</v>
       </c>
       <c r="N142" t="n">
-        <v>0.06565825311061863</v>
+        <v>0.09184055215526071</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1250832555757116</v>
+        <v>0.06292500278183862</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01562201556512574</v>
+        <v>0.01710398794983781</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1264477362920061</v>
+        <v>0.03759098240165343</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01970505067050925</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1269383204238469</v>
+        <v>0.06501393041628716</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04298146785142043</v>
+        <v>0.05990580492204048</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1272448415075262</v>
+        <v>0.06377528978531193</v>
       </c>
       <c r="N143" t="n">
-        <v>0.06576167598674804</v>
+        <v>0.0919405521552607</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1267077134403312</v>
+        <v>0.0637422106101742</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0166194010198123</v>
+        <v>0.01713511543497408</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1280688611162626</v>
+        <v>0.03807291807346949</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01958486699732113</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1285657347882552</v>
+        <v>0.06584744234470109</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04260575927237803</v>
+        <v>0.05960576969781933</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1288761856294175</v>
+        <v>0.06459292170563644</v>
       </c>
       <c r="N144" t="n">
-        <v>0.06602503134221105</v>
+        <v>0.09234043835716788</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1283321713049508</v>
+        <v>0.06455941843850976</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01562639072949293</v>
+        <v>0.01716462862003381</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1296899859405191</v>
+        <v>0.03855485374528557</v>
       </c>
       <c r="J145" t="n">
-        <v>0.01978971622610136</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1301931491526635</v>
+        <v>0.06668095427311503</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04281007776881443</v>
+        <v>0.0597034528898584</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1305075297513089</v>
+        <v>0.06541055362596095</v>
       </c>
       <c r="N145" t="n">
-        <v>0.06564670574496195</v>
+        <v>0.09213653264962213</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1299566291695705</v>
+        <v>0.06537662626684533</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01663947158501351</v>
+        <v>0.0171925373415463</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1313111107647756</v>
+        <v>0.03903678941710163</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01960205028063469</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1318205635170718</v>
+        <v>0.06751446620152897</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04283231868709811</v>
+        <v>0.05999760808014487</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1321388738732003</v>
+        <v>0.06622818554628546</v>
       </c>
       <c r="N146" t="n">
-        <v>0.06539299083772221</v>
+        <v>0.09232721613661243</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1315810870341901</v>
+        <v>0.0661938340951809</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01665832467283733</v>
+        <v>0.01721885143604081</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1329322355890321</v>
+        <v>0.0395187250889177</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01972148504333895</v>
+        <v>0.02757042786410795</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1334479778814801</v>
+        <v>0.06834797812994291</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04287027072528471</v>
+        <v>0.05938836875582476</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1337702179950916</v>
+        <v>0.06704581746660998</v>
       </c>
       <c r="N147" t="n">
-        <v>0.06566261176249599</v>
+        <v>0.09141269391673584</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1332055448988097</v>
+        <v>0.06701104192351645</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01568263107942762</v>
+        <v>0.0172435807400466</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1345533604132886</v>
+        <v>0.04000066076073377</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01974763639663188</v>
+        <v>0.02756810988612392</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1350753922458884</v>
+        <v>0.06918149005835685</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04282309486010635</v>
+        <v>0.05997586840404395</v>
       </c>
       <c r="M148" t="n">
-        <v>0.135401562116983</v>
+        <v>0.06786344938693449</v>
       </c>
       <c r="N148" t="n">
-        <v>0.06575429366128793</v>
+        <v>0.09219317108858954</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1348300027634294</v>
+        <v>0.06782824975185202</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01471207189124765</v>
+        <v>0.01726673509009295</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1361744852375451</v>
+        <v>0.04048259643254984</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01988012022293126</v>
+        <v>0.02756414898704887</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1367028066102967</v>
+        <v>0.07001500198677078</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04288995206829516</v>
+        <v>0.05946024051194845</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1370329062388743</v>
+        <v>0.068681081307259</v>
       </c>
       <c r="N149" t="n">
-        <v>0.06616676167610219</v>
+        <v>0.09156885275077065</v>
       </c>
       <c r="O149" t="n">
-        <v>0.136454460628049</v>
+        <v>0.06864545758018759</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01474632819476068</v>
+        <v>0.01728832432270912</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1377956100618016</v>
+        <v>0.04096453210436592</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01991855240465486</v>
+        <v>0.02745861037983872</v>
       </c>
       <c r="K150" t="n">
-        <v>0.138330220974705</v>
+        <v>0.07084851391518472</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04297000332658324</v>
+        <v>0.05934161856668421</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1386642503607657</v>
+        <v>0.06949871322758351</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06629874094894328</v>
+        <v>0.09153994400187626</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1380789184926686</v>
+        <v>0.06946266540852315</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01678508107642996</v>
+        <v>0.01730835827442441</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1394167348860581</v>
+        <v>0.04144646777618198</v>
       </c>
       <c r="J151" t="n">
-        <v>0.01976254882422046</v>
+        <v>0.0274515592774494</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1399576353391133</v>
+        <v>0.07168202584359866</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04326240961170269</v>
+        <v>0.05962013605539715</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1402955944826571</v>
+        <v>0.07031634514790802</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06594895662181549</v>
+        <v>0.09220664994050348</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1397033763572883</v>
+        <v>0.07027987323685872</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01682801162271876</v>
+        <v>0.01732684678176805</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1410378597103146</v>
+        <v>0.04192840344799805</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01981172536404582</v>
+        <v>0.0276430608928368</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1415850497035216</v>
+        <v>0.0725155377720126</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04306633190038556</v>
+        <v>0.05949592646523322</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1419269386045484</v>
+        <v>0.07113397706823255</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06661613383672316</v>
+        <v>0.09196917566524954</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1413278342219079</v>
+        <v>0.07109708106519429</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01587480092009031</v>
+        <v>0.01734379968126933</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1426589845345711</v>
+        <v>0.04241033911981412</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01986569790654873</v>
+        <v>0.02763318043895686</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1432124640679299</v>
+        <v>0.07334904970042654</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04348093116936402</v>
+        <v>0.05926912328333836</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1435582827264398</v>
+        <v>0.07195160898855706</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06679899773567072</v>
+        <v>0.09142772627471152</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1429522920865275</v>
+        <v>0.07191428889352985</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01692513005500789</v>
+        <v>0.01735922680945751</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1442801093588275</v>
+        <v>0.04289227479163019</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02012408233414698</v>
+        <v>0.02742198312876547</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1448398784323381</v>
+        <v>0.07418256162884047</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04340536839537015</v>
+        <v>0.05963985999685853</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1451896268483312</v>
+        <v>0.07276924090888155</v>
       </c>
       <c r="N154" t="n">
-        <v>0.06669627346066254</v>
+        <v>0.09178250686748646</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1445767499511471</v>
+        <v>0.07273149672186542</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01497868011393477</v>
+        <v>0.01737313800286188</v>
       </c>
       <c r="G155" t="n">
-        <v>0.145901234183084</v>
+        <v>0.04337421046344626</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02018649452925829</v>
+        <v>0.02750953417521856</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1464672927967464</v>
+        <v>0.07501607355725441</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04323880455513604</v>
+        <v>0.05980827009293968</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1468209709702225</v>
+        <v>0.07358687282920606</v>
       </c>
       <c r="N155" t="n">
-        <v>0.06660668615370291</v>
+        <v>0.09123372254217155</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1462012078157668</v>
+        <v>0.07354870455020097</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01704109852859127</v>
+        <v>0.01738554309801169</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1475223590073405</v>
+        <v>0.04385614613526233</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02005261220779943</v>
+        <v>0.02759589879127204</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1480947071611547</v>
+        <v>0.07584958548566834</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04378040062539379</v>
+        <v>0.05917448705872777</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1484523150921139</v>
+        <v>0.07440450474953057</v>
       </c>
       <c r="N156" t="n">
-        <v>0.06713542306562342</v>
+        <v>0.09118157839736402</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1478256656803864</v>
+        <v>0.07436591237853656</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01515067384179968</v>
+        <v>0.01739645193143623</v>
       </c>
       <c r="G157" t="n">
-        <v>0.149143483831597</v>
+        <v>0.0443380818070784</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02035719086782564</v>
+        <v>0.02748114218988183</v>
       </c>
       <c r="K157" t="n">
-        <v>0.149722121525563</v>
+        <v>0.07668309741408229</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04407329671992244</v>
+        <v>0.05933864438136871</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1500836592140052</v>
+        <v>0.0752221366698551</v>
       </c>
       <c r="N157" t="n">
-        <v>0.06802591565467198</v>
+        <v>0.09182627953166084</v>
       </c>
       <c r="O157" t="n">
-        <v>0.149450123545006</v>
+        <v>0.07518312020687212</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0173063462563128</v>
+        <v>0.01740587433966474</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1507646086558535</v>
+        <v>0.04482001747889447</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02052187201116937</v>
+        <v>0.02746532958400383</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1513495358899713</v>
+        <v>0.07751660934249623</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04380008042823888</v>
+        <v>0.05960087554800847</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1517150033358966</v>
+        <v>0.07603976859017961</v>
       </c>
       <c r="N158" t="n">
-        <v>0.06820875249582603</v>
+        <v>0.09116803104365923</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1510745814096257</v>
+        <v>0.07600032803520769</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01749848854218165</v>
+        <v>0.01741382015922651</v>
       </c>
       <c r="G159" t="n">
-        <v>0.15238573348011</v>
+        <v>0.04530195315071054</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02063506005512403</v>
+        <v>0.02754852618659397</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1529769502543796</v>
+        <v>0.07835012127091016</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04443902930726421</v>
+        <v>0.05956131404579301</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1533463474577879</v>
+        <v>0.07685740051050412</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06914544870317707</v>
+        <v>0.0911070380319563</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1526990392742453</v>
+        <v>0.07681753586354326</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01671747346945721</v>
+        <v>0.0174202992266508</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1540068583043665</v>
+        <v>0.04578388882252661</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02078515941698307</v>
+        <v>0.02733079721060813</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1546043646187879</v>
+        <v>0.0791836331993241</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04526481526959553</v>
+        <v>0.05962009336186827</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1549776915796793</v>
+        <v>0.07767503243082863</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06949751939081628</v>
+        <v>0.0917435055951491</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1543234971388649</v>
+        <v>0.07763474369187882</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01695367380819051</v>
+        <v>0.0174253213784669</v>
       </c>
       <c r="G161" t="n">
-        <v>0.155627983128623</v>
+        <v>0.04626582449434267</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02106057451403989</v>
+        <v>0.02731220786900226</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1562317789831962</v>
+        <v>0.08001714512773803</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04585211022782976</v>
+        <v>0.0589773469833802</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1566090357015707</v>
+        <v>0.07849266435115315</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0706264796728352</v>
+        <v>0.0915776388318349</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1559479550034846</v>
+        <v>0.07845195152021439</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01719746232843256</v>
+        <v>0.01742889645120406</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1572491079528795</v>
+        <v>0.04674776016615875</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02134970976358792</v>
+        <v>0.02749282337473229</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1578591933476045</v>
+        <v>0.08085065705615198</v>
       </c>
       <c r="L162" t="n">
-        <v>0.046575586094564</v>
+        <v>0.05913320839747466</v>
       </c>
       <c r="M162" t="n">
-        <v>0.158240379823462</v>
+        <v>0.07931029627147766</v>
       </c>
       <c r="N162" t="n">
-        <v>0.07199384466332509</v>
+        <v>0.09070964284061067</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1575724128681042</v>
+        <v>0.07926915934854996</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01843921180023435</v>
+        <v>0.01743103428139157</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1588702327771359</v>
+        <v>0.04722969583797482</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0218409695829206</v>
+        <v>0.02737270894075408</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1594866077120128</v>
+        <v>0.08168416898456592</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04670991478239525</v>
+        <v>0.05918781109129775</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1598717239453534</v>
+        <v>0.08012792819180217</v>
       </c>
       <c r="N163" t="n">
-        <v>0.07286112947637741</v>
+        <v>0.09113972272007365</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1591968707327238</v>
+        <v>0.08008636717688553</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01766929499364692</v>
+        <v>0.01743174470555867</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1604913576013924</v>
+        <v>0.04771163150979089</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02212275838933135</v>
+        <v>0.02735192978002358</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1611140220764211</v>
+        <v>0.08251768091297984</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04782976820392054</v>
+        <v>0.05924128855199534</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1615030680672448</v>
+        <v>0.08094556011212668</v>
       </c>
       <c r="N164" t="n">
-        <v>0.07348984922608354</v>
+        <v>0.09096808356882097</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1608213285973435</v>
+        <v>0.08090357500522108</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01687808467872123</v>
+        <v>0.01743174470555867</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1621124824256489</v>
+        <v>0.04771163150979089</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02238348060011358</v>
+        <v>0.0272305511054967</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1627414364408294</v>
+        <v>0.08335119284139379</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04810981827173691</v>
+        <v>0.05929377426671339</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1631344121891361</v>
+        <v>0.08176319203245119</v>
       </c>
       <c r="N165" t="n">
-        <v>0.07434151902653469</v>
+        <v>0.09079493048544973</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1624457864619631</v>
+        <v>0.08172078283355665</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0170581495626593</v>
+        <v>0.01699949175596544</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1637336072499054</v>
+        <v>0.04771136298132687</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02251154063256071</v>
+        <v>0.02720863813012935</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1643688508052377</v>
+        <v>0.08418470476980773</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04872473689844142</v>
+        <v>0.05924540172259782</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1647657563110275</v>
+        <v>0.0825808239527757</v>
       </c>
       <c r="N166" t="n">
-        <v>0.07467932114225628</v>
+        <v>0.09072046856855703</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1640702443265827</v>
+        <v>0.08253799066189221</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01722757943079229</v>
+        <v>0.01657207579045154</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1653547320741619</v>
+        <v>0.04771109445286285</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02271599927104229</v>
+        <v>0.02718625606687744</v>
       </c>
       <c r="K167" t="n">
-        <v>0.165996265169646</v>
+        <v>0.08501821669822167</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0490745831335106</v>
+        <v>0.05879630440679459</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1663971004329189</v>
+        <v>0.08339845587310021</v>
       </c>
       <c r="N167" t="n">
-        <v>0.07585726995558822</v>
+        <v>0.09104490291674</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1656947021912024</v>
+        <v>0.08335519849022778</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01939289643803914</v>
+        <v>0.01615010890647146</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1669758568984184</v>
+        <v>0.04771082592439884</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02281537809334232</v>
+        <v>0.0271634701286969</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1676236795340543</v>
+        <v>0.08585172862663561</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04961048630205411</v>
+        <v>0.05874661580644966</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1680284445548102</v>
+        <v>0.08421608779342472</v>
       </c>
       <c r="N168" t="n">
-        <v>0.07661856834786712</v>
+        <v>0.0906684386285958</v>
       </c>
       <c r="O168" t="n">
-        <v>0.167319160055822</v>
+        <v>0.08417240631856335</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0185544059891097</v>
+        <v>0.01573420320144273</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1685969817226749</v>
+        <v>0.04771055739593482</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02311005224566726</v>
+        <v>0.02724034552854362</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1692510938984626</v>
+        <v>0.08668524055504953</v>
       </c>
       <c r="L169" t="n">
-        <v>0.050135952063527</v>
+        <v>0.05899646940870895</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1696597886767016</v>
+        <v>0.08503371971374923</v>
       </c>
       <c r="N169" t="n">
-        <v>0.07726443717550535</v>
+        <v>0.09079128080272153</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1689436179204416</v>
+        <v>0.08498961414689891</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01771241348871382</v>
+        <v>0.01532497077281932</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1702181065469314</v>
+        <v>0.04771028886747081</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02320038957480067</v>
+        <v>0.02721694747937353</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1708785082628708</v>
+        <v>0.08751875248346348</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05025178390109356</v>
+        <v>0.0590459987007185</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1712911327985929</v>
+        <v>0.08585135163407374</v>
       </c>
       <c r="N170" t="n">
-        <v>0.07799609729491513</v>
+        <v>0.09061363453771432</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1705680757850613</v>
+        <v>0.08580682197523448</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01786722434156137</v>
+        <v>0.01492302371801931</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1718392313711879</v>
+        <v>0.04771002033900679</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02338675792752627</v>
+        <v>0.02729334119414256</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1725059226272792</v>
+        <v>0.08835226441187742</v>
       </c>
       <c r="L171" t="n">
-        <v>0.0506587852979184</v>
+        <v>0.05879505422957759</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1729224769204843</v>
+        <v>0.08666898355439827</v>
       </c>
       <c r="N171" t="n">
-        <v>0.07881476956250849</v>
+        <v>0.09073504116576914</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1721925336496809</v>
+        <v>0.08662402980357005</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01901914395236224</v>
+        <v>0.01452897413449608</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1734603561954443</v>
+        <v>0.04770975181054277</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02356952515062767</v>
+        <v>0.02706959188580658</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1741333369916874</v>
+        <v>0.08918577634029135</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05145775973716601</v>
+        <v>0.05863512403025048</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1745538210423757</v>
+        <v>0.08748661547472278</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0794216748346977</v>
+        <v>0.09044193047070254</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1738169915143005</v>
+        <v>0.08744123763190562</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01916847772582624</v>
+        <v>0.01414343411966838</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1750814810197008</v>
+        <v>0.04770948328207875</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02374905909088854</v>
+        <v>0.02714517367045285</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1757607513560957</v>
+        <v>0.0900192882687053</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0516495107020008</v>
+        <v>0.0585631946783888</v>
       </c>
       <c r="M173" t="n">
-        <v>0.176185165164267</v>
+        <v>0.08830424739504729</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07981803396789505</v>
+        <v>0.09013047576182259</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1754414493789201</v>
+        <v>0.08825844546024118</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02031553106666326</v>
+        <v>0.01376701577098886</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1767026058439573</v>
+        <v>0.04770921475361473</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0239257275950925</v>
+        <v>0.02711557504601093</v>
       </c>
       <c r="K174" t="n">
-        <v>0.177388165720504</v>
+        <v>0.09085280019711922</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05213484167558735</v>
+        <v>0.05868065467895311</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1778165092861584</v>
+        <v>0.0891218793153718</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08020506781851261</v>
+        <v>0.09030281043120586</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1770659072435398</v>
+        <v>0.08907565328857675</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01946060937958318</v>
+        <v>0.01340033118587704</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1783237306682138</v>
+        <v>0.04770894622515071</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02419989851002324</v>
+        <v>0.02708039381351361</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1790155800849123</v>
+        <v>0.09168631212553317</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05221455614109002</v>
+        <v>0.05838889253690399</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1794478534080498</v>
+        <v>0.08993951123569631</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08058399724296272</v>
+        <v>0.0898610678709294</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1786903651081594</v>
+        <v>0.08989286111691232</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01860401806929581</v>
+        <v>0.01304399246178473</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1799448554924703</v>
+        <v>0.0477086776966867</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02437193968246437</v>
+        <v>0.02694030830428737</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1806429944493206</v>
+        <v>0.09251982405394711</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05258945758167338</v>
+        <v>0.05818929675720208</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1810791975299411</v>
+        <v>0.09075714315602083</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08115604309765745</v>
+        <v>0.08950738147306991</v>
       </c>
       <c r="O176" t="n">
-        <v>0.180314822972779</v>
+        <v>0.09071006894524788</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01974606254051107</v>
+        <v>0.01269861169613235</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1815659803167268</v>
+        <v>0.04770840916822268</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02444221895919953</v>
+        <v>0.02699599684965871</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1822704088137289</v>
+        <v>0.09335333598236104</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05296034948050196</v>
+        <v>0.05818325584480791</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1827105416518325</v>
+        <v>0.09157477507634533</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08202242623900907</v>
+        <v>0.08994388462970432</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1819392808373987</v>
+        <v>0.09152727677358345</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01989282792357656</v>
+        <v>0.01236480098637079</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1831871051409833</v>
+        <v>0.04770814063975867</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02471426283069092</v>
+        <v>0.02684813778095413</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1838978231781372</v>
+        <v>0.09418684791077499</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05343129112870748</v>
+        <v>0.05847215830468211</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1843418857737238</v>
+        <v>0.09239240699666984</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08250023712222521</v>
+        <v>0.08937271073290926</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1835637387020183</v>
+        <v>0.09234448460191902</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01904715402856338</v>
+        <v>0.01204317242992142</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1848082299652398</v>
+        <v>0.04770787211129465</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02489640268096223</v>
+        <v>0.02699740942950019</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1855252375425455</v>
+        <v>0.09502035983918891</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0537233301498658</v>
+        <v>0.05835739264178527</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1859732298956152</v>
+        <v>0.09321003891699435</v>
       </c>
       <c r="N179" t="n">
-        <v>0.08331084418612988</v>
+        <v>0.08909599317476169</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1851881965666379</v>
+        <v>0.09316169243025459</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0212037964660876</v>
+        <v>0.01173433812423412</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1864293547894963</v>
+        <v>0.04770760358283063</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02498339746997891</v>
+        <v>0.02694449012662331</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1871526519069538</v>
+        <v>0.09585387176760285</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05452877435305181</v>
+        <v>0.05814034736107795</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1876045740175065</v>
+        <v>0.09402767083731886</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08363434938211595</v>
+        <v>0.08871586534733833</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1868126544312576</v>
+        <v>0.09397890025859015</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01935750892188474</v>
+        <v>0.01143891016673134</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1880504796137527</v>
+        <v>0.04770733505436661</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02526892823877963</v>
+        <v>0.02669005820365002</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1887800662713621</v>
+        <v>0.0966873836960168</v>
       </c>
       <c r="L181" t="n">
-        <v>0.0549338213146256</v>
+        <v>0.05792241096752079</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1892359181393979</v>
+        <v>0.09484530275764338</v>
       </c>
       <c r="N181" t="n">
-        <v>0.08394978055028074</v>
+        <v>0.08943446064271615</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1884371122958772</v>
+        <v>0.09479610808692571</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02050304508169028</v>
+        <v>0.01115750065486181</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1896716044380092</v>
+        <v>0.0477070665259026</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02544667602840311</v>
+        <v>0.02663479199190684</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1904074806357704</v>
+        <v>0.09752089562443073</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05482466861094734</v>
+        <v>0.05800497196607438</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1908672622612892</v>
+        <v>0.0956629346779679</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08483616553072182</v>
+        <v>0.08905391245297184</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1900615701604968</v>
+        <v>0.09561331591526127</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02063515863123975</v>
+        <v>0.01089072168605484</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1912927292622657</v>
+        <v>0.04770679799743858</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0257103218798881</v>
+        <v>0.02667936982272029</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1920348950001787</v>
+        <v>0.09835440755284468</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05558751381837718</v>
+        <v>0.05758941886169927</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1924986063831806</v>
+        <v>0.09648056659829241</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08517253216353637</v>
+        <v>0.08857635417018228</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1916860280251164</v>
+        <v>0.09643052374359684</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02174860325626866</v>
+        <v>0.01063918535774096</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1929138540865222</v>
+        <v>0.04770652946897456</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02565354683427323</v>
+        <v>0.02652447002741683</v>
       </c>
       <c r="K184" t="n">
-        <v>0.193662309364587</v>
+        <v>0.09918791948125862</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05580855451327515</v>
+        <v>0.0571771401593561</v>
       </c>
       <c r="M184" t="n">
-        <v>0.194129950505072</v>
+        <v>0.09729819851861692</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08583790828882187</v>
+        <v>0.08860391918642424</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1933104858897361</v>
+        <v>0.09724773157193241</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01983813264251252</v>
+        <v>0.01040350376736703</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1945349789107787</v>
+        <v>0.04770626094051054</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0259700319325973</v>
+        <v>0.02667077093732301</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1952897237289953</v>
+        <v>0.1000214314096725</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05577398827200145</v>
+        <v>0.05716952436400541</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1957612946269633</v>
+        <v>0.09811583043894143</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08631132174667566</v>
+        <v>0.08853874089377473</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1949349437543557</v>
+        <v>0.09806493940026799</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02090108542223195</v>
+        <v>0.01018428901235866</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1961561037350352</v>
+        <v>0.04770599241204652</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02585364669227361</v>
+        <v>0.02661895088376527</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1969171380934036</v>
+        <v>0.1008549433380865</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05647001267091625</v>
+        <v>0.05726795998060788</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1973926387488547</v>
+        <v>0.09893346235926595</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08637549333209943</v>
+        <v>0.08808295268431032</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1965594016189753</v>
+        <v>0.09888214722860356</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01995747772009526</v>
+        <v>0.009982153190161283</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1977772285592917</v>
+        <v>0.04770572388358251</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02592148199211523</v>
+        <v>0.02636968819807017</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1985445524578119</v>
+        <v>0.1016884552665004</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05611837537430792</v>
+        <v>0.05707383551412396</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1990239828707461</v>
+        <v>0.09975109427959046</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08700077025134961</v>
+        <v>0.08793868795010795</v>
       </c>
       <c r="O187" t="n">
-        <v>0.198183859483595</v>
+        <v>0.09969935505693912</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02201264083738288</v>
+        <v>0.009797708398201994</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1993983533835482</v>
+        <v>0.04770545535511849</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02608784943900591</v>
+        <v>0.02632366121156419</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2001719668222201</v>
+        <v>0.1025219671949144</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05616323660724887</v>
+        <v>0.05708853946951445</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2006553269926374</v>
+        <v>0.100568726199915</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08692115579219051</v>
+        <v>0.0880080800832444</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1998083173482146</v>
+        <v>0.1005165628852747</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0210665554669484</v>
+        <v>0.009631566733924686</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2010194782078047</v>
+        <v>0.04770518682665448</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02625272577832159</v>
+        <v>0.02638154825557386</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2017993811866284</v>
+        <v>0.1033554791233283</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05680485797760643</v>
+        <v>0.0571134603517397</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2022866711145288</v>
+        <v>0.1013863581202395</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08763657277423581</v>
+        <v>0.08819326247579656</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2014327752128342</v>
+        <v>0.1013337707136102</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02211920230164546</v>
+        <v>0.009482015754311811</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2026406030320611</v>
+        <v>0.04770491829819046</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02631608775543821</v>
+        <v>0.02634402766142564</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2034267955510367</v>
+        <v>0.1041889910517422</v>
       </c>
       <c r="L190" t="n">
-        <v>0.0566431886905939</v>
+        <v>0.05694998666576054</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2039180152364202</v>
+        <v>0.102203990040564</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08764694401709922</v>
+        <v>0.08769636851984119</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2030572330774539</v>
+        <v>0.1021509785419458</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02217056203432761</v>
+        <v>0.009335654742596872</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2042617278563176</v>
+        <v>0.04770464976972644</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02617791211573177</v>
+        <v>0.02621177776044606</v>
       </c>
       <c r="K191" t="n">
-        <v>0.205054209915445</v>
+        <v>0.1050225029801562</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05707817795142459</v>
+        <v>0.05689874494526614</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2055493593583115</v>
+        <v>0.1030216219608885</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08765219234039429</v>
+        <v>0.08721808829008831</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2046816909420735</v>
+        <v>0.1029681863702814</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02222061535784844</v>
+        <v>0.009190603684071763</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2058828526805741</v>
+        <v>0.04770438124126242</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0262381756045782</v>
+        <v>0.02618547688396161</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2066816242798533</v>
+        <v>0.1058560149085701</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05730977496531178</v>
+        <v>0.05675156443966273</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2071807034802029</v>
+        <v>0.103839253881213</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08815224056373483</v>
+        <v>0.08754560708390452</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2063061488066931</v>
+        <v>0.1037853941986169</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02226934296506156</v>
+        <v>0.009047299818761741</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2075039775048306</v>
+        <v>0.04770411271279841</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02629685496735348</v>
+        <v>0.0261630190584338</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2083090386442616</v>
+        <v>0.106689526836984</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05723792893746882</v>
+        <v>0.05700583802544498</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2088120476020942</v>
+        <v>0.1046568858015375</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08774701150673442</v>
+        <v>0.08727535864627711</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2079306066713127</v>
+        <v>0.1046026020269525</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02031672554882056</v>
+        <v>0.008906180386679563</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2091251023290871</v>
+        <v>0.04770384418433439</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02655392694943355</v>
+        <v>0.02614127325572098</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2099364530086699</v>
+        <v>0.107523038765398</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05736258907310898</v>
+        <v>0.05696152120950917</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2104433917239856</v>
+        <v>0.105474517721862</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08773642798900666</v>
+        <v>0.08780727461501947</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2095550645359324</v>
+        <v>0.1054198098552881</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02036274380197902</v>
+        <v>0.008767682627850333</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2107462271533436</v>
+        <v>0.04770357565587038</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02640936829619438</v>
+        <v>0.02612021063541872</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2115638673730782</v>
+        <v>0.1083565506938119</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05718370457744557</v>
+        <v>0.05641856949875165</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2120747358458769</v>
+        <v>0.1062921496421865</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08792041283016533</v>
+        <v>0.08704128662794541</v>
       </c>
       <c r="O195" t="n">
-        <v>0.211179522400552</v>
+        <v>0.1062370176836236</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02040737841739054</v>
+        <v>0.00863224378228699</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2123673519776001</v>
+        <v>0.04770330712740636</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02656315575301195</v>
+        <v>0.0261998094611509</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2131912817374865</v>
+        <v>0.1091900626222259</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05720122465569186</v>
+        <v>0.05697693840006865</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2137060799677684</v>
+        <v>0.1071097815625111</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08819888884982413</v>
+        <v>0.0872773263228685</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2128039802651717</v>
+        <v>0.1070542255119592</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0224506100879087</v>
+        <v>0.008500301090014407</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2139884768018566</v>
+        <v>0.04770303859894234</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02661526606526218</v>
+        <v>0.02608004799654139</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2148186961018948</v>
+        <v>0.1100235745506398</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05781509851306124</v>
+        <v>0.0568365834203565</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2153374240896597</v>
+        <v>0.1079274134828356</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08897177886759666</v>
+        <v>0.08681532533760239</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2144284381297913</v>
+        <v>0.1078714333402948</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0204924195063871</v>
+        <v>0.008372291791048557</v>
       </c>
       <c r="G198" t="n">
-        <v>0.215609601626113</v>
+        <v>0.04770277007047832</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02676567597832107</v>
+        <v>0.02616090450521412</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2164461104663031</v>
+        <v>0.1108570864790537</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05792527535476691</v>
+        <v>0.05659746006651153</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2169687682115511</v>
+        <v>0.1087450454031601</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08883900570309655</v>
+        <v>0.08755521530996063</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2160528959944109</v>
+        <v>0.1086886411686303</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02053278736567934</v>
+        <v>0.00824865312540575</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2172307264503696</v>
+        <v>0.0477025015420143</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02681436223756453</v>
+        <v>0.02614235725079295</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2180735248307114</v>
+        <v>0.1116905984074677</v>
       </c>
       <c r="L199" t="n">
-        <v>0.0578317043860222</v>
+        <v>0.05685952384543</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2186001123334424</v>
+        <v>0.1095626773234846</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08950049217593747</v>
+        <v>0.0871969278777569</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2176773538590305</v>
+        <v>0.1095058489969659</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02157169435863898</v>
+        <v>0.008129822333110347</v>
       </c>
       <c r="G200" t="n">
-        <v>0.218851851274626</v>
+        <v>0.04770223301355029</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02666130158836856</v>
+        <v>0.02622438449690179</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2197009391951197</v>
+        <v>0.1125241103358816</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05823433481204046</v>
+        <v>0.05622273026400826</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2202314564553338</v>
+        <v>0.1103803092438091</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08935616110573324</v>
+        <v>0.08684039467880489</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2193018117236502</v>
+        <v>0.1103230568253015</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02060912117811963</v>
+        <v>0.008016236654176133</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2204729760988825</v>
+        <v>0.04770196448508627</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02690647077610911</v>
+        <v>0.02620696450716452</v>
       </c>
       <c r="K201" t="n">
-        <v>0.221328353559528</v>
+        <v>0.1133576222642955</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05793311583803495</v>
+        <v>0.05678703482914257</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2218628005772251</v>
+        <v>0.1111979411641336</v>
       </c>
       <c r="N201" t="n">
-        <v>0.08930593531209741</v>
+        <v>0.08648554735091807</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2209262695882698</v>
+        <v>0.111140264653637</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02064504851697489</v>
+        <v>0.007908333328627032</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2220941009231391</v>
+        <v>0.04770169595662226</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02694984654616216</v>
+        <v>0.02619007554520505</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2229557679239363</v>
+        <v>0.1141911341927095</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05832799666921901</v>
+        <v>0.05655239304772927</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2234941446991165</v>
+        <v>0.1120155730844581</v>
       </c>
       <c r="N202" t="n">
-        <v>0.08914973761464356</v>
+        <v>0.08643231753191011</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2225507274528894</v>
+        <v>0.1119574724819726</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02167945706805834</v>
+        <v>0.007806549596477322</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2237152257473955</v>
+        <v>0.04770142742815824</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02689140564390362</v>
+        <v>0.02617369587464725</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2245831822883445</v>
+        <v>0.1150246461211234</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05791892651080591</v>
+        <v>0.05611876042666464</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2251254888210079</v>
+        <v>0.1128332050047826</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08968749083298555</v>
+        <v>0.08698063685959473</v>
       </c>
       <c r="O203" t="n">
-        <v>0.224175185317509</v>
+        <v>0.1127746803103082</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02271232752422359</v>
+        <v>0.007711322697750392</v>
       </c>
       <c r="G204" t="n">
-        <v>0.225336350571652</v>
+        <v>0.04770115889969422</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0269311248147095</v>
+        <v>0.02605780375911501</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2262105966527529</v>
+        <v>0.1158581580495374</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05810585456800893</v>
+        <v>0.05608609247284493</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2267568329428992</v>
+        <v>0.1136508369251071</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08941911778673695</v>
+        <v>0.08653043697178553</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2257996431821287</v>
+        <v>0.1135918881386438</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02174364057832421</v>
+        <v>0.007623089872461089</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2269574753959085</v>
+        <v>0.0477008903712302</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02696898080395572</v>
+        <v>0.02594237746223224</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2278380110171611</v>
+        <v>0.1166916699779513</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05848873004604141</v>
+        <v>0.05645434469316654</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2283881770647906</v>
+        <v>0.1144684688454317</v>
       </c>
       <c r="N205" t="n">
-        <v>0.08974454129551135</v>
+        <v>0.08638164950629601</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2274241010467483</v>
+        <v>0.1144090959669793</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02177337692321377</v>
+        <v>0.007542288360632206</v>
       </c>
       <c r="G206" t="n">
-        <v>0.228578600220165</v>
+        <v>0.04770062184276619</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02690495035701826</v>
+        <v>0.02592739524762283</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2294654253815694</v>
+        <v>0.1175251819063652</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05826750215011664</v>
+        <v>0.05612347259452574</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2300195211866819</v>
+        <v>0.1152861007657562</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09026368417892261</v>
+        <v>0.0867342061009399</v>
       </c>
       <c r="O206" t="n">
-        <v>0.229048558911368</v>
+        <v>0.1152263037953149</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02080151725174591</v>
+        <v>0.007469355402279214</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2301997250444215</v>
+        <v>0.04770035331430217</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02703901021927307</v>
+        <v>0.02591283537891068</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2310928397459777</v>
+        <v>0.1183586938347792</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05844212008544791</v>
+        <v>0.05659343168381881</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2316508653085733</v>
+        <v>0.1161037326860807</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09037646925658416</v>
+        <v>0.08668803839353079</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2306730167759876</v>
+        <v>0.1160435116236505</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0228280422567742</v>
+        <v>0.007404728237424232</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2318208498686779</v>
+        <v>0.04770008478583815</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02697113713609613</v>
+        <v>0.02609867611971967</v>
       </c>
       <c r="K208" t="n">
-        <v>0.232720254110386</v>
+        <v>0.1191922057631931</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05881253305724859</v>
+        <v>0.05656417746794204</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2332822094304647</v>
+        <v>0.1169213646064052</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09048281934810992</v>
+        <v>0.08614307802188231</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2322974746406072</v>
+        <v>0.116860719451986</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02185293263115223</v>
+        <v>0.007348844106083448</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2334419746929344</v>
+        <v>0.04769981625737413</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02710130785286338</v>
+        <v>0.02588489573367365</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2343476684747943</v>
+        <v>0.1200257176916071</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0587786902707319</v>
+        <v>0.05623566545379177</v>
       </c>
       <c r="M209" t="n">
-        <v>0.234913553552356</v>
+        <v>0.1177389965267297</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09068265727311337</v>
+        <v>0.08699925662380814</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2339219325052268</v>
+        <v>0.1176779272803216</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02087616906773358</v>
+        <v>0.007302140248278251</v>
       </c>
       <c r="G210" t="n">
-        <v>0.235063099517191</v>
+        <v>0.04769954772891011</v>
       </c>
       <c r="J210" t="n">
-        <v>0.0271294991149508</v>
+        <v>0.02597147248439659</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2359750828392026</v>
+        <v>0.120859229620021</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05904054093111119</v>
+        <v>0.0564078511482643</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2365448976742474</v>
+        <v>0.1185566284470542</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09007590585120812</v>
+        <v>0.08655650583712177</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2355463903698465</v>
+        <v>0.1184951351086572</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02289773225937185</v>
+        <v>0.007265053904025584</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2366842243414474</v>
+        <v>0.04769927920044609</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02715568766773431</v>
+        <v>0.02605838463551234</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2376024972036109</v>
+        <v>0.1216927415484349</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05899803424359973</v>
+        <v>0.05608069005825589</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2381762417961387</v>
+        <v>0.1193742603673787</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09036248790200818</v>
+        <v>0.08611475729963686</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2371708482344661</v>
+        <v>0.1193123429369927</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02191760289892065</v>
+        <v>0.007238022313346026</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2383053491657039</v>
+        <v>0.04769901067198208</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02707985025658993</v>
+        <v>0.02584561045064478</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2392299115680192</v>
+        <v>0.1225262534768489</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05855111941341085</v>
+        <v>0.05645413769066288</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2398075859180301</v>
+        <v>0.1201918922877033</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09044232624512694</v>
+        <v>0.08627394264916721</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2387953060990858</v>
+        <v>0.1201295507653283</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02093576167923353</v>
+        <v>0.007221482716257388</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2399264739899604</v>
+        <v>0.04769874214351806</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02730196362689356</v>
+        <v>0.02583312819341782</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2408573259324275</v>
+        <v>0.1233597654052628</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05889974564575778</v>
+        <v>0.05582814955238161</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2414389300399215</v>
+        <v>0.1210095242080278</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09061534370017804</v>
+        <v>0.08593399352352615</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2404197639637054</v>
+        <v>0.1209467585936638</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02095218929316411</v>
+        <v>0.007215872352779339</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2415475988142169</v>
+        <v>0.04769847361505405</v>
       </c>
       <c r="J214" t="n">
-        <v>0.0273220045240212</v>
+        <v>0.02592091612745535</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2424847402968358</v>
+        <v>0.1241932773336767</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05914386214585396</v>
+        <v>0.05610268115030828</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2430702741618128</v>
+        <v>0.1218271561283523</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09068146308677527</v>
+        <v>0.0865948415605276</v>
       </c>
       <c r="O214" t="n">
-        <v>0.242044221828325</v>
+        <v>0.1217639664219994</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02096686643356598</v>
+        <v>0.007215872352779339</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2431687236384734</v>
+        <v>0.04769847361505405</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02723994969334879</v>
+        <v>0.02590895251638128</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2441121546612441</v>
+        <v>0.1250267892620907</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05888341811891259</v>
+        <v>0.05637768799133924</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2447016182837042</v>
+        <v>0.1226447880486768</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0903406072245323</v>
+        <v>0.08605641839798489</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2436686796929446</v>
+        <v>0.122581174250335</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02197977379329275</v>
+        <v>0.006972364772069084</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2447898484627299</v>
+        <v>0.04768298413762686</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0272557758802523</v>
+        <v>0.02589721562381947</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2457395690256524</v>
+        <v>0.1258603011905046</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05931836277014699</v>
+        <v>0.05575312558237086</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2463329624055955</v>
+        <v>0.1234624199690013</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09089269893306273</v>
+        <v>0.08601865567371186</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2452931375575642</v>
+        <v>0.1233983820786705</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02299089206519795</v>
+        <v>0.00673380577456352</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2464109732869864</v>
+        <v>0.04766749466019968</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02716945983010767</v>
+        <v>0.02578568371339382</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2473669833900607</v>
+        <v>0.1266938131189186</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05924864530477048</v>
+        <v>0.05582894943029934</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2479643065274869</v>
+        <v>0.1242800518893258</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09093766103198025</v>
+        <v>0.08668148502552203</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2469175954221839</v>
+        <v>0.1242155899070061</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02300020194213522</v>
+        <v>0.00650064739076394</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2480320981112429</v>
+        <v>0.0476520051827725</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02718097828829087</v>
+        <v>0.02577433504872823</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2489943977544689</v>
+        <v>0.1275273250473325</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05897421492799632</v>
+        <v>0.05580511504202104</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2495956506493782</v>
+        <v>0.1250976838096503</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09087541634089857</v>
+        <v>0.08654483809122909</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2485420532868035</v>
+        <v>0.1250327977353417</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02300768411695815</v>
+        <v>0.006273341651171889</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2496532229354993</v>
+        <v>0.04763651570534531</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02729030800017788</v>
+        <v>0.0258631478934466</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2506218121188772</v>
+        <v>0.1283608369757464</v>
       </c>
       <c r="L219" t="n">
-        <v>0.0592950208450379</v>
+        <v>0.05608157792443225</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2512269947712696</v>
+        <v>0.1259153157299748</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0910058876794313</v>
+        <v>0.08590864650864666</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2501665111514231</v>
+        <v>0.1258500055636772</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02301331928252031</v>
+        <v>0.00605234058628891</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2512743477597558</v>
+        <v>0.04762102622791813</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02739742571114465</v>
+        <v>0.0257521005111728</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2522492264832856</v>
+        <v>0.1291943489041604</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05911101226110843</v>
+        <v>0.05565829358442928</v>
       </c>
       <c r="M220" t="n">
-        <v>0.252858338893161</v>
+        <v>0.1267329476502994</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09062899786719214</v>
+        <v>0.08607284191558828</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2517909690160428</v>
+        <v>0.1266672133920128</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02301708813167531</v>
+        <v>0.005838096226616317</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2528954725840123</v>
+        <v>0.04760553675049094</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02730230816656712</v>
+        <v>0.02574117116553074</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2538766408476938</v>
+        <v>0.1300278608325743</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05912213838142125</v>
+        <v>0.0556352175289084</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2544896830150524</v>
+        <v>0.1275505795706239</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0907446697237948</v>
+        <v>0.08563735594986766</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2534154268806624</v>
+        <v>0.1274844212203484</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02101897135727671</v>
+        <v>0.005631060602655634</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2545165974082688</v>
+        <v>0.04759004727306376</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02720493211182126</v>
+        <v>0.02583033812014429</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2555040552121022</v>
+        <v>0.1308613727609882</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05902834841118965</v>
+        <v>0.05601230526476594</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2561210271369437</v>
+        <v>0.1283682114909484</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0909528260688528</v>
+        <v>0.08580212024929834</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2550398847452821</v>
+        <v>0.1283016290486839</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02301142696275558</v>
+        <v>0.005431685744908342</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2561377222325253</v>
+        <v>0.04757455779563657</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02740100324924866</v>
+        <v>0.02591957963863736</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2571314695765105</v>
+        <v>0.1316948846894022</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05942480665048777</v>
+        <v>0.0559895122988982</v>
       </c>
       <c r="M223" t="n">
-        <v>0.257752371258835</v>
+        <v>0.1291858434112729</v>
       </c>
       <c r="N223" t="n">
-        <v>0.090532489737989</v>
+        <v>0.08586706645169406</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2566643426099017</v>
+        <v>0.1291188368770195</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02195351207738789</v>
+        <v>0.005240423683875978</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2577588470567818</v>
+        <v>0.04755906831820939</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02714211050346028</v>
+        <v>0.02580887398463384</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2587588839409187</v>
+        <v>0.1325283966178161</v>
       </c>
       <c r="L224" t="n">
-        <v>0.0591110064324841</v>
+        <v>0.05596679413820152</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2593837153807264</v>
+        <v>0.1300034753315974</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09062007621243245</v>
+        <v>0.08593212619486829</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2582888004745213</v>
+        <v>0.1299360447053551</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02184411139500545</v>
+        <v>0.005057726450059849</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2593799718810383</v>
+        <v>0.04754357884078221</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02702032430612672</v>
+        <v>0.02579819942175764</v>
       </c>
       <c r="K225" t="n">
-        <v>0.260386298305327</v>
+        <v>0.1333619085462301</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05845863396198708</v>
+        <v>0.05584410628957212</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2610150595026178</v>
+        <v>0.1308211072519219</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0908002956400879</v>
+        <v>0.08589723111663478</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2599132583391409</v>
+        <v>0.1307532525336907</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02268924379073634</v>
+        <v>0.0048840460739615</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2610010967052948</v>
+        <v>0.04752808936335502</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02704289413240518</v>
+        <v>0.02588753421363262</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2620137126697353</v>
+        <v>0.134195420474644</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05838352417761561</v>
+        <v>0.05582140425990637</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2626464036245092</v>
+        <v>0.1316387391722464</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09019720849565382</v>
+        <v>0.08556231285480714</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2615377162037605</v>
+        <v>0.1315704603620262</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02149492813970865</v>
+        <v>0.004719834586082446</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2626222215295513</v>
+        <v>0.04751259988592784</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02661706945745292</v>
+        <v>0.02577685662388267</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2636411270341436</v>
+        <v>0.1350289324030579</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05800151201798848</v>
+        <v>0.05569864355610046</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2642777477464005</v>
+        <v>0.1324563710925709</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0887348752538285</v>
+        <v>0.08572730304719889</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2631621740683802</v>
+        <v>0.1323876681903618</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02126718331705047</v>
+        <v>0.004565544016924043</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2642433463538078</v>
+        <v>0.04749711040850066</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02655009975642718</v>
+        <v>0.0256661449161317</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2652685413985519</v>
+        <v>0.1358624443314719</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05752843242172462</v>
+        <v>0.05597577968505091</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2659090918682919</v>
+        <v>0.1332740030128955</v>
       </c>
       <c r="N228" t="n">
-        <v>0.08793735638931027</v>
+        <v>0.08629213333162378</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2647866319329998</v>
+        <v>0.1332048760186973</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02001202819788988</v>
+        <v>0.004421626396987809</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2658644711780642</v>
+        <v>0.04748162093107347</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02614923450448524</v>
+        <v>0.0257553773540036</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2668959557629602</v>
+        <v>0.1366959562598858</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05688012032744283</v>
+        <v>0.05585276815365381</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2675404359901832</v>
+        <v>0.13409163493322</v>
       </c>
       <c r="N229" t="n">
-        <v>0.08732871237679757</v>
+        <v>0.08575673534589529</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2664110897976195</v>
+        <v>0.1340220838470329</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02073548165735498</v>
+        <v>0.004288533756775251</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2674855960023207</v>
+        <v>0.04746613145364629</v>
       </c>
       <c r="J230" t="n">
-        <v>0.0257217231767843</v>
+        <v>0.02584453220112228</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2685233701273685</v>
+        <v>0.1375294681882998</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05567241067376191</v>
+        <v>0.05582956446880555</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2691717801120746</v>
+        <v>0.1349092668535445</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08603300369098854</v>
+        <v>0.0853210407278272</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2680355476622391</v>
+        <v>0.1348392916753685</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01944356257057386</v>
+        <v>0.004166718126787747</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2691067208265772</v>
+        <v>0.04745064197621911</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02557481524848165</v>
+        <v>0.02573358772111158</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2701507844917768</v>
+        <v>0.1383629801167137</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05492113839930077</v>
+        <v>0.05560612413740246</v>
       </c>
       <c r="M231" t="n">
-        <v>0.270803124233966</v>
+        <v>0.135726898773869</v>
       </c>
       <c r="N231" t="n">
-        <v>0.08507429080658174</v>
+        <v>0.08578498111523308</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2696600055268587</v>
+        <v>0.135656499503704</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02014228981267462</v>
+        <v>0.004056631537526799</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2707278456508337</v>
+        <v>0.04743515249879192</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02501576019473449</v>
+        <v>0.02562252996286847</v>
       </c>
       <c r="K232" t="n">
-        <v>0.271778198856185</v>
+        <v>0.1391964920451276</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05454213844267822</v>
+        <v>0.05548259676340322</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2724344683558573</v>
+        <v>0.1365445306941935</v>
       </c>
       <c r="N232" t="n">
-        <v>0.08367663419827526</v>
+        <v>0.08594879830676178</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2712844633914784</v>
+        <v>0.1364737073320396</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01883768225878533</v>
+        <v>0.003958726019493916</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2723489704750902</v>
+        <v>0.04741966302136474</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02475180749070009</v>
+        <v>0.02561150432247861</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2734056132205934</v>
+        <v>0.1400300039735416</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05345124574251314</v>
+        <v>0.0559592644717373</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2740658124777487</v>
+        <v>0.137362162614518</v>
       </c>
       <c r="N233" t="n">
-        <v>0.08216409434076766</v>
+        <v>0.0856129168229986</v>
       </c>
       <c r="O233" t="n">
-        <v>0.272908921256098</v>
+        <v>0.1372909151603752</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01853575878403408</v>
+        <v>0.003873453603190476</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2739700952993467</v>
+        <v>0.04740417354393756</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02429020661153571</v>
+        <v>0.02580057441832902</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2750330275850016</v>
+        <v>0.1408635159019555</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05316429523742441</v>
+        <v>0.05573613427739377</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2756971565996401</v>
+        <v>0.1381797945348425</v>
       </c>
       <c r="N234" t="n">
-        <v>0.08076073170875708</v>
+        <v>0.08587734611168873</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2745333791207176</v>
+        <v>0.1381081229887108</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02024253826354897</v>
+        <v>0.003801266319117987</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2755912201236032</v>
+        <v>0.04738868406651037</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02403820703239859</v>
+        <v>0.0255897421367246</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2766604419494099</v>
+        <v>0.1416970278303694</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05199712186603078</v>
+        <v>0.0559132100415296</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2773285007215314</v>
+        <v>0.138997426455167</v>
       </c>
       <c r="N235" t="n">
-        <v>0.08049060677694209</v>
+        <v>0.08574209210537242</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2761578369853372</v>
+        <v>0.1389253308170463</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01896403957245808</v>
+        <v>0.003742616197777923</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2772123449478596</v>
+        <v>0.04737319458908319</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02380305822844596</v>
+        <v>0.02567900936397029</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2782878563138182</v>
+        <v>0.1425305397587834</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05116556056695118</v>
+        <v>0.05569049562530182</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2789598448434227</v>
+        <v>0.1398150583754915</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07907778002002075</v>
+        <v>0.08540716073658999</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2777822948499569</v>
+        <v>0.1397425386453819</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01770628158588951</v>
+        <v>0.003697955269671746</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2788334697721161</v>
+        <v>0.047357705111656</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02339200967483507</v>
+        <v>0.02576837798637095</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2799152706782266</v>
+        <v>0.1433640516871973</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05058544627880435</v>
+        <v>0.05576799488986733</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2805911889653142</v>
+        <v>0.140632690295816</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07744631191269158</v>
+        <v>0.08537255793788184</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2794067527145765</v>
+        <v>0.1405597464737174</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01946657442833743</v>
+        <v>0.003667735565300902</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2804545945963726</v>
+        <v>0.04734221563422882</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02300458286194583</v>
+        <v>0.02555784989023156</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2815426850426349</v>
+        <v>0.1441975636156113</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05005899084637164</v>
+        <v>0.0556457116963831</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2822225330872055</v>
+        <v>0.1414503222161406</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07699050047686629</v>
+        <v>0.08563828964178827</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2810312105791962</v>
+        <v>0.141376954302053</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01822684130888926</v>
+        <v>0.003652409115166858</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2820757194206291</v>
+        <v>0.04732672615680163</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02291816849435363</v>
+        <v>0.025747426961857</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2831700994070431</v>
+        <v>0.1450310755440252</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04973653408311937</v>
+        <v>0.05562364990600618</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2838538772090969</v>
+        <v>0.1422679541364651</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07573628267817145</v>
+        <v>0.08570436178084972</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2826556684438158</v>
+        <v>0.1421941621303886</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01798620165169292</v>
+        <v>0.003650582158556771</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2836968442448856</v>
+        <v>0.04731123667937445</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02243066812040685</v>
+        <v>0.02553711108755218</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2847975137714515</v>
+        <v>0.1458645874724391</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04861171314312274</v>
+        <v>0.05530181337989348</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2854852213309882</v>
+        <v>0.1430855860567896</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07527845135085592</v>
+        <v>0.08577078028760632</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2842801263084354</v>
+        <v>0.1430113699587242</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01874464119781002</v>
+        <v>0.003651631978686252</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2853179690691421</v>
+        <v>0.04729574720194727</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02214206456583008</v>
+        <v>0.02562690415362202</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2864249281358597</v>
+        <v>0.1466980994008531</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04848449051282505</v>
+        <v>0.05578020597920197</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2871165654528796</v>
+        <v>0.1439032179771141</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0744169494947628</v>
+        <v>0.08533755109459856</v>
       </c>
       <c r="O241" t="n">
-        <v>0.285904584173055</v>
+        <v>0.1438285777870597</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01750214568830218</v>
+        <v>0.003654164814842452</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2869390938933986</v>
+        <v>0.04728025772452008</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02185234065634779</v>
+        <v>0.02551680804637142</v>
       </c>
       <c r="K242" t="n">
-        <v>0.288052342500268</v>
+        <v>0.147531611329267</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04775482867866943</v>
+        <v>0.05565883156508869</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2887479095747709</v>
+        <v>0.1447208498974386</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07295172010973544</v>
+        <v>0.08500468013436679</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2875290420376747</v>
+        <v>0.1446457856153953</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01825870086423103</v>
+        <v>0.003658632697526816</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2885602187176551</v>
+        <v>0.0472647682470929</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02166147921768452</v>
+        <v>0.02560682465210536</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2896797568646763</v>
+        <v>0.1483651232576809</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04722269012709907</v>
+        <v>0.05573769399871048</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2903792536966623</v>
+        <v>0.1455384818177631</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07168270619561706</v>
+        <v>0.0848721733394513</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2891534999022943</v>
+        <v>0.1454629934437308</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01801429246665819</v>
+        <v>0.003665487657240826</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2901813435419116</v>
+        <v>0.04724927876966572</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02146946307556474</v>
+        <v>0.02569695585712867</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2913071712290846</v>
+        <v>0.1491986351860949</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04618803734455718</v>
+        <v>0.05541679714122441</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2920105978185537</v>
+        <v>0.1463561137380876</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07110985075225074</v>
+        <v>0.08544003664239241</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2907779577669139</v>
+        <v>0.1462802012720664</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01576890623664525</v>
+        <v>0.003675181724485957</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2918024683661681</v>
+        <v>0.04723378929223853</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02097627505571299</v>
+        <v>0.02568720354774628</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2929345855934929</v>
+        <v>0.1500321471145088</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04595083281748702</v>
+        <v>0.05539614485378741</v>
       </c>
       <c r="M245" t="n">
-        <v>0.293641941940445</v>
+        <v>0.1471737456584121</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07043309677947979</v>
+        <v>0.08490827597573047</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2924024156315335</v>
+        <v>0.1470974091004019</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01552252791525387</v>
+        <v>0.003688166929763641</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2934235931904245</v>
+        <v>0.04721829981481135</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02068189798385381</v>
+        <v>0.02567756961026314</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2945619999579012</v>
+        <v>0.1508656590429228</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04491103903233171</v>
+        <v>0.05527574099755644</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2952732860623364</v>
+        <v>0.1479913775787366</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06955238727714724</v>
+        <v>0.08497689727200591</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2940268734961531</v>
+        <v>0.1479146169287375</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01727514324354566</v>
+        <v>0.003704895303575359</v>
       </c>
       <c r="G247" t="n">
-        <v>0.295044718014681</v>
+        <v>0.04720281033738417</v>
       </c>
       <c r="J247" t="n">
-        <v>0.0204863146857117</v>
+        <v>0.02546805593098415</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2961894143223094</v>
+        <v>0.1516991709713367</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04466861847553447</v>
+        <v>0.05535558943368857</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2969046301842277</v>
+        <v>0.1488090094990611</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06806766524509639</v>
+        <v>0.08544590646375888</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2956513313607728</v>
+        <v>0.1487318247570731</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01702673796258223</v>
+        <v>0.003725818876422579</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2966658428389375</v>
+        <v>0.04718732085995698</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02018950798701118</v>
+        <v>0.02545866439621421</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2978168286867178</v>
+        <v>0.1525326828997506</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04372353363353851</v>
+        <v>0.05563569402334065</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2985359743061191</v>
+        <v>0.1496266414193857</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06767887368317049</v>
+        <v>0.08551530948352998</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2972757892253924</v>
+        <v>0.1495490325854087</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.0147772978134252</v>
+        <v>0.003751389678806762</v>
       </c>
       <c r="G249" t="n">
-        <v>0.298286967663194</v>
+        <v>0.0471718313825298</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01989146071347676</v>
+        <v>0.02564939689225823</v>
       </c>
       <c r="K249" t="n">
-        <v>0.299444243051126</v>
+        <v>0.1533661948281646</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04287574699278698</v>
+        <v>0.05511605862766972</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3001673184280105</v>
+        <v>0.1504442733397102</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06578595559121259</v>
+        <v>0.08558511226385923</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2989002470900121</v>
+        <v>0.1503662404137442</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01552680853713621</v>
+        <v>0.003782059741229353</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2999080924874505</v>
+        <v>0.04715634190510262</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01959215569083295</v>
+        <v>0.02544025530542114</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3010716574155343</v>
+        <v>0.1541997067565785</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04272522103972315</v>
+        <v>0.05509668710783272</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3017986625499018</v>
+        <v>0.1512619052600347</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06518885396906604</v>
+        <v>0.08515532073728721</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3005247049546317</v>
+        <v>0.1511834482420798</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01527525587477686</v>
+        <v>0.003818281094191842</v>
       </c>
       <c r="G251" t="n">
-        <v>0.301529217311707</v>
+        <v>0.04714085242767543</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01939157574480428</v>
+        <v>0.02543124152200786</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3026990717799427</v>
+        <v>0.1550332186849925</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04197191826079019</v>
+        <v>0.05517758332498665</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3034300066717932</v>
+        <v>0.1520795371803592</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06428751181657383</v>
+        <v>0.08462594083635422</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3021491628192513</v>
+        <v>0.1520006560704154</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01502262556740879</v>
+        <v>0.003860505768195695</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3031503421359635</v>
+        <v>0.04712536295024825</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01888970370111527</v>
+        <v>0.02562235742832331</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3043264861443509</v>
+        <v>0.1558667306134064</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0408158011424313</v>
+        <v>0.05515875114028843</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3050613507936846</v>
+        <v>0.1528971691006837</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06318187213357934</v>
+        <v>0.08459697849360054</v>
       </c>
       <c r="O252" t="n">
-        <v>0.303773620683871</v>
+        <v>0.1528178638987509</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01576890335609361</v>
+        <v>0.003909185793742338</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3047714669602199</v>
+        <v>0.04710987347282106</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01858652238549043</v>
+        <v>0.02541360491067234</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3059539005087593</v>
+        <v>0.1567002425418203</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04045683217108961</v>
+        <v>0.05554019441489508</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3066926949155759</v>
+        <v>0.1537148010210082</v>
       </c>
       <c r="N253" t="n">
-        <v>0.06237187791992577</v>
+        <v>0.08466843964156656</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3053980785484906</v>
+        <v>0.1536350717270865</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01351407498189292</v>
+        <v>0.003964773201333281</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3063925917844765</v>
+        <v>0.04709438399539388</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01848201462365427</v>
+        <v>0.02560498585535995</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3075813148731675</v>
+        <v>0.1575337544702343</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03999497383320841</v>
+        <v>0.05502191700996356</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3083240390374672</v>
+        <v>0.1545324329413328</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06075747217545613</v>
+        <v>0.08494033021279257</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3070225364131102</v>
+        <v>0.1544522795554221</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01425812618586839</v>
+        <v>0.00402772002146997</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3080137166087329</v>
+        <v>0.04707889451796669</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01807616324133131</v>
+        <v>0.02539650214869099</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3092087292375759</v>
+        <v>0.1583672663986482</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03943018861523084</v>
+        <v>0.05500392278665084</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3099553831593587</v>
+        <v>0.1553500648616573</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06013859790001391</v>
+        <v>0.08511265613981889</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3086469942777298</v>
+        <v>0.1552694873837576</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01400104270908159</v>
+        <v>0.004098478284653831</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3096348414329895</v>
+        <v>0.04706340504053951</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01786895106424607</v>
+        <v>0.02548815567697041</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3108361436019841</v>
+        <v>0.1592007783270621</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03866243900360014</v>
+        <v>0.05548621560611389</v>
       </c>
       <c r="M256" t="n">
-        <v>0.31158672728125</v>
+        <v>0.1561676967819818</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05941519809344192</v>
+        <v>0.08518542335518603</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3102714521423495</v>
+        <v>0.1560866952120932</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01474281029259417</v>
+        <v>0.004177500021386393</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3112559662572459</v>
+        <v>0.04704791556311233</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01736036091812308</v>
+        <v>0.0254799483265031</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3124635579663924</v>
+        <v>0.1600342902554761</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03799168748475945</v>
+        <v>0.05526879932950965</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3132180714031413</v>
+        <v>0.1569853287023063</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05848721575558363</v>
+        <v>0.08475863779143411</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3118959100069691</v>
+        <v>0.1569039030404288</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01248341467746775</v>
+        <v>0.00426523726216909</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3128770910815024</v>
+        <v>0.04703242608568514</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01725037562868682</v>
+        <v>0.02537188198359398</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3140909723308007</v>
+        <v>0.16086780218389</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03741789654515204</v>
+        <v>0.05495167781799515</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3148494155250327</v>
+        <v>0.1578029606226308</v>
       </c>
       <c r="N258" t="n">
-        <v>0.05725459388628212</v>
+        <v>0.08503230538110346</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3135203678715888</v>
+        <v>0.1577211108687643</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01222284160476393</v>
+        <v>0.004362142037503396</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3144982159057589</v>
+        <v>0.04701693660825795</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01693897802166185</v>
+        <v>0.025463958534548</v>
       </c>
       <c r="K259" t="n">
-        <v>0.315718386695209</v>
+        <v>0.161701314112304</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03624102867122106</v>
+        <v>0.05533485493272733</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3164807596469241</v>
+        <v>0.1586205925429553</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05651727548538066</v>
+        <v>0.0849064320567347</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3151448257362084</v>
+        <v>0.1585383186970999</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01196107681554436</v>
+        <v>0.004468666377890715</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3161193407300154</v>
+        <v>0.04700144713083078</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01662615092277267</v>
+        <v>0.02535617986567003</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3173458010596173</v>
+        <v>0.1625348260407179</v>
       </c>
       <c r="L260" t="n">
-        <v>0.0356610463494097</v>
+        <v>0.05481833453486315</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3181121037688155</v>
+        <v>0.1594382244632798</v>
       </c>
       <c r="N260" t="n">
-        <v>0.05467520355272237</v>
+        <v>0.08458102375086796</v>
       </c>
       <c r="O260" t="n">
-        <v>0.316769283600828</v>
+        <v>0.1593555265254355</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01269810605087064</v>
+        <v>0.004585262313832598</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3177404655542719</v>
+        <v>0.04698595765340359</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01621187715774378</v>
+        <v>0.02554854786326499</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3189732154240256</v>
+        <v>0.1633683379691318</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03497791206616119</v>
+        <v>0.05510212048555957</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3197434478907068</v>
+        <v>0.1602558563836043</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05362832108815052</v>
+        <v>0.08505608639604351</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3183937414654476</v>
+        <v>0.1601727343537711</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0114339150518044</v>
+        <v>0.004712381875830479</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3193615903785283</v>
+        <v>0.04697046817597641</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01579613955229971</v>
+        <v>0.02554106441363781</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3206006297884339</v>
+        <v>0.1642018498975458</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03459158830791872</v>
+        <v>0.05478621664597361</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3213747920125982</v>
+        <v>0.1610734883039288</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0527765710915083</v>
+        <v>0.08473162592480182</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3200181993300673</v>
+        <v>0.1609899421821066</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01216848955940725</v>
+        <v>0.004850477094385755</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3209827152027849</v>
+        <v>0.04695497869854923</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01547892093216498</v>
+        <v>0.02543373140309339</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3222280441528422</v>
+        <v>0.1650353618259597</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03380203756112549</v>
+        <v>0.05527062687726222</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3230061361344895</v>
+        <v>0.1618911202242534</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05211989656263877</v>
+        <v>0.08430764826968318</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3216426571946869</v>
+        <v>0.1618071500104422</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01090181531474082</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3226038400270413</v>
+        <v>0.04693948922112204</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0153602041230641</v>
+        <v>0.02542655071793665</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3238554585172504</v>
+        <v>0.1658688737543736</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03280922231222466</v>
+        <v>0.05525535504058235</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3246374802563809</v>
+        <v>0.1627087521445779</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05115824050138523</v>
+        <v>0.08438415936322796</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3232671150593066</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1626243578387777</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0469263313263852</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005293844114040311</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04692659985484921</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.00558479323259619</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04692686838331323</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005872757102515815</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04692713691177725</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006157645470672615</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04692740544024127</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006439368083915084</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04692767396870529</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006717834689116318</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04692794249716931</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.006992955033125109</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04692821102563332</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007264638862814289</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04692847955409734</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007532795925032913</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04692874808256135</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007797335966653531</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04692901661102537</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008058168734525514</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04692928513948939</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008315203975521067</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04692955366795341</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008568351436489909</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04692982219641742</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008817520864303915</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04693009072488144</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.00906262200581312</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04693035925334545</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009303564607889066</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04693062778180947</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009540258417382153</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04693089631027349</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009772613181158539</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04693116483873751</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01000053864608402</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04693143336720153</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01022394455900955</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04693170189566554</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01044274066680573</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04693197042412956</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01065683671632391</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04693223895259357</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01086614245443429</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04693250748105759</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01107056762798864</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04693277600952161</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01127039051750815</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04693304453798563</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01146773207175347</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04693331306644964</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01166287057124554</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04693358159491366</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01185571576283673</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04693385012337768</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01204617739339631</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.0469341186518417</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01223416520977687</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04693438718030572</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01241958895884747</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04693465570876974</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01260235838746091</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04693492423723375</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01278238324248214</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04693519276569776</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01295957327077586</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04693546129416178</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01313383821919524</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.0469357298226258</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01330508783460873</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04693599835108982</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01347323186386976</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04693626687955383</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01363818005384652</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04693653540801785</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01379984215139272</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04693680393648186</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01395812790337625</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04693707246494588</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01411294705665112</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.0469373409934099</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01426420935808492</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04693760952187392</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01441182455453197</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04693787805033794</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01455570239285954</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04693814657880196</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01469575261992228</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04693841510726597</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01483188498258713</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04693868363572999</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01496400922770907</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.046938952164194</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01509203510215469</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04693922069265802</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01521587235277932</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04693948922112204</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01521587235277933</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0469263313263852</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01531379574183662</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04694235786074042</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01540814534141319</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04695838439509564</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01549887711427576</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04697441092945085</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.0155859470231909</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04699043746380607</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01566931103092528</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04700646399816129</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01574892510024557</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04702249053251651</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01582474519391838</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04703851706687173</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.0158967272747104</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04705454360122694</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01596482730538827</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04707057013558216</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01602900124871859</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04708659666993738</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01608920506746807</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0471026232042926</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01614539472440332</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04711864973864782</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01619752618229098</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04713467627300303</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01624555540389773</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04715070280735825</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01628943835199018</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04716672934171347</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01632913098933501</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04718275587606869</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01636458927869887</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04719878241042391</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01639576918284838</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04721480894477912</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.0164226266645502</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04723083547913434</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01644511768657098</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04724686201348956</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01646319821167736</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04726288854784478</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.016476824202636</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.0472789150822</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01648595162221354</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04729494161655522</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01649053643317661</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04731096815091043</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01649071441699475</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04732699468526565</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01648752044865173</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04734302121962087</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01648109030961704</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04735904775397609</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01647137996265734</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04737507428833131</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01645834537053928</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04739110082268652</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.0164419424960295</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04740712735704174</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01642212730189465</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04742315389139697</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01639885575090139</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04743918042575218</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01637208380581634</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.0474552069601074</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01634176742940618</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04747123349446262</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01630786258443753</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04748726002881783</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01627032523367705</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04750328656317306</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.0162291113398914</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04751931309752827</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01618417686584719</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04753533963188349</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01613547777431109</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04755136616623871</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01608297002804977</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04756739270059392</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01602660958982983</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04758341923494915</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01596635242241794</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04759944576930436</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01590215448858079</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04761547230365958</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01583397175108495</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.0476314988380148</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01576176017269713</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04764752537237001</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01568547571618393</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04766355190672524</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01560507434431202</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04767957844108045</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01552051201984806</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04769560497543567</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01543174470555867</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04771163150979089</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01543174470555867</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04771163150979089</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01581150756680814</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04929397601102849</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01618393947635811</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05087632051226609</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01654886562441896</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05245866501350369</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01690611120120111</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05404100951474129</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01725550139691497</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05562335401597888</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01759686140177095</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05720569851721648</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01793001640597946</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.05878804301845409</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.0182547915997509</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06037038751969169</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0185710121732957</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.0619527320209293</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01887850331682424</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06353507652216689</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.01917709022054694</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.0651174210234045</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.01946659807467421</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06669976552464209</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.01974685206941647</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.06828211002587969</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02001767739498412</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.0698644545271173</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02027889924158755</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07144679902835489</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02053034279943721</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07302914352959249</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02077183325874348</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07461148803083009</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02100319580971675</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07619383253206768</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02122425564256749</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.0777761770333053</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02143483794750605</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.07935852153454288</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02163476791474287</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08094086603578049</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02182387073448833</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.0825232105370181</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02200197159695286</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08410555503825569</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02216889569234689</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.0856878995394933</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02232446821088079</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08727024404073089</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02246851434276498</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.08885258854196849</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02260085927820989</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.0904349330432061</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0227213282074259</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09201727754444369</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02282974632062345</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09359962204568129</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02292593880801291</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09518196654691889</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.0230097308598047</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09676431104815648</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02308094766620925</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.0983466555493941</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02313941441743696</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.0999290000506317</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02318495630369823</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1015113445518693</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02321739851520347</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1030936890531069</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02324232627407822</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1046760335543445</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.0232423099927143</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1062583780555821</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02323930168933584</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1078407225568197</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02323135896553077</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1094230670580573</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02321885658316101</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1110054115592949</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02320216930408851</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1125877560605325</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02318167189017515</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1141701005617701</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02315773910328291</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1157524450630077</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0231307457052737</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1173347895642453</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02310106645800947</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1189171340654829</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02306907612335212</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1204994785667205</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02303514946316362</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1220818230679581</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02299966123930585</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1236641675691957</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02296298621364077</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1252465120704333</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02292549914803032</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1268288565716709</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02288732206147346</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1284112010729085</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02283722438918023</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1299935455741461</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02277181855568151</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1315758900753837</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02269500275432502</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1331582345766213</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02261067517845839</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1347405790778589</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02252273402142927</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1363229235790965</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02243507747658537</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1379052680803341</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02235160373727429</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1394876125815717</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02227621099684377</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1410699570828093</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02221279744864143</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1426523015840469</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.0221652612860149</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1442346460852845</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02212972236567372</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1458169905865221</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02209635523215849</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1473993350877597</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02206494713341433</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1489816795889973</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02203537315615269</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02200750838708494</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1521463685914725</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.0219812279129225</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1537287130927101</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02195640682037681</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1553110575939477</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02193292019615924</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1568934020951853</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02191064312698122</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1584757465964229</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02188945069955418</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1600580910976605</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02186921800058949</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1616404355988981</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02184982011679856</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1632227801001357</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02183113213489284</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1648051246013733</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02181302914158374</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1663874691026109</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.0217953862235826</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1679698136038485</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02177807846760093</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1695521581050861</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02176098096035006</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1711345026063237</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02174396878854142</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1727168471075613</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02172691703888645</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1742991916087989</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02170970079809654</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1758815361100365</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.0216921951528831</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1774638806112741</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02167464105879933</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1790462251125117</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02165738032378702</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1806285696137493</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02164042380737225</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1822109141149869</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02162378234965773</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1837932586162245</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02160746679074622</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1853756031174621</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02159148797074043</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1869579476186997</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02157585672974314</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1885402921199373</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02156058390785703</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1901226366211749</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02154568034518487</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1917049811224125</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02153115688182936</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1932873256236501</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02151702435789327</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1948696701248877</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02150329361347928</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1964520146261253</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02148997548869019</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.1980343591273629</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.0214770808236287</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.1996167036286005</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02146462045839754</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2011990481298381</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02145260523309945</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2027813926310757</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02144104598783716</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2043637371323133</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
